--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="208">
   <si>
     <t>Database</t>
   </si>
@@ -1048,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="I252" sqref="I252"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5708,6 +5708,9 @@
       <c r="A254" t="s">
         <v>12</v>
       </c>
+      <c r="B254" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" t="s">

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -270,12 +270,6 @@
     <t>molybdenum trioxide</t>
   </si>
   <si>
-    <t>market for nickel, 99.5%</t>
-  </si>
-  <si>
-    <t>nickel, 99.5%</t>
-  </si>
-  <si>
     <t>market for portafer</t>
   </si>
   <si>
@@ -649,6 +643,12 @@
   </si>
   <si>
     <t>Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D</t>
+  </si>
+  <si>
+    <t>market for nickel, class 1</t>
+  </si>
+  <si>
+    <t>nickel, class 1</t>
   </si>
 </sst>
 </file>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="M199" sqref="M199"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="N159" sqref="N159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1108,7 +1108,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1132,15 +1132,15 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1191,12 +1191,12 @@
         <v>18</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15">
         <f>120*1.02</f>
@@ -1215,7 +1215,7 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1303,7 +1303,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B20">
         <f>250/1000</f>
@@ -1316,13 +1316,13 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1362,7 +1362,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1386,15 +1386,15 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1427,7 +1427,7 @@
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1445,12 +1445,12 @@
         <v>18</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B34">
         <f>120*1.02</f>
@@ -1469,7 +1469,7 @@
         <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1557,7 +1557,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B39">
         <f>250/1000</f>
@@ -1570,13 +1570,13 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1616,7 +1616,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1640,15 +1640,15 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1681,7 +1681,7 @@
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>18</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1811,7 +1811,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B58">
         <f>250/1000</f>
@@ -1824,13 +1824,13 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
       </c>
       <c r="G58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -1894,15 +1894,15 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B68" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1935,7 +1935,7 @@
     </row>
     <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1953,7 +1953,7 @@
         <v>18</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -2065,7 +2065,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B77">
         <f>250/1000</f>
@@ -2078,13 +2078,13 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -2137,10 +2137,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2949,7 +2949,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B119">
         <v>1.6910012049805864E-6</v>
@@ -2967,12 +2967,12 @@
         <v>22</v>
       </c>
       <c r="H119" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B120">
         <v>2.6029999999999999E-6</v>
@@ -2990,12 +2990,12 @@
         <v>22</v>
       </c>
       <c r="H120" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B121">
         <v>3.9999999999999998E-7</v>
@@ -3013,12 +3013,12 @@
         <v>22</v>
       </c>
       <c r="H121" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B122">
         <v>9.6599999999999991E-8</v>
@@ -3036,12 +3036,12 @@
         <v>22</v>
       </c>
       <c r="H122" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B123">
         <v>6.2820341285380832E-2</v>
@@ -3050,7 +3050,7 @@
         <v>67</v>
       </c>
       <c r="D123" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
@@ -3059,12 +3059,12 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B124">
         <v>7.35751288389381E-6</v>
@@ -3082,12 +3082,12 @@
         <v>22</v>
       </c>
       <c r="H124" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B125">
         <v>3.095E-6</v>
@@ -3105,12 +3105,12 @@
         <v>22</v>
       </c>
       <c r="H125" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B126">
         <v>-4.9030637321121513E-3</v>
@@ -3128,7 +3128,7 @@
         <v>22</v>
       </c>
       <c r="H126" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3168,7 +3168,7 @@
         <v>12</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -3181,10 +3181,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B135" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3947,7 +3947,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B167">
         <v>1.691001204980586E-6</v>
@@ -3965,12 +3965,12 @@
         <v>22</v>
       </c>
       <c r="H167" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B168">
         <v>2.6029999999999999E-6</v>
@@ -3988,12 +3988,12 @@
         <v>22</v>
       </c>
       <c r="H168" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B169">
         <v>3.9999999999999998E-7</v>
@@ -4011,12 +4011,12 @@
         <v>22</v>
       </c>
       <c r="H169" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B170">
         <v>9.6599999999999991E-8</v>
@@ -4034,12 +4034,12 @@
         <v>22</v>
       </c>
       <c r="H170" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B171">
         <v>6.282011295918416E-2</v>
@@ -4048,7 +4048,7 @@
         <v>67</v>
       </c>
       <c r="D171" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E171" t="s">
         <v>11</v>
@@ -4057,12 +4057,12 @@
         <v>22</v>
       </c>
       <c r="H171" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B172">
         <v>7.35751288389381E-6</v>
@@ -4080,12 +4080,12 @@
         <v>22</v>
       </c>
       <c r="H172" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B173">
         <v>3.095E-6</v>
@@ -4103,12 +4103,12 @@
         <v>22</v>
       </c>
       <c r="H173" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B174">
         <v>-1.084676955722356E-2</v>
@@ -4126,7 +4126,7 @@
         <v>22</v>
       </c>
       <c r="H174" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -4134,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -4158,7 +4158,7 @@
         <v>7</v>
       </c>
       <c r="B179" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -4171,10 +4171,10 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B181" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -4301,7 +4301,7 @@
         <v>18</v>
       </c>
       <c r="H187" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -4312,7 +4312,7 @@
         <v>4.4572893015137695E-12</v>
       </c>
       <c r="C188" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
@@ -4335,7 +4335,7 @@
         <v>4.4393999999999994E-6</v>
       </c>
       <c r="C189" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D189" t="s">
         <v>70</v>
@@ -4358,7 +4358,7 @@
         <v>2.9999999999999999E-7</v>
       </c>
       <c r="C190" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D190" t="s">
         <v>30</v>
@@ -4381,7 +4381,7 @@
         <v>3.0199999999999999E-6</v>
       </c>
       <c r="C191" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D191" t="s">
         <v>30</v>
@@ -4404,7 +4404,7 @@
         <v>2.1219E-11</v>
       </c>
       <c r="C192" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D192" t="s">
         <v>30</v>
@@ -4427,7 +4427,7 @@
         <v>2.3300000000000001E-7</v>
       </c>
       <c r="C193" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D193" t="s">
         <v>30</v>
@@ -4450,7 +4450,7 @@
         <v>1.3899999999999999E-7</v>
       </c>
       <c r="C194" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D194" t="s">
         <v>30</v>
@@ -4467,13 +4467,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B195">
         <v>1.6910012049805864E-6</v>
       </c>
       <c r="C195" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D195" t="s">
         <v>30</v>
@@ -4485,18 +4485,18 @@
         <v>22</v>
       </c>
       <c r="H195" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B196">
         <v>2.6029999999999999E-6</v>
       </c>
       <c r="C196" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D196" t="s">
         <v>30</v>
@@ -4508,18 +4508,18 @@
         <v>22</v>
       </c>
       <c r="H196" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B197">
         <v>3.9999999999999998E-7</v>
       </c>
       <c r="C197" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D197" t="s">
         <v>3</v>
@@ -4531,18 +4531,18 @@
         <v>22</v>
       </c>
       <c r="H197" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B198">
         <v>9.6599999999999991E-8</v>
       </c>
       <c r="C198" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D198" t="s">
         <v>30</v>
@@ -4554,21 +4554,21 @@
         <v>22</v>
       </c>
       <c r="H198" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B199">
         <v>6.2821198379039253E-2</v>
       </c>
       <c r="C199" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D199" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E199" t="s">
         <v>11</v>
@@ -4577,18 +4577,18 @@
         <v>22</v>
       </c>
       <c r="H199" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B200">
         <v>7.35751288389381E-6</v>
       </c>
       <c r="C200" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D200" t="s">
         <v>30</v>
@@ -4600,18 +4600,18 @@
         <v>22</v>
       </c>
       <c r="H200" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B201">
         <v>3.095E-6</v>
       </c>
       <c r="C201" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D201" t="s">
         <v>30</v>
@@ -4623,18 +4623,18 @@
         <v>22</v>
       </c>
       <c r="H201" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B202">
         <v>-5.6041324981717594E-3</v>
       </c>
       <c r="C202" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
@@ -4646,7 +4646,7 @@
         <v>22</v>
       </c>
       <c r="H202" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -4677,7 +4677,7 @@
         <v>1</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -4701,7 +4701,7 @@
         <v>7</v>
       </c>
       <c r="B208" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -4714,10 +4714,10 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B210" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -4844,7 +4844,7 @@
         <v>18</v>
       </c>
       <c r="H216" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -4855,7 +4855,7 @@
         <v>6.931778213579072E-2</v>
       </c>
       <c r="C217" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D217" t="s">
         <v>3</v>
@@ -4878,7 +4878,7 @@
         <v>4.457301940013404E-12</v>
       </c>
       <c r="C218" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
@@ -4901,7 +4901,7 @@
         <v>4.4393999999999994E-6</v>
       </c>
       <c r="C219" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D219" t="s">
         <v>70</v>
@@ -4924,7 +4924,7 @@
         <v>2.9999999999999999E-7</v>
       </c>
       <c r="C220" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D220" t="s">
         <v>30</v>
@@ -4947,7 +4947,7 @@
         <v>3.0199999999999999E-6</v>
       </c>
       <c r="C221" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D221" t="s">
         <v>30</v>
@@ -4970,7 +4970,7 @@
         <v>2.3642079843686714E-6</v>
       </c>
       <c r="C222" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D222" t="s">
         <v>30</v>
@@ -4993,7 +4993,7 @@
         <v>2.1219E-11</v>
       </c>
       <c r="C223" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D223" t="s">
         <v>30</v>
@@ -5016,7 +5016,7 @@
         <v>2.3300000000000001E-7</v>
       </c>
       <c r="C224" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D224" t="s">
         <v>30</v>
@@ -5039,7 +5039,7 @@
         <v>1.3899999999999999E-7</v>
       </c>
       <c r="C225" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D225" t="s">
         <v>30</v>
@@ -5056,13 +5056,13 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B226">
         <v>1.6910012049805864E-6</v>
       </c>
       <c r="C226" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D226" t="s">
         <v>30</v>
@@ -5074,18 +5074,18 @@
         <v>22</v>
       </c>
       <c r="H226" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B227">
         <v>2.6029999999999999E-6</v>
       </c>
       <c r="C227" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D227" t="s">
         <v>30</v>
@@ -5097,18 +5097,18 @@
         <v>22</v>
       </c>
       <c r="H227" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B228">
         <v>3.9999999999999998E-7</v>
       </c>
       <c r="C228" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -5120,18 +5120,18 @@
         <v>22</v>
       </c>
       <c r="H228" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B229">
         <v>9.6599999999999991E-8</v>
       </c>
       <c r="C229" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D229" t="s">
         <v>30</v>
@@ -5143,21 +5143,21 @@
         <v>22</v>
       </c>
       <c r="H229" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B230">
         <v>6.2821065668035345E-2</v>
       </c>
       <c r="C230" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D230" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E230" t="s">
         <v>11</v>
@@ -5166,18 +5166,18 @@
         <v>22</v>
       </c>
       <c r="H230" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B231">
         <v>7.35751288389381E-6</v>
       </c>
       <c r="C231" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D231" t="s">
         <v>30</v>
@@ -5189,18 +5189,18 @@
         <v>22</v>
       </c>
       <c r="H231" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B232">
         <v>3.095E-6</v>
       </c>
       <c r="C232" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D232" t="s">
         <v>30</v>
@@ -5212,18 +5212,18 @@
         <v>22</v>
       </c>
       <c r="H232" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B233">
         <v>-1.2852843910989183E-3</v>
       </c>
       <c r="C233" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D233" t="s">
         <v>3</v>
@@ -5235,7 +5235,7 @@
         <v>22</v>
       </c>
       <c r="H233" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -5275,7 +5275,7 @@
         <v>12</v>
       </c>
       <c r="B237" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C237" s="5"/>
     </row>
@@ -5379,10 +5379,10 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C245" s="13">
         <v>1.8232044198895025</v>
@@ -5400,12 +5400,12 @@
         <v>22</v>
       </c>
       <c r="I245" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B246" s="10" t="s">
         <v>68</v>
@@ -5427,7 +5427,7 @@
         <v>22</v>
       </c>
       <c r="I246" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J246" s="7"/>
       <c r="K246" s="7"/>
@@ -5436,10 +5436,10 @@
     </row>
     <row r="247" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C247" s="15">
         <v>8.8397790055248608E-4</v>
@@ -5457,7 +5457,7 @@
         <v>22</v>
       </c>
       <c r="I247" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J247" s="11"/>
       <c r="K247" s="11"/>
@@ -5465,10 +5465,10 @@
     </row>
     <row r="248" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B248" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="B248" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="C248" s="15">
         <v>5.4696132596685078E-2</v>
@@ -5486,7 +5486,7 @@
         <v>22</v>
       </c>
       <c r="I248" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J248" s="11"/>
       <c r="K248" s="11"/>
@@ -5494,10 +5494,10 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C249" s="15">
         <v>5.4696132596685076E-5</v>
@@ -5516,7 +5516,7 @@
         <v>22</v>
       </c>
       <c r="I249" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J249" s="10"/>
       <c r="K249" s="10"/>
@@ -5525,10 +5525,10 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C250" s="15">
         <v>2.3245856353591159E-2</v>
@@ -5546,15 +5546,15 @@
         <v>22</v>
       </c>
       <c r="I250" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="251" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B251" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C251" s="15">
         <v>9.171270718232042E-3</v>
@@ -5572,7 +5572,7 @@
         <v>22</v>
       </c>
       <c r="I251" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J251" s="11"/>
       <c r="K251" s="11"/>
@@ -5580,10 +5580,10 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B252" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C252" s="15">
         <v>0.12</v>
@@ -5601,12 +5601,12 @@
         <v>22</v>
       </c>
       <c r="I252" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C253" s="15">
         <v>2.8679999999999998E-4</v>
@@ -5624,7 +5624,7 @@
         <v>40</v>
       </c>
       <c r="I253" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.3">
@@ -5647,12 +5647,12 @@
         <v>40</v>
       </c>
       <c r="I254" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C255" s="15">
         <v>3.4875000000000001E-6</v>
@@ -5670,7 +5670,7 @@
         <v>40</v>
       </c>
       <c r="I255" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
@@ -5694,12 +5694,12 @@
         <v>40</v>
       </c>
       <c r="I256" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C257" s="15">
         <v>6.0000000000000002E-6</v>
@@ -5717,12 +5717,12 @@
         <v>40</v>
       </c>
       <c r="I257" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C258" s="15">
         <v>1.2300000000000001E-4</v>
@@ -5740,12 +5740,12 @@
         <v>40</v>
       </c>
       <c r="I258" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C259">
         <v>55.5</v>
@@ -5757,13 +5757,13 @@
         <v>37</v>
       </c>
       <c r="F259" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H259" t="s">
         <v>40</v>
       </c>
       <c r="I259" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -5771,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -5779,7 +5779,7 @@
         <v>12</v>
       </c>
       <c r="B262" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -5795,7 +5795,7 @@
         <v>7</v>
       </c>
       <c r="B264" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -5850,10 +5850,10 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B269" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C270">
         <v>5.3592000000000004</v>
@@ -5888,13 +5888,13 @@
         <v>37</v>
       </c>
       <c r="F270" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H270" t="s">
         <v>40</v>
       </c>
       <c r="I270" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
@@ -5946,7 +5946,7 @@
         <v>7</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
@@ -5990,22 +5990,22 @@
         <v>8</v>
       </c>
       <c r="G280" t="s">
+        <v>139</v>
+      </c>
+      <c r="H280" t="s">
+        <v>140</v>
+      </c>
+      <c r="I280" t="s">
         <v>141</v>
       </c>
-      <c r="H280" t="s">
+      <c r="J280" t="s">
         <v>142</v>
-      </c>
-      <c r="I280" t="s">
-        <v>143</v>
-      </c>
-      <c r="J280" t="s">
-        <v>144</v>
       </c>
       <c r="K280" t="s">
         <v>12</v>
       </c>
       <c r="L280" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M280" t="s">
         <v>7</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B281">
         <v>7.9299999999999995E-13</v>
@@ -6022,7 +6022,7 @@
         <v>11</v>
       </c>
       <c r="E281" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F281" t="s">
         <v>40</v>
@@ -6037,7 +6037,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K281" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L281">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>11</v>
       </c>
       <c r="E282" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F282" t="s">
         <v>40</v>
@@ -6069,7 +6069,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K282" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L282">
         <v>0</v>
@@ -6086,7 +6086,7 @@
         <v>11</v>
       </c>
       <c r="E283" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F283" t="s">
         <v>40</v>
@@ -6101,7 +6101,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K283" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L283">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>11</v>
       </c>
       <c r="E284" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F284" t="s">
         <v>40</v>
@@ -6133,7 +6133,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K284" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L284">
         <v>0</v>
@@ -6150,7 +6150,7 @@
         <v>11</v>
       </c>
       <c r="E285" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F285" t="s">
         <v>40</v>
@@ -6165,7 +6165,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K285" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L285">
         <v>0</v>
@@ -6182,7 +6182,7 @@
         <v>11</v>
       </c>
       <c r="E286" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F286" t="s">
         <v>40</v>
@@ -6197,7 +6197,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K286" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L286">
         <v>0</v>
@@ -6229,7 +6229,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K287" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L287">
         <v>0</v>
@@ -6237,7 +6237,7 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B288">
         <v>2.2000000000000001E-6</v>
@@ -6246,7 +6246,7 @@
         <v>11</v>
       </c>
       <c r="E288" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F288" t="s">
         <v>40</v>
@@ -6261,7 +6261,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K288" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L288">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>11</v>
       </c>
       <c r="E289" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F289" t="s">
         <v>40</v>
@@ -6293,7 +6293,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K289" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L289">
         <v>0</v>
@@ -6301,7 +6301,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B290">
         <v>2.9000000000000003E-17</v>
@@ -6310,7 +6310,7 @@
         <v>11</v>
       </c>
       <c r="E290" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F290" t="s">
         <v>40</v>
@@ -6325,7 +6325,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K290" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L290">
         <v>0</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B291">
         <v>1.37E-6</v>
@@ -6342,7 +6342,7 @@
         <v>11</v>
       </c>
       <c r="E291" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F291" t="s">
         <v>40</v>
@@ -6357,7 +6357,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K291" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L291">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>11</v>
       </c>
       <c r="E292" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F292" t="s">
         <v>40</v>
@@ -6389,7 +6389,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K292" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L292">
         <v>0</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B293">
         <v>0.52500000000000002</v>
@@ -6406,7 +6406,7 @@
         <v>21</v>
       </c>
       <c r="E293" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F293" t="s">
         <v>40</v>
@@ -6421,7 +6421,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K293" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L293">
         <v>0</v>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B294">
         <v>7.9299999999999997E-7</v>
@@ -6438,7 +6438,7 @@
         <v>11</v>
       </c>
       <c r="E294" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F294" t="s">
         <v>40</v>
@@ -6453,7 +6453,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K294" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L294">
         <v>0</v>
@@ -6470,7 +6470,7 @@
         <v>11</v>
       </c>
       <c r="E295" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F295" t="s">
         <v>40</v>
@@ -6485,7 +6485,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K295" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L295">
         <v>0</v>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B296">
         <v>9.9999999999999995E-7</v>
@@ -6502,7 +6502,7 @@
         <v>11</v>
       </c>
       <c r="E296" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F296" t="s">
         <v>40</v>
@@ -6517,7 +6517,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K296" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L296">
         <v>0</v>
@@ -6534,7 +6534,7 @@
         <v>11</v>
       </c>
       <c r="E297" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F297" t="s">
         <v>40</v>
@@ -6549,7 +6549,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K297" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L297">
         <v>0</v>
@@ -6566,7 +6566,7 @@
         <v>11</v>
       </c>
       <c r="E298" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F298" t="s">
         <v>40</v>
@@ -6581,7 +6581,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K298" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L298">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         <v>11</v>
       </c>
       <c r="E299" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F299" t="s">
         <v>40</v>
@@ -6613,7 +6613,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K299" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L299">
         <v>0</v>
@@ -6630,7 +6630,7 @@
         <v>11</v>
       </c>
       <c r="E300" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F300" t="s">
         <v>40</v>
@@ -6645,7 +6645,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K300" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L300">
         <v>0</v>
@@ -6662,7 +6662,7 @@
         <v>11</v>
       </c>
       <c r="E301" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F301" t="s">
         <v>40</v>
@@ -6677,7 +6677,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K301" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L301">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>11</v>
       </c>
       <c r="E302" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F302" t="s">
         <v>40</v>
@@ -6709,7 +6709,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K302" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L302">
         <v>0</v>
@@ -6726,7 +6726,7 @@
         <v>11</v>
       </c>
       <c r="E303" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F303" t="s">
         <v>40</v>
@@ -6741,7 +6741,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K303" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L303">
         <v>0</v>
@@ -6758,7 +6758,7 @@
         <v>11</v>
       </c>
       <c r="E304" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F304" t="s">
         <v>40</v>
@@ -6773,7 +6773,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K304" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L304">
         <v>0</v>
@@ -6781,7 +6781,7 @@
     </row>
     <row r="305" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -6793,7 +6793,7 @@
         <v>21</v>
       </c>
       <c r="E305" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F305" t="s">
         <v>18</v>
@@ -6802,12 +6802,12 @@
         <v>100</v>
       </c>
       <c r="K305" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B306">
         <v>2.1900000000000002E-12</v>
@@ -6819,7 +6819,7 @@
         <v>10</v>
       </c>
       <c r="E306" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F306" t="s">
         <v>22</v>
@@ -6834,7 +6834,7 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K306" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L306">
         <v>0</v>
@@ -6842,7 +6842,7 @@
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B307">
         <v>2.5000000000000002E-6</v>
@@ -6854,7 +6854,7 @@
         <v>11</v>
       </c>
       <c r="E307" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F307" t="s">
         <v>22</v>
@@ -6869,7 +6869,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K307" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L307">
         <v>0</v>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B308">
         <v>1.9999999999999999E-6</v>
@@ -6889,7 +6889,7 @@
         <v>11</v>
       </c>
       <c r="E308" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F308" t="s">
         <v>22</v>
@@ -6904,7 +6904,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K308" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L308">
         <v>0</v>
@@ -6912,7 +6912,7 @@
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B309">
         <v>0.5</v>
@@ -6924,7 +6924,7 @@
         <v>11</v>
       </c>
       <c r="E309" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F309" t="s">
         <v>22</v>
@@ -6939,13 +6939,13 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K309" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L309">
         <v>0</v>
       </c>
       <c r="M309" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.3">
@@ -6962,7 +6962,7 @@
         <v>60</v>
       </c>
       <c r="E310" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F310" t="s">
         <v>22</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="K310" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L310">
         <v>0</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B311">
         <v>-9.9999999999999995E-7</v>
@@ -6997,7 +6997,7 @@
         <v>11</v>
       </c>
       <c r="E311" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F311" t="s">
         <v>22</v>
@@ -7012,7 +7012,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K311" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L311">
         <v>0</v>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.3">
@@ -7039,7 +7039,7 @@
         <v>7</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.3">
@@ -7091,22 +7091,22 @@
         <v>8</v>
       </c>
       <c r="G320" t="s">
+        <v>139</v>
+      </c>
+      <c r="H320" t="s">
+        <v>140</v>
+      </c>
+      <c r="I320" t="s">
         <v>141</v>
       </c>
-      <c r="H320" t="s">
+      <c r="J320" t="s">
         <v>142</v>
-      </c>
-      <c r="I320" t="s">
-        <v>143</v>
-      </c>
-      <c r="J320" t="s">
-        <v>144</v>
       </c>
       <c r="K320" t="s">
         <v>12</v>
       </c>
       <c r="L320" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M320" t="s">
         <v>7</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B321">
         <v>7.9299999999999995E-13</v>
@@ -7123,7 +7123,7 @@
         <v>11</v>
       </c>
       <c r="E321" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F321" t="s">
         <v>40</v>
@@ -7138,7 +7138,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K321" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L321">
         <v>0</v>
@@ -7155,7 +7155,7 @@
         <v>11</v>
       </c>
       <c r="E322" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F322" t="s">
         <v>40</v>
@@ -7170,7 +7170,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K322" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L322">
         <v>0</v>
@@ -7187,7 +7187,7 @@
         <v>11</v>
       </c>
       <c r="E323" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F323" t="s">
         <v>40</v>
@@ -7202,7 +7202,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K323" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L323">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>11</v>
       </c>
       <c r="E324" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F324" t="s">
         <v>40</v>
@@ -7234,7 +7234,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K324" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L324">
         <v>0</v>
@@ -7251,7 +7251,7 @@
         <v>11</v>
       </c>
       <c r="E325" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F325" t="s">
         <v>40</v>
@@ -7266,7 +7266,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K325" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L325">
         <v>0</v>
@@ -7283,7 +7283,7 @@
         <v>11</v>
       </c>
       <c r="E326" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F326" t="s">
         <v>40</v>
@@ -7298,7 +7298,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K326" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L326">
         <v>0</v>
@@ -7330,7 +7330,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K327" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L327">
         <v>0</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B328">
         <v>2.2000000000000001E-6</v>
@@ -7347,7 +7347,7 @@
         <v>11</v>
       </c>
       <c r="E328" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F328" t="s">
         <v>40</v>
@@ -7362,7 +7362,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K328" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L328">
         <v>0</v>
@@ -7379,7 +7379,7 @@
         <v>11</v>
       </c>
       <c r="E329" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F329" t="s">
         <v>40</v>
@@ -7394,7 +7394,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K329" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L329">
         <v>0</v>
@@ -7402,7 +7402,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B330">
         <v>2.9000000000000003E-17</v>
@@ -7411,7 +7411,7 @@
         <v>11</v>
       </c>
       <c r="E330" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F330" t="s">
         <v>40</v>
@@ -7426,7 +7426,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K330" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L330">
         <v>0</v>
@@ -7434,7 +7434,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B331">
         <v>1.37E-6</v>
@@ -7443,7 +7443,7 @@
         <v>11</v>
       </c>
       <c r="E331" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F331" t="s">
         <v>40</v>
@@ -7458,7 +7458,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K331" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L331">
         <v>0</v>
@@ -7475,7 +7475,7 @@
         <v>11</v>
       </c>
       <c r="E332" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F332" t="s">
         <v>40</v>
@@ -7490,7 +7490,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K332" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L332">
         <v>0</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B333">
         <v>0.52500000000000002</v>
@@ -7507,7 +7507,7 @@
         <v>21</v>
       </c>
       <c r="E333" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F333" t="s">
         <v>40</v>
@@ -7522,7 +7522,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K333" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L333">
         <v>0</v>
@@ -7530,7 +7530,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B334">
         <v>7.9299999999999997E-7</v>
@@ -7539,7 +7539,7 @@
         <v>11</v>
       </c>
       <c r="E334" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F334" t="s">
         <v>40</v>
@@ -7554,7 +7554,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K334" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L334">
         <v>0</v>
@@ -7571,7 +7571,7 @@
         <v>11</v>
       </c>
       <c r="E335" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F335" t="s">
         <v>40</v>
@@ -7586,7 +7586,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K335" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L335">
         <v>0</v>
@@ -7594,7 +7594,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B336">
         <v>9.9999999999999995E-7</v>
@@ -7603,7 +7603,7 @@
         <v>11</v>
       </c>
       <c r="E336" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F336" t="s">
         <v>40</v>
@@ -7618,7 +7618,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K336" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L336">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>11</v>
       </c>
       <c r="E337" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F337" t="s">
         <v>40</v>
@@ -7650,7 +7650,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K337" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L337">
         <v>0</v>
@@ -7667,7 +7667,7 @@
         <v>11</v>
       </c>
       <c r="E338" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F338" t="s">
         <v>40</v>
@@ -7682,7 +7682,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K338" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L338">
         <v>0</v>
@@ -7699,7 +7699,7 @@
         <v>11</v>
       </c>
       <c r="E339" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F339" t="s">
         <v>40</v>
@@ -7714,7 +7714,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K339" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L339">
         <v>0</v>
@@ -7731,7 +7731,7 @@
         <v>11</v>
       </c>
       <c r="E340" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F340" t="s">
         <v>40</v>
@@ -7746,7 +7746,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K340" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L340">
         <v>0</v>
@@ -7763,7 +7763,7 @@
         <v>11</v>
       </c>
       <c r="E341" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F341" t="s">
         <v>40</v>
@@ -7778,7 +7778,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K341" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L341">
         <v>0</v>
@@ -7795,7 +7795,7 @@
         <v>11</v>
       </c>
       <c r="E342" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F342" t="s">
         <v>40</v>
@@ -7810,7 +7810,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K342" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L342">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>11</v>
       </c>
       <c r="E343" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F343" t="s">
         <v>40</v>
@@ -7842,7 +7842,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K343" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L343">
         <v>0</v>
@@ -7859,7 +7859,7 @@
         <v>11</v>
       </c>
       <c r="E344" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F344" t="s">
         <v>40</v>
@@ -7874,7 +7874,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K344" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L344">
         <v>0</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="345" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -7894,7 +7894,7 @@
         <v>21</v>
       </c>
       <c r="E345" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F345" t="s">
         <v>18</v>
@@ -7903,12 +7903,12 @@
         <v>100</v>
       </c>
       <c r="K345" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B346">
         <v>5.04E-2</v>
@@ -7920,7 +7920,7 @@
         <v>11</v>
       </c>
       <c r="E346" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F346" t="s">
         <v>22</v>
@@ -7932,12 +7932,12 @@
         <v>5.04E-2</v>
       </c>
       <c r="K346" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B347">
         <v>7.7000000000000001E-5</v>
@@ -7949,7 +7949,7 @@
         <v>11</v>
       </c>
       <c r="E347" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F347" t="s">
         <v>22</v>
@@ -7961,12 +7961,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K347" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B348">
         <v>2.1900000000000002E-12</v>
@@ -7978,7 +7978,7 @@
         <v>10</v>
       </c>
       <c r="E348" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F348" t="s">
         <v>22</v>
@@ -7993,7 +7993,7 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K348" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L348">
         <v>0</v>
@@ -8001,7 +8001,7 @@
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B349">
         <v>2.5000000000000002E-6</v>
@@ -8013,7 +8013,7 @@
         <v>11</v>
       </c>
       <c r="E349" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F349" t="s">
         <v>22</v>
@@ -8028,7 +8028,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K349" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L349">
         <v>0</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B350">
         <v>1.9999999999999999E-6</v>
@@ -8048,7 +8048,7 @@
         <v>11</v>
       </c>
       <c r="E350" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F350" t="s">
         <v>22</v>
@@ -8063,7 +8063,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K350" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L350">
         <v>0</v>
@@ -8071,7 +8071,7 @@
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B351">
         <v>0.5</v>
@@ -8083,7 +8083,7 @@
         <v>11</v>
       </c>
       <c r="E351" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F351" t="s">
         <v>22</v>
@@ -8098,13 +8098,13 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K351" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L351">
         <v>0</v>
       </c>
       <c r="M351" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.3">
@@ -8121,7 +8121,7 @@
         <v>60</v>
       </c>
       <c r="E352" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F352" t="s">
         <v>22</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="K352" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L352">
         <v>0</v>
@@ -8144,7 +8144,7 @@
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B353">
         <v>-9.9999999999999995E-7</v>
@@ -8156,7 +8156,7 @@
         <v>11</v>
       </c>
       <c r="E353" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F353" t="s">
         <v>22</v>
@@ -8171,7 +8171,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K353" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L353">
         <v>0</v>
@@ -8182,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.3">
@@ -8198,7 +8198,7 @@
         <v>7</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.3">
@@ -8250,22 +8250,22 @@
         <v>8</v>
       </c>
       <c r="G362" t="s">
+        <v>139</v>
+      </c>
+      <c r="H362" t="s">
+        <v>140</v>
+      </c>
+      <c r="I362" t="s">
         <v>141</v>
       </c>
-      <c r="H362" t="s">
+      <c r="J362" t="s">
         <v>142</v>
-      </c>
-      <c r="I362" t="s">
-        <v>143</v>
-      </c>
-      <c r="J362" t="s">
-        <v>144</v>
       </c>
       <c r="K362" t="s">
         <v>12</v>
       </c>
       <c r="L362" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M362" t="s">
         <v>7</v>
@@ -8273,7 +8273,7 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B363">
         <v>7.9299999999999995E-13</v>
@@ -8282,7 +8282,7 @@
         <v>11</v>
       </c>
       <c r="E363" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F363" t="s">
         <v>40</v>
@@ -8297,7 +8297,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K363" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L363">
         <v>0</v>
@@ -8314,7 +8314,7 @@
         <v>11</v>
       </c>
       <c r="E364" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F364" t="s">
         <v>40</v>
@@ -8329,7 +8329,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K364" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L364">
         <v>0</v>
@@ -8346,7 +8346,7 @@
         <v>11</v>
       </c>
       <c r="E365" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F365" t="s">
         <v>40</v>
@@ -8361,7 +8361,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K365" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L365">
         <v>0</v>
@@ -8378,7 +8378,7 @@
         <v>11</v>
       </c>
       <c r="E366" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F366" t="s">
         <v>40</v>
@@ -8393,7 +8393,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K366" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L366">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>11</v>
       </c>
       <c r="E367" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F367" t="s">
         <v>40</v>
@@ -8425,7 +8425,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K367" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L367">
         <v>0</v>
@@ -8442,7 +8442,7 @@
         <v>11</v>
       </c>
       <c r="E368" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F368" t="s">
         <v>40</v>
@@ -8457,7 +8457,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K368" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L368">
         <v>0</v>
@@ -8489,7 +8489,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K369" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L369">
         <v>0</v>
@@ -8497,7 +8497,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B370">
         <v>2.2000000000000001E-6</v>
@@ -8506,7 +8506,7 @@
         <v>11</v>
       </c>
       <c r="E370" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F370" t="s">
         <v>40</v>
@@ -8521,7 +8521,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K370" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L370">
         <v>0</v>
@@ -8538,7 +8538,7 @@
         <v>11</v>
       </c>
       <c r="E371" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F371" t="s">
         <v>40</v>
@@ -8553,7 +8553,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K371" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L371">
         <v>0</v>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B372">
         <v>2.9000000000000003E-17</v>
@@ -8570,7 +8570,7 @@
         <v>11</v>
       </c>
       <c r="E372" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F372" t="s">
         <v>40</v>
@@ -8585,7 +8585,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K372" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L372">
         <v>0</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B373">
         <v>1.37E-6</v>
@@ -8602,7 +8602,7 @@
         <v>11</v>
       </c>
       <c r="E373" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F373" t="s">
         <v>40</v>
@@ -8617,7 +8617,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K373" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L373">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>11</v>
       </c>
       <c r="E374" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F374" t="s">
         <v>40</v>
@@ -8649,7 +8649,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K374" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L374">
         <v>0</v>
@@ -8657,7 +8657,7 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B375">
         <v>0.52500000000000002</v>
@@ -8666,7 +8666,7 @@
         <v>21</v>
       </c>
       <c r="E375" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F375" t="s">
         <v>40</v>
@@ -8681,7 +8681,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K375" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L375">
         <v>0</v>
@@ -8689,7 +8689,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B376">
         <v>7.9299999999999997E-7</v>
@@ -8698,7 +8698,7 @@
         <v>11</v>
       </c>
       <c r="E376" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F376" t="s">
         <v>40</v>
@@ -8713,7 +8713,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K376" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L376">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>11</v>
       </c>
       <c r="E377" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F377" t="s">
         <v>40</v>
@@ -8745,7 +8745,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K377" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L377">
         <v>0</v>
@@ -8753,7 +8753,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B378">
         <v>9.9999999999999995E-7</v>
@@ -8762,7 +8762,7 @@
         <v>11</v>
       </c>
       <c r="E378" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F378" t="s">
         <v>40</v>
@@ -8777,7 +8777,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K378" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L378">
         <v>0</v>
@@ -8794,7 +8794,7 @@
         <v>11</v>
       </c>
       <c r="E379" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F379" t="s">
         <v>40</v>
@@ -8809,7 +8809,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K379" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L379">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>11</v>
       </c>
       <c r="E380" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F380" t="s">
         <v>40</v>
@@ -8841,7 +8841,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K380" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L380">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>11</v>
       </c>
       <c r="E381" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F381" t="s">
         <v>40</v>
@@ -8873,7 +8873,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K381" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L381">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>11</v>
       </c>
       <c r="E382" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F382" t="s">
         <v>40</v>
@@ -8905,7 +8905,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K382" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L382">
         <v>0</v>
@@ -8922,7 +8922,7 @@
         <v>11</v>
       </c>
       <c r="E383" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F383" t="s">
         <v>40</v>
@@ -8937,7 +8937,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K383" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L383">
         <v>0</v>
@@ -8954,7 +8954,7 @@
         <v>11</v>
       </c>
       <c r="E384" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F384" t="s">
         <v>40</v>
@@ -8969,7 +8969,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K384" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L384">
         <v>0</v>
@@ -8986,7 +8986,7 @@
         <v>11</v>
       </c>
       <c r="E385" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F385" t="s">
         <v>40</v>
@@ -9001,7 +9001,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K385" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L385">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>11</v>
       </c>
       <c r="E386" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F386" t="s">
         <v>40</v>
@@ -9033,7 +9033,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K386" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L386">
         <v>0</v>
@@ -9041,7 +9041,7 @@
     </row>
     <row r="387" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -9053,7 +9053,7 @@
         <v>21</v>
       </c>
       <c r="E387" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F387" t="s">
         <v>18</v>
@@ -9062,12 +9062,12 @@
         <v>100</v>
       </c>
       <c r="K387" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B388">
         <v>5.04E-2</v>
@@ -9079,7 +9079,7 @@
         <v>11</v>
       </c>
       <c r="E388" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F388" t="s">
         <v>22</v>
@@ -9091,12 +9091,12 @@
         <v>5.04E-2</v>
       </c>
       <c r="K388" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B389">
         <v>7.7000000000000001E-5</v>
@@ -9108,7 +9108,7 @@
         <v>11</v>
       </c>
       <c r="E389" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F389" t="s">
         <v>22</v>
@@ -9120,12 +9120,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K389" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B390">
         <v>2.1900000000000002E-12</v>
@@ -9137,7 +9137,7 @@
         <v>10</v>
       </c>
       <c r="E390" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F390" t="s">
         <v>22</v>
@@ -9152,7 +9152,7 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K390" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L390">
         <v>0</v>
@@ -9160,7 +9160,7 @@
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B391">
         <v>2.5000000000000002E-6</v>
@@ -9172,7 +9172,7 @@
         <v>11</v>
       </c>
       <c r="E391" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F391" t="s">
         <v>22</v>
@@ -9187,7 +9187,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K391" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L391">
         <v>0</v>
@@ -9195,7 +9195,7 @@
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B392">
         <v>1.9999999999999999E-6</v>
@@ -9207,7 +9207,7 @@
         <v>11</v>
       </c>
       <c r="E392" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F392" t="s">
         <v>22</v>
@@ -9222,7 +9222,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K392" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L392">
         <v>0</v>
@@ -9230,7 +9230,7 @@
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B393">
         <v>0.5</v>
@@ -9242,7 +9242,7 @@
         <v>11</v>
       </c>
       <c r="E393" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F393" t="s">
         <v>22</v>
@@ -9257,13 +9257,13 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K393" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L393">
         <v>0</v>
       </c>
       <c r="M393" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.3">
@@ -9280,7 +9280,7 @@
         <v>60</v>
       </c>
       <c r="E394" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F394" t="s">
         <v>22</v>
@@ -9295,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="K394" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L394">
         <v>0</v>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B395">
         <v>-9.9999999999999995E-7</v>
@@ -9315,7 +9315,7 @@
         <v>11</v>
       </c>
       <c r="E395" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F395" t="s">
         <v>22</v>
@@ -9330,7 +9330,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K395" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L395">
         <v>0</v>
@@ -9341,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.3">
@@ -9357,7 +9357,7 @@
         <v>7</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.3">
@@ -9409,22 +9409,22 @@
         <v>8</v>
       </c>
       <c r="G404" t="s">
+        <v>139</v>
+      </c>
+      <c r="H404" t="s">
+        <v>140</v>
+      </c>
+      <c r="I404" t="s">
         <v>141</v>
       </c>
-      <c r="H404" t="s">
+      <c r="J404" t="s">
         <v>142</v>
-      </c>
-      <c r="I404" t="s">
-        <v>143</v>
-      </c>
-      <c r="J404" t="s">
-        <v>144</v>
       </c>
       <c r="K404" t="s">
         <v>12</v>
       </c>
       <c r="L404" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M404" t="s">
         <v>7</v>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B405">
         <v>7.9299999999999995E-13</v>
@@ -9441,7 +9441,7 @@
         <v>11</v>
       </c>
       <c r="E405" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F405" t="s">
         <v>40</v>
@@ -9456,7 +9456,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K405" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L405">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>11</v>
       </c>
       <c r="E406" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F406" t="s">
         <v>40</v>
@@ -9488,7 +9488,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K406" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L406">
         <v>0</v>
@@ -9505,7 +9505,7 @@
         <v>11</v>
       </c>
       <c r="E407" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F407" t="s">
         <v>40</v>
@@ -9520,7 +9520,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K407" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L407">
         <v>0</v>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B408">
         <v>1.77E-6</v>
@@ -9549,7 +9549,7 @@
         <v>1.77E-6</v>
       </c>
       <c r="K408" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.3">
@@ -9563,7 +9563,7 @@
         <v>11</v>
       </c>
       <c r="E409" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F409" t="s">
         <v>40</v>
@@ -9578,7 +9578,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K409" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L409">
         <v>0</v>
@@ -9595,7 +9595,7 @@
         <v>11</v>
       </c>
       <c r="E410" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F410" t="s">
         <v>40</v>
@@ -9610,7 +9610,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K410" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L410">
         <v>0</v>
@@ -9627,7 +9627,7 @@
         <v>11</v>
       </c>
       <c r="E411" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F411" t="s">
         <v>40</v>
@@ -9642,7 +9642,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K411" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L411">
         <v>0</v>
@@ -9674,7 +9674,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K412" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L412">
         <v>0</v>
@@ -9682,7 +9682,7 @@
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B413">
         <v>2.2000000000000001E-6</v>
@@ -9691,7 +9691,7 @@
         <v>11</v>
       </c>
       <c r="E413" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F413" t="s">
         <v>40</v>
@@ -9706,7 +9706,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K413" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L413">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>11</v>
       </c>
       <c r="E414" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F414" t="s">
         <v>40</v>
@@ -9738,7 +9738,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K414" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L414">
         <v>0</v>
@@ -9746,7 +9746,7 @@
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B415">
         <v>2.9000000000000003E-17</v>
@@ -9755,7 +9755,7 @@
         <v>11</v>
       </c>
       <c r="E415" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F415" t="s">
         <v>40</v>
@@ -9770,7 +9770,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K415" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L415">
         <v>0</v>
@@ -9778,7 +9778,7 @@
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B416">
         <v>1.37E-6</v>
@@ -9787,7 +9787,7 @@
         <v>11</v>
       </c>
       <c r="E416" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F416" t="s">
         <v>40</v>
@@ -9802,7 +9802,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K416" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L416">
         <v>0</v>
@@ -9819,7 +9819,7 @@
         <v>11</v>
       </c>
       <c r="E417" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F417" t="s">
         <v>40</v>
@@ -9834,7 +9834,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K417" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L417">
         <v>0</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B418">
         <v>0.52500000000000002</v>
@@ -9851,7 +9851,7 @@
         <v>21</v>
       </c>
       <c r="E418" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F418" t="s">
         <v>40</v>
@@ -9866,7 +9866,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K418" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L418">
         <v>0</v>
@@ -9874,7 +9874,7 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B419">
         <v>7.9299999999999997E-7</v>
@@ -9883,7 +9883,7 @@
         <v>11</v>
       </c>
       <c r="E419" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F419" t="s">
         <v>40</v>
@@ -9898,7 +9898,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K419" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L419">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>11</v>
       </c>
       <c r="E420" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F420" t="s">
         <v>40</v>
@@ -9930,7 +9930,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K420" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L420">
         <v>0</v>
@@ -9938,7 +9938,7 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B421">
         <v>9.9999999999999995E-7</v>
@@ -9947,7 +9947,7 @@
         <v>11</v>
       </c>
       <c r="E421" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F421" t="s">
         <v>40</v>
@@ -9962,7 +9962,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K421" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L421">
         <v>0</v>
@@ -9970,7 +9970,7 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B422">
         <v>2.0999999999999998E-6</v>
@@ -9991,7 +9991,7 @@
         <v>2.0999999999999998E-6</v>
       </c>
       <c r="K422" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -10005,7 +10005,7 @@
         <v>11</v>
       </c>
       <c r="E423" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F423" t="s">
         <v>40</v>
@@ -10020,7 +10020,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K423" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L423">
         <v>0</v>
@@ -10037,7 +10037,7 @@
         <v>11</v>
       </c>
       <c r="E424" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F424" t="s">
         <v>40</v>
@@ -10052,7 +10052,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K424" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L424">
         <v>0</v>
@@ -10069,7 +10069,7 @@
         <v>11</v>
       </c>
       <c r="E425" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F425" t="s">
         <v>40</v>
@@ -10084,7 +10084,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K425" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L425">
         <v>0</v>
@@ -10101,7 +10101,7 @@
         <v>11</v>
       </c>
       <c r="E426" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F426" t="s">
         <v>40</v>
@@ -10116,7 +10116,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K426" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L426">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>11</v>
       </c>
       <c r="E427" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F427" t="s">
         <v>40</v>
@@ -10148,7 +10148,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K427" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L427">
         <v>0</v>
@@ -10165,7 +10165,7 @@
         <v>11</v>
       </c>
       <c r="E428" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F428" t="s">
         <v>40</v>
@@ -10180,7 +10180,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K428" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L428">
         <v>0</v>
@@ -10197,7 +10197,7 @@
         <v>11</v>
       </c>
       <c r="E429" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F429" t="s">
         <v>40</v>
@@ -10212,7 +10212,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K429" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L429">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>11</v>
       </c>
       <c r="E430" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F430" t="s">
         <v>40</v>
@@ -10244,7 +10244,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K430" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L430">
         <v>0</v>
@@ -10252,7 +10252,7 @@
     </row>
     <row r="431" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -10264,7 +10264,7 @@
         <v>21</v>
       </c>
       <c r="E431" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F431" t="s">
         <v>18</v>
@@ -10273,12 +10273,12 @@
         <v>100</v>
       </c>
       <c r="K431" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B432">
         <v>5.04E-2</v>
@@ -10290,7 +10290,7 @@
         <v>11</v>
       </c>
       <c r="E432" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F432" t="s">
         <v>22</v>
@@ -10302,12 +10302,12 @@
         <v>5.04E-2</v>
       </c>
       <c r="K432" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B433">
         <v>7.7000000000000001E-5</v>
@@ -10319,7 +10319,7 @@
         <v>11</v>
       </c>
       <c r="E433" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F433" t="s">
         <v>22</v>
@@ -10331,12 +10331,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K433" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B434">
         <v>2.1900000000000002E-12</v>
@@ -10348,7 +10348,7 @@
         <v>10</v>
       </c>
       <c r="E434" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F434" t="s">
         <v>22</v>
@@ -10363,7 +10363,7 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K434" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L434">
         <v>0</v>
@@ -10371,7 +10371,7 @@
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B435">
         <v>2.5000000000000002E-6</v>
@@ -10383,7 +10383,7 @@
         <v>11</v>
       </c>
       <c r="E435" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F435" t="s">
         <v>22</v>
@@ -10398,7 +10398,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K435" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L435">
         <v>0</v>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B436">
         <v>1.9999999999999999E-6</v>
@@ -10418,7 +10418,7 @@
         <v>11</v>
       </c>
       <c r="E436" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F436" t="s">
         <v>22</v>
@@ -10433,7 +10433,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K436" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L436">
         <v>0</v>
@@ -10441,7 +10441,7 @@
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B437">
         <v>0.5</v>
@@ -10453,7 +10453,7 @@
         <v>11</v>
       </c>
       <c r="E437" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F437" t="s">
         <v>22</v>
@@ -10468,13 +10468,13 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K437" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L437">
         <v>0</v>
       </c>
       <c r="M437" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.3">
@@ -10491,7 +10491,7 @@
         <v>60</v>
       </c>
       <c r="E438" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F438" t="s">
         <v>22</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="K438" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L438">
         <v>0</v>
@@ -10514,7 +10514,7 @@
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B439">
         <v>-9.9999999999999995E-7</v>
@@ -10526,7 +10526,7 @@
         <v>11</v>
       </c>
       <c r="E439" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F439" t="s">
         <v>22</v>
@@ -10541,7 +10541,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K439" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L439">
         <v>0</v>
@@ -10552,7 +10552,7 @@
         <v>1</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.3">
@@ -10576,7 +10576,7 @@
         <v>7</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.3">
@@ -10620,24 +10620,24 @@
         <v>8</v>
       </c>
       <c r="G448" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H448" t="s">
+        <v>140</v>
+      </c>
+      <c r="I448" t="s">
         <v>142</v>
-      </c>
-      <c r="I448" t="s">
-        <v>144</v>
       </c>
       <c r="J448" t="s">
         <v>12</v>
       </c>
       <c r="K448" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="449" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -10649,7 +10649,7 @@
         <v>26</v>
       </c>
       <c r="E449" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F449" t="s">
         <v>18</v>
@@ -10661,12 +10661,12 @@
         <v>38</v>
       </c>
       <c r="K449" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B450">
         <v>5.81</v>
@@ -10678,7 +10678,7 @@
         <v>21</v>
       </c>
       <c r="E450" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F450" t="s">
         <v>22</v>
@@ -10690,10 +10690,10 @@
         <v>5.81</v>
       </c>
       <c r="J450" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K450" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="452" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -10701,7 +10701,7 @@
         <v>1</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.3">
@@ -10725,7 +10725,7 @@
         <v>7</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.3">
@@ -10769,24 +10769,24 @@
         <v>8</v>
       </c>
       <c r="G459" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H459" t="s">
+        <v>140</v>
+      </c>
+      <c r="I459" t="s">
         <v>142</v>
-      </c>
-      <c r="I459" t="s">
-        <v>144</v>
       </c>
       <c r="J459" t="s">
         <v>12</v>
       </c>
       <c r="K459" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="460" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -10798,7 +10798,7 @@
         <v>26</v>
       </c>
       <c r="E460" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F460" t="s">
         <v>18</v>
@@ -10810,12 +10810,12 @@
         <v>38</v>
       </c>
       <c r="K460" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B461">
         <v>5.81</v>
@@ -10827,7 +10827,7 @@
         <v>21</v>
       </c>
       <c r="E461" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F461" t="s">
         <v>22</v>
@@ -10839,7 +10839,7 @@
         <v>5.81</v>
       </c>
       <c r="J461" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="463" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.3">
@@ -10871,7 +10871,7 @@
         <v>7</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.3">
@@ -10915,24 +10915,24 @@
         <v>8</v>
       </c>
       <c r="G470" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H470" t="s">
+        <v>140</v>
+      </c>
+      <c r="I470" t="s">
         <v>142</v>
-      </c>
-      <c r="I470" t="s">
-        <v>144</v>
       </c>
       <c r="J470" t="s">
         <v>12</v>
       </c>
       <c r="K470" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="471" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -10944,7 +10944,7 @@
         <v>26</v>
       </c>
       <c r="E471" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F471" t="s">
         <v>18</v>
@@ -10956,12 +10956,12 @@
         <v>38</v>
       </c>
       <c r="K471" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B472">
         <v>5.81</v>
@@ -10973,7 +10973,7 @@
         <v>21</v>
       </c>
       <c r="E472" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F472" t="s">
         <v>22</v>
@@ -10985,7 +10985,7 @@
         <v>5.81</v>
       </c>
       <c r="J472" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="474" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -10993,7 +10993,7 @@
         <v>1</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.3">
@@ -11017,7 +11017,7 @@
         <v>7</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.3">
@@ -11061,24 +11061,24 @@
         <v>8</v>
       </c>
       <c r="G481" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H481" t="s">
+        <v>140</v>
+      </c>
+      <c r="I481" t="s">
         <v>142</v>
-      </c>
-      <c r="I481" t="s">
-        <v>144</v>
       </c>
       <c r="J481" t="s">
         <v>12</v>
       </c>
       <c r="K481" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="482" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B482">
         <v>1</v>
@@ -11090,7 +11090,7 @@
         <v>26</v>
       </c>
       <c r="E482" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F482" t="s">
         <v>18</v>
@@ -11102,12 +11102,12 @@
         <v>38</v>
       </c>
       <c r="K482" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B483">
         <v>5.81</v>
@@ -11119,7 +11119,7 @@
         <v>21</v>
       </c>
       <c r="E483" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F483" t="s">
         <v>22</v>
@@ -11131,7 +11131,7 @@
         <v>5.81</v>
       </c>
       <c r="J483" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="15" iterateDelta="0.05"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B109">
-        <v>2.9996721816189444E-3</v>
+        <v>6.84</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -3200,7 +3200,7 @@
         <v>41</v>
       </c>
       <c r="B110">
-        <v>0.38041197561668283</v>
+        <v>2.9996721816189444E-3</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
@@ -3226,7 +3226,7 @@
         <v>49</v>
       </c>
       <c r="B111">
-        <v>5.3487471618165237E-10</v>
+        <v>0.38041197561668283</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -3246,7 +3246,7 @@
         <v>56</v>
       </c>
       <c r="B112">
-        <v>5.3272799999999989E-4</v>
+        <v>5.3487471618165237E-10</v>
       </c>
       <c r="C112" t="s">
         <v>122</v>
@@ -3269,7 +3269,7 @@
         <v>59</v>
       </c>
       <c r="B113">
-        <v>3.6000000000000001E-5</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C113" t="s">
         <v>122</v>
@@ -3292,7 +3292,7 @@
         <v>62</v>
       </c>
       <c r="B114">
-        <v>3.6239999999999997E-4</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C114" t="s">
         <v>122</v>
@@ -3315,7 +3315,7 @@
         <v>64</v>
       </c>
       <c r="B115">
-        <v>2.54628E-9</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3338,7 +3338,7 @@
         <v>68</v>
       </c>
       <c r="B116">
-        <v>2.796E-5</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C116" t="s">
         <v>122</v>
@@ -3361,7 +3361,7 @@
         <v>70</v>
       </c>
       <c r="B117">
-        <v>1.668E-5</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C117" t="s">
         <v>122</v>
@@ -3384,7 +3384,7 @@
         <v>72</v>
       </c>
       <c r="B118">
-        <v>2.0292014459767036E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C118" t="s">
         <v>122</v>
@@ -3407,7 +3407,7 @@
         <v>188</v>
       </c>
       <c r="B119">
-        <v>3.1235999999999997E-4</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C119" t="s">
         <v>122</v>
@@ -3430,7 +3430,7 @@
         <v>74</v>
       </c>
       <c r="B120">
-        <v>4.8000000000000001E-5</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C120" t="s">
         <v>122</v>
@@ -3453,7 +3453,7 @@
         <v>76</v>
       </c>
       <c r="B121">
-        <v>1.1591999999999998E-5</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C121" t="s">
         <v>122</v>
@@ -3476,7 +3476,7 @@
         <v>78</v>
       </c>
       <c r="B122">
-        <v>7.5385438054847107</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C122" t="s">
         <v>122</v>
@@ -3499,7 +3499,7 @@
         <v>80</v>
       </c>
       <c r="B123">
-        <v>8.8290154606725723E-4</v>
+        <v>7.5390157563601576</v>
       </c>
       <c r="C123" t="s">
         <v>122</v>
@@ -3522,7 +3522,7 @@
         <v>83</v>
       </c>
       <c r="B124">
-        <v>3.7140000000000003E-4</v>
+        <v>8.8290154606725723E-4</v>
       </c>
       <c r="C124" t="s">
         <v>122</v>
@@ -3545,7 +3545,7 @@
         <v>85</v>
       </c>
       <c r="B125">
-        <v>-0.67249589978061108</v>
+        <v>3.7140000000000003E-4</v>
       </c>
       <c r="C125" t="s">
         <v>122</v>
@@ -3568,7 +3568,7 @@
         <v>87</v>
       </c>
       <c r="B126">
-        <v>5.1637924671186237</v>
+        <v>-0.61975263847726747</v>
       </c>
       <c r="C126" t="s">
         <v>122</v>
@@ -3591,10 +3591,10 @@
         <v>54</v>
       </c>
       <c r="B127">
-        <v>4.3031603892655201E-2</v>
+        <v>3.9205289542065938</v>
       </c>
       <c r="C127" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="D127" t="s">
         <v>17</v>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>Butane</t>
   </si>
   <si>
-    <t>Carbon dioxide, from soil or biomass stock</t>
-  </si>
-  <si>
     <t>Carbon monoxide, fossil</t>
   </si>
   <si>
@@ -378,12 +375,6 @@
     <t>as degradation product of MEA</t>
   </si>
   <si>
-    <t>Carbon dioxide, to soil or biomass stock</t>
-  </si>
-  <si>
-    <t>soil</t>
-  </si>
-  <si>
     <t>Hydrogen, gaseous, 25 bar</t>
   </si>
   <si>
@@ -601,6 +592,15 @@
   </si>
   <si>
     <t>hydrogen production, auto-thermal reforming, from biomethane, with CCS (MDEA, 98% eff.), 25 bar</t>
+  </si>
+  <si>
+    <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, in air</t>
   </si>
 </sst>
 </file>
@@ -1006,33 +1006,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="1" max="1" width="67.7109375" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>1.283708329984486</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1072,20 +1072,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1111,9 +1111,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1134,7 +1134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1264,9 +1264,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="B18">
         <v>2.5884448839268264</v>
@@ -1290,9 +1290,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>6.0038472056164506E-5</v>
@@ -1316,9 +1316,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>2.8589231253706745E-6</v>
@@ -1342,9 +1342,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>2.8589231253706745E-6</v>
@@ -1368,9 +1368,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>8.5770409819571095E-10</v>
@@ -1394,9 +1394,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>5.7181178565864352E-5</v>
@@ -1420,9 +1420,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>5.1175973331022469E-4</v>
@@ -1446,9 +1446,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>2.8589231253706748E-7</v>
@@ -1472,9 +1472,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>5.7181178565864347E-6</v>
@@ -1498,9 +1498,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>3.4309250351208778E-5</v>
@@ -1524,9 +1524,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>5.7181178565864347E-6</v>
@@ -1550,9 +1550,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>5.7181178565864345E-7</v>
@@ -1576,9 +1576,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30">
         <v>1.5724620401228882E-5</v>
@@ -1602,9 +1602,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>5.7181178565864347E-6</v>
@@ -1628,9 +1628,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32">
         <v>0.38037590964433182</v>
@@ -1642,10 +1642,10 @@
         <v>28</v>
       </c>
       <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" t="s">
         <v>50</v>
-      </c>
-      <c r="F32" t="s">
-        <v>51</v>
       </c>
       <c r="G32" t="s">
         <v>30</v>
@@ -1654,15 +1654,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>6.1496909953258223</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -1674,41 +1674,41 @@
         <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>5.0788017117687465</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
         <v>19</v>
       </c>
       <c r="H34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>56</v>
       </c>
       <c r="B35">
         <v>5.3483393537845907E-10</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
@@ -1720,41 +1720,41 @@
         <v>19</v>
       </c>
       <c r="H35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>59</v>
       </c>
       <c r="B36">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
         <v>60</v>
       </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>62</v>
       </c>
       <c r="B37">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -1766,18 +1766,18 @@
         <v>19</v>
       </c>
       <c r="H37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>64</v>
       </c>
       <c r="B38">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -1789,18 +1789,18 @@
         <v>19</v>
       </c>
       <c r="H38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>66</v>
       </c>
       <c r="B39">
         <v>2.0908949384107795E-4</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
@@ -1812,18 +1812,18 @@
         <v>19</v>
       </c>
       <c r="H39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>68</v>
       </c>
       <c r="B40">
         <v>2.54628E-9</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
@@ -1835,18 +1835,18 @@
         <v>19</v>
       </c>
       <c r="H40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>70</v>
       </c>
       <c r="B41">
         <v>2.796E-5</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
@@ -1858,18 +1858,18 @@
         <v>19</v>
       </c>
       <c r="H41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>72</v>
       </c>
       <c r="B42">
         <v>1.668E-5</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
@@ -1881,18 +1881,18 @@
         <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B43">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
@@ -1904,18 +1904,18 @@
         <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -1927,18 +1927,18 @@
         <v>19</v>
       </c>
       <c r="H44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>76</v>
       </c>
       <c r="B45">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -1950,18 +1950,18 @@
         <v>19</v>
       </c>
       <c r="H45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>78</v>
       </c>
       <c r="B46">
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
@@ -1973,41 +1973,41 @@
         <v>19</v>
       </c>
       <c r="H46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>80</v>
       </c>
       <c r="B47">
         <v>7.5384409542456998</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" t="s">
         <v>81</v>
       </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" t="s">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>83</v>
       </c>
       <c r="B48">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
@@ -2019,18 +2019,18 @@
         <v>19</v>
       </c>
       <c r="H48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>85</v>
       </c>
       <c r="B49">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -2042,18 +2042,18 @@
         <v>19</v>
       </c>
       <c r="H49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>87</v>
       </c>
       <c r="B50">
         <v>-0.58836764785345819</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
@@ -2065,18 +2065,18 @@
         <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>1.3097345915810461</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2100,15 +2100,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2116,20 +2116,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -2155,9 +2155,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -2178,7 +2178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -2308,9 +2308,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="B68">
         <v>8.9153165218958783</v>
@@ -2334,9 +2334,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69">
         <v>6.6598384453023306E-5</v>
@@ -2360,9 +2360,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70">
         <v>3.1712942535739587E-6</v>
@@ -2386,9 +2386,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71">
         <v>3.1712942535739587E-6</v>
@@ -2412,9 +2412,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B72">
         <v>9.5141840427144231E-10</v>
@@ -2438,9 +2438,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B73">
         <v>6.3428897891404663E-5</v>
@@ -2464,9 +2464,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B74">
         <v>5.6767553036139577E-4</v>
@@ -2490,9 +2490,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B75">
         <v>3.1712942535739582E-7</v>
@@ -2516,9 +2516,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B76">
         <v>6.3428897891404652E-6</v>
@@ -2542,9 +2542,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77">
         <v>3.8057941298827897E-5</v>
@@ -2568,9 +2568,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B78">
         <v>6.3428897891404652E-6</v>
@@ -2594,9 +2594,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B79">
         <v>6.3428897891404654E-7</v>
@@ -2620,9 +2620,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B80">
         <v>1.7442720958641864E-5</v>
@@ -2646,9 +2646,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B81">
         <v>6.3428897891404652E-6</v>
@@ -2672,9 +2672,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B82">
         <v>0.38037452713377895</v>
@@ -2686,10 +2686,10 @@
         <v>28</v>
       </c>
       <c r="E82" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82" t="s">
         <v>50</v>
-      </c>
-      <c r="F82" t="s">
-        <v>51</v>
       </c>
       <c r="G82" t="s">
         <v>30</v>
@@ -2698,38 +2698,38 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B83">
         <v>5.1817707576649816</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
         <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
       </c>
       <c r="H83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>56</v>
       </c>
       <c r="B84">
         <v>5.3483199147628007E-10</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
@@ -2741,41 +2741,41 @@
         <v>19</v>
       </c>
       <c r="H84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>59</v>
       </c>
       <c r="B85">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" t="s">
         <v>60</v>
       </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" t="s">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>62</v>
       </c>
       <c r="B86">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D86" t="s">
         <v>22</v>
@@ -2787,18 +2787,18 @@
         <v>19</v>
       </c>
       <c r="H86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>64</v>
       </c>
       <c r="B87">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D87" t="s">
         <v>22</v>
@@ -2810,18 +2810,18 @@
         <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B88">
         <v>2.54628E-9</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D88" t="s">
         <v>22</v>
@@ -2833,18 +2833,18 @@
         <v>19</v>
       </c>
       <c r="H88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>70</v>
       </c>
       <c r="B89">
         <v>2.796E-5</v>
       </c>
       <c r="C89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D89" t="s">
         <v>22</v>
@@ -2856,18 +2856,18 @@
         <v>19</v>
       </c>
       <c r="H89" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>72</v>
       </c>
       <c r="B90">
         <v>1.668E-5</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D90" t="s">
         <v>22</v>
@@ -2879,18 +2879,18 @@
         <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B91">
         <v>2.0292014459767033E-4</v>
       </c>
       <c r="C91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D91" t="s">
         <v>22</v>
@@ -2902,18 +2902,18 @@
         <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B92">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D92" t="s">
         <v>22</v>
@@ -2925,18 +2925,18 @@
         <v>19</v>
       </c>
       <c r="H92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>76</v>
       </c>
       <c r="B93">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -2948,18 +2948,18 @@
         <v>19</v>
       </c>
       <c r="H93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>78</v>
       </c>
       <c r="B94">
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D94" t="s">
         <v>22</v>
@@ -2971,41 +2971,41 @@
         <v>19</v>
       </c>
       <c r="H94" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>80</v>
       </c>
       <c r="B95">
         <v>7.5384135551020997</v>
       </c>
       <c r="C95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D95" t="s">
+        <v>80</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" t="s">
         <v>81</v>
       </c>
-      <c r="E95" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" t="s">
-        <v>19</v>
-      </c>
-      <c r="H95" t="s">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>83</v>
       </c>
       <c r="B96">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
@@ -3017,18 +3017,18 @@
         <v>19</v>
       </c>
       <c r="H96" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>85</v>
       </c>
       <c r="B97">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C97" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D97" t="s">
         <v>22</v>
@@ -3040,18 +3040,18 @@
         <v>19</v>
       </c>
       <c r="H97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>87</v>
       </c>
       <c r="B98">
         <v>-1.3016123468668273</v>
       </c>
       <c r="C98" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
@@ -3063,18 +3063,18 @@
         <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>1.3051904328123036</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -3090,15 +3090,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -3106,20 +3106,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f>B100</f>
         <v>hydrogen production, auto-thermal reforming, from biomethane, 25 bar</v>
@@ -3166,12 +3166,12 @@
         <v>16</v>
       </c>
       <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="B109">
         <v>6.84</v>
@@ -3195,9 +3195,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B110">
         <v>2.9996721816189444E-3</v>
@@ -3221,9 +3221,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B111">
         <v>0.38041197561668283</v>
@@ -3232,24 +3232,24 @@
         <v>27</v>
       </c>
       <c r="E111" t="s">
+        <v>49</v>
+      </c>
+      <c r="F111" t="s">
         <v>50</v>
       </c>
-      <c r="F111" t="s">
-        <v>51</v>
-      </c>
       <c r="G111" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B112">
         <v>5.3487471618165237E-10</v>
       </c>
       <c r="C112" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D112" t="s">
         <v>3</v>
@@ -3261,41 +3261,41 @@
         <v>19</v>
       </c>
       <c r="H112" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>59</v>
       </c>
       <c r="B113">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C113" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D113" t="s">
+        <v>59</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" t="s">
         <v>60</v>
       </c>
-      <c r="E113" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" t="s">
-        <v>19</v>
-      </c>
-      <c r="H113" t="s">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>62</v>
       </c>
       <c r="B114">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C114" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D114" t="s">
         <v>22</v>
@@ -3307,18 +3307,18 @@
         <v>19</v>
       </c>
       <c r="H114" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>64</v>
       </c>
       <c r="B115">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C115" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D115" t="s">
         <v>22</v>
@@ -3330,18 +3330,18 @@
         <v>19</v>
       </c>
       <c r="H115" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B116">
         <v>2.54628E-9</v>
       </c>
       <c r="C116" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D116" t="s">
         <v>22</v>
@@ -3353,18 +3353,18 @@
         <v>19</v>
       </c>
       <c r="H116" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>70</v>
       </c>
       <c r="B117">
         <v>2.796E-5</v>
       </c>
       <c r="C117" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D117" t="s">
         <v>22</v>
@@ -3376,18 +3376,18 @@
         <v>19</v>
       </c>
       <c r="H117" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>72</v>
       </c>
       <c r="B118">
         <v>1.668E-5</v>
       </c>
       <c r="C118" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D118" t="s">
         <v>22</v>
@@ -3399,18 +3399,18 @@
         <v>19</v>
       </c>
       <c r="H118" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B119">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C119" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D119" t="s">
         <v>22</v>
@@ -3422,18 +3422,18 @@
         <v>19</v>
       </c>
       <c r="H119" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B120">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D120" t="s">
         <v>22</v>
@@ -3445,18 +3445,18 @@
         <v>19</v>
       </c>
       <c r="H120" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>76</v>
       </c>
       <c r="B121">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C121" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D121" t="s">
         <v>3</v>
@@ -3468,18 +3468,18 @@
         <v>19</v>
       </c>
       <c r="H121" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>78</v>
       </c>
       <c r="B122">
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C122" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D122" t="s">
         <v>22</v>
@@ -3491,41 +3491,41 @@
         <v>19</v>
       </c>
       <c r="H122" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>80</v>
       </c>
       <c r="B123">
         <v>7.5390157563601576</v>
       </c>
       <c r="C123" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D123" t="s">
+        <v>80</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123" t="s">
         <v>81</v>
       </c>
-      <c r="E123" t="s">
-        <v>9</v>
-      </c>
-      <c r="G123" t="s">
-        <v>19</v>
-      </c>
-      <c r="H123" t="s">
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>83</v>
       </c>
       <c r="B124">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C124" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D124" t="s">
         <v>22</v>
@@ -3537,18 +3537,18 @@
         <v>19</v>
       </c>
       <c r="H124" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>85</v>
       </c>
       <c r="B125">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C125" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D125" t="s">
         <v>22</v>
@@ -3560,18 +3560,18 @@
         <v>19</v>
       </c>
       <c r="H125" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>87</v>
       </c>
       <c r="B126">
         <v>-0.61975263847726747</v>
       </c>
       <c r="C126" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
@@ -3583,41 +3583,41 @@
         <v>19</v>
       </c>
       <c r="H126" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B127">
         <v>3.9205289542065938</v>
       </c>
       <c r="C127" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D127" t="s">
         <v>17</v>
       </c>
       <c r="E127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G127" t="s">
         <v>19</v>
       </c>
       <c r="H127" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>1.3052025620169032</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -3633,15 +3633,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -3649,20 +3649,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f>B129</f>
         <v>hydrogen production, auto-thermal reforming, from biomethane, with CCS (MDEA, 98% eff.), 25 bar</v>
@@ -3709,12 +3709,12 @@
         <v>16</v>
       </c>
       <c r="H137" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="B138">
         <v>0.58838389214647391</v>
@@ -3738,9 +3738,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B139">
         <v>2.9996721816189444E-3</v>
@@ -3764,9 +3764,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B140">
         <v>0.38041305426253447</v>
@@ -3775,24 +3775,24 @@
         <v>27</v>
       </c>
       <c r="E140" t="s">
+        <v>49</v>
+      </c>
+      <c r="F140" t="s">
         <v>50</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>51</v>
-      </c>
-      <c r="G140" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>52</v>
       </c>
       <c r="B141">
         <v>8.318133856294887</v>
       </c>
       <c r="C141" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D141" t="s">
         <v>3</v>
@@ -3804,18 +3804,18 @@
         <v>19</v>
       </c>
       <c r="H141" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B142">
         <v>5.3487623280160849E-10</v>
       </c>
       <c r="C142" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D142" t="s">
         <v>3</v>
@@ -3827,41 +3827,41 @@
         <v>19</v>
       </c>
       <c r="H142" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>59</v>
       </c>
       <c r="B143">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C143" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D143" t="s">
+        <v>59</v>
+      </c>
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" t="s">
+        <v>19</v>
+      </c>
+      <c r="H143" t="s">
         <v>60</v>
       </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="G143" t="s">
-        <v>19</v>
-      </c>
-      <c r="H143" t="s">
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>62</v>
       </c>
       <c r="B144">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C144" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D144" t="s">
         <v>22</v>
@@ -3873,18 +3873,18 @@
         <v>19</v>
       </c>
       <c r="H144" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>64</v>
       </c>
       <c r="B145">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C145" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D145" t="s">
         <v>22</v>
@@ -3896,18 +3896,18 @@
         <v>19</v>
       </c>
       <c r="H145" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>66</v>
       </c>
       <c r="B146">
         <v>2.8370495812424056E-4</v>
       </c>
       <c r="C146" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D146" t="s">
         <v>22</v>
@@ -3919,18 +3919,18 @@
         <v>19</v>
       </c>
       <c r="H146" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>68</v>
       </c>
       <c r="B147">
         <v>2.54628E-9</v>
       </c>
       <c r="C147" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D147" t="s">
         <v>22</v>
@@ -3942,18 +3942,18 @@
         <v>19</v>
       </c>
       <c r="H147" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>70</v>
       </c>
       <c r="B148">
         <v>2.796E-5</v>
       </c>
       <c r="C148" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D148" t="s">
         <v>22</v>
@@ -3965,18 +3965,18 @@
         <v>19</v>
       </c>
       <c r="H148" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>72</v>
       </c>
       <c r="B149">
         <v>1.668E-5</v>
       </c>
       <c r="C149" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D149" t="s">
         <v>22</v>
@@ -3988,18 +3988,18 @@
         <v>19</v>
       </c>
       <c r="H149" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B150">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C150" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D150" t="s">
         <v>22</v>
@@ -4011,18 +4011,18 @@
         <v>19</v>
       </c>
       <c r="H150" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B151">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C151" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D151" t="s">
         <v>22</v>
@@ -4034,18 +4034,18 @@
         <v>19</v>
       </c>
       <c r="H151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>76</v>
       </c>
       <c r="B152">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C152" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D152" t="s">
         <v>3</v>
@@ -4057,18 +4057,18 @@
         <v>19</v>
       </c>
       <c r="H152" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>78</v>
       </c>
       <c r="B153">
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C153" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D153" t="s">
         <v>22</v>
@@ -4080,41 +4080,41 @@
         <v>19</v>
       </c>
       <c r="H153" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>80</v>
       </c>
       <c r="B154">
         <v>7.5385278801642412</v>
       </c>
       <c r="C154" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D154" t="s">
+        <v>80</v>
+      </c>
+      <c r="E154" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" t="s">
+        <v>19</v>
+      </c>
+      <c r="H154" t="s">
         <v>81</v>
       </c>
-      <c r="E154" t="s">
-        <v>9</v>
-      </c>
-      <c r="G154" t="s">
-        <v>19</v>
-      </c>
-      <c r="H154" t="s">
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>83</v>
       </c>
       <c r="B155">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C155" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D155" t="s">
         <v>22</v>
@@ -4126,18 +4126,18 @@
         <v>19</v>
       </c>
       <c r="H155" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>85</v>
       </c>
       <c r="B156">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C156" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D156" t="s">
         <v>22</v>
@@ -4149,18 +4149,18 @@
         <v>19</v>
       </c>
       <c r="H156" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>87</v>
       </c>
       <c r="B157">
         <v>-0.15423412693187019</v>
       </c>
       <c r="C157" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D157" t="s">
         <v>3</v>
@@ -4172,60 +4172,60 @@
         <v>19</v>
       </c>
       <c r="H157" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B158">
         <v>5.1638404545185992</v>
       </c>
       <c r="C158" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D158" t="s">
         <v>17</v>
       </c>
       <c r="E158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G158" t="s">
         <v>19</v>
       </c>
       <c r="H158" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C160" s="5"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C161" s="5"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C162" s="5"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
         <v>2</v>
       </c>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="C163" s="5"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
         <v>4</v>
       </c>
@@ -4243,23 +4243,23 @@
       </c>
       <c r="C164" s="5"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C165" s="5"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>12</v>
       </c>
@@ -4288,21 +4288,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>53</v>
+      </c>
+      <c r="B168" t="s">
         <v>54</v>
-      </c>
-      <c r="B168" t="s">
-        <v>55</v>
       </c>
       <c r="C168" s="13">
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E168" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G168" t="s">
         <v>17</v>
@@ -4314,21 +4314,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B169" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="C169" s="13">
         <v>1.8232044198895025</v>
       </c>
       <c r="D169" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E169" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G169" t="s">
         <v>17</v>
@@ -4337,15 +4337,15 @@
         <v>19</v>
       </c>
       <c r="I169" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A170" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="B170" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C170" s="15">
         <v>4.0000000000000001E-10</v>
@@ -4354,7 +4354,7 @@
         <v>8</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F170" s="10"/>
       <c r="G170" s="10" t="s">
@@ -4364,19 +4364,19 @@
         <v>19</v>
       </c>
       <c r="I170" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
     </row>
-    <row r="171" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B171" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="C171" s="15">
         <v>8.8397790055248608E-4</v>
@@ -4385,7 +4385,7 @@
         <v>9</v>
       </c>
       <c r="E171" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G171" t="s">
         <v>22</v>
@@ -4394,18 +4394,18 @@
         <v>19</v>
       </c>
       <c r="I171" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J171" s="11"/>
       <c r="K171" s="11"/>
       <c r="L171" s="11"/>
     </row>
-    <row r="172" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C172" s="15">
         <v>5.4696132596685078E-2</v>
@@ -4414,7 +4414,7 @@
         <v>9</v>
       </c>
       <c r="E172" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G172" t="s">
         <v>17</v>
@@ -4423,18 +4423,18 @@
         <v>19</v>
       </c>
       <c r="I172" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J172" s="11"/>
       <c r="K172" s="11"/>
       <c r="L172" s="11"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B173" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="C173" s="15">
         <v>5.4696132596685076E-5</v>
@@ -4443,7 +4443,7 @@
         <v>9</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F173" s="10"/>
       <c r="G173" s="10" t="s">
@@ -4453,19 +4453,19 @@
         <v>19</v>
       </c>
       <c r="I173" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J173" s="10"/>
       <c r="K173" s="10"/>
       <c r="L173" s="10"/>
       <c r="M173" s="10"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B174" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="C174" s="15">
         <v>2.3245856353591159E-2</v>
@@ -4474,7 +4474,7 @@
         <v>9</v>
       </c>
       <c r="E174" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G174" t="s">
         <v>22</v>
@@ -4483,15 +4483,15 @@
         <v>19</v>
       </c>
       <c r="I174" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A175" s="10" t="s">
+      <c r="B175" t="s">
         <v>105</v>
-      </c>
-      <c r="B175" t="s">
-        <v>106</v>
       </c>
       <c r="C175" s="15">
         <v>9.171270718232042E-3</v>
@@ -4500,7 +4500,7 @@
         <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G175" t="s">
         <v>3</v>
@@ -4509,18 +4509,18 @@
         <v>19</v>
       </c>
       <c r="I175" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J175" s="11"/>
       <c r="K175" s="11"/>
       <c r="L175" s="11"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B176" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C176" s="15">
         <v>0.12</v>
@@ -4529,7 +4529,7 @@
         <v>21</v>
       </c>
       <c r="E176" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G176" t="s">
         <v>3</v>
@@ -4538,12 +4538,12 @@
         <v>19</v>
       </c>
       <c r="I176" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="12" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="C177" s="15">
         <v>2.8679999999999998E-4</v>
@@ -4561,12 +4561,12 @@
         <v>30</v>
       </c>
       <c r="I177" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="C178" s="13">
         <v>1.8211618777134311</v>
@@ -4584,12 +4584,12 @@
         <v>30</v>
       </c>
       <c r="I178" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="12" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="C179" s="15">
         <v>3.4875000000000001E-6</v>
@@ -4607,12 +4607,12 @@
         <v>30</v>
       </c>
       <c r="I179" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B180" s="10"/>
       <c r="C180" s="15">
@@ -4631,12 +4631,12 @@
         <v>30</v>
       </c>
       <c r="I180" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="12" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="C181" s="15">
         <v>6.0000000000000002E-6</v>
@@ -4654,12 +4654,12 @@
         <v>30</v>
       </c>
       <c r="I181" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C182" s="15">
         <v>1.2300000000000001E-4</v>
@@ -4677,12 +4677,12 @@
         <v>30</v>
       </c>
       <c r="I182" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C183">
         <v>55.5</v>
@@ -4694,32 +4694,32 @@
         <v>27</v>
       </c>
       <c r="F183" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H183" t="s">
         <v>30</v>
       </c>
       <c r="I183" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>10</v>
       </c>
       <c r="B186" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -4727,15 +4727,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -4743,20 +4743,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>8</v>
       </c>
       <c r="B190" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>12</v>
       </c>
@@ -4785,21 +4785,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>90</v>
+      </c>
+      <c r="B193" t="s">
         <v>91</v>
-      </c>
-      <c r="B193" t="s">
-        <v>92</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E193" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G193" t="s">
         <v>17</v>
@@ -4811,9 +4811,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="C194">
         <v>5.3592000000000004</v>
@@ -4825,18 +4825,18 @@
         <v>27</v>
       </c>
       <c r="F194" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="H194" t="s">
         <v>30</v>
       </c>
       <c r="I194" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="C195">
         <v>3.4083419999999993</v>
@@ -4854,15 +4854,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>2</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -4878,15 +4878,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>5</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -4902,12 +4902,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>12</v>
       </c>
@@ -4927,30 +4927,30 @@
         <v>6</v>
       </c>
       <c r="G204" t="s">
+        <v>123</v>
+      </c>
+      <c r="H204" t="s">
+        <v>124</v>
+      </c>
+      <c r="I204" t="s">
+        <v>125</v>
+      </c>
+      <c r="J204" t="s">
         <v>126</v>
-      </c>
-      <c r="H204" t="s">
-        <v>127</v>
-      </c>
-      <c r="I204" t="s">
-        <v>128</v>
-      </c>
-      <c r="J204" t="s">
-        <v>129</v>
       </c>
       <c r="K204" t="s">
         <v>10</v>
       </c>
       <c r="L204" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M204" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B205">
         <v>7.9299999999999995E-13</v>
@@ -4959,7 +4959,7 @@
         <v>9</v>
       </c>
       <c r="E205" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F205" t="s">
         <v>30</v>
@@ -4974,13 +4974,13 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K205" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L205">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>9</v>
       </c>
       <c r="E206" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F206" t="s">
         <v>30</v>
@@ -5006,13 +5006,13 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K206" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L206">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>31</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>9</v>
       </c>
       <c r="E207" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F207" t="s">
         <v>30</v>
@@ -5038,13 +5038,13 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K207" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L207">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>32</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>9</v>
       </c>
       <c r="E208" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F208" t="s">
         <v>30</v>
@@ -5070,13 +5070,13 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K208" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L208">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>33</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>9</v>
       </c>
       <c r="E209" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F209" t="s">
         <v>30</v>
@@ -5102,13 +5102,13 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K209" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L209">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>34</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>9</v>
       </c>
       <c r="E210" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F210" t="s">
         <v>30</v>
@@ -5134,15 +5134,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K210" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L210">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="B211">
         <v>5.6000000000000001E-2</v>
@@ -5166,15 +5166,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K211" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L211">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B212">
         <v>2.2000000000000001E-6</v>
@@ -5183,7 +5183,7 @@
         <v>9</v>
       </c>
       <c r="E212" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F212" t="s">
         <v>30</v>
@@ -5198,15 +5198,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K212" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B213">
         <v>9.9999999999999995E-7</v>
@@ -5215,7 +5215,7 @@
         <v>9</v>
       </c>
       <c r="E213" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F213" t="s">
         <v>30</v>
@@ -5230,15 +5230,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K213" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L213">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B214">
         <v>2.9000000000000003E-17</v>
@@ -5247,7 +5247,7 @@
         <v>9</v>
       </c>
       <c r="E214" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F214" t="s">
         <v>30</v>
@@ -5262,15 +5262,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K214" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B215">
         <v>1.37E-6</v>
@@ -5279,7 +5279,7 @@
         <v>9</v>
       </c>
       <c r="E215" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F215" t="s">
         <v>30</v>
@@ -5294,15 +5294,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K215" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L215">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B216">
         <v>3.3099999999999999E-8</v>
@@ -5311,7 +5311,7 @@
         <v>9</v>
       </c>
       <c r="E216" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F216" t="s">
         <v>30</v>
@@ -5326,15 +5326,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K216" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L216">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B217">
         <v>0.52500000000000002</v>
@@ -5343,7 +5343,7 @@
         <v>18</v>
       </c>
       <c r="E217" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F217" t="s">
         <v>30</v>
@@ -5358,15 +5358,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K217" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L217">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B218">
         <v>7.9299999999999997E-7</v>
@@ -5375,7 +5375,7 @@
         <v>9</v>
       </c>
       <c r="E218" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F218" t="s">
         <v>30</v>
@@ -5390,15 +5390,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K218" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B219">
         <v>3E-11</v>
@@ -5407,7 +5407,7 @@
         <v>9</v>
       </c>
       <c r="E219" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F219" t="s">
         <v>30</v>
@@ -5422,15 +5422,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K219" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B220">
         <v>9.9999999999999995E-7</v>
@@ -5439,7 +5439,7 @@
         <v>9</v>
       </c>
       <c r="E220" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F220" t="s">
         <v>30</v>
@@ -5454,15 +5454,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K220" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L220">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B221">
         <v>2.72E-5</v>
@@ -5471,7 +5471,7 @@
         <v>9</v>
       </c>
       <c r="E221" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F221" t="s">
         <v>30</v>
@@ -5486,15 +5486,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K221" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L221">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B222">
         <v>8.0000000000000005E-9</v>
@@ -5503,7 +5503,7 @@
         <v>9</v>
       </c>
       <c r="E222" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F222" t="s">
         <v>30</v>
@@ -5518,15 +5518,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K222" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L222">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B223">
         <v>4.9999999999999998E-7</v>
@@ -5535,7 +5535,7 @@
         <v>9</v>
       </c>
       <c r="E223" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F223" t="s">
         <v>30</v>
@@ -5550,15 +5550,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K223" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L223">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B224">
         <v>1.15E-6</v>
@@ -5567,7 +5567,7 @@
         <v>9</v>
       </c>
       <c r="E224" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F224" t="s">
         <v>30</v>
@@ -5582,15 +5582,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K224" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L224">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B225">
         <v>7.0500000000000003E-7</v>
@@ -5599,7 +5599,7 @@
         <v>9</v>
       </c>
       <c r="E225" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F225" t="s">
         <v>30</v>
@@ -5614,15 +5614,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K225" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L225">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B226">
         <v>1.6000000000000001E-8</v>
@@ -5631,7 +5631,7 @@
         <v>9</v>
       </c>
       <c r="E226" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F226" t="s">
         <v>30</v>
@@ -5646,15 +5646,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K226" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L226">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B227">
         <v>4.9999999999999998E-7</v>
@@ -5663,7 +5663,7 @@
         <v>9</v>
       </c>
       <c r="E227" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F227" t="s">
         <v>30</v>
@@ -5678,15 +5678,15 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K227" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L227">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B228">
         <v>1.5E-9</v>
@@ -5695,7 +5695,7 @@
         <v>9</v>
       </c>
       <c r="E228" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F228" t="s">
         <v>30</v>
@@ -5710,15 +5710,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K228" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L228">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -5730,7 +5730,7 @@
         <v>18</v>
       </c>
       <c r="E229" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F229" t="s">
         <v>16</v>
@@ -5739,12 +5739,12 @@
         <v>100</v>
       </c>
       <c r="K229" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B230">
         <v>2.1900000000000002E-12</v>
@@ -5756,7 +5756,7 @@
         <v>8</v>
       </c>
       <c r="E230" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F230" t="s">
         <v>19</v>
@@ -5771,15 +5771,15 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K230" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B231">
         <v>2.5000000000000002E-6</v>
@@ -5791,7 +5791,7 @@
         <v>9</v>
       </c>
       <c r="E231" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F231" t="s">
         <v>19</v>
@@ -5806,15 +5806,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K231" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L231">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B232">
         <v>1.9999999999999999E-6</v>
@@ -5826,7 +5826,7 @@
         <v>9</v>
       </c>
       <c r="E232" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F232" t="s">
         <v>19</v>
@@ -5841,15 +5841,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K232" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L232">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B233">
         <v>0.5</v>
@@ -5861,7 +5861,7 @@
         <v>9</v>
       </c>
       <c r="E233" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F233" t="s">
         <v>19</v>
@@ -5876,18 +5876,18 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K233" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L233">
         <v>0</v>
       </c>
       <c r="M233" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B234">
         <v>2.564102564102564E-2</v>
@@ -5896,10 +5896,10 @@
         <v>17</v>
       </c>
       <c r="D234" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E234" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F234" t="s">
         <v>19</v>
@@ -5914,15 +5914,15 @@
         <v>0</v>
       </c>
       <c r="K234" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L234">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B235">
         <v>-9.9999999999999995E-7</v>
@@ -5934,7 +5934,7 @@
         <v>9</v>
       </c>
       <c r="E235" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F235" t="s">
         <v>19</v>
@@ -5949,21 +5949,21 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K235" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L235">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -5971,15 +5971,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>5</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>2</v>
       </c>
@@ -6003,12 +6003,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>12</v>
       </c>
@@ -6028,30 +6028,30 @@
         <v>6</v>
       </c>
       <c r="G244" t="s">
+        <v>123</v>
+      </c>
+      <c r="H244" t="s">
+        <v>124</v>
+      </c>
+      <c r="I244" t="s">
+        <v>125</v>
+      </c>
+      <c r="J244" t="s">
         <v>126</v>
-      </c>
-      <c r="H244" t="s">
-        <v>127</v>
-      </c>
-      <c r="I244" t="s">
-        <v>128</v>
-      </c>
-      <c r="J244" t="s">
-        <v>129</v>
       </c>
       <c r="K244" t="s">
         <v>10</v>
       </c>
       <c r="L244" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M244" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B245">
         <v>7.9299999999999995E-13</v>
@@ -6060,7 +6060,7 @@
         <v>9</v>
       </c>
       <c r="E245" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F245" t="s">
         <v>30</v>
@@ -6075,13 +6075,13 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K245" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L245">
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>26</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="E246" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F246" t="s">
         <v>30</v>
@@ -6107,13 +6107,13 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K246" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L246">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>31</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>9</v>
       </c>
       <c r="E247" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F247" t="s">
         <v>30</v>
@@ -6139,13 +6139,13 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K247" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L247">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>32</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>9</v>
       </c>
       <c r="E248" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F248" t="s">
         <v>30</v>
@@ -6171,13 +6171,13 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K248" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>33</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>9</v>
       </c>
       <c r="E249" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F249" t="s">
         <v>30</v>
@@ -6203,13 +6203,13 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K249" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L249">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>34</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>9</v>
       </c>
       <c r="E250" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F250" t="s">
         <v>30</v>
@@ -6235,15 +6235,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K250" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L250">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="B251">
         <v>5.5999999999999999E-3</v>
@@ -6267,15 +6267,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K251" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B252">
         <v>2.2000000000000001E-6</v>
@@ -6284,7 +6284,7 @@
         <v>9</v>
       </c>
       <c r="E252" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F252" t="s">
         <v>30</v>
@@ -6299,15 +6299,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K252" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L252">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B253">
         <v>9.9999999999999995E-7</v>
@@ -6316,7 +6316,7 @@
         <v>9</v>
       </c>
       <c r="E253" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F253" t="s">
         <v>30</v>
@@ -6331,15 +6331,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K253" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L253">
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B254">
         <v>2.9000000000000003E-17</v>
@@ -6348,7 +6348,7 @@
         <v>9</v>
       </c>
       <c r="E254" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F254" t="s">
         <v>30</v>
@@ -6363,15 +6363,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K254" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L254">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B255">
         <v>1.37E-6</v>
@@ -6380,7 +6380,7 @@
         <v>9</v>
       </c>
       <c r="E255" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F255" t="s">
         <v>30</v>
@@ -6395,15 +6395,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K255" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L255">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B256">
         <v>3.3099999999999999E-8</v>
@@ -6412,7 +6412,7 @@
         <v>9</v>
       </c>
       <c r="E256" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F256" t="s">
         <v>30</v>
@@ -6427,15 +6427,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K256" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L256">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B257">
         <v>0.52500000000000002</v>
@@ -6444,7 +6444,7 @@
         <v>18</v>
       </c>
       <c r="E257" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F257" t="s">
         <v>30</v>
@@ -6459,15 +6459,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K257" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L257">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B258">
         <v>7.9299999999999997E-7</v>
@@ -6476,7 +6476,7 @@
         <v>9</v>
       </c>
       <c r="E258" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F258" t="s">
         <v>30</v>
@@ -6491,15 +6491,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K258" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L258">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B259">
         <v>3E-11</v>
@@ -6508,7 +6508,7 @@
         <v>9</v>
       </c>
       <c r="E259" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F259" t="s">
         <v>30</v>
@@ -6523,15 +6523,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K259" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L259">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B260">
         <v>9.9999999999999995E-7</v>
@@ -6540,7 +6540,7 @@
         <v>9</v>
       </c>
       <c r="E260" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F260" t="s">
         <v>30</v>
@@ -6555,15 +6555,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K260" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L260">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B261">
         <v>9.9699999999999994E-6</v>
@@ -6572,7 +6572,7 @@
         <v>9</v>
       </c>
       <c r="E261" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F261" t="s">
         <v>30</v>
@@ -6587,15 +6587,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K261" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L261">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B262">
         <v>8.0000000000000005E-9</v>
@@ -6604,7 +6604,7 @@
         <v>9</v>
       </c>
       <c r="E262" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F262" t="s">
         <v>30</v>
@@ -6619,15 +6619,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K262" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L262">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B263">
         <v>4.9999999999999998E-7</v>
@@ -6636,7 +6636,7 @@
         <v>9</v>
       </c>
       <c r="E263" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F263" t="s">
         <v>30</v>
@@ -6651,15 +6651,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K263" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B264">
         <v>1.15E-6</v>
@@ -6668,7 +6668,7 @@
         <v>9</v>
       </c>
       <c r="E264" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F264" t="s">
         <v>30</v>
@@ -6683,15 +6683,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K264" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L264">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B265">
         <v>7.0500000000000003E-7</v>
@@ -6700,7 +6700,7 @@
         <v>9</v>
       </c>
       <c r="E265" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F265" t="s">
         <v>30</v>
@@ -6715,15 +6715,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K265" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L265">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B266">
         <v>1.6000000000000001E-8</v>
@@ -6732,7 +6732,7 @@
         <v>9</v>
       </c>
       <c r="E266" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F266" t="s">
         <v>30</v>
@@ -6747,15 +6747,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K266" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L266">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B267">
         <v>4.9999999999999998E-7</v>
@@ -6764,7 +6764,7 @@
         <v>9</v>
       </c>
       <c r="E267" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F267" t="s">
         <v>30</v>
@@ -6779,15 +6779,15 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K267" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L267">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B268">
         <v>1.5E-9</v>
@@ -6796,7 +6796,7 @@
         <v>9</v>
       </c>
       <c r="E268" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F268" t="s">
         <v>30</v>
@@ -6811,15 +6811,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K268" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L268">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -6831,7 +6831,7 @@
         <v>18</v>
       </c>
       <c r="E269" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F269" t="s">
         <v>16</v>
@@ -6840,12 +6840,12 @@
         <v>100</v>
       </c>
       <c r="K269" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B270">
         <v>5.04E-2</v>
@@ -6857,7 +6857,7 @@
         <v>9</v>
       </c>
       <c r="E270" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F270" t="s">
         <v>19</v>
@@ -6869,12 +6869,12 @@
         <v>5.04E-2</v>
       </c>
       <c r="K270" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>164</v>
       </c>
       <c r="B271">
         <v>7.7000000000000001E-5</v>
@@ -6886,7 +6886,7 @@
         <v>9</v>
       </c>
       <c r="E271" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F271" t="s">
         <v>19</v>
@@ -6898,12 +6898,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K271" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B272">
         <v>2.1900000000000002E-12</v>
@@ -6915,7 +6915,7 @@
         <v>8</v>
       </c>
       <c r="E272" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F272" t="s">
         <v>19</v>
@@ -6930,15 +6930,15 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K272" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L272">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B273">
         <v>2.5000000000000002E-6</v>
@@ -6950,7 +6950,7 @@
         <v>9</v>
       </c>
       <c r="E273" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F273" t="s">
         <v>19</v>
@@ -6965,15 +6965,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K273" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L273">
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B274">
         <v>1.9999999999999999E-6</v>
@@ -6985,7 +6985,7 @@
         <v>9</v>
       </c>
       <c r="E274" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F274" t="s">
         <v>19</v>
@@ -7000,15 +7000,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K274" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L274">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B275">
         <v>0.5</v>
@@ -7020,7 +7020,7 @@
         <v>9</v>
       </c>
       <c r="E275" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F275" t="s">
         <v>19</v>
@@ -7035,18 +7035,18 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K275" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L275">
         <v>0</v>
       </c>
       <c r="M275" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B276">
         <v>2.564102564102564E-2</v>
@@ -7055,10 +7055,10 @@
         <v>17</v>
       </c>
       <c r="D276" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E276" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F276" t="s">
         <v>19</v>
@@ -7073,15 +7073,15 @@
         <v>0</v>
       </c>
       <c r="K276" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L276">
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B277">
         <v>-9.9999999999999995E-7</v>
@@ -7093,7 +7093,7 @@
         <v>9</v>
       </c>
       <c r="E277" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F277" t="s">
         <v>19</v>
@@ -7108,21 +7108,21 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K277" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L277">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>4</v>
       </c>
@@ -7130,15 +7130,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>5</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>6</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>8</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>2</v>
       </c>
@@ -7162,12 +7162,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>12</v>
       </c>
@@ -7187,30 +7187,30 @@
         <v>6</v>
       </c>
       <c r="G286" t="s">
+        <v>123</v>
+      </c>
+      <c r="H286" t="s">
+        <v>124</v>
+      </c>
+      <c r="I286" t="s">
+        <v>125</v>
+      </c>
+      <c r="J286" t="s">
         <v>126</v>
-      </c>
-      <c r="H286" t="s">
-        <v>127</v>
-      </c>
-      <c r="I286" t="s">
-        <v>128</v>
-      </c>
-      <c r="J286" t="s">
-        <v>129</v>
       </c>
       <c r="K286" t="s">
         <v>10</v>
       </c>
       <c r="L286" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M286" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B287">
         <v>7.9299999999999995E-13</v>
@@ -7219,7 +7219,7 @@
         <v>9</v>
       </c>
       <c r="E287" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F287" t="s">
         <v>30</v>
@@ -7234,13 +7234,13 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K287" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>26</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>9</v>
       </c>
       <c r="E288" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F288" t="s">
         <v>30</v>
@@ -7266,13 +7266,13 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K288" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L288">
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>31</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>9</v>
       </c>
       <c r="E289" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F289" t="s">
         <v>30</v>
@@ -7298,13 +7298,13 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K289" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L289">
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>32</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>9</v>
       </c>
       <c r="E290" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F290" t="s">
         <v>30</v>
@@ -7330,13 +7330,13 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K290" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L290">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>33</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>9</v>
       </c>
       <c r="E291" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F291" t="s">
         <v>30</v>
@@ -7362,13 +7362,13 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K291" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L291">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>34</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>9</v>
       </c>
       <c r="E292" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F292" t="s">
         <v>30</v>
@@ -7394,15 +7394,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K292" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L292">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="B293">
         <v>5.5999999999999999E-3</v>
@@ -7426,15 +7426,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K293" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L293">
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B294">
         <v>2.2000000000000001E-6</v>
@@ -7443,7 +7443,7 @@
         <v>9</v>
       </c>
       <c r="E294" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F294" t="s">
         <v>30</v>
@@ -7458,15 +7458,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K294" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L294">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B295">
         <v>9.9999999999999995E-7</v>
@@ -7475,7 +7475,7 @@
         <v>9</v>
       </c>
       <c r="E295" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F295" t="s">
         <v>30</v>
@@ -7490,15 +7490,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K295" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L295">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B296">
         <v>2.9000000000000003E-17</v>
@@ -7507,7 +7507,7 @@
         <v>9</v>
       </c>
       <c r="E296" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F296" t="s">
         <v>30</v>
@@ -7522,15 +7522,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K296" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B297">
         <v>1.37E-6</v>
@@ -7539,7 +7539,7 @@
         <v>9</v>
       </c>
       <c r="E297" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F297" t="s">
         <v>30</v>
@@ -7554,15 +7554,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K297" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L297">
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B298">
         <v>3.3099999999999999E-8</v>
@@ -7571,7 +7571,7 @@
         <v>9</v>
       </c>
       <c r="E298" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F298" t="s">
         <v>30</v>
@@ -7586,15 +7586,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K298" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L298">
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B299">
         <v>0.52500000000000002</v>
@@ -7603,7 +7603,7 @@
         <v>18</v>
       </c>
       <c r="E299" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F299" t="s">
         <v>30</v>
@@ -7618,15 +7618,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K299" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L299">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B300">
         <v>7.9299999999999997E-7</v>
@@ -7635,7 +7635,7 @@
         <v>9</v>
       </c>
       <c r="E300" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F300" t="s">
         <v>30</v>
@@ -7650,15 +7650,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K300" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L300">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B301">
         <v>3E-11</v>
@@ -7667,7 +7667,7 @@
         <v>9</v>
       </c>
       <c r="E301" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F301" t="s">
         <v>30</v>
@@ -7682,15 +7682,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K301" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L301">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B302">
         <v>9.9999999999999995E-7</v>
@@ -7699,7 +7699,7 @@
         <v>9</v>
       </c>
       <c r="E302" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F302" t="s">
         <v>30</v>
@@ -7714,15 +7714,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K302" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L302">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B303">
         <v>9.9699999999999994E-6</v>
@@ -7731,7 +7731,7 @@
         <v>9</v>
       </c>
       <c r="E303" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F303" t="s">
         <v>30</v>
@@ -7746,15 +7746,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K303" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L303">
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B304">
         <v>8.0000000000000005E-9</v>
@@ -7763,7 +7763,7 @@
         <v>9</v>
       </c>
       <c r="E304" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F304" t="s">
         <v>30</v>
@@ -7778,15 +7778,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K304" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L304">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B305">
         <v>4.9999999999999998E-7</v>
@@ -7795,7 +7795,7 @@
         <v>9</v>
       </c>
       <c r="E305" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F305" t="s">
         <v>30</v>
@@ -7810,15 +7810,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K305" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L305">
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B306">
         <v>1.15E-6</v>
@@ -7827,7 +7827,7 @@
         <v>9</v>
       </c>
       <c r="E306" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F306" t="s">
         <v>30</v>
@@ -7842,15 +7842,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K306" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L306">
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B307">
         <v>7.0500000000000003E-7</v>
@@ -7859,7 +7859,7 @@
         <v>9</v>
       </c>
       <c r="E307" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F307" t="s">
         <v>30</v>
@@ -7874,15 +7874,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K307" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L307">
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B308">
         <v>1.6000000000000001E-8</v>
@@ -7891,7 +7891,7 @@
         <v>9</v>
       </c>
       <c r="E308" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F308" t="s">
         <v>30</v>
@@ -7906,15 +7906,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K308" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L308">
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B309">
         <v>4.9999999999999998E-7</v>
@@ -7923,7 +7923,7 @@
         <v>9</v>
       </c>
       <c r="E309" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F309" t="s">
         <v>30</v>
@@ -7938,15 +7938,15 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K309" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L309">
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B310">
         <v>1.5E-9</v>
@@ -7955,7 +7955,7 @@
         <v>9</v>
       </c>
       <c r="E310" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F310" t="s">
         <v>30</v>
@@ -7970,15 +7970,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K310" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L310">
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -7990,7 +7990,7 @@
         <v>18</v>
       </c>
       <c r="E311" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F311" t="s">
         <v>16</v>
@@ -7999,12 +7999,12 @@
         <v>100</v>
       </c>
       <c r="K311" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B312">
         <v>5.04E-2</v>
@@ -8016,7 +8016,7 @@
         <v>9</v>
       </c>
       <c r="E312" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F312" t="s">
         <v>19</v>
@@ -8028,12 +8028,12 @@
         <v>5.04E-2</v>
       </c>
       <c r="K312" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
-        <v>164</v>
       </c>
       <c r="B313">
         <v>7.7000000000000001E-5</v>
@@ -8045,7 +8045,7 @@
         <v>9</v>
       </c>
       <c r="E313" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F313" t="s">
         <v>19</v>
@@ -8057,12 +8057,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K313" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B314">
         <v>2.1900000000000002E-12</v>
@@ -8074,7 +8074,7 @@
         <v>8</v>
       </c>
       <c r="E314" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F314" t="s">
         <v>19</v>
@@ -8089,15 +8089,15 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K314" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L314">
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B315">
         <v>2.5000000000000002E-6</v>
@@ -8109,7 +8109,7 @@
         <v>9</v>
       </c>
       <c r="E315" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F315" t="s">
         <v>19</v>
@@ -8124,15 +8124,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K315" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L315">
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B316">
         <v>1.9999999999999999E-6</v>
@@ -8144,7 +8144,7 @@
         <v>9</v>
       </c>
       <c r="E316" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F316" t="s">
         <v>19</v>
@@ -8159,15 +8159,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K316" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L316">
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B317">
         <v>0.5</v>
@@ -8179,7 +8179,7 @@
         <v>9</v>
       </c>
       <c r="E317" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F317" t="s">
         <v>19</v>
@@ -8194,18 +8194,18 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K317" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L317">
         <v>0</v>
       </c>
       <c r="M317" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B318">
         <v>2.564102564102564E-2</v>
@@ -8214,10 +8214,10 @@
         <v>17</v>
       </c>
       <c r="D318" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E318" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F318" t="s">
         <v>19</v>
@@ -8232,15 +8232,15 @@
         <v>0</v>
       </c>
       <c r="K318" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L318">
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B319">
         <v>-9.9999999999999995E-7</v>
@@ -8252,7 +8252,7 @@
         <v>9</v>
       </c>
       <c r="E319" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F319" t="s">
         <v>19</v>
@@ -8267,21 +8267,21 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K319" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L319">
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -8289,15 +8289,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>5</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>6</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>8</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>2</v>
       </c>
@@ -8321,12 +8321,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>12</v>
       </c>
@@ -8346,30 +8346,30 @@
         <v>6</v>
       </c>
       <c r="G328" t="s">
+        <v>123</v>
+      </c>
+      <c r="H328" t="s">
+        <v>124</v>
+      </c>
+      <c r="I328" t="s">
+        <v>125</v>
+      </c>
+      <c r="J328" t="s">
         <v>126</v>
-      </c>
-      <c r="H328" t="s">
-        <v>127</v>
-      </c>
-      <c r="I328" t="s">
-        <v>128</v>
-      </c>
-      <c r="J328" t="s">
-        <v>129</v>
       </c>
       <c r="K328" t="s">
         <v>10</v>
       </c>
       <c r="L328" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M328" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B329">
         <v>7.9299999999999995E-13</v>
@@ -8378,7 +8378,7 @@
         <v>9</v>
       </c>
       <c r="E329" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F329" t="s">
         <v>30</v>
@@ -8393,13 +8393,13 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K329" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L329">
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>26</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>9</v>
       </c>
       <c r="E330" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F330" t="s">
         <v>30</v>
@@ -8425,13 +8425,13 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K330" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L330">
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>31</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>9</v>
       </c>
       <c r="E331" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F331" t="s">
         <v>30</v>
@@ -8457,15 +8457,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K331" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L331">
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B332">
         <v>1.77E-6</v>
@@ -8486,10 +8486,10 @@
         <v>1.77E-6</v>
       </c>
       <c r="K332" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>32</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>9</v>
       </c>
       <c r="E333" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F333" t="s">
         <v>30</v>
@@ -8515,13 +8515,13 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K333" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L333">
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>33</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>9</v>
       </c>
       <c r="E334" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F334" t="s">
         <v>30</v>
@@ -8547,13 +8547,13 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K334" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L334">
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>34</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>9</v>
       </c>
       <c r="E335" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F335" t="s">
         <v>30</v>
@@ -8579,15 +8579,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K335" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L335">
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="B336">
         <v>5.5999999999999999E-3</v>
@@ -8611,15 +8611,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K336" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L336">
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B337">
         <v>2.2000000000000001E-6</v>
@@ -8628,7 +8628,7 @@
         <v>9</v>
       </c>
       <c r="E337" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F337" t="s">
         <v>30</v>
@@ -8643,15 +8643,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K337" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L337">
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B338">
         <v>9.9999999999999995E-7</v>
@@ -8660,7 +8660,7 @@
         <v>9</v>
       </c>
       <c r="E338" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F338" t="s">
         <v>30</v>
@@ -8675,15 +8675,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K338" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L338">
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B339">
         <v>2.9000000000000003E-17</v>
@@ -8692,7 +8692,7 @@
         <v>9</v>
       </c>
       <c r="E339" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F339" t="s">
         <v>30</v>
@@ -8707,15 +8707,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K339" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L339">
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B340">
         <v>1.37E-6</v>
@@ -8724,7 +8724,7 @@
         <v>9</v>
       </c>
       <c r="E340" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F340" t="s">
         <v>30</v>
@@ -8739,15 +8739,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K340" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L340">
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B341">
         <v>3.3099999999999999E-8</v>
@@ -8756,7 +8756,7 @@
         <v>9</v>
       </c>
       <c r="E341" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F341" t="s">
         <v>30</v>
@@ -8771,15 +8771,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K341" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L341">
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B342">
         <v>0.52500000000000002</v>
@@ -8788,7 +8788,7 @@
         <v>18</v>
       </c>
       <c r="E342" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F342" t="s">
         <v>30</v>
@@ -8803,15 +8803,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K342" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L342">
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B343">
         <v>7.9299999999999997E-7</v>
@@ -8820,7 +8820,7 @@
         <v>9</v>
       </c>
       <c r="E343" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F343" t="s">
         <v>30</v>
@@ -8835,15 +8835,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K343" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L343">
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B344">
         <v>3E-11</v>
@@ -8852,7 +8852,7 @@
         <v>9</v>
       </c>
       <c r="E344" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F344" t="s">
         <v>30</v>
@@ -8867,15 +8867,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K344" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L344">
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B345">
         <v>9.9999999999999995E-7</v>
@@ -8884,7 +8884,7 @@
         <v>9</v>
       </c>
       <c r="E345" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F345" t="s">
         <v>30</v>
@@ -8899,15 +8899,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K345" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L345">
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B346">
         <v>2.0999999999999998E-6</v>
@@ -8928,12 +8928,12 @@
         <v>2.0999999999999998E-6</v>
       </c>
       <c r="K346" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B347">
         <v>9.9699999999999994E-6</v>
@@ -8942,7 +8942,7 @@
         <v>9</v>
       </c>
       <c r="E347" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F347" t="s">
         <v>30</v>
@@ -8957,15 +8957,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K347" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L347">
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B348">
         <v>8.0000000000000005E-9</v>
@@ -8974,7 +8974,7 @@
         <v>9</v>
       </c>
       <c r="E348" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F348" t="s">
         <v>30</v>
@@ -8989,15 +8989,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K348" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L348">
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B349">
         <v>4.9999999999999998E-7</v>
@@ -9006,7 +9006,7 @@
         <v>9</v>
       </c>
       <c r="E349" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F349" t="s">
         <v>30</v>
@@ -9021,15 +9021,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K349" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L349">
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B350">
         <v>1.15E-6</v>
@@ -9038,7 +9038,7 @@
         <v>9</v>
       </c>
       <c r="E350" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F350" t="s">
         <v>30</v>
@@ -9053,15 +9053,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K350" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L350">
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B351">
         <v>7.0500000000000003E-7</v>
@@ -9070,7 +9070,7 @@
         <v>9</v>
       </c>
       <c r="E351" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F351" t="s">
         <v>30</v>
@@ -9085,15 +9085,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K351" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L351">
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B352">
         <v>1.6000000000000001E-8</v>
@@ -9102,7 +9102,7 @@
         <v>9</v>
       </c>
       <c r="E352" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F352" t="s">
         <v>30</v>
@@ -9117,15 +9117,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K352" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L352">
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B353">
         <v>4.9999999999999998E-7</v>
@@ -9134,7 +9134,7 @@
         <v>9</v>
       </c>
       <c r="E353" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F353" t="s">
         <v>30</v>
@@ -9149,15 +9149,15 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K353" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L353">
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B354">
         <v>1.5E-9</v>
@@ -9166,7 +9166,7 @@
         <v>9</v>
       </c>
       <c r="E354" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F354" t="s">
         <v>30</v>
@@ -9181,15 +9181,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K354" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L354">
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -9201,7 +9201,7 @@
         <v>18</v>
       </c>
       <c r="E355" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F355" t="s">
         <v>16</v>
@@ -9210,12 +9210,12 @@
         <v>100</v>
       </c>
       <c r="K355" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B356">
         <v>5.04E-2</v>
@@ -9227,7 +9227,7 @@
         <v>9</v>
       </c>
       <c r="E356" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F356" t="s">
         <v>19</v>
@@ -9239,12 +9239,12 @@
         <v>5.04E-2</v>
       </c>
       <c r="K356" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
-        <v>164</v>
       </c>
       <c r="B357">
         <v>7.7000000000000001E-5</v>
@@ -9256,7 +9256,7 @@
         <v>9</v>
       </c>
       <c r="E357" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F357" t="s">
         <v>19</v>
@@ -9268,12 +9268,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K357" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B358">
         <v>2.1900000000000002E-12</v>
@@ -9285,7 +9285,7 @@
         <v>8</v>
       </c>
       <c r="E358" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F358" t="s">
         <v>19</v>
@@ -9300,15 +9300,15 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K358" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L358">
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B359">
         <v>2.5000000000000002E-6</v>
@@ -9320,7 +9320,7 @@
         <v>9</v>
       </c>
       <c r="E359" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F359" t="s">
         <v>19</v>
@@ -9335,15 +9335,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K359" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L359">
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B360">
         <v>1.9999999999999999E-6</v>
@@ -9355,7 +9355,7 @@
         <v>9</v>
       </c>
       <c r="E360" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F360" t="s">
         <v>19</v>
@@ -9370,15 +9370,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K360" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L360">
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B361">
         <v>0.5</v>
@@ -9390,7 +9390,7 @@
         <v>9</v>
       </c>
       <c r="E361" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F361" t="s">
         <v>19</v>
@@ -9405,18 +9405,18 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K361" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L361">
         <v>0</v>
       </c>
       <c r="M361" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B362">
         <v>2.564102564102564E-2</v>
@@ -9425,10 +9425,10 @@
         <v>17</v>
       </c>
       <c r="D362" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E362" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F362" t="s">
         <v>19</v>
@@ -9443,15 +9443,15 @@
         <v>0</v>
       </c>
       <c r="K362" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L362">
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B363">
         <v>-9.9999999999999995E-7</v>
@@ -9463,7 +9463,7 @@
         <v>9</v>
       </c>
       <c r="E363" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F363" t="s">
         <v>19</v>
@@ -9478,21 +9478,21 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K363" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L363">
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>2</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>4</v>
       </c>
@@ -9508,15 +9508,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>5</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>6</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>8</v>
       </c>
@@ -9532,12 +9532,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>12</v>
       </c>
@@ -9557,24 +9557,24 @@
         <v>6</v>
       </c>
       <c r="G372" t="s">
+        <v>123</v>
+      </c>
+      <c r="H372" t="s">
+        <v>124</v>
+      </c>
+      <c r="I372" t="s">
         <v>126</v>
-      </c>
-      <c r="H372" t="s">
-        <v>127</v>
-      </c>
-      <c r="I372" t="s">
-        <v>129</v>
       </c>
       <c r="J372" t="s">
         <v>10</v>
       </c>
       <c r="K372" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="373" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -9586,7 +9586,7 @@
         <v>21</v>
       </c>
       <c r="E373" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F373" t="s">
         <v>16</v>
@@ -9598,12 +9598,12 @@
         <v>28</v>
       </c>
       <c r="K373" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B374">
         <v>5.81</v>
@@ -9615,7 +9615,7 @@
         <v>18</v>
       </c>
       <c r="E374" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F374" t="s">
         <v>19</v>
@@ -9627,21 +9627,21 @@
         <v>5.81</v>
       </c>
       <c r="J374" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K374" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>2</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -9657,15 +9657,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>5</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>6</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>8</v>
       </c>
@@ -9681,12 +9681,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>12</v>
       </c>
@@ -9706,24 +9706,24 @@
         <v>6</v>
       </c>
       <c r="G383" t="s">
+        <v>123</v>
+      </c>
+      <c r="H383" t="s">
+        <v>124</v>
+      </c>
+      <c r="I383" t="s">
         <v>126</v>
-      </c>
-      <c r="H383" t="s">
-        <v>127</v>
-      </c>
-      <c r="I383" t="s">
-        <v>129</v>
       </c>
       <c r="J383" t="s">
         <v>10</v>
       </c>
       <c r="K383" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="384" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -9735,7 +9735,7 @@
         <v>21</v>
       </c>
       <c r="E384" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F384" t="s">
         <v>16</v>
@@ -9747,12 +9747,12 @@
         <v>28</v>
       </c>
       <c r="K384" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B385">
         <v>5.81</v>
@@ -9764,7 +9764,7 @@
         <v>18</v>
       </c>
       <c r="E385" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F385" t="s">
         <v>19</v>
@@ -9776,18 +9776,18 @@
         <v>5.81</v>
       </c>
       <c r="J385" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="387" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>2</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>4</v>
       </c>
@@ -9803,15 +9803,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>5</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>6</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>8</v>
       </c>
@@ -9827,12 +9827,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>12</v>
       </c>
@@ -9852,24 +9852,24 @@
         <v>6</v>
       </c>
       <c r="G394" t="s">
+        <v>123</v>
+      </c>
+      <c r="H394" t="s">
+        <v>124</v>
+      </c>
+      <c r="I394" t="s">
         <v>126</v>
-      </c>
-      <c r="H394" t="s">
-        <v>127</v>
-      </c>
-      <c r="I394" t="s">
-        <v>129</v>
       </c>
       <c r="J394" t="s">
         <v>10</v>
       </c>
       <c r="K394" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -9881,7 +9881,7 @@
         <v>21</v>
       </c>
       <c r="E395" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F395" t="s">
         <v>16</v>
@@ -9893,12 +9893,12 @@
         <v>28</v>
       </c>
       <c r="K395" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B396">
         <v>5.81</v>
@@ -9910,7 +9910,7 @@
         <v>18</v>
       </c>
       <c r="E396" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F396" t="s">
         <v>19</v>
@@ -9922,18 +9922,18 @@
         <v>5.81</v>
       </c>
       <c r="J396" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="398" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>2</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>4</v>
       </c>
@@ -9949,15 +9949,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>5</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>6</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>8</v>
       </c>
@@ -9973,12 +9973,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>12</v>
       </c>
@@ -9998,24 +9998,24 @@
         <v>6</v>
       </c>
       <c r="G405" t="s">
+        <v>123</v>
+      </c>
+      <c r="H405" t="s">
+        <v>124</v>
+      </c>
+      <c r="I405" t="s">
         <v>126</v>
-      </c>
-      <c r="H405" t="s">
-        <v>127</v>
-      </c>
-      <c r="I405" t="s">
-        <v>129</v>
       </c>
       <c r="J405" t="s">
         <v>10</v>
       </c>
       <c r="K405" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -10027,7 +10027,7 @@
         <v>21</v>
       </c>
       <c r="E406" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F406" t="s">
         <v>16</v>
@@ -10039,12 +10039,12 @@
         <v>28</v>
       </c>
       <c r="K406" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B407">
         <v>5.81</v>
@@ -10056,7 +10056,7 @@
         <v>18</v>
       </c>
       <c r="E407" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F407" t="s">
         <v>19</v>
@@ -10068,7 +10068,7 @@
         <v>5.81</v>
       </c>
       <c r="J407" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BE015D-C13F-6D46-8E97-99CC11A03385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$407</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -606,7 +622,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1003,20 +1019,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1040,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1032,7 +1048,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1040,7 +1056,7 @@
         <v>1.283708329984486</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1048,7 +1064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1064,7 +1080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1072,7 +1088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>183</v>
       </c>
@@ -1080,12 +1096,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1111,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>187</v>
       </c>
@@ -1134,7 +1150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1160,7 +1176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1186,7 +1202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1212,7 +1228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1238,7 +1254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1264,7 +1280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>192</v>
       </c>
@@ -1290,7 +1306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1316,7 +1332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1342,7 +1358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1368,7 +1384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1394,7 +1410,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1420,7 +1436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1446,7 +1462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1472,7 +1488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1498,7 +1514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1524,7 +1540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1550,7 +1566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1576,7 +1592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1602,7 +1618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1628,7 +1644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1654,7 +1670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1677,7 +1693,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -1700,7 +1716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -1723,7 +1739,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -1746,7 +1762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -1769,7 +1785,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -1792,7 +1808,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -1815,7 +1831,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -1838,7 +1854,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -1861,7 +1877,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -1884,7 +1900,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>185</v>
       </c>
@@ -1907,7 +1923,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -1930,7 +1946,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -1953,7 +1969,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -1976,7 +1992,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -1999,7 +2015,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -2022,7 +2038,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -2045,7 +2061,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -2068,7 +2084,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>1</v>
       </c>
@@ -2076,7 +2092,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -2084,7 +2100,7 @@
         <v>1.3097345915810461</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -2092,7 +2108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2100,7 +2116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2108,7 +2124,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2116,7 +2132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -2124,12 +2140,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -2155,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>188</v>
       </c>
@@ -2178,7 +2194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -2204,7 +2220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -2230,7 +2246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -2256,7 +2272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -2282,7 +2298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -2308,7 +2324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>192</v>
       </c>
@@ -2334,7 +2350,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>35</v>
       </c>
@@ -2360,7 +2376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -2386,7 +2402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>37</v>
       </c>
@@ -2412,7 +2428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -2438,7 +2454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -2464,7 +2480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>40</v>
       </c>
@@ -2490,7 +2506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -2516,7 +2532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -2542,7 +2558,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -2568,7 +2584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -2594,7 +2610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -2620,7 +2636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>46</v>
       </c>
@@ -2646,7 +2662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>47</v>
       </c>
@@ -2672,7 +2688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>48</v>
       </c>
@@ -2698,7 +2714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>53</v>
       </c>
@@ -2721,7 +2737,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>55</v>
       </c>
@@ -2744,7 +2760,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>58</v>
       </c>
@@ -2767,7 +2783,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>61</v>
       </c>
@@ -2790,7 +2806,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>63</v>
       </c>
@@ -2813,7 +2829,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>67</v>
       </c>
@@ -2836,7 +2852,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>69</v>
       </c>
@@ -2859,7 +2875,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>71</v>
       </c>
@@ -2882,7 +2898,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>185</v>
       </c>
@@ -2905,7 +2921,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>73</v>
       </c>
@@ -2928,7 +2944,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>75</v>
       </c>
@@ -2951,7 +2967,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>77</v>
       </c>
@@ -2974,7 +2990,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -2997,7 +3013,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>82</v>
       </c>
@@ -3020,7 +3036,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>84</v>
       </c>
@@ -3043,7 +3059,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>86</v>
       </c>
@@ -3066,7 +3082,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>1</v>
       </c>
@@ -3074,7 +3090,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -3082,7 +3098,7 @@
         <v>1.3051904328123036</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -3090,7 +3106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -3098,7 +3114,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -3106,7 +3122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>183</v>
       </c>
@@ -3114,12 +3130,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -3145,7 +3161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <f>B100</f>
         <v>hydrogen production, auto-thermal reforming, from biomethane, 25 bar</v>
@@ -3169,7 +3185,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>192</v>
       </c>
@@ -3195,7 +3211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -3221,7 +3237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>48</v>
       </c>
@@ -3241,7 +3257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>55</v>
       </c>
@@ -3264,7 +3280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>58</v>
       </c>
@@ -3287,7 +3303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>61</v>
       </c>
@@ -3310,7 +3326,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>63</v>
       </c>
@@ -3333,7 +3349,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>67</v>
       </c>
@@ -3356,7 +3372,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>69</v>
       </c>
@@ -3379,7 +3395,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>71</v>
       </c>
@@ -3402,7 +3418,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>185</v>
       </c>
@@ -3425,7 +3441,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>73</v>
       </c>
@@ -3448,7 +3464,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>75</v>
       </c>
@@ -3471,7 +3487,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>77</v>
       </c>
@@ -3494,7 +3510,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>79</v>
       </c>
@@ -3517,7 +3533,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>82</v>
       </c>
@@ -3540,7 +3556,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>84</v>
       </c>
@@ -3563,7 +3579,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>86</v>
       </c>
@@ -3586,7 +3602,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>53</v>
       </c>
@@ -3609,7 +3625,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>1</v>
       </c>
@@ -3617,7 +3633,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -3625,7 +3641,7 @@
         <v>1.3052025620169032</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -3633,7 +3649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -3641,7 +3657,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -3649,7 +3665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>183</v>
       </c>
@@ -3657,12 +3673,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -3688,7 +3704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
         <f>B129</f>
         <v>hydrogen production, auto-thermal reforming, from biomethane, with CCS (MDEA, 98% eff.), 25 bar</v>
@@ -3712,7 +3728,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>192</v>
       </c>
@@ -3738,7 +3754,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>40</v>
       </c>
@@ -3764,7 +3780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>48</v>
       </c>
@@ -3784,7 +3800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>51</v>
       </c>
@@ -3807,7 +3823,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>55</v>
       </c>
@@ -3830,7 +3846,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>58</v>
       </c>
@@ -3853,7 +3869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>61</v>
       </c>
@@ -3876,7 +3892,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>63</v>
       </c>
@@ -3899,7 +3915,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>65</v>
       </c>
@@ -3922,7 +3938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>67</v>
       </c>
@@ -3945,7 +3961,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>69</v>
       </c>
@@ -3968,7 +3984,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>71</v>
       </c>
@@ -3991,7 +4007,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>185</v>
       </c>
@@ -4014,7 +4030,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>73</v>
       </c>
@@ -4037,7 +4053,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>75</v>
       </c>
@@ -4060,7 +4076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>77</v>
       </c>
@@ -4083,7 +4099,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>79</v>
       </c>
@@ -4106,7 +4122,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>82</v>
       </c>
@@ -4129,7 +4145,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>84</v>
       </c>
@@ -4152,7 +4168,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>86</v>
       </c>
@@ -4175,7 +4191,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>53</v>
       </c>
@@ -4198,7 +4214,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>1</v>
       </c>
@@ -4207,7 +4223,7 @@
       </c>
       <c r="C160" s="5"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="16" t="s">
         <v>10</v>
       </c>
@@ -4216,7 +4232,7 @@
       </c>
       <c r="C161" s="5"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="16" t="s">
         <v>5</v>
       </c>
@@ -4225,7 +4241,7 @@
       </c>
       <c r="C162" s="5"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="16" t="s">
         <v>2</v>
       </c>
@@ -4234,7 +4250,7 @@
       </c>
       <c r="C163" s="5"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="16" t="s">
         <v>4</v>
       </c>
@@ -4243,7 +4259,7 @@
       </c>
       <c r="C164" s="5"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="16" t="s">
         <v>8</v>
       </c>
@@ -4252,14 +4268,14 @@
       </c>
       <c r="C165" s="5"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>12</v>
       </c>
@@ -4288,7 +4304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>53</v>
       </c>
@@ -4314,7 +4330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
         <v>90</v>
       </c>
@@ -4340,7 +4356,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>93</v>
       </c>
@@ -4371,7 +4387,7 @@
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
     </row>
-    <row r="171" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
         <v>95</v>
       </c>
@@ -4400,7 +4416,7 @@
       <c r="K171" s="11"/>
       <c r="L171" s="11"/>
     </row>
-    <row r="172" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
         <v>79</v>
       </c>
@@ -4429,7 +4445,7 @@
       <c r="K172" s="11"/>
       <c r="L172" s="11"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>98</v>
       </c>
@@ -4460,7 +4476,7 @@
       <c r="L173" s="10"/>
       <c r="M173" s="10"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
         <v>101</v>
       </c>
@@ -4486,7 +4502,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>104</v>
       </c>
@@ -4515,7 +4531,7 @@
       <c r="K175" s="11"/>
       <c r="L175" s="11"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>120</v>
       </c>
@@ -4541,7 +4557,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
         <v>109</v>
       </c>
@@ -4564,7 +4580,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
         <v>192</v>
       </c>
@@ -4587,7 +4603,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
         <v>112</v>
       </c>
@@ -4610,7 +4626,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
         <v>46</v>
       </c>
@@ -4634,7 +4650,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
         <v>115</v>
       </c>
@@ -4657,7 +4673,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
         <v>116</v>
       </c>
@@ -4680,7 +4696,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -4703,7 +4719,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>1</v>
       </c>
@@ -4711,7 +4727,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -4719,7 +4735,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -4727,7 +4743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -4735,7 +4751,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -4743,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -4751,12 +4767,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>12</v>
       </c>
@@ -4785,7 +4801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>90</v>
       </c>
@@ -4811,7 +4827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -4834,7 +4850,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -4854,7 +4870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>1</v>
       </c>
@@ -4862,7 +4878,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>2</v>
       </c>
@@ -4870,7 +4886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -4878,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -4886,7 +4902,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -4894,7 +4910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -4902,12 +4918,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>12</v>
       </c>
@@ -4948,7 +4964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>129</v>
       </c>
@@ -4980,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -5012,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>31</v>
       </c>
@@ -5044,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>32</v>
       </c>
@@ -5076,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>33</v>
       </c>
@@ -5108,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>34</v>
       </c>
@@ -5140,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>192</v>
       </c>
@@ -5172,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>134</v>
       </c>
@@ -5204,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>36</v>
       </c>
@@ -5236,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>137</v>
       </c>
@@ -5268,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>138</v>
       </c>
@@ -5300,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>37</v>
       </c>
@@ -5332,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>139</v>
       </c>
@@ -5364,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>141</v>
       </c>
@@ -5396,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>38</v>
       </c>
@@ -5428,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>109</v>
       </c>
@@ -5460,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>40</v>
       </c>
@@ -5492,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>41</v>
       </c>
@@ -5524,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>42</v>
       </c>
@@ -5556,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>43</v>
       </c>
@@ -5588,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>44</v>
       </c>
@@ -5620,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>45</v>
       </c>
@@ -5652,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>46</v>
       </c>
@@ -5684,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>47</v>
       </c>
@@ -5716,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>122</v>
       </c>
@@ -5742,7 +5758,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>148</v>
       </c>
@@ -5777,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>151</v>
       </c>
@@ -5812,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>153</v>
       </c>
@@ -5847,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>174</v>
       </c>
@@ -5885,7 +5901,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>53</v>
       </c>
@@ -5920,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>155</v>
       </c>
@@ -5955,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>1</v>
       </c>
@@ -5963,7 +5979,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -5971,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -5979,7 +5995,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -5987,7 +6003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -5995,7 +6011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>2</v>
       </c>
@@ -6003,12 +6019,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>12</v>
       </c>
@@ -6049,7 +6065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>129</v>
       </c>
@@ -6081,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>26</v>
       </c>
@@ -6113,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>31</v>
       </c>
@@ -6145,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>32</v>
       </c>
@@ -6177,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>33</v>
       </c>
@@ -6209,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>34</v>
       </c>
@@ -6241,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>192</v>
       </c>
@@ -6273,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>134</v>
       </c>
@@ -6305,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>36</v>
       </c>
@@ -6337,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>137</v>
       </c>
@@ -6369,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>138</v>
       </c>
@@ -6401,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>37</v>
       </c>
@@ -6433,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>139</v>
       </c>
@@ -6465,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>141</v>
       </c>
@@ -6497,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>38</v>
       </c>
@@ -6529,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>109</v>
       </c>
@@ -6561,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>40</v>
       </c>
@@ -6593,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>41</v>
       </c>
@@ -6625,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>42</v>
       </c>
@@ -6657,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>43</v>
       </c>
@@ -6689,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>44</v>
       </c>
@@ -6721,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>45</v>
       </c>
@@ -6753,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>46</v>
       </c>
@@ -6785,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>47</v>
       </c>
@@ -6817,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>157</v>
       </c>
@@ -6843,7 +6859,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>160</v>
       </c>
@@ -6872,7 +6888,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>161</v>
       </c>
@@ -6901,7 +6917,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>148</v>
       </c>
@@ -6936,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>151</v>
       </c>
@@ -6971,7 +6987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>153</v>
       </c>
@@ -7006,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>174</v>
       </c>
@@ -7044,7 +7060,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>53</v>
       </c>
@@ -7079,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>155</v>
       </c>
@@ -7114,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>1</v>
       </c>
@@ -7122,7 +7138,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>4</v>
       </c>
@@ -7130,7 +7146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>5</v>
       </c>
@@ -7138,7 +7154,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>6</v>
       </c>
@@ -7146,7 +7162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>8</v>
       </c>
@@ -7154,7 +7170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>2</v>
       </c>
@@ -7162,12 +7178,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>12</v>
       </c>
@@ -7208,7 +7224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>129</v>
       </c>
@@ -7240,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>26</v>
       </c>
@@ -7272,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>31</v>
       </c>
@@ -7304,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>32</v>
       </c>
@@ -7336,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>33</v>
       </c>
@@ -7368,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>34</v>
       </c>
@@ -7400,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>192</v>
       </c>
@@ -7432,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>134</v>
       </c>
@@ -7464,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>36</v>
       </c>
@@ -7496,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>137</v>
       </c>
@@ -7528,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>138</v>
       </c>
@@ -7560,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>37</v>
       </c>
@@ -7592,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>139</v>
       </c>
@@ -7624,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>141</v>
       </c>
@@ -7656,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>38</v>
       </c>
@@ -7688,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>109</v>
       </c>
@@ -7720,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>40</v>
       </c>
@@ -7752,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>41</v>
       </c>
@@ -7784,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>42</v>
       </c>
@@ -7816,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>43</v>
       </c>
@@ -7848,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>44</v>
       </c>
@@ -7880,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>45</v>
       </c>
@@ -7912,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>46</v>
       </c>
@@ -7944,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>47</v>
       </c>
@@ -7976,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>164</v>
       </c>
@@ -8002,7 +8018,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>165</v>
       </c>
@@ -8031,7 +8047,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>161</v>
       </c>
@@ -8060,7 +8076,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>148</v>
       </c>
@@ -8095,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>151</v>
       </c>
@@ -8130,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>153</v>
       </c>
@@ -8165,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>174</v>
       </c>
@@ -8203,7 +8219,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>53</v>
       </c>
@@ -8238,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>155</v>
       </c>
@@ -8273,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>1</v>
       </c>
@@ -8281,7 +8297,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -8289,7 +8305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -8297,7 +8313,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>6</v>
       </c>
@@ -8305,7 +8321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>8</v>
       </c>
@@ -8313,7 +8329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>2</v>
       </c>
@@ -8321,12 +8337,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>12</v>
       </c>
@@ -8367,7 +8383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>129</v>
       </c>
@@ -8399,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>26</v>
       </c>
@@ -8431,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>31</v>
       </c>
@@ -8463,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>116</v>
       </c>
@@ -8489,7 +8505,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>32</v>
       </c>
@@ -8521,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>33</v>
       </c>
@@ -8553,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>34</v>
       </c>
@@ -8585,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>192</v>
       </c>
@@ -8617,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>134</v>
       </c>
@@ -8649,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>36</v>
       </c>
@@ -8681,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>137</v>
       </c>
@@ -8713,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>138</v>
       </c>
@@ -8745,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>37</v>
       </c>
@@ -8777,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>139</v>
       </c>
@@ -8809,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>141</v>
       </c>
@@ -8841,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>38</v>
       </c>
@@ -8873,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>109</v>
       </c>
@@ -8905,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>115</v>
       </c>
@@ -8931,7 +8947,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>40</v>
       </c>
@@ -8963,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>41</v>
       </c>
@@ -8995,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>42</v>
       </c>
@@ -9027,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>43</v>
       </c>
@@ -9059,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>44</v>
       </c>
@@ -9091,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>45</v>
       </c>
@@ -9123,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>46</v>
       </c>
@@ -9155,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>47</v>
       </c>
@@ -9187,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>166</v>
       </c>
@@ -9213,7 +9229,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>170</v>
       </c>
@@ -9242,7 +9258,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>161</v>
       </c>
@@ -9271,7 +9287,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>148</v>
       </c>
@@ -9306,7 +9322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>151</v>
       </c>
@@ -9341,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>153</v>
       </c>
@@ -9376,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>174</v>
       </c>
@@ -9414,7 +9430,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>53</v>
       </c>
@@ -9449,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>155</v>
       </c>
@@ -9484,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>1</v>
       </c>
@@ -9492,7 +9508,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>2</v>
       </c>
@@ -9500,7 +9516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>4</v>
       </c>
@@ -9508,7 +9524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>5</v>
       </c>
@@ -9516,7 +9532,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>6</v>
       </c>
@@ -9524,7 +9540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>8</v>
       </c>
@@ -9532,12 +9548,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>12</v>
       </c>
@@ -9572,7 +9588,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>175</v>
       </c>
@@ -9601,7 +9617,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>122</v>
       </c>
@@ -9633,7 +9649,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>1</v>
       </c>
@@ -9641,7 +9657,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>2</v>
       </c>
@@ -9649,7 +9665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -9657,7 +9673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>5</v>
       </c>
@@ -9665,7 +9681,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>6</v>
       </c>
@@ -9673,7 +9689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>8</v>
       </c>
@@ -9681,12 +9697,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>12</v>
       </c>
@@ -9721,7 +9737,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>176</v>
       </c>
@@ -9750,7 +9766,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>157</v>
       </c>
@@ -9779,7 +9795,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>1</v>
       </c>
@@ -9787,7 +9803,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>2</v>
       </c>
@@ -9795,7 +9811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>4</v>
       </c>
@@ -9803,7 +9819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>5</v>
       </c>
@@ -9811,7 +9827,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>6</v>
       </c>
@@ -9819,7 +9835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>8</v>
       </c>
@@ -9827,12 +9843,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>12</v>
       </c>
@@ -9867,7 +9883,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>177</v>
       </c>
@@ -9896,7 +9912,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>164</v>
       </c>
@@ -9925,7 +9941,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="398" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
         <v>1</v>
       </c>
@@ -9933,7 +9949,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>2</v>
       </c>
@@ -9941,7 +9957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>4</v>
       </c>
@@ -9949,7 +9965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>5</v>
       </c>
@@ -9957,7 +9973,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>6</v>
       </c>
@@ -9965,7 +9981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>8</v>
       </c>
@@ -9973,12 +9989,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>12</v>
       </c>
@@ -10013,7 +10029,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
         <v>178</v>
       </c>
@@ -10042,7 +10058,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>166</v>
       </c>
@@ -10072,6 +10088,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M407" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BE015D-C13F-6D46-8E97-99CC11A03385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6A182-0FE0-1942-A9EB-4549F28C6418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="194">
   <si>
     <t>Database</t>
   </si>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="K293" sqref="K293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>139</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>141</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>38</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>109</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>40</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>41</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>42</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>43</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>44</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>45</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>46</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>47</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>157</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>160</v>
       </c>
@@ -6887,8 +6887,11 @@
       <c r="K270" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M270" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>161</v>
       </c>
@@ -6917,7 +6920,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>148</v>
       </c>
@@ -8046,6 +8049,12 @@
       <c r="K312" t="s">
         <v>158</v>
       </c>
+      <c r="L312" t="s">
+        <v>165</v>
+      </c>
+      <c r="M312" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
@@ -9256,6 +9265,9 @@
       </c>
       <c r="K356" t="s">
         <v>158</v>
+      </c>
+      <c r="M356" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6A182-0FE0-1942-A9EB-4549F28C6418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BE015D-C13F-6D46-8E97-99CC11A03385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="194">
   <si>
     <t>Database</t>
   </si>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="K293" sqref="K293"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>139</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>141</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>38</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>109</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>40</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>41</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>42</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>43</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>44</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>45</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>46</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>47</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>157</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>160</v>
       </c>
@@ -6887,11 +6887,8 @@
       <c r="K270" t="s">
         <v>158</v>
       </c>
-      <c r="M270" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>161</v>
       </c>
@@ -6920,7 +6917,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>148</v>
       </c>
@@ -8049,12 +8046,6 @@
       <c r="K312" t="s">
         <v>158</v>
       </c>
-      <c r="L312" t="s">
-        <v>165</v>
-      </c>
-      <c r="M312" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
@@ -9265,9 +9256,6 @@
       </c>
       <c r="K356" t="s">
         <v>158</v>
-      </c>
-      <c r="M356" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9F1AD0-15CB-B846-BD0D-7F2DF734B48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A50DEB4-2B3C-D940-A8F2-03E1C0502281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1709,7 +1709,8 @@
         <v>53</v>
       </c>
       <c r="B35">
-        <v>5.0788017117687465</v>
+        <f>(120*B4)/36</f>
+        <v>4.2790277666149539</v>
       </c>
       <c r="C35" t="s">
         <v>52</v>
@@ -2738,7 +2739,8 @@
         <v>53</v>
       </c>
       <c r="B85">
-        <v>5.1817707576649816</v>
+        <f>(120*B55)/36</f>
+        <v>4.36578197193682</v>
       </c>
       <c r="C85" t="s">
         <v>52</v>
@@ -3634,7 +3636,8 @@
         <v>53</v>
       </c>
       <c r="B130">
-        <v>3.9205289542065938</v>
+        <f>(120*B103)/36</f>
+        <v>4.3506347760410122</v>
       </c>
       <c r="C130" t="s">
         <v>119</v>
@@ -4231,7 +4234,8 @@
         <v>53</v>
       </c>
       <c r="B162">
-        <v>5.1638404545185992</v>
+        <f>(120*B133)/36</f>
+        <v>4.350675206723011</v>
       </c>
       <c r="C162" t="s">
         <v>52</v>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A50DEB4-2B3C-D940-A8F2-03E1C0502281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8239BA81-AD99-D24E-939C-3C8965CE00EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:M411"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8239BA81-AD99-D24E-939C-3C8965CE00EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD51C70-43B6-4C48-8BD3-BC8D943296BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$411</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -352,274 +352,274 @@
     <t>production of 2 wt-% potassium iodide solution</t>
   </si>
   <si>
+    <t>material consumption for desulphurisation, used together with activated carbon</t>
+  </si>
+  <si>
+    <t>electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>electricity consumption required for compression of feed-in gas, conditioning, and product gas recovery</t>
+  </si>
+  <si>
+    <t>Methane, non-fossil</t>
+  </si>
+  <si>
+    <t>methane slip</t>
+  </si>
+  <si>
+    <t>assume 2% of carbon dioxide remains in product upgraded biogas (Jungbluth, 2007), and the rest is removed through upgrading</t>
+  </si>
+  <si>
+    <t>Hydrogen sulfide</t>
+  </si>
+  <si>
+    <t>leak</t>
+  </si>
+  <si>
+    <t>H2S reacts with oxygen to produce S on activated carbon, assume S is further oxydized to SO2 to recover activated carbon</t>
+  </si>
+  <si>
+    <t>Monoethanolamine</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>as degradation product of MEA</t>
+  </si>
+  <si>
+    <t>Hydrogen, gaseous, 25 bar</t>
+  </si>
+  <si>
+    <t>ecoinvent 3.6 cutoff</t>
+  </si>
+  <si>
+    <t>market group for electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>Hydrogen from biogas SMR and ATR</t>
+  </si>
+  <si>
+    <t>Biogas, burned in power plant/NGCC, no CCS</t>
+  </si>
+  <si>
+    <t>uncertainty type</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>allocation</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>simapro name</t>
+  </si>
+  <si>
+    <t>Acenaphthene</t>
+  </si>
+  <si>
+    <t>air::urban air close to ground</t>
+  </si>
+  <si>
+    <t>US EPA 1998, high uncertainty reported qulitatively therein</t>
+  </si>
+  <si>
+    <t>rough estimate, high uncertainty</t>
+  </si>
+  <si>
+    <t>composition of natural gas</t>
+  </si>
+  <si>
+    <t>Carbon monoxide, non-fossil</t>
+  </si>
+  <si>
+    <t>measurement, single CC power plant</t>
+  </si>
+  <si>
+    <t>estimate from range of values from different references</t>
+  </si>
+  <si>
+    <t>Dioxins, measured as 2,3,7,8-tetrachlorodibenzo-p-dioxin</t>
+  </si>
+  <si>
+    <t>Ethane</t>
+  </si>
+  <si>
+    <t>Heat, waste</t>
+  </si>
+  <si>
+    <t>heating value and efficiency</t>
+  </si>
+  <si>
+    <t>Hexane</t>
+  </si>
+  <si>
+    <t>basic uncertainty for heavy metal; trace element in natural gas</t>
+  </si>
+  <si>
+    <t>range of values from different references</t>
+  </si>
+  <si>
+    <t>P. Jansohn: 15 ppm (industrial value)</t>
+  </si>
+  <si>
+    <t>CCS Europe 2025::Natural gas::Geological storage</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Natural gas, burned in power plant/NGCC, no CCS/RER U</t>
+  </si>
+  <si>
+    <t>market for gas power plant, combined cycle, 400MW electrical</t>
+  </si>
+  <si>
+    <t>Materials/fuels</t>
+  </si>
+  <si>
+    <t>n_plant = 1/(lifetime*annual fuel input)</t>
+  </si>
+  <si>
+    <t>market for hydrochloric acid, without water, in 30% solution state</t>
+  </si>
+  <si>
+    <t>basic uncertainty:1.05;(4,na,3,1,1,na)</t>
+  </si>
+  <si>
+    <t>market for sodium hydroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>Biogas, from biowaste</t>
+  </si>
+  <si>
+    <t>treatment of residue from cooling tower, sanitary landfill</t>
+  </si>
+  <si>
+    <t>Waste to treatment</t>
+  </si>
+  <si>
+    <t>Biogas, burned in power plant/post, pipeline 200km, storage 1000m/RER</t>
+  </si>
+  <si>
+    <t>90% capture rate</t>
+  </si>
+  <si>
+    <t>P. Jansohn (50 ppm in the flue gas; SCR -85% minus 1-3ppm due to capture)</t>
+  </si>
+  <si>
+    <t>CO2 capture/natural gas, post, 200km pipeline, storage 1000m</t>
+  </si>
+  <si>
+    <t>market for NOx retained, by selective catalytic reduction</t>
+  </si>
+  <si>
+    <t>P. Jansohn (50 ppm in the flue gas; SCR -85)</t>
+  </si>
+  <si>
+    <t>biogas from biowaste</t>
+  </si>
+  <si>
+    <t>Biogas, burned in power plant/post, pipeline 400km, storage 1000m/RER</t>
+  </si>
+  <si>
+    <t>CO2 capture/natural gas, post, 400km pipeline, storage 1000m</t>
+  </si>
+  <si>
+    <t>Biogas, burned in power plant/post, pipeline 400km, storage 3000m/RER</t>
+  </si>
+  <si>
+    <t>Difference of the ammonia emissions with and without capture according to Singh et al. 2011</t>
+  </si>
+  <si>
+    <t>Solvent slip according to Singh et al. (2011)</t>
+  </si>
+  <si>
+    <t>P. Jansohn (50 ppm in the flue gas; SCR -85% minus 1-3ppm due to capture))</t>
+  </si>
+  <si>
+    <t>CO2 capture/natural gas, post, 400km pipeline, storage 3000m</t>
+  </si>
+  <si>
+    <t>P. Jansohn (50 ppm in the flue gas; SCR -85%)</t>
+  </si>
+  <si>
+    <t>E = 1/(efficiency_noCCS)*3.6</t>
+  </si>
+  <si>
+    <t>CCS Europe 2025::Natural gas</t>
+  </si>
+  <si>
+    <t>market for water, decarbonised</t>
+  </si>
+  <si>
+    <t>electricity production, at power plant/biogas, NGCC, no CCS/kWh</t>
+  </si>
+  <si>
+    <t>electricity production, at power plant/biogas, post, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>electricity production, at power plant/biogas, post, pipeline 400km, storage 1000m</t>
+  </si>
+  <si>
+    <t>electricity production, at power plant/biogas, post, pipeline 400km, storage 3000m</t>
+  </si>
+  <si>
+    <t>water, decarbonised</t>
+  </si>
+  <si>
+    <t>Energy, gross calorific value, in biomass</t>
+  </si>
+  <si>
+    <t>natural resource::biotic</t>
+  </si>
+  <si>
+    <t>To account for primary energy</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D</t>
+  </si>
+  <si>
+    <t>market for nickel, class 1</t>
+  </si>
+  <si>
+    <t>nickel, class 1</t>
+  </si>
+  <si>
+    <t>hydrogen production, steam methane reforming, from biomethane, high and low temperature, with CCS (MDEA, 98% eff.), 26 bar</t>
+  </si>
+  <si>
+    <t>hydrogen production, steam methane reforming, from biomethane, high and low temperature, 26 bar</t>
+  </si>
+  <si>
+    <t>hydrogen production, auto-thermal reforming, from biomethane, 25 bar</t>
+  </si>
+  <si>
+    <t>hydrogen production, auto-thermal reforming, from biomethane, with CCS (MDEA, 98% eff.), 25 bar</t>
+  </si>
+  <si>
+    <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, in air</t>
+  </si>
+  <si>
+    <t>Biomethane: 0.722 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 45.4 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
+  </si>
+  <si>
     <t>2 wt-% potassium iodide solution</t>
-  </si>
-  <si>
-    <t>material consumption for desulphurisation, used together with activated carbon</t>
-  </si>
-  <si>
-    <t>electricity, medium voltage</t>
-  </si>
-  <si>
-    <t>electricity consumption required for compression of feed-in gas, conditioning, and product gas recovery</t>
-  </si>
-  <si>
-    <t>Methane, non-fossil</t>
-  </si>
-  <si>
-    <t>methane slip</t>
-  </si>
-  <si>
-    <t>assume 2% of carbon dioxide remains in product upgraded biogas (Jungbluth, 2007), and the rest is removed through upgrading</t>
-  </si>
-  <si>
-    <t>Hydrogen sulfide</t>
-  </si>
-  <si>
-    <t>leak</t>
-  </si>
-  <si>
-    <t>H2S reacts with oxygen to produce S on activated carbon, assume S is further oxydized to SO2 to recover activated carbon</t>
-  </si>
-  <si>
-    <t>Monoethanolamine</t>
-  </si>
-  <si>
-    <t>Ammonia</t>
-  </si>
-  <si>
-    <t>as degradation product of MEA</t>
-  </si>
-  <si>
-    <t>Hydrogen, gaseous, 25 bar</t>
-  </si>
-  <si>
-    <t>ecoinvent 3.6 cutoff</t>
-  </si>
-  <si>
-    <t>market group for electricity, medium voltage</t>
-  </si>
-  <si>
-    <t>Hydrogen from biogas SMR and ATR</t>
-  </si>
-  <si>
-    <t>Biogas, burned in power plant/NGCC, no CCS</t>
-  </si>
-  <si>
-    <t>uncertainty type</t>
-  </si>
-  <si>
-    <t>loc</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>allocation</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>simapro name</t>
-  </si>
-  <si>
-    <t>Acenaphthene</t>
-  </si>
-  <si>
-    <t>air::urban air close to ground</t>
-  </si>
-  <si>
-    <t>US EPA 1998, high uncertainty reported qulitatively therein</t>
-  </si>
-  <si>
-    <t>rough estimate, high uncertainty</t>
-  </si>
-  <si>
-    <t>composition of natural gas</t>
-  </si>
-  <si>
-    <t>Carbon monoxide, non-fossil</t>
-  </si>
-  <si>
-    <t>measurement, single CC power plant</t>
-  </si>
-  <si>
-    <t>estimate from range of values from different references</t>
-  </si>
-  <si>
-    <t>Dioxins, measured as 2,3,7,8-tetrachlorodibenzo-p-dioxin</t>
-  </si>
-  <si>
-    <t>Ethane</t>
-  </si>
-  <si>
-    <t>Heat, waste</t>
-  </si>
-  <si>
-    <t>heating value and efficiency</t>
-  </si>
-  <si>
-    <t>Hexane</t>
-  </si>
-  <si>
-    <t>basic uncertainty for heavy metal; trace element in natural gas</t>
-  </si>
-  <si>
-    <t>range of values from different references</t>
-  </si>
-  <si>
-    <t>P. Jansohn: 15 ppm (industrial value)</t>
-  </si>
-  <si>
-    <t>CCS Europe 2025::Natural gas::Geological storage</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Natural gas, burned in power plant/NGCC, no CCS/RER U</t>
-  </si>
-  <si>
-    <t>market for gas power plant, combined cycle, 400MW electrical</t>
-  </si>
-  <si>
-    <t>Materials/fuels</t>
-  </si>
-  <si>
-    <t>n_plant = 1/(lifetime*annual fuel input)</t>
-  </si>
-  <si>
-    <t>market for hydrochloric acid, without water, in 30% solution state</t>
-  </si>
-  <si>
-    <t>basic uncertainty:1.05;(4,na,3,1,1,na)</t>
-  </si>
-  <si>
-    <t>market for sodium hydroxide, without water, in 50% solution state</t>
-  </si>
-  <si>
-    <t>Biogas, from biowaste</t>
-  </si>
-  <si>
-    <t>treatment of residue from cooling tower, sanitary landfill</t>
-  </si>
-  <si>
-    <t>Waste to treatment</t>
-  </si>
-  <si>
-    <t>Biogas, burned in power plant/post, pipeline 200km, storage 1000m/RER</t>
-  </si>
-  <si>
-    <t>90% capture rate</t>
-  </si>
-  <si>
-    <t>P. Jansohn (50 ppm in the flue gas; SCR -85% minus 1-3ppm due to capture)</t>
-  </si>
-  <si>
-    <t>CO2 capture/natural gas, post, 200km pipeline, storage 1000m</t>
-  </si>
-  <si>
-    <t>market for NOx retained, by selective catalytic reduction</t>
-  </si>
-  <si>
-    <t>P. Jansohn (50 ppm in the flue gas; SCR -85)</t>
-  </si>
-  <si>
-    <t>biogas from biowaste</t>
-  </si>
-  <si>
-    <t>Biogas, burned in power plant/post, pipeline 400km, storage 1000m/RER</t>
-  </si>
-  <si>
-    <t>CO2 capture/natural gas, post, 400km pipeline, storage 1000m</t>
-  </si>
-  <si>
-    <t>Biogas, burned in power plant/post, pipeline 400km, storage 3000m/RER</t>
-  </si>
-  <si>
-    <t>Difference of the ammonia emissions with and without capture according to Singh et al. 2011</t>
-  </si>
-  <si>
-    <t>Solvent slip according to Singh et al. (2011)</t>
-  </si>
-  <si>
-    <t>P. Jansohn (50 ppm in the flue gas; SCR -85% minus 1-3ppm due to capture))</t>
-  </si>
-  <si>
-    <t>CO2 capture/natural gas, post, 400km pipeline, storage 3000m</t>
-  </si>
-  <si>
-    <t>P. Jansohn (50 ppm in the flue gas; SCR -85%)</t>
-  </si>
-  <si>
-    <t>E = 1/(efficiency_noCCS)*3.6</t>
-  </si>
-  <si>
-    <t>CCS Europe 2025::Natural gas</t>
-  </si>
-  <si>
-    <t>market for water, decarbonised</t>
-  </si>
-  <si>
-    <t>electricity production, at power plant/biogas, NGCC, no CCS/kWh</t>
-  </si>
-  <si>
-    <t>electricity production, at power plant/biogas, post, pipeline 200km, storage 1000m</t>
-  </si>
-  <si>
-    <t>electricity production, at power plant/biogas, post, pipeline 400km, storage 1000m</t>
-  </si>
-  <si>
-    <t>electricity production, at power plant/biogas, post, pipeline 400km, storage 3000m</t>
-  </si>
-  <si>
-    <t>water, decarbonised</t>
-  </si>
-  <si>
-    <t>Energy, gross calorific value, in biomass</t>
-  </si>
-  <si>
-    <t>natural resource::biotic</t>
-  </si>
-  <si>
-    <t>To account for primary energy</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D</t>
-  </si>
-  <si>
-    <t>market for nickel, class 1</t>
-  </si>
-  <si>
-    <t>nickel, class 1</t>
-  </si>
-  <si>
-    <t>hydrogen production, steam methane reforming, from biomethane, high and low temperature, with CCS (MDEA, 98% eff.), 26 bar</t>
-  </si>
-  <si>
-    <t>hydrogen production, steam methane reforming, from biomethane, high and low temperature, 26 bar</t>
-  </si>
-  <si>
-    <t>hydrogen production, auto-thermal reforming, from biomethane, 25 bar</t>
-  </si>
-  <si>
-    <t>hydrogen production, auto-thermal reforming, from biomethane, with CCS (MDEA, 98% eff.), 25 bar</t>
-  </si>
-  <si>
-    <t>natural resource::in air</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, non-fossil</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, in air</t>
-  </si>
-  <si>
-    <t>Biomethane: 0.722 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 45.4 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1093,10 +1093,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" t="s">
         <v>183</v>
-      </c>
-      <c r="B9" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1104,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1140,7 +1140,7 @@
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19">
         <v>2.5884448839268264</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B44">
         <v>2.0292014459767036E-4</v>
@@ -1932,7 +1932,7 @@
         <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2146,10 +2146,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" t="s">
         <v>183</v>
-      </c>
-      <c r="B60" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2157,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2193,7 +2193,7 @@
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B70">
         <v>8.9153165218958783</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B93">
         <v>2.0292014459767033E-4</v>
@@ -2939,7 +2939,7 @@
         <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -3108,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -3132,7 +3132,7 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -3145,10 +3145,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>182</v>
+      </c>
+      <c r="B107" t="s">
         <v>183</v>
-      </c>
-      <c r="B107" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -3156,7 +3156,7 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3211,12 +3211,12 @@
         <v>16</v>
       </c>
       <c r="H111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B112">
         <v>6.84</v>
@@ -3294,7 +3294,7 @@
         <v>5.3487471618165237E-10</v>
       </c>
       <c r="C115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
@@ -3317,7 +3317,7 @@
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D116" t="s">
         <v>59</v>
@@ -3340,7 +3340,7 @@
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D117" t="s">
         <v>22</v>
@@ -3363,7 +3363,7 @@
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D118" t="s">
         <v>22</v>
@@ -3386,7 +3386,7 @@
         <v>2.54628E-9</v>
       </c>
       <c r="C119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D119" t="s">
         <v>22</v>
@@ -3409,7 +3409,7 @@
         <v>2.796E-5</v>
       </c>
       <c r="C120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D120" t="s">
         <v>22</v>
@@ -3432,7 +3432,7 @@
         <v>1.668E-5</v>
       </c>
       <c r="C121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D121" t="s">
         <v>22</v>
@@ -3449,13 +3449,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B122">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D122" t="s">
         <v>22</v>
@@ -3467,7 +3467,7 @@
         <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -3478,7 +3478,7 @@
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C123" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D123" t="s">
         <v>22</v>
@@ -3501,7 +3501,7 @@
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C124" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D124" t="s">
         <v>3</v>
@@ -3524,7 +3524,7 @@
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D125" t="s">
         <v>22</v>
@@ -3547,7 +3547,7 @@
         <v>7.5390157563601576</v>
       </c>
       <c r="C126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D126" t="s">
         <v>80</v>
@@ -3570,7 +3570,7 @@
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C127" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D127" t="s">
         <v>22</v>
@@ -3593,7 +3593,7 @@
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C128" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D128" t="s">
         <v>22</v>
@@ -3616,7 +3616,7 @@
         <v>-0.61975263847726747</v>
       </c>
       <c r="C129" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D129" t="s">
         <v>3</v>
@@ -3640,7 +3640,7 @@
         <v>4.3506347760410122</v>
       </c>
       <c r="C130" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D130" t="s">
         <v>17</v>
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -3684,7 +3684,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -3697,10 +3697,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>182</v>
+      </c>
+      <c r="B137" t="s">
         <v>183</v>
-      </c>
-      <c r="B137" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -3708,7 +3708,7 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3763,12 +3763,12 @@
         <v>16</v>
       </c>
       <c r="H141" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B142">
         <v>0.58838389214647391</v>
@@ -3846,7 +3846,7 @@
         <v>8.318133856294887</v>
       </c>
       <c r="C145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D145" t="s">
         <v>3</v>
@@ -3869,7 +3869,7 @@
         <v>5.3487623280160849E-10</v>
       </c>
       <c r="C146" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D146" t="s">
         <v>3</v>
@@ -3892,7 +3892,7 @@
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C147" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D147" t="s">
         <v>59</v>
@@ -3915,7 +3915,7 @@
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C148" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D148" t="s">
         <v>22</v>
@@ -3938,7 +3938,7 @@
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C149" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D149" t="s">
         <v>22</v>
@@ -3961,7 +3961,7 @@
         <v>2.8370495812424056E-4</v>
       </c>
       <c r="C150" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D150" t="s">
         <v>22</v>
@@ -3984,7 +3984,7 @@
         <v>2.54628E-9</v>
       </c>
       <c r="C151" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D151" t="s">
         <v>22</v>
@@ -4007,7 +4007,7 @@
         <v>2.796E-5</v>
       </c>
       <c r="C152" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D152" t="s">
         <v>22</v>
@@ -4030,7 +4030,7 @@
         <v>1.668E-5</v>
       </c>
       <c r="C153" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D153" t="s">
         <v>22</v>
@@ -4047,13 +4047,13 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B154">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C154" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D154" t="s">
         <v>22</v>
@@ -4065,7 +4065,7 @@
         <v>19</v>
       </c>
       <c r="H154" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -4076,7 +4076,7 @@
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C155" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D155" t="s">
         <v>22</v>
@@ -4099,7 +4099,7 @@
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C156" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D156" t="s">
         <v>3</v>
@@ -4122,7 +4122,7 @@
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C157" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D157" t="s">
         <v>22</v>
@@ -4145,7 +4145,7 @@
         <v>7.5385278801642412</v>
       </c>
       <c r="C158" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D158" t="s">
         <v>80</v>
@@ -4168,7 +4168,7 @@
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C159" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D159" t="s">
         <v>22</v>
@@ -4191,7 +4191,7 @@
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C160" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D160" t="s">
         <v>22</v>
@@ -4214,7 +4214,7 @@
         <v>-0.15423412693187019</v>
       </c>
       <c r="C161" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
@@ -4545,8 +4545,8 @@
       <c r="A179" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B179" t="s">
-        <v>105</v>
+      <c r="B179" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="C179" s="15">
         <v>9.171270718232042E-3</v>
@@ -4564,7 +4564,7 @@
         <v>19</v>
       </c>
       <c r="I179" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J179" s="11"/>
       <c r="K179" s="11"/>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B180" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C180" s="15">
         <v>0.12</v>
@@ -4593,12 +4593,12 @@
         <v>19</v>
       </c>
       <c r="I180" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C181" s="15">
         <v>2.8679999999999998E-4</v>
@@ -4616,12 +4616,12 @@
         <v>30</v>
       </c>
       <c r="I181" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C182" s="13">
         <v>1.8211618777134311</v>
@@ -4639,12 +4639,12 @@
         <v>30</v>
       </c>
       <c r="I182" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C183" s="15">
         <v>3.4875000000000001E-6</v>
@@ -4662,7 +4662,7 @@
         <v>30</v>
       </c>
       <c r="I183" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
@@ -4686,12 +4686,12 @@
         <v>30</v>
       </c>
       <c r="I184" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C185" s="15">
         <v>6.0000000000000002E-6</v>
@@ -4709,12 +4709,12 @@
         <v>30</v>
       </c>
       <c r="I185" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C186" s="15">
         <v>1.2300000000000001E-4</v>
@@ -4732,12 +4732,12 @@
         <v>30</v>
       </c>
       <c r="I186" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C187">
         <v>55.5</v>
@@ -4749,13 +4749,13 @@
         <v>27</v>
       </c>
       <c r="F187" t="s">
+        <v>180</v>
+      </c>
+      <c r="H187" t="s">
+        <v>30</v>
+      </c>
+      <c r="I187" t="s">
         <v>181</v>
-      </c>
-      <c r="H187" t="s">
-        <v>30</v>
-      </c>
-      <c r="I187" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
@@ -4868,7 +4868,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C198">
         <v>5.3592000000000004</v>
@@ -4880,7 +4880,7 @@
         <v>27</v>
       </c>
       <c r="F198" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H198" t="s">
         <v>30</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C199">
         <v>3.4083419999999993</v>
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
@@ -4938,7 +4938,7 @@
         <v>5</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
@@ -4982,22 +4982,22 @@
         <v>6</v>
       </c>
       <c r="G208" t="s">
+        <v>122</v>
+      </c>
+      <c r="H208" t="s">
         <v>123</v>
       </c>
-      <c r="H208" t="s">
+      <c r="I208" t="s">
         <v>124</v>
       </c>
-      <c r="I208" t="s">
+      <c r="J208" t="s">
         <v>125</v>
-      </c>
-      <c r="J208" t="s">
-        <v>126</v>
       </c>
       <c r="K208" t="s">
         <v>10</v>
       </c>
       <c r="L208" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M208" t="s">
         <v>5</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B209">
         <v>7.9299999999999995E-13</v>
@@ -5014,7 +5014,7 @@
         <v>9</v>
       </c>
       <c r="E209" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F209" t="s">
         <v>30</v>
@@ -5029,7 +5029,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K209" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L209">
         <v>0</v>
@@ -5046,7 +5046,7 @@
         <v>9</v>
       </c>
       <c r="E210" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F210" t="s">
         <v>30</v>
@@ -5061,7 +5061,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K210" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L210">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>9</v>
       </c>
       <c r="E211" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F211" t="s">
         <v>30</v>
@@ -5093,7 +5093,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K211" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L211">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>9</v>
       </c>
       <c r="E212" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F212" t="s">
         <v>30</v>
@@ -5125,7 +5125,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K212" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L212">
         <v>0</v>
@@ -5142,7 +5142,7 @@
         <v>9</v>
       </c>
       <c r="E213" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F213" t="s">
         <v>30</v>
@@ -5157,7 +5157,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K213" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L213">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>9</v>
       </c>
       <c r="E214" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F214" t="s">
         <v>30</v>
@@ -5189,7 +5189,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K214" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L214">
         <v>0</v>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B215">
         <v>5.6000000000000001E-2</v>
@@ -5221,7 +5221,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K215" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L215">
         <v>0</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B216">
         <v>2.2000000000000001E-6</v>
@@ -5238,7 +5238,7 @@
         <v>9</v>
       </c>
       <c r="E216" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F216" t="s">
         <v>30</v>
@@ -5253,7 +5253,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K216" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L216">
         <v>0</v>
@@ -5270,7 +5270,7 @@
         <v>9</v>
       </c>
       <c r="E217" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F217" t="s">
         <v>30</v>
@@ -5285,7 +5285,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K217" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L217">
         <v>0</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B218">
         <v>2.9000000000000003E-17</v>
@@ -5302,7 +5302,7 @@
         <v>9</v>
       </c>
       <c r="E218" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F218" t="s">
         <v>30</v>
@@ -5317,7 +5317,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K218" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L218">
         <v>0</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B219">
         <v>1.37E-6</v>
@@ -5334,7 +5334,7 @@
         <v>9</v>
       </c>
       <c r="E219" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F219" t="s">
         <v>30</v>
@@ -5349,7 +5349,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K219" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L219">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>9</v>
       </c>
       <c r="E220" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F220" t="s">
         <v>30</v>
@@ -5381,7 +5381,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K220" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L220">
         <v>0</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B221">
         <v>0.52500000000000002</v>
@@ -5398,7 +5398,7 @@
         <v>18</v>
       </c>
       <c r="E221" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F221" t="s">
         <v>30</v>
@@ -5413,7 +5413,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K221" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L221">
         <v>0</v>
@@ -5421,7 +5421,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B222">
         <v>7.9299999999999997E-7</v>
@@ -5430,7 +5430,7 @@
         <v>9</v>
       </c>
       <c r="E222" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F222" t="s">
         <v>30</v>
@@ -5445,7 +5445,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K222" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L222">
         <v>0</v>
@@ -5462,7 +5462,7 @@
         <v>9</v>
       </c>
       <c r="E223" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F223" t="s">
         <v>30</v>
@@ -5477,7 +5477,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K223" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L223">
         <v>0</v>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B224">
         <v>9.9999999999999995E-7</v>
@@ -5494,7 +5494,7 @@
         <v>9</v>
       </c>
       <c r="E224" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F224" t="s">
         <v>30</v>
@@ -5509,7 +5509,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K224" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L224">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>9</v>
       </c>
       <c r="E225" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F225" t="s">
         <v>30</v>
@@ -5541,7 +5541,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K225" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L225">
         <v>0</v>
@@ -5558,7 +5558,7 @@
         <v>9</v>
       </c>
       <c r="E226" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F226" t="s">
         <v>30</v>
@@ -5573,7 +5573,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K226" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L226">
         <v>0</v>
@@ -5590,7 +5590,7 @@
         <v>9</v>
       </c>
       <c r="E227" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F227" t="s">
         <v>30</v>
@@ -5605,7 +5605,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K227" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L227">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>9</v>
       </c>
       <c r="E228" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F228" t="s">
         <v>30</v>
@@ -5637,7 +5637,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K228" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L228">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>9</v>
       </c>
       <c r="E229" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F229" t="s">
         <v>30</v>
@@ -5669,7 +5669,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K229" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L229">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>9</v>
       </c>
       <c r="E230" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F230" t="s">
         <v>30</v>
@@ -5701,7 +5701,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K230" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L230">
         <v>0</v>
@@ -5718,7 +5718,7 @@
         <v>9</v>
       </c>
       <c r="E231" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F231" t="s">
         <v>30</v>
@@ -5733,7 +5733,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K231" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L231">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>9</v>
       </c>
       <c r="E232" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F232" t="s">
         <v>30</v>
@@ -5765,7 +5765,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K232" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L232">
         <v>0</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="233" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -5785,7 +5785,7 @@
         <v>18</v>
       </c>
       <c r="E233" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F233" t="s">
         <v>16</v>
@@ -5794,12 +5794,12 @@
         <v>100</v>
       </c>
       <c r="K233" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B234">
         <v>2.1900000000000002E-12</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="E234" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F234" t="s">
         <v>19</v>
@@ -5826,7 +5826,7 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K234" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L234">
         <v>0</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B235">
         <v>2.5000000000000002E-6</v>
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="E235" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F235" t="s">
         <v>19</v>
@@ -5861,7 +5861,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K235" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L235">
         <v>0</v>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B236">
         <v>1.9999999999999999E-6</v>
@@ -5881,7 +5881,7 @@
         <v>9</v>
       </c>
       <c r="E236" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F236" t="s">
         <v>19</v>
@@ -5896,7 +5896,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K236" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L236">
         <v>0</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B237">
         <v>0.5</v>
@@ -5916,7 +5916,7 @@
         <v>9</v>
       </c>
       <c r="E237" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F237" t="s">
         <v>19</v>
@@ -5931,13 +5931,13 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K237" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L237">
         <v>0</v>
       </c>
       <c r="M237" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.2">
@@ -5954,7 +5954,7 @@
         <v>49</v>
       </c>
       <c r="E238" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F238" t="s">
         <v>19</v>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="K238" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L238">
         <v>0</v>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B239">
         <v>-9.9999999999999995E-7</v>
@@ -5989,7 +5989,7 @@
         <v>9</v>
       </c>
       <c r="E239" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F239" t="s">
         <v>19</v>
@@ -6004,7 +6004,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K239" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L239">
         <v>0</v>
@@ -6015,7 +6015,7 @@
         <v>1</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.2">
@@ -6031,7 +6031,7 @@
         <v>5</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
@@ -6083,22 +6083,22 @@
         <v>6</v>
       </c>
       <c r="G248" t="s">
+        <v>122</v>
+      </c>
+      <c r="H248" t="s">
         <v>123</v>
       </c>
-      <c r="H248" t="s">
+      <c r="I248" t="s">
         <v>124</v>
       </c>
-      <c r="I248" t="s">
+      <c r="J248" t="s">
         <v>125</v>
-      </c>
-      <c r="J248" t="s">
-        <v>126</v>
       </c>
       <c r="K248" t="s">
         <v>10</v>
       </c>
       <c r="L248" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M248" t="s">
         <v>5</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B249">
         <v>7.9299999999999995E-13</v>
@@ -6115,7 +6115,7 @@
         <v>9</v>
       </c>
       <c r="E249" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F249" t="s">
         <v>30</v>
@@ -6130,7 +6130,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K249" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L249">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>9</v>
       </c>
       <c r="E250" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F250" t="s">
         <v>30</v>
@@ -6162,7 +6162,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K250" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L250">
         <v>0</v>
@@ -6179,7 +6179,7 @@
         <v>9</v>
       </c>
       <c r="E251" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F251" t="s">
         <v>30</v>
@@ -6194,7 +6194,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K251" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L251">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>9</v>
       </c>
       <c r="E252" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F252" t="s">
         <v>30</v>
@@ -6226,7 +6226,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K252" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L252">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>9</v>
       </c>
       <c r="E253" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F253" t="s">
         <v>30</v>
@@ -6258,7 +6258,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K253" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L253">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>9</v>
       </c>
       <c r="E254" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F254" t="s">
         <v>30</v>
@@ -6290,7 +6290,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K254" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L254">
         <v>0</v>
@@ -6298,7 +6298,7 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B255">
         <v>5.5999999999999999E-3</v>
@@ -6322,7 +6322,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K255" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L255">
         <v>0</v>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B256">
         <v>2.2000000000000001E-6</v>
@@ -6339,7 +6339,7 @@
         <v>9</v>
       </c>
       <c r="E256" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F256" t="s">
         <v>30</v>
@@ -6354,7 +6354,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K256" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L256">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>9</v>
       </c>
       <c r="E257" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F257" t="s">
         <v>30</v>
@@ -6386,7 +6386,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K257" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L257">
         <v>0</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B258">
         <v>2.9000000000000003E-17</v>
@@ -6403,7 +6403,7 @@
         <v>9</v>
       </c>
       <c r="E258" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F258" t="s">
         <v>30</v>
@@ -6418,7 +6418,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K258" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L258">
         <v>0</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B259">
         <v>1.37E-6</v>
@@ -6435,7 +6435,7 @@
         <v>9</v>
       </c>
       <c r="E259" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F259" t="s">
         <v>30</v>
@@ -6450,7 +6450,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K259" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L259">
         <v>0</v>
@@ -6467,7 +6467,7 @@
         <v>9</v>
       </c>
       <c r="E260" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F260" t="s">
         <v>30</v>
@@ -6482,7 +6482,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K260" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L260">
         <v>0</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B261">
         <v>0.52500000000000002</v>
@@ -6499,7 +6499,7 @@
         <v>18</v>
       </c>
       <c r="E261" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F261" t="s">
         <v>30</v>
@@ -6514,7 +6514,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K261" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L261">
         <v>0</v>
@@ -6522,7 +6522,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B262">
         <v>7.9299999999999997E-7</v>
@@ -6531,7 +6531,7 @@
         <v>9</v>
       </c>
       <c r="E262" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F262" t="s">
         <v>30</v>
@@ -6546,7 +6546,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K262" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L262">
         <v>0</v>
@@ -6563,7 +6563,7 @@
         <v>9</v>
       </c>
       <c r="E263" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F263" t="s">
         <v>30</v>
@@ -6578,7 +6578,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K263" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L263">
         <v>0</v>
@@ -6586,7 +6586,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B264">
         <v>9.9999999999999995E-7</v>
@@ -6595,7 +6595,7 @@
         <v>9</v>
       </c>
       <c r="E264" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F264" t="s">
         <v>30</v>
@@ -6610,7 +6610,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K264" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L264">
         <v>0</v>
@@ -6627,7 +6627,7 @@
         <v>9</v>
       </c>
       <c r="E265" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F265" t="s">
         <v>30</v>
@@ -6642,7 +6642,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K265" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L265">
         <v>0</v>
@@ -6659,7 +6659,7 @@
         <v>9</v>
       </c>
       <c r="E266" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F266" t="s">
         <v>30</v>
@@ -6674,7 +6674,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K266" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L266">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>9</v>
       </c>
       <c r="E267" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F267" t="s">
         <v>30</v>
@@ -6706,7 +6706,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K267" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L267">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>9</v>
       </c>
       <c r="E268" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F268" t="s">
         <v>30</v>
@@ -6738,7 +6738,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K268" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L268">
         <v>0</v>
@@ -6755,7 +6755,7 @@
         <v>9</v>
       </c>
       <c r="E269" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F269" t="s">
         <v>30</v>
@@ -6770,7 +6770,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K269" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L269">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>9</v>
       </c>
       <c r="E270" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F270" t="s">
         <v>30</v>
@@ -6802,7 +6802,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K270" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L270">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>9</v>
       </c>
       <c r="E271" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F271" t="s">
         <v>30</v>
@@ -6834,7 +6834,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K271" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L271">
         <v>0</v>
@@ -6851,7 +6851,7 @@
         <v>9</v>
       </c>
       <c r="E272" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F272" t="s">
         <v>30</v>
@@ -6866,7 +6866,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K272" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L272">
         <v>0</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="273" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -6886,7 +6886,7 @@
         <v>18</v>
       </c>
       <c r="E273" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F273" t="s">
         <v>16</v>
@@ -6895,12 +6895,12 @@
         <v>100</v>
       </c>
       <c r="K273" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B274">
         <v>5.04E-2</v>
@@ -6912,7 +6912,7 @@
         <v>9</v>
       </c>
       <c r="E274" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F274" t="s">
         <v>19</v>
@@ -6924,12 +6924,12 @@
         <v>5.04E-2</v>
       </c>
       <c r="K274" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B275">
         <v>7.7000000000000001E-5</v>
@@ -6941,7 +6941,7 @@
         <v>9</v>
       </c>
       <c r="E275" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F275" t="s">
         <v>19</v>
@@ -6953,12 +6953,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K275" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B276">
         <v>2.1900000000000002E-12</v>
@@ -6970,7 +6970,7 @@
         <v>8</v>
       </c>
       <c r="E276" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F276" t="s">
         <v>19</v>
@@ -6985,7 +6985,7 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K276" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L276">
         <v>0</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B277">
         <v>2.5000000000000002E-6</v>
@@ -7005,7 +7005,7 @@
         <v>9</v>
       </c>
       <c r="E277" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F277" t="s">
         <v>19</v>
@@ -7020,7 +7020,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K277" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L277">
         <v>0</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B278">
         <v>1.9999999999999999E-6</v>
@@ -7040,7 +7040,7 @@
         <v>9</v>
       </c>
       <c r="E278" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F278" t="s">
         <v>19</v>
@@ -7055,7 +7055,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K278" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L278">
         <v>0</v>
@@ -7063,7 +7063,7 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B279">
         <v>0.5</v>
@@ -7075,7 +7075,7 @@
         <v>9</v>
       </c>
       <c r="E279" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F279" t="s">
         <v>19</v>
@@ -7090,13 +7090,13 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K279" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L279">
         <v>0</v>
       </c>
       <c r="M279" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.2">
@@ -7113,7 +7113,7 @@
         <v>49</v>
       </c>
       <c r="E280" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F280" t="s">
         <v>19</v>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="K280" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L280">
         <v>0</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B281">
         <v>-9.9999999999999995E-7</v>
@@ -7148,7 +7148,7 @@
         <v>9</v>
       </c>
       <c r="E281" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F281" t="s">
         <v>19</v>
@@ -7163,7 +7163,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K281" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L281">
         <v>0</v>
@@ -7174,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.2">
@@ -7190,7 +7190,7 @@
         <v>5</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.2">
@@ -7242,22 +7242,22 @@
         <v>6</v>
       </c>
       <c r="G290" t="s">
+        <v>122</v>
+      </c>
+      <c r="H290" t="s">
         <v>123</v>
       </c>
-      <c r="H290" t="s">
+      <c r="I290" t="s">
         <v>124</v>
       </c>
-      <c r="I290" t="s">
+      <c r="J290" t="s">
         <v>125</v>
-      </c>
-      <c r="J290" t="s">
-        <v>126</v>
       </c>
       <c r="K290" t="s">
         <v>10</v>
       </c>
       <c r="L290" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M290" t="s">
         <v>5</v>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B291">
         <v>7.9299999999999995E-13</v>
@@ -7274,7 +7274,7 @@
         <v>9</v>
       </c>
       <c r="E291" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F291" t="s">
         <v>30</v>
@@ -7289,7 +7289,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K291" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L291">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>9</v>
       </c>
       <c r="E292" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F292" t="s">
         <v>30</v>
@@ -7321,7 +7321,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K292" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L292">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>9</v>
       </c>
       <c r="E293" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F293" t="s">
         <v>30</v>
@@ -7353,7 +7353,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K293" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L293">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>9</v>
       </c>
       <c r="E294" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F294" t="s">
         <v>30</v>
@@ -7385,7 +7385,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K294" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L294">
         <v>0</v>
@@ -7402,7 +7402,7 @@
         <v>9</v>
       </c>
       <c r="E295" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F295" t="s">
         <v>30</v>
@@ -7417,7 +7417,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K295" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L295">
         <v>0</v>
@@ -7434,7 +7434,7 @@
         <v>9</v>
       </c>
       <c r="E296" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F296" t="s">
         <v>30</v>
@@ -7449,7 +7449,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K296" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L296">
         <v>0</v>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B297">
         <v>5.5999999999999999E-3</v>
@@ -7481,7 +7481,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K297" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L297">
         <v>0</v>
@@ -7489,7 +7489,7 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B298">
         <v>2.2000000000000001E-6</v>
@@ -7498,7 +7498,7 @@
         <v>9</v>
       </c>
       <c r="E298" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F298" t="s">
         <v>30</v>
@@ -7513,7 +7513,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K298" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L298">
         <v>0</v>
@@ -7530,7 +7530,7 @@
         <v>9</v>
       </c>
       <c r="E299" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F299" t="s">
         <v>30</v>
@@ -7545,7 +7545,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K299" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L299">
         <v>0</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B300">
         <v>2.9000000000000003E-17</v>
@@ -7562,7 +7562,7 @@
         <v>9</v>
       </c>
       <c r="E300" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F300" t="s">
         <v>30</v>
@@ -7577,7 +7577,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K300" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L300">
         <v>0</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B301">
         <v>1.37E-6</v>
@@ -7594,7 +7594,7 @@
         <v>9</v>
       </c>
       <c r="E301" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F301" t="s">
         <v>30</v>
@@ -7609,7 +7609,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K301" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L301">
         <v>0</v>
@@ -7626,7 +7626,7 @@
         <v>9</v>
       </c>
       <c r="E302" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F302" t="s">
         <v>30</v>
@@ -7641,7 +7641,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K302" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L302">
         <v>0</v>
@@ -7649,7 +7649,7 @@
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B303">
         <v>0.52500000000000002</v>
@@ -7658,7 +7658,7 @@
         <v>18</v>
       </c>
       <c r="E303" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F303" t="s">
         <v>30</v>
@@ -7673,7 +7673,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K303" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L303">
         <v>0</v>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B304">
         <v>7.9299999999999997E-7</v>
@@ -7690,7 +7690,7 @@
         <v>9</v>
       </c>
       <c r="E304" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F304" t="s">
         <v>30</v>
@@ -7705,7 +7705,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K304" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L304">
         <v>0</v>
@@ -7722,7 +7722,7 @@
         <v>9</v>
       </c>
       <c r="E305" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F305" t="s">
         <v>30</v>
@@ -7737,7 +7737,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K305" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L305">
         <v>0</v>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B306">
         <v>9.9999999999999995E-7</v>
@@ -7754,7 +7754,7 @@
         <v>9</v>
       </c>
       <c r="E306" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F306" t="s">
         <v>30</v>
@@ -7769,7 +7769,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K306" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L306">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>9</v>
       </c>
       <c r="E307" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F307" t="s">
         <v>30</v>
@@ -7801,7 +7801,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K307" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L307">
         <v>0</v>
@@ -7818,7 +7818,7 @@
         <v>9</v>
       </c>
       <c r="E308" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F308" t="s">
         <v>30</v>
@@ -7833,7 +7833,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K308" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L308">
         <v>0</v>
@@ -7850,7 +7850,7 @@
         <v>9</v>
       </c>
       <c r="E309" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F309" t="s">
         <v>30</v>
@@ -7865,7 +7865,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K309" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L309">
         <v>0</v>
@@ -7882,7 +7882,7 @@
         <v>9</v>
       </c>
       <c r="E310" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F310" t="s">
         <v>30</v>
@@ -7897,7 +7897,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K310" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L310">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>9</v>
       </c>
       <c r="E311" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F311" t="s">
         <v>30</v>
@@ -7929,7 +7929,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K311" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L311">
         <v>0</v>
@@ -7946,7 +7946,7 @@
         <v>9</v>
       </c>
       <c r="E312" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F312" t="s">
         <v>30</v>
@@ -7961,7 +7961,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K312" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L312">
         <v>0</v>
@@ -7978,7 +7978,7 @@
         <v>9</v>
       </c>
       <c r="E313" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F313" t="s">
         <v>30</v>
@@ -7993,7 +7993,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K313" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L313">
         <v>0</v>
@@ -8010,7 +8010,7 @@
         <v>9</v>
       </c>
       <c r="E314" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F314" t="s">
         <v>30</v>
@@ -8025,7 +8025,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K314" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L314">
         <v>0</v>
@@ -8033,7 +8033,7 @@
     </row>
     <row r="315" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -8045,7 +8045,7 @@
         <v>18</v>
       </c>
       <c r="E315" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F315" t="s">
         <v>16</v>
@@ -8054,12 +8054,12 @@
         <v>100</v>
       </c>
       <c r="K315" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B316">
         <v>5.04E-2</v>
@@ -8071,7 +8071,7 @@
         <v>9</v>
       </c>
       <c r="E316" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F316" t="s">
         <v>19</v>
@@ -8083,12 +8083,12 @@
         <v>5.04E-2</v>
       </c>
       <c r="K316" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B317">
         <v>7.7000000000000001E-5</v>
@@ -8100,7 +8100,7 @@
         <v>9</v>
       </c>
       <c r="E317" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F317" t="s">
         <v>19</v>
@@ -8112,12 +8112,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K317" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B318">
         <v>2.1900000000000002E-12</v>
@@ -8129,7 +8129,7 @@
         <v>8</v>
       </c>
       <c r="E318" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F318" t="s">
         <v>19</v>
@@ -8144,7 +8144,7 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K318" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L318">
         <v>0</v>
@@ -8152,7 +8152,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B319">
         <v>2.5000000000000002E-6</v>
@@ -8164,7 +8164,7 @@
         <v>9</v>
       </c>
       <c r="E319" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F319" t="s">
         <v>19</v>
@@ -8179,7 +8179,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K319" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L319">
         <v>0</v>
@@ -8187,7 +8187,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B320">
         <v>1.9999999999999999E-6</v>
@@ -8199,7 +8199,7 @@
         <v>9</v>
       </c>
       <c r="E320" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F320" t="s">
         <v>19</v>
@@ -8214,7 +8214,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K320" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L320">
         <v>0</v>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B321">
         <v>0.5</v>
@@ -8234,7 +8234,7 @@
         <v>9</v>
       </c>
       <c r="E321" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F321" t="s">
         <v>19</v>
@@ -8249,13 +8249,13 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K321" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L321">
         <v>0</v>
       </c>
       <c r="M321" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.2">
@@ -8272,7 +8272,7 @@
         <v>49</v>
       </c>
       <c r="E322" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F322" t="s">
         <v>19</v>
@@ -8287,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="K322" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L322">
         <v>0</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B323">
         <v>-9.9999999999999995E-7</v>
@@ -8307,7 +8307,7 @@
         <v>9</v>
       </c>
       <c r="E323" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F323" t="s">
         <v>19</v>
@@ -8322,7 +8322,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K323" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L323">
         <v>0</v>
@@ -8333,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.2">
@@ -8349,7 +8349,7 @@
         <v>5</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.2">
@@ -8401,22 +8401,22 @@
         <v>6</v>
       </c>
       <c r="G332" t="s">
+        <v>122</v>
+      </c>
+      <c r="H332" t="s">
         <v>123</v>
       </c>
-      <c r="H332" t="s">
+      <c r="I332" t="s">
         <v>124</v>
       </c>
-      <c r="I332" t="s">
+      <c r="J332" t="s">
         <v>125</v>
-      </c>
-      <c r="J332" t="s">
-        <v>126</v>
       </c>
       <c r="K332" t="s">
         <v>10</v>
       </c>
       <c r="L332" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M332" t="s">
         <v>5</v>
@@ -8424,7 +8424,7 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B333">
         <v>7.9299999999999995E-13</v>
@@ -8433,7 +8433,7 @@
         <v>9</v>
       </c>
       <c r="E333" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F333" t="s">
         <v>30</v>
@@ -8448,7 +8448,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K333" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L333">
         <v>0</v>
@@ -8465,7 +8465,7 @@
         <v>9</v>
       </c>
       <c r="E334" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F334" t="s">
         <v>30</v>
@@ -8480,7 +8480,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K334" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L334">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         <v>9</v>
       </c>
       <c r="E335" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F335" t="s">
         <v>30</v>
@@ -8512,7 +8512,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K335" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L335">
         <v>0</v>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B336">
         <v>1.77E-6</v>
@@ -8541,7 +8541,7 @@
         <v>1.77E-6</v>
       </c>
       <c r="K336" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
@@ -8555,7 +8555,7 @@
         <v>9</v>
       </c>
       <c r="E337" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F337" t="s">
         <v>30</v>
@@ -8570,7 +8570,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K337" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L337">
         <v>0</v>
@@ -8587,7 +8587,7 @@
         <v>9</v>
       </c>
       <c r="E338" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F338" t="s">
         <v>30</v>
@@ -8602,7 +8602,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K338" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L338">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         <v>9</v>
       </c>
       <c r="E339" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F339" t="s">
         <v>30</v>
@@ -8634,7 +8634,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K339" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L339">
         <v>0</v>
@@ -8642,7 +8642,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B340">
         <v>5.5999999999999999E-3</v>
@@ -8666,7 +8666,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K340" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L340">
         <v>0</v>
@@ -8674,7 +8674,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B341">
         <v>2.2000000000000001E-6</v>
@@ -8683,7 +8683,7 @@
         <v>9</v>
       </c>
       <c r="E341" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F341" t="s">
         <v>30</v>
@@ -8698,7 +8698,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K341" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L341">
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>9</v>
       </c>
       <c r="E342" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F342" t="s">
         <v>30</v>
@@ -8730,7 +8730,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K342" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L342">
         <v>0</v>
@@ -8738,7 +8738,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B343">
         <v>2.9000000000000003E-17</v>
@@ -8747,7 +8747,7 @@
         <v>9</v>
       </c>
       <c r="E343" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F343" t="s">
         <v>30</v>
@@ -8762,7 +8762,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K343" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L343">
         <v>0</v>
@@ -8770,7 +8770,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B344">
         <v>1.37E-6</v>
@@ -8779,7 +8779,7 @@
         <v>9</v>
       </c>
       <c r="E344" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F344" t="s">
         <v>30</v>
@@ -8794,7 +8794,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K344" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L344">
         <v>0</v>
@@ -8811,7 +8811,7 @@
         <v>9</v>
       </c>
       <c r="E345" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F345" t="s">
         <v>30</v>
@@ -8826,7 +8826,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K345" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L345">
         <v>0</v>
@@ -8834,7 +8834,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B346">
         <v>0.52500000000000002</v>
@@ -8843,7 +8843,7 @@
         <v>18</v>
       </c>
       <c r="E346" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F346" t="s">
         <v>30</v>
@@ -8858,7 +8858,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K346" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L346">
         <v>0</v>
@@ -8866,7 +8866,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B347">
         <v>7.9299999999999997E-7</v>
@@ -8875,7 +8875,7 @@
         <v>9</v>
       </c>
       <c r="E347" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F347" t="s">
         <v>30</v>
@@ -8890,7 +8890,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K347" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L347">
         <v>0</v>
@@ -8907,7 +8907,7 @@
         <v>9</v>
       </c>
       <c r="E348" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F348" t="s">
         <v>30</v>
@@ -8922,7 +8922,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K348" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L348">
         <v>0</v>
@@ -8930,7 +8930,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B349">
         <v>9.9999999999999995E-7</v>
@@ -8939,7 +8939,7 @@
         <v>9</v>
       </c>
       <c r="E349" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F349" t="s">
         <v>30</v>
@@ -8954,7 +8954,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K349" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L349">
         <v>0</v>
@@ -8962,7 +8962,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B350">
         <v>2.0999999999999998E-6</v>
@@ -8983,7 +8983,7 @@
         <v>2.0999999999999998E-6</v>
       </c>
       <c r="K350" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
@@ -8997,7 +8997,7 @@
         <v>9</v>
       </c>
       <c r="E351" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F351" t="s">
         <v>30</v>
@@ -9012,7 +9012,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K351" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L351">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>9</v>
       </c>
       <c r="E352" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F352" t="s">
         <v>30</v>
@@ -9044,7 +9044,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K352" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L352">
         <v>0</v>
@@ -9061,7 +9061,7 @@
         <v>9</v>
       </c>
       <c r="E353" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F353" t="s">
         <v>30</v>
@@ -9076,7 +9076,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K353" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L353">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>9</v>
       </c>
       <c r="E354" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F354" t="s">
         <v>30</v>
@@ -9108,7 +9108,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K354" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L354">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>9</v>
       </c>
       <c r="E355" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F355" t="s">
         <v>30</v>
@@ -9140,7 +9140,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K355" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L355">
         <v>0</v>
@@ -9157,7 +9157,7 @@
         <v>9</v>
       </c>
       <c r="E356" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F356" t="s">
         <v>30</v>
@@ -9172,7 +9172,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K356" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L356">
         <v>0</v>
@@ -9189,7 +9189,7 @@
         <v>9</v>
       </c>
       <c r="E357" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F357" t="s">
         <v>30</v>
@@ -9204,7 +9204,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K357" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L357">
         <v>0</v>
@@ -9221,7 +9221,7 @@
         <v>9</v>
       </c>
       <c r="E358" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F358" t="s">
         <v>30</v>
@@ -9236,7 +9236,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K358" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L358">
         <v>0</v>
@@ -9244,7 +9244,7 @@
     </row>
     <row r="359" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -9256,7 +9256,7 @@
         <v>18</v>
       </c>
       <c r="E359" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F359" t="s">
         <v>16</v>
@@ -9265,12 +9265,12 @@
         <v>100</v>
       </c>
       <c r="K359" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B360">
         <v>5.04E-2</v>
@@ -9282,7 +9282,7 @@
         <v>9</v>
       </c>
       <c r="E360" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F360" t="s">
         <v>19</v>
@@ -9294,12 +9294,12 @@
         <v>5.04E-2</v>
       </c>
       <c r="K360" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B361">
         <v>7.7000000000000001E-5</v>
@@ -9311,7 +9311,7 @@
         <v>9</v>
       </c>
       <c r="E361" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F361" t="s">
         <v>19</v>
@@ -9323,12 +9323,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K361" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B362">
         <v>2.1900000000000002E-12</v>
@@ -9340,7 +9340,7 @@
         <v>8</v>
       </c>
       <c r="E362" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F362" t="s">
         <v>19</v>
@@ -9355,7 +9355,7 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K362" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L362">
         <v>0</v>
@@ -9363,7 +9363,7 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B363">
         <v>2.5000000000000002E-6</v>
@@ -9375,7 +9375,7 @@
         <v>9</v>
       </c>
       <c r="E363" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F363" t="s">
         <v>19</v>
@@ -9390,7 +9390,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K363" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L363">
         <v>0</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B364">
         <v>1.9999999999999999E-6</v>
@@ -9410,7 +9410,7 @@
         <v>9</v>
       </c>
       <c r="E364" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F364" t="s">
         <v>19</v>
@@ -9425,7 +9425,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K364" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L364">
         <v>0</v>
@@ -9433,7 +9433,7 @@
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B365">
         <v>0.5</v>
@@ -9445,7 +9445,7 @@
         <v>9</v>
       </c>
       <c r="E365" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F365" t="s">
         <v>19</v>
@@ -9460,13 +9460,13 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K365" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L365">
         <v>0</v>
       </c>
       <c r="M365" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.2">
@@ -9483,7 +9483,7 @@
         <v>49</v>
       </c>
       <c r="E366" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F366" t="s">
         <v>19</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="K366" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L366">
         <v>0</v>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B367">
         <v>-9.9999999999999995E-7</v>
@@ -9518,7 +9518,7 @@
         <v>9</v>
       </c>
       <c r="E367" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F367" t="s">
         <v>19</v>
@@ -9533,7 +9533,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K367" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L367">
         <v>0</v>
@@ -9544,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.2">
@@ -9612,24 +9612,24 @@
         <v>6</v>
       </c>
       <c r="G376" t="s">
+        <v>122</v>
+      </c>
+      <c r="H376" t="s">
         <v>123</v>
       </c>
-      <c r="H376" t="s">
-        <v>124</v>
-      </c>
       <c r="I376" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J376" t="s">
         <v>10</v>
       </c>
       <c r="K376" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="377" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -9641,7 +9641,7 @@
         <v>21</v>
       </c>
       <c r="E377" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F377" t="s">
         <v>16</v>
@@ -9653,12 +9653,12 @@
         <v>28</v>
       </c>
       <c r="K377" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B378">
         <v>5.81</v>
@@ -9670,7 +9670,7 @@
         <v>18</v>
       </c>
       <c r="E378" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F378" t="s">
         <v>19</v>
@@ -9682,10 +9682,10 @@
         <v>5.81</v>
       </c>
       <c r="J378" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K378" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="380" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9693,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
@@ -9761,24 +9761,24 @@
         <v>6</v>
       </c>
       <c r="G387" t="s">
+        <v>122</v>
+      </c>
+      <c r="H387" t="s">
         <v>123</v>
       </c>
-      <c r="H387" t="s">
-        <v>124</v>
-      </c>
       <c r="I387" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J387" t="s">
         <v>10</v>
       </c>
       <c r="K387" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="388" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -9790,7 +9790,7 @@
         <v>21</v>
       </c>
       <c r="E388" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F388" t="s">
         <v>16</v>
@@ -9802,12 +9802,12 @@
         <v>28</v>
       </c>
       <c r="K388" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B389">
         <v>5.81</v>
@@ -9819,7 +9819,7 @@
         <v>18</v>
       </c>
       <c r="E389" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F389" t="s">
         <v>19</v>
@@ -9831,7 +9831,7 @@
         <v>5.81</v>
       </c>
       <c r="J389" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="391" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9839,7 +9839,7 @@
         <v>1</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
@@ -9907,24 +9907,24 @@
         <v>6</v>
       </c>
       <c r="G398" t="s">
+        <v>122</v>
+      </c>
+      <c r="H398" t="s">
         <v>123</v>
       </c>
-      <c r="H398" t="s">
-        <v>124</v>
-      </c>
       <c r="I398" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J398" t="s">
         <v>10</v>
       </c>
       <c r="K398" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="399" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -9936,7 +9936,7 @@
         <v>21</v>
       </c>
       <c r="E399" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F399" t="s">
         <v>16</v>
@@ -9948,12 +9948,12 @@
         <v>28</v>
       </c>
       <c r="K399" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B400">
         <v>5.81</v>
@@ -9965,7 +9965,7 @@
         <v>18</v>
       </c>
       <c r="E400" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F400" t="s">
         <v>19</v>
@@ -9977,7 +9977,7 @@
         <v>5.81</v>
       </c>
       <c r="J400" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="402" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9985,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
@@ -10053,24 +10053,24 @@
         <v>6</v>
       </c>
       <c r="G409" t="s">
+        <v>122</v>
+      </c>
+      <c r="H409" t="s">
         <v>123</v>
       </c>
-      <c r="H409" t="s">
-        <v>124</v>
-      </c>
       <c r="I409" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J409" t="s">
         <v>10</v>
       </c>
       <c r="K409" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="410" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -10082,7 +10082,7 @@
         <v>21</v>
       </c>
       <c r="E410" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F410" t="s">
         <v>16</v>
@@ -10094,12 +10094,12 @@
         <v>28</v>
       </c>
       <c r="K410" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B411">
         <v>5.81</v>
@@ -10111,7 +10111,7 @@
         <v>18</v>
       </c>
       <c r="E411" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F411" t="s">
         <v>19</v>
@@ -10123,7 +10123,7 @@
         <v>5.81</v>
       </c>
       <c r="J411" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD51C70-43B6-4C48-8BD3-BC8D943296BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8239BA81-AD99-D24E-939C-3C8965CE00EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$411</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -352,6 +352,9 @@
     <t>production of 2 wt-% potassium iodide solution</t>
   </si>
   <si>
+    <t>2 wt-% potassium iodide solution</t>
+  </si>
+  <si>
     <t>material consumption for desulphurisation, used together with activated carbon</t>
   </si>
   <si>
@@ -617,9 +620,6 @@
   </si>
   <si>
     <t>Biomethane: 0.722 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 45.4 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
-  </si>
-  <si>
-    <t>2 wt-% potassium iodide solution</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1093,10 +1093,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1104,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1140,7 +1140,7 @@
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19">
         <v>2.5884448839268264</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B44">
         <v>2.0292014459767036E-4</v>
@@ -1932,7 +1932,7 @@
         <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2146,10 +2146,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2157,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2193,7 +2193,7 @@
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B70">
         <v>8.9153165218958783</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B93">
         <v>2.0292014459767033E-4</v>
@@ -2939,7 +2939,7 @@
         <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -3108,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -3132,7 +3132,7 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -3145,10 +3145,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B107" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -3156,7 +3156,7 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3211,12 +3211,12 @@
         <v>16</v>
       </c>
       <c r="H111" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B112">
         <v>6.84</v>
@@ -3294,7 +3294,7 @@
         <v>5.3487471618165237E-10</v>
       </c>
       <c r="C115" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
@@ -3317,7 +3317,7 @@
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C116" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D116" t="s">
         <v>59</v>
@@ -3340,7 +3340,7 @@
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D117" t="s">
         <v>22</v>
@@ -3363,7 +3363,7 @@
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C118" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D118" t="s">
         <v>22</v>
@@ -3386,7 +3386,7 @@
         <v>2.54628E-9</v>
       </c>
       <c r="C119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D119" t="s">
         <v>22</v>
@@ -3409,7 +3409,7 @@
         <v>2.796E-5</v>
       </c>
       <c r="C120" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D120" t="s">
         <v>22</v>
@@ -3432,7 +3432,7 @@
         <v>1.668E-5</v>
       </c>
       <c r="C121" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D121" t="s">
         <v>22</v>
@@ -3449,13 +3449,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B122">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C122" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D122" t="s">
         <v>22</v>
@@ -3467,7 +3467,7 @@
         <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -3478,7 +3478,7 @@
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C123" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D123" t="s">
         <v>22</v>
@@ -3501,7 +3501,7 @@
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C124" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D124" t="s">
         <v>3</v>
@@ -3524,7 +3524,7 @@
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C125" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D125" t="s">
         <v>22</v>
@@ -3547,7 +3547,7 @@
         <v>7.5390157563601576</v>
       </c>
       <c r="C126" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D126" t="s">
         <v>80</v>
@@ -3570,7 +3570,7 @@
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C127" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D127" t="s">
         <v>22</v>
@@ -3593,7 +3593,7 @@
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C128" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D128" t="s">
         <v>22</v>
@@ -3616,7 +3616,7 @@
         <v>-0.61975263847726747</v>
       </c>
       <c r="C129" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D129" t="s">
         <v>3</v>
@@ -3640,7 +3640,7 @@
         <v>4.3506347760410122</v>
       </c>
       <c r="C130" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D130" t="s">
         <v>17</v>
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -3684,7 +3684,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -3697,10 +3697,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B137" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -3708,7 +3708,7 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3763,12 +3763,12 @@
         <v>16</v>
       </c>
       <c r="H141" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B142">
         <v>0.58838389214647391</v>
@@ -3846,7 +3846,7 @@
         <v>8.318133856294887</v>
       </c>
       <c r="C145" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D145" t="s">
         <v>3</v>
@@ -3869,7 +3869,7 @@
         <v>5.3487623280160849E-10</v>
       </c>
       <c r="C146" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D146" t="s">
         <v>3</v>
@@ -3892,7 +3892,7 @@
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C147" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D147" t="s">
         <v>59</v>
@@ -3915,7 +3915,7 @@
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C148" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D148" t="s">
         <v>22</v>
@@ -3938,7 +3938,7 @@
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C149" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D149" t="s">
         <v>22</v>
@@ -3961,7 +3961,7 @@
         <v>2.8370495812424056E-4</v>
       </c>
       <c r="C150" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D150" t="s">
         <v>22</v>
@@ -3984,7 +3984,7 @@
         <v>2.54628E-9</v>
       </c>
       <c r="C151" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D151" t="s">
         <v>22</v>
@@ -4007,7 +4007,7 @@
         <v>2.796E-5</v>
       </c>
       <c r="C152" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D152" t="s">
         <v>22</v>
@@ -4030,7 +4030,7 @@
         <v>1.668E-5</v>
       </c>
       <c r="C153" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D153" t="s">
         <v>22</v>
@@ -4047,13 +4047,13 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B154">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C154" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D154" t="s">
         <v>22</v>
@@ -4065,7 +4065,7 @@
         <v>19</v>
       </c>
       <c r="H154" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -4076,7 +4076,7 @@
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C155" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D155" t="s">
         <v>22</v>
@@ -4099,7 +4099,7 @@
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C156" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D156" t="s">
         <v>3</v>
@@ -4122,7 +4122,7 @@
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C157" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D157" t="s">
         <v>22</v>
@@ -4145,7 +4145,7 @@
         <v>7.5385278801642412</v>
       </c>
       <c r="C158" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D158" t="s">
         <v>80</v>
@@ -4168,7 +4168,7 @@
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C159" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D159" t="s">
         <v>22</v>
@@ -4191,7 +4191,7 @@
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C160" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D160" t="s">
         <v>22</v>
@@ -4214,7 +4214,7 @@
         <v>-0.15423412693187019</v>
       </c>
       <c r="C161" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
@@ -4545,8 +4545,8 @@
       <c r="A179" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B179" s="10" t="s">
-        <v>194</v>
+      <c r="B179" t="s">
+        <v>105</v>
       </c>
       <c r="C179" s="15">
         <v>9.171270718232042E-3</v>
@@ -4564,7 +4564,7 @@
         <v>19</v>
       </c>
       <c r="I179" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J179" s="11"/>
       <c r="K179" s="11"/>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B180" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C180" s="15">
         <v>0.12</v>
@@ -4593,12 +4593,12 @@
         <v>19</v>
       </c>
       <c r="I180" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C181" s="15">
         <v>2.8679999999999998E-4</v>
@@ -4616,12 +4616,12 @@
         <v>30</v>
       </c>
       <c r="I181" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C182" s="13">
         <v>1.8211618777134311</v>
@@ -4639,12 +4639,12 @@
         <v>30</v>
       </c>
       <c r="I182" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C183" s="15">
         <v>3.4875000000000001E-6</v>
@@ -4662,7 +4662,7 @@
         <v>30</v>
       </c>
       <c r="I183" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
@@ -4686,12 +4686,12 @@
         <v>30</v>
       </c>
       <c r="I184" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C185" s="15">
         <v>6.0000000000000002E-6</v>
@@ -4709,12 +4709,12 @@
         <v>30</v>
       </c>
       <c r="I185" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C186" s="15">
         <v>1.2300000000000001E-4</v>
@@ -4732,12 +4732,12 @@
         <v>30</v>
       </c>
       <c r="I186" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C187">
         <v>55.5</v>
@@ -4749,13 +4749,13 @@
         <v>27</v>
       </c>
       <c r="F187" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H187" t="s">
         <v>30</v>
       </c>
       <c r="I187" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
@@ -4868,7 +4868,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C198">
         <v>5.3592000000000004</v>
@@ -4880,7 +4880,7 @@
         <v>27</v>
       </c>
       <c r="F198" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H198" t="s">
         <v>30</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C199">
         <v>3.4083419999999993</v>
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
@@ -4938,7 +4938,7 @@
         <v>5</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
@@ -4982,22 +4982,22 @@
         <v>6</v>
       </c>
       <c r="G208" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H208" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I208" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J208" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K208" t="s">
         <v>10</v>
       </c>
       <c r="L208" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M208" t="s">
         <v>5</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B209">
         <v>7.9299999999999995E-13</v>
@@ -5014,7 +5014,7 @@
         <v>9</v>
       </c>
       <c r="E209" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F209" t="s">
         <v>30</v>
@@ -5029,7 +5029,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K209" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L209">
         <v>0</v>
@@ -5046,7 +5046,7 @@
         <v>9</v>
       </c>
       <c r="E210" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F210" t="s">
         <v>30</v>
@@ -5061,7 +5061,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K210" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L210">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>9</v>
       </c>
       <c r="E211" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F211" t="s">
         <v>30</v>
@@ -5093,7 +5093,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K211" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L211">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>9</v>
       </c>
       <c r="E212" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F212" t="s">
         <v>30</v>
@@ -5125,7 +5125,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K212" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L212">
         <v>0</v>
@@ -5142,7 +5142,7 @@
         <v>9</v>
       </c>
       <c r="E213" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F213" t="s">
         <v>30</v>
@@ -5157,7 +5157,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K213" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L213">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>9</v>
       </c>
       <c r="E214" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F214" t="s">
         <v>30</v>
@@ -5189,7 +5189,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K214" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L214">
         <v>0</v>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B215">
         <v>5.6000000000000001E-2</v>
@@ -5221,7 +5221,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K215" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L215">
         <v>0</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B216">
         <v>2.2000000000000001E-6</v>
@@ -5238,7 +5238,7 @@
         <v>9</v>
       </c>
       <c r="E216" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F216" t="s">
         <v>30</v>
@@ -5253,7 +5253,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K216" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L216">
         <v>0</v>
@@ -5270,7 +5270,7 @@
         <v>9</v>
       </c>
       <c r="E217" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F217" t="s">
         <v>30</v>
@@ -5285,7 +5285,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K217" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L217">
         <v>0</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B218">
         <v>2.9000000000000003E-17</v>
@@ -5302,7 +5302,7 @@
         <v>9</v>
       </c>
       <c r="E218" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F218" t="s">
         <v>30</v>
@@ -5317,7 +5317,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K218" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L218">
         <v>0</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B219">
         <v>1.37E-6</v>
@@ -5334,7 +5334,7 @@
         <v>9</v>
       </c>
       <c r="E219" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F219" t="s">
         <v>30</v>
@@ -5349,7 +5349,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K219" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L219">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>9</v>
       </c>
       <c r="E220" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F220" t="s">
         <v>30</v>
@@ -5381,7 +5381,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K220" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L220">
         <v>0</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B221">
         <v>0.52500000000000002</v>
@@ -5398,7 +5398,7 @@
         <v>18</v>
       </c>
       <c r="E221" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F221" t="s">
         <v>30</v>
@@ -5413,7 +5413,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K221" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L221">
         <v>0</v>
@@ -5421,7 +5421,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B222">
         <v>7.9299999999999997E-7</v>
@@ -5430,7 +5430,7 @@
         <v>9</v>
       </c>
       <c r="E222" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F222" t="s">
         <v>30</v>
@@ -5445,7 +5445,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K222" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L222">
         <v>0</v>
@@ -5462,7 +5462,7 @@
         <v>9</v>
       </c>
       <c r="E223" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F223" t="s">
         <v>30</v>
@@ -5477,7 +5477,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K223" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L223">
         <v>0</v>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B224">
         <v>9.9999999999999995E-7</v>
@@ -5494,7 +5494,7 @@
         <v>9</v>
       </c>
       <c r="E224" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F224" t="s">
         <v>30</v>
@@ -5509,7 +5509,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K224" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L224">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>9</v>
       </c>
       <c r="E225" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F225" t="s">
         <v>30</v>
@@ -5541,7 +5541,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K225" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L225">
         <v>0</v>
@@ -5558,7 +5558,7 @@
         <v>9</v>
       </c>
       <c r="E226" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F226" t="s">
         <v>30</v>
@@ -5573,7 +5573,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K226" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L226">
         <v>0</v>
@@ -5590,7 +5590,7 @@
         <v>9</v>
       </c>
       <c r="E227" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F227" t="s">
         <v>30</v>
@@ -5605,7 +5605,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K227" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L227">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>9</v>
       </c>
       <c r="E228" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F228" t="s">
         <v>30</v>
@@ -5637,7 +5637,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K228" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L228">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>9</v>
       </c>
       <c r="E229" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F229" t="s">
         <v>30</v>
@@ -5669,7 +5669,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K229" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L229">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>9</v>
       </c>
       <c r="E230" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F230" t="s">
         <v>30</v>
@@ -5701,7 +5701,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K230" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L230">
         <v>0</v>
@@ -5718,7 +5718,7 @@
         <v>9</v>
       </c>
       <c r="E231" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F231" t="s">
         <v>30</v>
@@ -5733,7 +5733,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K231" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L231">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>9</v>
       </c>
       <c r="E232" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F232" t="s">
         <v>30</v>
@@ -5765,7 +5765,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K232" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L232">
         <v>0</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="233" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -5785,7 +5785,7 @@
         <v>18</v>
       </c>
       <c r="E233" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F233" t="s">
         <v>16</v>
@@ -5794,12 +5794,12 @@
         <v>100</v>
       </c>
       <c r="K233" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B234">
         <v>2.1900000000000002E-12</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="E234" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F234" t="s">
         <v>19</v>
@@ -5826,7 +5826,7 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K234" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L234">
         <v>0</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B235">
         <v>2.5000000000000002E-6</v>
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="E235" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F235" t="s">
         <v>19</v>
@@ -5861,7 +5861,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K235" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L235">
         <v>0</v>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B236">
         <v>1.9999999999999999E-6</v>
@@ -5881,7 +5881,7 @@
         <v>9</v>
       </c>
       <c r="E236" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F236" t="s">
         <v>19</v>
@@ -5896,7 +5896,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K236" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L236">
         <v>0</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B237">
         <v>0.5</v>
@@ -5916,7 +5916,7 @@
         <v>9</v>
       </c>
       <c r="E237" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F237" t="s">
         <v>19</v>
@@ -5931,13 +5931,13 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K237" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L237">
         <v>0</v>
       </c>
       <c r="M237" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.2">
@@ -5954,7 +5954,7 @@
         <v>49</v>
       </c>
       <c r="E238" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F238" t="s">
         <v>19</v>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="K238" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L238">
         <v>0</v>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B239">
         <v>-9.9999999999999995E-7</v>
@@ -5989,7 +5989,7 @@
         <v>9</v>
       </c>
       <c r="E239" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F239" t="s">
         <v>19</v>
@@ -6004,7 +6004,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K239" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L239">
         <v>0</v>
@@ -6015,7 +6015,7 @@
         <v>1</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.2">
@@ -6031,7 +6031,7 @@
         <v>5</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
@@ -6083,22 +6083,22 @@
         <v>6</v>
       </c>
       <c r="G248" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H248" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I248" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J248" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K248" t="s">
         <v>10</v>
       </c>
       <c r="L248" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M248" t="s">
         <v>5</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B249">
         <v>7.9299999999999995E-13</v>
@@ -6115,7 +6115,7 @@
         <v>9</v>
       </c>
       <c r="E249" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F249" t="s">
         <v>30</v>
@@ -6130,7 +6130,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K249" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L249">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>9</v>
       </c>
       <c r="E250" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F250" t="s">
         <v>30</v>
@@ -6162,7 +6162,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K250" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L250">
         <v>0</v>
@@ -6179,7 +6179,7 @@
         <v>9</v>
       </c>
       <c r="E251" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F251" t="s">
         <v>30</v>
@@ -6194,7 +6194,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K251" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L251">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>9</v>
       </c>
       <c r="E252" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F252" t="s">
         <v>30</v>
@@ -6226,7 +6226,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K252" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L252">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>9</v>
       </c>
       <c r="E253" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F253" t="s">
         <v>30</v>
@@ -6258,7 +6258,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K253" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L253">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>9</v>
       </c>
       <c r="E254" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F254" t="s">
         <v>30</v>
@@ -6290,7 +6290,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K254" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L254">
         <v>0</v>
@@ -6298,7 +6298,7 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B255">
         <v>5.5999999999999999E-3</v>
@@ -6322,7 +6322,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K255" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L255">
         <v>0</v>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B256">
         <v>2.2000000000000001E-6</v>
@@ -6339,7 +6339,7 @@
         <v>9</v>
       </c>
       <c r="E256" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F256" t="s">
         <v>30</v>
@@ -6354,7 +6354,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K256" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L256">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>9</v>
       </c>
       <c r="E257" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F257" t="s">
         <v>30</v>
@@ -6386,7 +6386,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K257" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L257">
         <v>0</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B258">
         <v>2.9000000000000003E-17</v>
@@ -6403,7 +6403,7 @@
         <v>9</v>
       </c>
       <c r="E258" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F258" t="s">
         <v>30</v>
@@ -6418,7 +6418,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K258" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L258">
         <v>0</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B259">
         <v>1.37E-6</v>
@@ -6435,7 +6435,7 @@
         <v>9</v>
       </c>
       <c r="E259" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F259" t="s">
         <v>30</v>
@@ -6450,7 +6450,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K259" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L259">
         <v>0</v>
@@ -6467,7 +6467,7 @@
         <v>9</v>
       </c>
       <c r="E260" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F260" t="s">
         <v>30</v>
@@ -6482,7 +6482,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K260" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L260">
         <v>0</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B261">
         <v>0.52500000000000002</v>
@@ -6499,7 +6499,7 @@
         <v>18</v>
       </c>
       <c r="E261" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F261" t="s">
         <v>30</v>
@@ -6514,7 +6514,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K261" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L261">
         <v>0</v>
@@ -6522,7 +6522,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B262">
         <v>7.9299999999999997E-7</v>
@@ -6531,7 +6531,7 @@
         <v>9</v>
       </c>
       <c r="E262" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F262" t="s">
         <v>30</v>
@@ -6546,7 +6546,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K262" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L262">
         <v>0</v>
@@ -6563,7 +6563,7 @@
         <v>9</v>
       </c>
       <c r="E263" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F263" t="s">
         <v>30</v>
@@ -6578,7 +6578,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K263" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L263">
         <v>0</v>
@@ -6586,7 +6586,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B264">
         <v>9.9999999999999995E-7</v>
@@ -6595,7 +6595,7 @@
         <v>9</v>
       </c>
       <c r="E264" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F264" t="s">
         <v>30</v>
@@ -6610,7 +6610,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K264" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L264">
         <v>0</v>
@@ -6627,7 +6627,7 @@
         <v>9</v>
       </c>
       <c r="E265" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F265" t="s">
         <v>30</v>
@@ -6642,7 +6642,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K265" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L265">
         <v>0</v>
@@ -6659,7 +6659,7 @@
         <v>9</v>
       </c>
       <c r="E266" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F266" t="s">
         <v>30</v>
@@ -6674,7 +6674,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K266" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L266">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>9</v>
       </c>
       <c r="E267" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F267" t="s">
         <v>30</v>
@@ -6706,7 +6706,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K267" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L267">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>9</v>
       </c>
       <c r="E268" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F268" t="s">
         <v>30</v>
@@ -6738,7 +6738,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K268" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L268">
         <v>0</v>
@@ -6755,7 +6755,7 @@
         <v>9</v>
       </c>
       <c r="E269" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F269" t="s">
         <v>30</v>
@@ -6770,7 +6770,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K269" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L269">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>9</v>
       </c>
       <c r="E270" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F270" t="s">
         <v>30</v>
@@ -6802,7 +6802,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K270" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L270">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>9</v>
       </c>
       <c r="E271" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F271" t="s">
         <v>30</v>
@@ -6834,7 +6834,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K271" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L271">
         <v>0</v>
@@ -6851,7 +6851,7 @@
         <v>9</v>
       </c>
       <c r="E272" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F272" t="s">
         <v>30</v>
@@ -6866,7 +6866,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K272" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L272">
         <v>0</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="273" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -6886,7 +6886,7 @@
         <v>18</v>
       </c>
       <c r="E273" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F273" t="s">
         <v>16</v>
@@ -6895,12 +6895,12 @@
         <v>100</v>
       </c>
       <c r="K273" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B274">
         <v>5.04E-2</v>
@@ -6912,7 +6912,7 @@
         <v>9</v>
       </c>
       <c r="E274" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F274" t="s">
         <v>19</v>
@@ -6924,12 +6924,12 @@
         <v>5.04E-2</v>
       </c>
       <c r="K274" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B275">
         <v>7.7000000000000001E-5</v>
@@ -6941,7 +6941,7 @@
         <v>9</v>
       </c>
       <c r="E275" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F275" t="s">
         <v>19</v>
@@ -6953,12 +6953,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K275" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B276">
         <v>2.1900000000000002E-12</v>
@@ -6970,7 +6970,7 @@
         <v>8</v>
       </c>
       <c r="E276" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F276" t="s">
         <v>19</v>
@@ -6985,7 +6985,7 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K276" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L276">
         <v>0</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B277">
         <v>2.5000000000000002E-6</v>
@@ -7005,7 +7005,7 @@
         <v>9</v>
       </c>
       <c r="E277" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F277" t="s">
         <v>19</v>
@@ -7020,7 +7020,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K277" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L277">
         <v>0</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B278">
         <v>1.9999999999999999E-6</v>
@@ -7040,7 +7040,7 @@
         <v>9</v>
       </c>
       <c r="E278" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F278" t="s">
         <v>19</v>
@@ -7055,7 +7055,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K278" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L278">
         <v>0</v>
@@ -7063,7 +7063,7 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B279">
         <v>0.5</v>
@@ -7075,7 +7075,7 @@
         <v>9</v>
       </c>
       <c r="E279" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F279" t="s">
         <v>19</v>
@@ -7090,13 +7090,13 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K279" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L279">
         <v>0</v>
       </c>
       <c r="M279" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.2">
@@ -7113,7 +7113,7 @@
         <v>49</v>
       </c>
       <c r="E280" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F280" t="s">
         <v>19</v>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="K280" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L280">
         <v>0</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B281">
         <v>-9.9999999999999995E-7</v>
@@ -7148,7 +7148,7 @@
         <v>9</v>
       </c>
       <c r="E281" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F281" t="s">
         <v>19</v>
@@ -7163,7 +7163,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K281" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L281">
         <v>0</v>
@@ -7174,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.2">
@@ -7190,7 +7190,7 @@
         <v>5</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.2">
@@ -7242,22 +7242,22 @@
         <v>6</v>
       </c>
       <c r="G290" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H290" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I290" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J290" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K290" t="s">
         <v>10</v>
       </c>
       <c r="L290" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M290" t="s">
         <v>5</v>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B291">
         <v>7.9299999999999995E-13</v>
@@ -7274,7 +7274,7 @@
         <v>9</v>
       </c>
       <c r="E291" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F291" t="s">
         <v>30</v>
@@ -7289,7 +7289,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K291" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L291">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>9</v>
       </c>
       <c r="E292" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F292" t="s">
         <v>30</v>
@@ -7321,7 +7321,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K292" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L292">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>9</v>
       </c>
       <c r="E293" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F293" t="s">
         <v>30</v>
@@ -7353,7 +7353,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K293" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L293">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>9</v>
       </c>
       <c r="E294" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F294" t="s">
         <v>30</v>
@@ -7385,7 +7385,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K294" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L294">
         <v>0</v>
@@ -7402,7 +7402,7 @@
         <v>9</v>
       </c>
       <c r="E295" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F295" t="s">
         <v>30</v>
@@ -7417,7 +7417,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K295" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L295">
         <v>0</v>
@@ -7434,7 +7434,7 @@
         <v>9</v>
       </c>
       <c r="E296" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F296" t="s">
         <v>30</v>
@@ -7449,7 +7449,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K296" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L296">
         <v>0</v>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B297">
         <v>5.5999999999999999E-3</v>
@@ -7481,7 +7481,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K297" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L297">
         <v>0</v>
@@ -7489,7 +7489,7 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B298">
         <v>2.2000000000000001E-6</v>
@@ -7498,7 +7498,7 @@
         <v>9</v>
       </c>
       <c r="E298" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F298" t="s">
         <v>30</v>
@@ -7513,7 +7513,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K298" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L298">
         <v>0</v>
@@ -7530,7 +7530,7 @@
         <v>9</v>
       </c>
       <c r="E299" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F299" t="s">
         <v>30</v>
@@ -7545,7 +7545,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K299" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L299">
         <v>0</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B300">
         <v>2.9000000000000003E-17</v>
@@ -7562,7 +7562,7 @@
         <v>9</v>
       </c>
       <c r="E300" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F300" t="s">
         <v>30</v>
@@ -7577,7 +7577,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K300" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L300">
         <v>0</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B301">
         <v>1.37E-6</v>
@@ -7594,7 +7594,7 @@
         <v>9</v>
       </c>
       <c r="E301" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F301" t="s">
         <v>30</v>
@@ -7609,7 +7609,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K301" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L301">
         <v>0</v>
@@ -7626,7 +7626,7 @@
         <v>9</v>
       </c>
       <c r="E302" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F302" t="s">
         <v>30</v>
@@ -7641,7 +7641,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K302" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L302">
         <v>0</v>
@@ -7649,7 +7649,7 @@
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B303">
         <v>0.52500000000000002</v>
@@ -7658,7 +7658,7 @@
         <v>18</v>
       </c>
       <c r="E303" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F303" t="s">
         <v>30</v>
@@ -7673,7 +7673,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K303" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L303">
         <v>0</v>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B304">
         <v>7.9299999999999997E-7</v>
@@ -7690,7 +7690,7 @@
         <v>9</v>
       </c>
       <c r="E304" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F304" t="s">
         <v>30</v>
@@ -7705,7 +7705,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K304" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L304">
         <v>0</v>
@@ -7722,7 +7722,7 @@
         <v>9</v>
       </c>
       <c r="E305" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F305" t="s">
         <v>30</v>
@@ -7737,7 +7737,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K305" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L305">
         <v>0</v>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B306">
         <v>9.9999999999999995E-7</v>
@@ -7754,7 +7754,7 @@
         <v>9</v>
       </c>
       <c r="E306" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F306" t="s">
         <v>30</v>
@@ -7769,7 +7769,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K306" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L306">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>9</v>
       </c>
       <c r="E307" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F307" t="s">
         <v>30</v>
@@ -7801,7 +7801,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K307" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L307">
         <v>0</v>
@@ -7818,7 +7818,7 @@
         <v>9</v>
       </c>
       <c r="E308" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F308" t="s">
         <v>30</v>
@@ -7833,7 +7833,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K308" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L308">
         <v>0</v>
@@ -7850,7 +7850,7 @@
         <v>9</v>
       </c>
       <c r="E309" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F309" t="s">
         <v>30</v>
@@ -7865,7 +7865,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K309" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L309">
         <v>0</v>
@@ -7882,7 +7882,7 @@
         <v>9</v>
       </c>
       <c r="E310" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F310" t="s">
         <v>30</v>
@@ -7897,7 +7897,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K310" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L310">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>9</v>
       </c>
       <c r="E311" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F311" t="s">
         <v>30</v>
@@ -7929,7 +7929,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K311" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L311">
         <v>0</v>
@@ -7946,7 +7946,7 @@
         <v>9</v>
       </c>
       <c r="E312" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F312" t="s">
         <v>30</v>
@@ -7961,7 +7961,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K312" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L312">
         <v>0</v>
@@ -7978,7 +7978,7 @@
         <v>9</v>
       </c>
       <c r="E313" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F313" t="s">
         <v>30</v>
@@ -7993,7 +7993,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K313" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L313">
         <v>0</v>
@@ -8010,7 +8010,7 @@
         <v>9</v>
       </c>
       <c r="E314" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F314" t="s">
         <v>30</v>
@@ -8025,7 +8025,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K314" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L314">
         <v>0</v>
@@ -8033,7 +8033,7 @@
     </row>
     <row r="315" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -8045,7 +8045,7 @@
         <v>18</v>
       </c>
       <c r="E315" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F315" t="s">
         <v>16</v>
@@ -8054,12 +8054,12 @@
         <v>100</v>
       </c>
       <c r="K315" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B316">
         <v>5.04E-2</v>
@@ -8071,7 +8071,7 @@
         <v>9</v>
       </c>
       <c r="E316" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F316" t="s">
         <v>19</v>
@@ -8083,12 +8083,12 @@
         <v>5.04E-2</v>
       </c>
       <c r="K316" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B317">
         <v>7.7000000000000001E-5</v>
@@ -8100,7 +8100,7 @@
         <v>9</v>
       </c>
       <c r="E317" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F317" t="s">
         <v>19</v>
@@ -8112,12 +8112,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K317" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B318">
         <v>2.1900000000000002E-12</v>
@@ -8129,7 +8129,7 @@
         <v>8</v>
       </c>
       <c r="E318" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F318" t="s">
         <v>19</v>
@@ -8144,7 +8144,7 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K318" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L318">
         <v>0</v>
@@ -8152,7 +8152,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B319">
         <v>2.5000000000000002E-6</v>
@@ -8164,7 +8164,7 @@
         <v>9</v>
       </c>
       <c r="E319" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F319" t="s">
         <v>19</v>
@@ -8179,7 +8179,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K319" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L319">
         <v>0</v>
@@ -8187,7 +8187,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B320">
         <v>1.9999999999999999E-6</v>
@@ -8199,7 +8199,7 @@
         <v>9</v>
       </c>
       <c r="E320" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F320" t="s">
         <v>19</v>
@@ -8214,7 +8214,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K320" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L320">
         <v>0</v>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B321">
         <v>0.5</v>
@@ -8234,7 +8234,7 @@
         <v>9</v>
       </c>
       <c r="E321" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F321" t="s">
         <v>19</v>
@@ -8249,13 +8249,13 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K321" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L321">
         <v>0</v>
       </c>
       <c r="M321" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.2">
@@ -8272,7 +8272,7 @@
         <v>49</v>
       </c>
       <c r="E322" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F322" t="s">
         <v>19</v>
@@ -8287,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="K322" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L322">
         <v>0</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B323">
         <v>-9.9999999999999995E-7</v>
@@ -8307,7 +8307,7 @@
         <v>9</v>
       </c>
       <c r="E323" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F323" t="s">
         <v>19</v>
@@ -8322,7 +8322,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K323" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L323">
         <v>0</v>
@@ -8333,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.2">
@@ -8349,7 +8349,7 @@
         <v>5</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.2">
@@ -8401,22 +8401,22 @@
         <v>6</v>
       </c>
       <c r="G332" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H332" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I332" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J332" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K332" t="s">
         <v>10</v>
       </c>
       <c r="L332" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M332" t="s">
         <v>5</v>
@@ -8424,7 +8424,7 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B333">
         <v>7.9299999999999995E-13</v>
@@ -8433,7 +8433,7 @@
         <v>9</v>
       </c>
       <c r="E333" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F333" t="s">
         <v>30</v>
@@ -8448,7 +8448,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K333" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L333">
         <v>0</v>
@@ -8465,7 +8465,7 @@
         <v>9</v>
       </c>
       <c r="E334" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F334" t="s">
         <v>30</v>
@@ -8480,7 +8480,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K334" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L334">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         <v>9</v>
       </c>
       <c r="E335" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F335" t="s">
         <v>30</v>
@@ -8512,7 +8512,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K335" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L335">
         <v>0</v>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B336">
         <v>1.77E-6</v>
@@ -8541,7 +8541,7 @@
         <v>1.77E-6</v>
       </c>
       <c r="K336" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
@@ -8555,7 +8555,7 @@
         <v>9</v>
       </c>
       <c r="E337" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F337" t="s">
         <v>30</v>
@@ -8570,7 +8570,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K337" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L337">
         <v>0</v>
@@ -8587,7 +8587,7 @@
         <v>9</v>
       </c>
       <c r="E338" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F338" t="s">
         <v>30</v>
@@ -8602,7 +8602,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K338" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L338">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         <v>9</v>
       </c>
       <c r="E339" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F339" t="s">
         <v>30</v>
@@ -8634,7 +8634,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K339" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L339">
         <v>0</v>
@@ -8642,7 +8642,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B340">
         <v>5.5999999999999999E-3</v>
@@ -8666,7 +8666,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K340" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L340">
         <v>0</v>
@@ -8674,7 +8674,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B341">
         <v>2.2000000000000001E-6</v>
@@ -8683,7 +8683,7 @@
         <v>9</v>
       </c>
       <c r="E341" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F341" t="s">
         <v>30</v>
@@ -8698,7 +8698,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K341" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L341">
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>9</v>
       </c>
       <c r="E342" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F342" t="s">
         <v>30</v>
@@ -8730,7 +8730,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K342" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L342">
         <v>0</v>
@@ -8738,7 +8738,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B343">
         <v>2.9000000000000003E-17</v>
@@ -8747,7 +8747,7 @@
         <v>9</v>
       </c>
       <c r="E343" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F343" t="s">
         <v>30</v>
@@ -8762,7 +8762,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K343" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L343">
         <v>0</v>
@@ -8770,7 +8770,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B344">
         <v>1.37E-6</v>
@@ -8779,7 +8779,7 @@
         <v>9</v>
       </c>
       <c r="E344" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F344" t="s">
         <v>30</v>
@@ -8794,7 +8794,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K344" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L344">
         <v>0</v>
@@ -8811,7 +8811,7 @@
         <v>9</v>
       </c>
       <c r="E345" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F345" t="s">
         <v>30</v>
@@ -8826,7 +8826,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K345" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L345">
         <v>0</v>
@@ -8834,7 +8834,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B346">
         <v>0.52500000000000002</v>
@@ -8843,7 +8843,7 @@
         <v>18</v>
       </c>
       <c r="E346" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F346" t="s">
         <v>30</v>
@@ -8858,7 +8858,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K346" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L346">
         <v>0</v>
@@ -8866,7 +8866,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B347">
         <v>7.9299999999999997E-7</v>
@@ -8875,7 +8875,7 @@
         <v>9</v>
       </c>
       <c r="E347" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F347" t="s">
         <v>30</v>
@@ -8890,7 +8890,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K347" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L347">
         <v>0</v>
@@ -8907,7 +8907,7 @@
         <v>9</v>
       </c>
       <c r="E348" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F348" t="s">
         <v>30</v>
@@ -8922,7 +8922,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K348" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L348">
         <v>0</v>
@@ -8930,7 +8930,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B349">
         <v>9.9999999999999995E-7</v>
@@ -8939,7 +8939,7 @@
         <v>9</v>
       </c>
       <c r="E349" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F349" t="s">
         <v>30</v>
@@ -8954,7 +8954,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K349" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L349">
         <v>0</v>
@@ -8962,7 +8962,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B350">
         <v>2.0999999999999998E-6</v>
@@ -8983,7 +8983,7 @@
         <v>2.0999999999999998E-6</v>
       </c>
       <c r="K350" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
@@ -8997,7 +8997,7 @@
         <v>9</v>
       </c>
       <c r="E351" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F351" t="s">
         <v>30</v>
@@ -9012,7 +9012,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K351" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L351">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>9</v>
       </c>
       <c r="E352" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F352" t="s">
         <v>30</v>
@@ -9044,7 +9044,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K352" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L352">
         <v>0</v>
@@ -9061,7 +9061,7 @@
         <v>9</v>
       </c>
       <c r="E353" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F353" t="s">
         <v>30</v>
@@ -9076,7 +9076,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K353" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L353">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>9</v>
       </c>
       <c r="E354" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F354" t="s">
         <v>30</v>
@@ -9108,7 +9108,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K354" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L354">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>9</v>
       </c>
       <c r="E355" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F355" t="s">
         <v>30</v>
@@ -9140,7 +9140,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K355" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L355">
         <v>0</v>
@@ -9157,7 +9157,7 @@
         <v>9</v>
       </c>
       <c r="E356" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F356" t="s">
         <v>30</v>
@@ -9172,7 +9172,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K356" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L356">
         <v>0</v>
@@ -9189,7 +9189,7 @@
         <v>9</v>
       </c>
       <c r="E357" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F357" t="s">
         <v>30</v>
@@ -9204,7 +9204,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K357" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L357">
         <v>0</v>
@@ -9221,7 +9221,7 @@
         <v>9</v>
       </c>
       <c r="E358" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F358" t="s">
         <v>30</v>
@@ -9236,7 +9236,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K358" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L358">
         <v>0</v>
@@ -9244,7 +9244,7 @@
     </row>
     <row r="359" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -9256,7 +9256,7 @@
         <v>18</v>
       </c>
       <c r="E359" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F359" t="s">
         <v>16</v>
@@ -9265,12 +9265,12 @@
         <v>100</v>
       </c>
       <c r="K359" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B360">
         <v>5.04E-2</v>
@@ -9282,7 +9282,7 @@
         <v>9</v>
       </c>
       <c r="E360" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F360" t="s">
         <v>19</v>
@@ -9294,12 +9294,12 @@
         <v>5.04E-2</v>
       </c>
       <c r="K360" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B361">
         <v>7.7000000000000001E-5</v>
@@ -9311,7 +9311,7 @@
         <v>9</v>
       </c>
       <c r="E361" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F361" t="s">
         <v>19</v>
@@ -9323,12 +9323,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K361" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B362">
         <v>2.1900000000000002E-12</v>
@@ -9340,7 +9340,7 @@
         <v>8</v>
       </c>
       <c r="E362" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F362" t="s">
         <v>19</v>
@@ -9355,7 +9355,7 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K362" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L362">
         <v>0</v>
@@ -9363,7 +9363,7 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B363">
         <v>2.5000000000000002E-6</v>
@@ -9375,7 +9375,7 @@
         <v>9</v>
       </c>
       <c r="E363" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F363" t="s">
         <v>19</v>
@@ -9390,7 +9390,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K363" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L363">
         <v>0</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B364">
         <v>1.9999999999999999E-6</v>
@@ -9410,7 +9410,7 @@
         <v>9</v>
       </c>
       <c r="E364" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F364" t="s">
         <v>19</v>
@@ -9425,7 +9425,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K364" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L364">
         <v>0</v>
@@ -9433,7 +9433,7 @@
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B365">
         <v>0.5</v>
@@ -9445,7 +9445,7 @@
         <v>9</v>
       </c>
       <c r="E365" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F365" t="s">
         <v>19</v>
@@ -9460,13 +9460,13 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K365" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L365">
         <v>0</v>
       </c>
       <c r="M365" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.2">
@@ -9483,7 +9483,7 @@
         <v>49</v>
       </c>
       <c r="E366" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F366" t="s">
         <v>19</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="K366" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L366">
         <v>0</v>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B367">
         <v>-9.9999999999999995E-7</v>
@@ -9518,7 +9518,7 @@
         <v>9</v>
       </c>
       <c r="E367" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F367" t="s">
         <v>19</v>
@@ -9533,7 +9533,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K367" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L367">
         <v>0</v>
@@ -9544,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.2">
@@ -9612,24 +9612,24 @@
         <v>6</v>
       </c>
       <c r="G376" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H376" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I376" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J376" t="s">
         <v>10</v>
       </c>
       <c r="K376" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="377" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -9641,7 +9641,7 @@
         <v>21</v>
       </c>
       <c r="E377" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F377" t="s">
         <v>16</v>
@@ -9653,12 +9653,12 @@
         <v>28</v>
       </c>
       <c r="K377" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B378">
         <v>5.81</v>
@@ -9670,7 +9670,7 @@
         <v>18</v>
       </c>
       <c r="E378" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F378" t="s">
         <v>19</v>
@@ -9682,10 +9682,10 @@
         <v>5.81</v>
       </c>
       <c r="J378" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K378" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="380" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9693,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
@@ -9761,24 +9761,24 @@
         <v>6</v>
       </c>
       <c r="G387" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H387" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I387" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J387" t="s">
         <v>10</v>
       </c>
       <c r="K387" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="388" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -9790,7 +9790,7 @@
         <v>21</v>
       </c>
       <c r="E388" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F388" t="s">
         <v>16</v>
@@ -9802,12 +9802,12 @@
         <v>28</v>
       </c>
       <c r="K388" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B389">
         <v>5.81</v>
@@ -9819,7 +9819,7 @@
         <v>18</v>
       </c>
       <c r="E389" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F389" t="s">
         <v>19</v>
@@ -9831,7 +9831,7 @@
         <v>5.81</v>
       </c>
       <c r="J389" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="391" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9839,7 +9839,7 @@
         <v>1</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
@@ -9907,24 +9907,24 @@
         <v>6</v>
       </c>
       <c r="G398" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H398" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I398" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J398" t="s">
         <v>10</v>
       </c>
       <c r="K398" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="399" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -9936,7 +9936,7 @@
         <v>21</v>
       </c>
       <c r="E399" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F399" t="s">
         <v>16</v>
@@ -9948,12 +9948,12 @@
         <v>28</v>
       </c>
       <c r="K399" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B400">
         <v>5.81</v>
@@ -9965,7 +9965,7 @@
         <v>18</v>
       </c>
       <c r="E400" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F400" t="s">
         <v>19</v>
@@ -9977,7 +9977,7 @@
         <v>5.81</v>
       </c>
       <c r="J400" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="402" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9985,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
@@ -10053,24 +10053,24 @@
         <v>6</v>
       </c>
       <c r="G409" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H409" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I409" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J409" t="s">
         <v>10</v>
       </c>
       <c r="K409" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="410" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -10082,7 +10082,7 @@
         <v>21</v>
       </c>
       <c r="E410" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F410" t="s">
         <v>16</v>
@@ -10094,12 +10094,12 @@
         <v>28</v>
       </c>
       <c r="K410" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B411">
         <v>5.81</v>
@@ -10111,7 +10111,7 @@
         <v>18</v>
       </c>
       <c r="E411" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F411" t="s">
         <v>19</v>
@@ -10123,7 +10123,7 @@
         <v>5.81</v>
       </c>
       <c r="J411" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8239BA81-AD99-D24E-939C-3C8965CE00EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9088A78-420C-1C4F-B626-C65030D5CC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$411</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -92,9 +92,6 @@
     <t>technosphere</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 26 bar</t>
-  </si>
-  <si>
     <t>kilowatt hour</t>
   </si>
   <si>
@@ -391,9 +388,6 @@
     <t>as degradation product of MEA</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 25 bar</t>
-  </si>
-  <si>
     <t>ecoinvent 3.6 cutoff</t>
   </si>
   <si>
@@ -620,6 +614,12 @@
   </si>
   <si>
     <t>Biomethane: 0.722 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 45.4 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 26 bar</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 25 bar</t>
   </si>
 </sst>
 </file>
@@ -712,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -734,15 +734,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="A394" sqref="A394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1040,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1048,12 +1043,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1.283708329984486</v>
@@ -1071,8 +1066,8 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>24</v>
+      <c r="B6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1080,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1093,10 +1088,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1104,7 +1099,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1129,7 +1124,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
@@ -1140,7 +1135,7 @@
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1158,538 +1153,538 @@
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>2.8589231253706749E-8</v>
       </c>
       <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>4.2883846880560116E-6</v>
       </c>
       <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>1.1435964107327784E-5</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>2.8589231253706741E-10</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>2.0013005089284896E-5</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
         <v>28</v>
       </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B19">
         <v>2.5884448839268264</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
         <v>28</v>
       </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>6.0038472056164506E-5</v>
       </c>
       <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
         <v>28</v>
       </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>2.8589231253706745E-6</v>
       </c>
       <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
         <v>28</v>
       </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>2.8589231253706745E-6</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
         <v>28</v>
       </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>8.5770409819571095E-10</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
         <v>28</v>
       </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
-      </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>5.7181178565864352E-5</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
         <v>28</v>
       </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>5.1175973331022469E-4</v>
       </c>
       <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
         <v>28</v>
       </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>2.8589231253706748E-7</v>
       </c>
       <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
         <v>28</v>
       </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>5.7181178565864347E-6</v>
       </c>
       <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
         <v>28</v>
       </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>3.4309250351208778E-5</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
         <v>28</v>
       </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>5.7181178565864347E-6</v>
       </c>
       <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
         <v>28</v>
       </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>5.7181178565864345E-7</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
         <v>28</v>
       </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" t="s">
-        <v>29</v>
-      </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>1.5724620401228882E-5</v>
       </c>
       <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
         <v>28</v>
       </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>29</v>
-      </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>5.7181178565864347E-6</v>
       </c>
       <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
         <v>27</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
         <v>28</v>
       </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>0.38037590964433182</v>
       </c>
       <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
         <v>27</v>
       </c>
-      <c r="D33" t="s">
-        <v>28</v>
-      </c>
       <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" t="s">
         <v>49</v>
       </c>
-      <c r="F33" t="s">
-        <v>50</v>
-      </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>6.1496909953258223</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -1701,42 +1696,42 @@
         <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35">
         <f>(120*B4)/36</f>
         <v>4.2790277666149539</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36">
         <v>5.3483393537845907E-10</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
@@ -1748,44 +1743,44 @@
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
         <v>59</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1794,21 +1789,21 @@
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -1817,21 +1812,21 @@
         <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40">
         <v>2.0908949384107795E-4</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -1840,21 +1835,21 @@
         <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41">
         <v>2.54628E-9</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1863,21 +1858,21 @@
         <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42">
         <v>2.796E-5</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -1886,21 +1881,21 @@
         <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43">
         <v>1.668E-5</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -1909,21 +1904,21 @@
         <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B44">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -1932,21 +1927,21 @@
         <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -1955,18 +1950,18 @@
         <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B46">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
@@ -1978,21 +1973,21 @@
         <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47">
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -2001,44 +1996,44 @@
         <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48">
         <v>7.5384409542456998</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" t="s">
         <v>80</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B49">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
@@ -2047,21 +2042,21 @@
         <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
@@ -2070,30 +2065,30 @@
         <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51">
         <v>-0.58836764785345819</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2101,12 +2096,12 @@
         <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55">
         <v>1.3097345915810461</v>
@@ -2125,7 +2120,7 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2133,7 +2128,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2146,10 +2141,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2157,7 +2152,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2182,7 +2177,7 @@
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G63" t="s">
         <v>6</v>
@@ -2193,7 +2188,7 @@
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2211,562 +2206,562 @@
         <v>16</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B65">
         <v>3.1712942535739586E-8</v>
       </c>
       <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" t="s">
         <v>27</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
         <v>28</v>
       </c>
-      <c r="E65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" t="s">
-        <v>29</v>
-      </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B66">
         <v>4.7569413803609367E-6</v>
       </c>
       <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" t="s">
         <v>27</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
         <v>28</v>
       </c>
-      <c r="E66" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" t="s">
-        <v>29</v>
-      </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B67">
         <v>1.268547829628838E-5</v>
       </c>
       <c r="C67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" t="s">
         <v>27</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
         <v>28</v>
       </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>29</v>
-      </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B68">
         <v>3.1712942535739584E-10</v>
       </c>
       <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" t="s">
         <v>27</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
         <v>28</v>
       </c>
-      <c r="E68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" t="s">
-        <v>29</v>
-      </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B69">
         <v>2.2199662339002805E-5</v>
       </c>
       <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
         <v>27</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
         <v>28</v>
       </c>
-      <c r="E69" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" t="s">
-        <v>29</v>
-      </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B70">
         <v>8.9153165218958783</v>
       </c>
       <c r="C70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" t="s">
         <v>27</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
         <v>28</v>
       </c>
-      <c r="E70" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" t="s">
-        <v>29</v>
-      </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B71">
         <v>6.6598384453023306E-5</v>
       </c>
       <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" t="s">
         <v>27</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
         <v>28</v>
       </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>29</v>
-      </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B72">
         <v>3.1712942535739587E-6</v>
       </c>
       <c r="C72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" t="s">
         <v>27</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
         <v>28</v>
       </c>
-      <c r="E72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" t="s">
-        <v>29</v>
-      </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B73">
         <v>3.1712942535739587E-6</v>
       </c>
       <c r="C73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" t="s">
         <v>27</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
         <v>28</v>
       </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>29</v>
-      </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74">
         <v>9.5141840427144231E-10</v>
       </c>
       <c r="C74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" t="s">
         <v>27</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
         <v>28</v>
       </c>
-      <c r="E74" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" t="s">
-        <v>29</v>
-      </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75">
         <v>6.3428897891404663E-5</v>
       </c>
       <c r="C75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" t="s">
         <v>27</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
         <v>28</v>
       </c>
-      <c r="E75" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" t="s">
-        <v>29</v>
-      </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B76">
         <v>5.6767553036139577E-4</v>
       </c>
       <c r="C76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" t="s">
         <v>27</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
         <v>28</v>
       </c>
-      <c r="E76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" t="s">
-        <v>29</v>
-      </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B77">
         <v>3.1712942535739582E-7</v>
       </c>
       <c r="C77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s">
         <v>27</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
         <v>28</v>
       </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>29</v>
-      </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B78">
         <v>6.3428897891404652E-6</v>
       </c>
       <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
         <v>27</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
         <v>28</v>
       </c>
-      <c r="E78" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" t="s">
-        <v>29</v>
-      </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B79">
         <v>3.8057941298827897E-5</v>
       </c>
       <c r="C79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" t="s">
         <v>27</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
         <v>28</v>
       </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>29</v>
-      </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B80">
         <v>6.3428897891404652E-6</v>
       </c>
       <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" t="s">
         <v>27</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
         <v>28</v>
       </c>
-      <c r="E80" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" t="s">
-        <v>29</v>
-      </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B81">
         <v>6.3428897891404654E-7</v>
       </c>
       <c r="C81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
         <v>27</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
         <v>28</v>
       </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" t="s">
-        <v>29</v>
-      </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B82">
         <v>1.7442720958641864E-5</v>
       </c>
       <c r="C82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" t="s">
         <v>27</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
         <v>28</v>
       </c>
-      <c r="E82" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" t="s">
-        <v>29</v>
-      </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B83">
         <v>6.3428897891404652E-6</v>
       </c>
       <c r="C83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" t="s">
         <v>27</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
         <v>28</v>
       </c>
-      <c r="E83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s">
-        <v>29</v>
-      </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B84">
         <v>0.38037452713377895</v>
       </c>
       <c r="C84" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" t="s">
         <v>27</v>
       </c>
-      <c r="D84" t="s">
-        <v>28</v>
-      </c>
       <c r="E84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" t="s">
         <v>49</v>
       </c>
-      <c r="F84" t="s">
-        <v>50</v>
-      </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B85">
         <f>(120*B55)/36</f>
         <v>4.36578197193682</v>
       </c>
       <c r="C85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D85" t="s">
         <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G85" t="s">
         <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B86">
         <v>5.3483199147628007E-10</v>
       </c>
       <c r="C86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
@@ -2778,44 +2773,44 @@
         <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B87">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" t="s">
         <v>59</v>
-      </c>
-      <c r="E87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
-      <c r="H87" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B88">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
@@ -2824,21 +2819,21 @@
         <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B89">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
@@ -2847,21 +2842,21 @@
         <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B90">
         <v>2.54628E-9</v>
       </c>
       <c r="C90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
@@ -2870,21 +2865,21 @@
         <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B91">
         <v>2.796E-5</v>
       </c>
       <c r="C91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
@@ -2893,21 +2888,21 @@
         <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B92">
         <v>1.668E-5</v>
       </c>
       <c r="C92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
@@ -2916,21 +2911,21 @@
         <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B93">
         <v>2.0292014459767033E-4</v>
       </c>
       <c r="C93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
@@ -2939,21 +2934,21 @@
         <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B94">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
@@ -2962,18 +2957,18 @@
         <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B95">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
@@ -2985,21 +2980,21 @@
         <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B96">
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
@@ -3008,44 +3003,44 @@
         <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B97">
         <v>7.5384135551020997</v>
       </c>
       <c r="C97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D97" t="s">
+        <v>79</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" t="s">
         <v>80</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B98">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
@@ -3054,21 +3049,21 @@
         <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B99">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
@@ -3077,30 +3072,30 @@
         <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B100">
         <v>-1.3016123468668273</v>
       </c>
       <c r="C100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G100" t="s">
         <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3108,12 +3103,12 @@
         <v>1</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B103">
         <v>1.3051904328123036</v>
@@ -3132,7 +3127,7 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -3145,10 +3140,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B107" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -3156,7 +3151,7 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3181,7 +3176,7 @@
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G110" t="s">
         <v>6</v>
@@ -3211,90 +3206,90 @@
         <v>16</v>
       </c>
       <c r="H111" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B112">
         <v>6.84</v>
       </c>
       <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" t="s">
         <v>27</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
         <v>28</v>
       </c>
-      <c r="E112" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" t="s">
-        <v>29</v>
-      </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B113">
         <v>2.9996721816189444E-3</v>
       </c>
       <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" t="s">
         <v>27</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
         <v>28</v>
       </c>
-      <c r="E113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" t="s">
-        <v>29</v>
-      </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B114">
         <v>0.38041197561668283</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E114" t="s">
+        <v>48</v>
+      </c>
+      <c r="F114" t="s">
         <v>49</v>
       </c>
-      <c r="F114" t="s">
-        <v>50</v>
-      </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B115">
         <v>5.3487471618165237E-10</v>
       </c>
       <c r="C115" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
@@ -3306,44 +3301,44 @@
         <v>19</v>
       </c>
       <c r="H115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B116">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C116" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D116" t="s">
+        <v>58</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" t="s">
         <v>59</v>
-      </c>
-      <c r="E116" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116" t="s">
-        <v>19</v>
-      </c>
-      <c r="H116" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B117">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C117" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
@@ -3352,21 +3347,21 @@
         <v>19</v>
       </c>
       <c r="H117" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B118">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C118" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E118" t="s">
         <v>9</v>
@@ -3375,21 +3370,21 @@
         <v>19</v>
       </c>
       <c r="H118" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B119">
         <v>2.54628E-9</v>
       </c>
       <c r="C119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E119" t="s">
         <v>8</v>
@@ -3398,21 +3393,21 @@
         <v>19</v>
       </c>
       <c r="H119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B120">
         <v>2.796E-5</v>
       </c>
       <c r="C120" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
@@ -3421,21 +3416,21 @@
         <v>19</v>
       </c>
       <c r="H120" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B121">
         <v>1.668E-5</v>
       </c>
       <c r="C121" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
@@ -3444,21 +3439,21 @@
         <v>19</v>
       </c>
       <c r="H121" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B122">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C122" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
@@ -3467,21 +3462,21 @@
         <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B123">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C123" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
@@ -3490,18 +3485,18 @@
         <v>19</v>
       </c>
       <c r="H123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B124">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C124" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D124" t="s">
         <v>3</v>
@@ -3513,21 +3508,21 @@
         <v>19</v>
       </c>
       <c r="H124" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B125">
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C125" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
@@ -3536,44 +3531,44 @@
         <v>19</v>
       </c>
       <c r="H125" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B126">
         <v>7.5390157563601576</v>
       </c>
       <c r="C126" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D126" t="s">
+        <v>79</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" t="s">
+        <v>19</v>
+      </c>
+      <c r="H126" t="s">
         <v>80</v>
-      </c>
-      <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
-      <c r="H126" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B127">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C127" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D127" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E127" t="s">
         <v>9</v>
@@ -3582,21 +3577,21 @@
         <v>19</v>
       </c>
       <c r="H127" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B128">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C128" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D128" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
@@ -3605,54 +3600,54 @@
         <v>19</v>
       </c>
       <c r="H128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B129">
         <v>-0.61975263847726747</v>
       </c>
       <c r="C129" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D129" t="s">
         <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B130">
         <f>(120*B103)/36</f>
         <v>4.3506347760410122</v>
       </c>
       <c r="C130" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D130" t="s">
         <v>17</v>
       </c>
       <c r="E130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G130" t="s">
         <v>19</v>
       </c>
       <c r="H130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3660,12 +3655,12 @@
         <v>1</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B133">
         <v>1.3052025620169032</v>
@@ -3684,7 +3679,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -3697,10 +3692,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B137" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -3708,7 +3703,7 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3733,7 +3728,7 @@
         <v>8</v>
       </c>
       <c r="F140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G140" t="s">
         <v>6</v>
@@ -3763,90 +3758,90 @@
         <v>16</v>
       </c>
       <c r="H141" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B142">
         <v>0.58838389214647391</v>
       </c>
       <c r="C142" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" t="s">
         <v>27</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
         <v>28</v>
       </c>
-      <c r="E142" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" t="s">
-        <v>29</v>
-      </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B143">
         <v>2.9996721816189444E-3</v>
       </c>
       <c r="C143" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" t="s">
         <v>27</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
         <v>28</v>
       </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" t="s">
-        <v>29</v>
-      </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B144">
         <v>0.38041305426253447</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E144" t="s">
+        <v>48</v>
+      </c>
+      <c r="F144" t="s">
         <v>49</v>
       </c>
-      <c r="F144" t="s">
-        <v>50</v>
-      </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B145">
         <v>8.318133856294887</v>
       </c>
       <c r="C145" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D145" t="s">
         <v>3</v>
@@ -3858,18 +3853,18 @@
         <v>19</v>
       </c>
       <c r="H145" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B146">
         <v>5.3487623280160849E-10</v>
       </c>
       <c r="C146" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D146" t="s">
         <v>3</v>
@@ -3881,44 +3876,44 @@
         <v>19</v>
       </c>
       <c r="H146" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B147">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C147" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D147" t="s">
+        <v>58</v>
+      </c>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147" t="s">
         <v>59</v>
-      </c>
-      <c r="E147" t="s">
-        <v>9</v>
-      </c>
-      <c r="G147" t="s">
-        <v>19</v>
-      </c>
-      <c r="H147" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B148">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C148" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E148" t="s">
         <v>9</v>
@@ -3927,21 +3922,21 @@
         <v>19</v>
       </c>
       <c r="H148" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B149">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C149" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D149" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E149" t="s">
         <v>9</v>
@@ -3950,21 +3945,21 @@
         <v>19</v>
       </c>
       <c r="H149" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B150">
         <v>2.8370495812424056E-4</v>
       </c>
       <c r="C150" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D150" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E150" t="s">
         <v>9</v>
@@ -3973,21 +3968,21 @@
         <v>19</v>
       </c>
       <c r="H150" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B151">
         <v>2.54628E-9</v>
       </c>
       <c r="C151" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D151" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E151" t="s">
         <v>8</v>
@@ -3996,21 +3991,21 @@
         <v>19</v>
       </c>
       <c r="H151" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B152">
         <v>2.796E-5</v>
       </c>
       <c r="C152" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D152" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E152" t="s">
         <v>9</v>
@@ -4019,21 +4014,21 @@
         <v>19</v>
       </c>
       <c r="H152" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B153">
         <v>1.668E-5</v>
       </c>
       <c r="C153" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E153" t="s">
         <v>9</v>
@@ -4042,21 +4037,21 @@
         <v>19</v>
       </c>
       <c r="H153" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B154">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C154" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E154" t="s">
         <v>9</v>
@@ -4065,21 +4060,21 @@
         <v>19</v>
       </c>
       <c r="H154" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B155">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C155" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E155" t="s">
         <v>9</v>
@@ -4088,18 +4083,18 @@
         <v>19</v>
       </c>
       <c r="H155" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B156">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C156" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D156" t="s">
         <v>3</v>
@@ -4111,21 +4106,21 @@
         <v>19</v>
       </c>
       <c r="H156" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B157">
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C157" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D157" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E157" t="s">
         <v>9</v>
@@ -4134,44 +4129,44 @@
         <v>19</v>
       </c>
       <c r="H157" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B158">
         <v>7.5385278801642412</v>
       </c>
       <c r="C158" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D158" t="s">
+        <v>79</v>
+      </c>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" t="s">
+        <v>19</v>
+      </c>
+      <c r="H158" t="s">
         <v>80</v>
-      </c>
-      <c r="E158" t="s">
-        <v>9</v>
-      </c>
-      <c r="G158" t="s">
-        <v>19</v>
-      </c>
-      <c r="H158" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B159">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C159" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D159" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E159" t="s">
         <v>9</v>
@@ -4180,21 +4175,21 @@
         <v>19</v>
       </c>
       <c r="H159" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B160">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C160" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D160" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E160" t="s">
         <v>9</v>
@@ -4203,54 +4198,54 @@
         <v>19</v>
       </c>
       <c r="H160" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B161">
         <v>-0.15423412693187019</v>
       </c>
       <c r="C161" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G161" t="s">
         <v>19</v>
       </c>
       <c r="H161" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B162">
         <f>(120*B133)/36</f>
         <v>4.350675206723011</v>
       </c>
       <c r="C162" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D162" t="s">
         <v>17</v>
       </c>
       <c r="E162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G162" t="s">
         <v>19</v>
       </c>
       <c r="H162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -4258,30 +4253,30 @@
         <v>1</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C164" s="5"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>88</v>
+      </c>
+      <c r="C165" s="5"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" t="s">
         <v>53</v>
       </c>
-      <c r="C164" s="5"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A165" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B165" t="s">
-        <v>89</v>
-      </c>
-      <c r="C165" s="5"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A166" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B166" t="s">
-        <v>54</v>
-      </c>
       <c r="C166" s="5"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A167" s="16" t="s">
+      <c r="A167" t="s">
         <v>2</v>
       </c>
       <c r="B167" t="s">
@@ -4290,7 +4285,7 @@
       <c r="C167" s="5"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A168" s="16" t="s">
+      <c r="A168" t="s">
         <v>4</v>
       </c>
       <c r="B168" s="6">
@@ -4299,11 +4294,11 @@
       <c r="C168" s="5"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A169" s="16" t="s">
+      <c r="A169" t="s">
         <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C169" s="5"/>
     </row>
@@ -4331,7 +4326,7 @@
         <v>14</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>2</v>
@@ -4345,19 +4340,19 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>52</v>
+      </c>
+      <c r="B172" t="s">
         <v>53</v>
-      </c>
-      <c r="B172" t="s">
-        <v>54</v>
       </c>
       <c r="C172" s="13">
         <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G172" t="s">
         <v>17</v>
@@ -4371,19 +4366,19 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B173" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="C173" s="13">
         <v>1.8232044198895025</v>
       </c>
       <c r="D173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G173" t="s">
         <v>17</v>
@@ -4392,34 +4387,34 @@
         <v>19</v>
       </c>
       <c r="I173" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C174" s="15">
+        <v>56</v>
+      </c>
+      <c r="C174" s="5">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F174" s="10"/>
       <c r="G174" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H174" s="10" t="s">
         <v>19</v>
       </c>
       <c r="I174" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
@@ -4428,28 +4423,28 @@
     </row>
     <row r="175" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B175" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="C175" s="5">
+        <v>8.8397790055248608E-4</v>
+      </c>
+      <c r="D175" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" t="s">
+        <v>55</v>
+      </c>
+      <c r="G175" t="s">
+        <v>21</v>
+      </c>
+      <c r="H175" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I175" t="s">
         <v>96</v>
-      </c>
-      <c r="C175" s="15">
-        <v>8.8397790055248608E-4</v>
-      </c>
-      <c r="D175" t="s">
-        <v>9</v>
-      </c>
-      <c r="E175" t="s">
-        <v>56</v>
-      </c>
-      <c r="G175" t="s">
-        <v>22</v>
-      </c>
-      <c r="H175" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I175" t="s">
-        <v>97</v>
       </c>
       <c r="J175" s="11"/>
       <c r="K175" s="11"/>
@@ -4457,19 +4452,19 @@
     </row>
     <row r="176" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C176" s="15">
+        <v>80</v>
+      </c>
+      <c r="C176" s="5">
         <v>5.4696132596685078E-2</v>
       </c>
       <c r="D176" t="s">
         <v>9</v>
       </c>
       <c r="E176" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G176" t="s">
         <v>17</v>
@@ -4478,7 +4473,7 @@
         <v>19</v>
       </c>
       <c r="I176" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J176" s="11"/>
       <c r="K176" s="11"/>
@@ -4486,29 +4481,29 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B177" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B177" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C177" s="15">
+      <c r="C177" s="5">
         <v>5.4696132596685076E-5</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F177" s="10"/>
       <c r="G177" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H177" s="10" t="s">
         <v>19</v>
       </c>
       <c r="I177" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J177" s="10"/>
       <c r="K177" s="10"/>
@@ -4517,45 +4512,45 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B178" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="C178" s="5">
+        <v>2.3245856353591159E-2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" t="s">
+        <v>55</v>
+      </c>
+      <c r="G178" t="s">
+        <v>21</v>
+      </c>
+      <c r="H178" t="s">
+        <v>19</v>
+      </c>
+      <c r="I178" t="s">
         <v>102</v>
-      </c>
-      <c r="C178" s="15">
-        <v>2.3245856353591159E-2</v>
-      </c>
-      <c r="D178" t="s">
-        <v>9</v>
-      </c>
-      <c r="E178" t="s">
-        <v>56</v>
-      </c>
-      <c r="G178" t="s">
-        <v>22</v>
-      </c>
-      <c r="H178" t="s">
-        <v>19</v>
-      </c>
-      <c r="I178" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B179" t="s">
         <v>104</v>
       </c>
-      <c r="B179" t="s">
-        <v>105</v>
-      </c>
-      <c r="C179" s="15">
+      <c r="C179" s="5">
         <v>9.171270718232042E-3</v>
       </c>
       <c r="D179" t="s">
         <v>9</v>
       </c>
       <c r="E179" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G179" t="s">
         <v>3</v>
@@ -4564,7 +4559,7 @@
         <v>19</v>
       </c>
       <c r="I179" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J179" s="11"/>
       <c r="K179" s="11"/>
@@ -4572,19 +4567,19 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B180" t="s">
-        <v>107</v>
-      </c>
-      <c r="C180" s="15">
+        <v>106</v>
+      </c>
+      <c r="C180" s="5">
         <v>0.12</v>
       </c>
       <c r="D180" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E180" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G180" t="s">
         <v>3</v>
@@ -4593,35 +4588,35 @@
         <v>19</v>
       </c>
       <c r="I180" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C181" s="5">
+        <v>2.8679999999999998E-4</v>
+      </c>
+      <c r="D181" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" t="s">
+        <v>26</v>
+      </c>
+      <c r="F181" t="s">
+        <v>28</v>
+      </c>
+      <c r="H181" t="s">
+        <v>29</v>
+      </c>
+      <c r="I181" t="s">
         <v>109</v>
-      </c>
-      <c r="C181" s="15">
-        <v>2.8679999999999998E-4</v>
-      </c>
-      <c r="D181" t="s">
-        <v>9</v>
-      </c>
-      <c r="E181" t="s">
-        <v>27</v>
-      </c>
-      <c r="F181" t="s">
-        <v>29</v>
-      </c>
-      <c r="H181" t="s">
-        <v>30</v>
-      </c>
-      <c r="I181" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C182" s="13">
         <v>1.8211618777134311</v>
@@ -4630,114 +4625,114 @@
         <v>9</v>
       </c>
       <c r="E182" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H182" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I182" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C183" s="5">
+        <v>3.4875000000000001E-6</v>
+      </c>
+      <c r="D183" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" t="s">
+        <v>26</v>
+      </c>
+      <c r="F183" t="s">
+        <v>28</v>
+      </c>
+      <c r="H183" t="s">
+        <v>29</v>
+      </c>
+      <c r="I183" t="s">
         <v>112</v>
-      </c>
-      <c r="C183" s="15">
-        <v>3.4875000000000001E-6</v>
-      </c>
-      <c r="D183" t="s">
-        <v>9</v>
-      </c>
-      <c r="E183" t="s">
-        <v>27</v>
-      </c>
-      <c r="F183" t="s">
-        <v>29</v>
-      </c>
-      <c r="H183" t="s">
-        <v>30</v>
-      </c>
-      <c r="I183" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B184" s="10"/>
-      <c r="C184" s="15">
+      <c r="C184" s="5">
         <v>5.5157999999999997E-4</v>
       </c>
       <c r="D184" t="s">
         <v>9</v>
       </c>
       <c r="E184" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I184" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C185" s="15">
+        <v>114</v>
+      </c>
+      <c r="C185" s="5">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="D185" t="s">
         <v>9</v>
       </c>
       <c r="E185" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I185" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C186" s="5">
+        <v>1.2300000000000001E-4</v>
+      </c>
+      <c r="D186" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" t="s">
+        <v>26</v>
+      </c>
+      <c r="F186" t="s">
+        <v>28</v>
+      </c>
+      <c r="H186" t="s">
+        <v>29</v>
+      </c>
+      <c r="I186" t="s">
         <v>116</v>
-      </c>
-      <c r="C186" s="15">
-        <v>1.2300000000000001E-4</v>
-      </c>
-      <c r="D186" t="s">
-        <v>9</v>
-      </c>
-      <c r="E186" t="s">
-        <v>27</v>
-      </c>
-      <c r="F186" t="s">
-        <v>29</v>
-      </c>
-      <c r="H186" t="s">
-        <v>30</v>
-      </c>
-      <c r="I186" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C187">
         <v>55.5</v>
@@ -4746,16 +4741,16 @@
         <v>18</v>
       </c>
       <c r="E187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F187" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I187" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
@@ -4763,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
@@ -4771,7 +4766,7 @@
         <v>10</v>
       </c>
       <c r="B190" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
@@ -4787,7 +4782,7 @@
         <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
@@ -4803,7 +4798,7 @@
         <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
@@ -4828,7 +4823,7 @@
         <v>14</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>2</v>
@@ -4842,19 +4837,19 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>89</v>
+      </c>
+      <c r="B197" t="s">
         <v>90</v>
-      </c>
-      <c r="B197" t="s">
-        <v>91</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E197" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G197" t="s">
         <v>17</v>
@@ -4868,7 +4863,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C198">
         <v>5.3592000000000004</v>
@@ -4877,21 +4872,21 @@
         <v>9</v>
       </c>
       <c r="E198" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F198" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I198" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C199">
         <v>3.4083419999999993</v>
@@ -4900,13 +4895,13 @@
         <v>9</v>
       </c>
       <c r="E199" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H199" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4914,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
@@ -4938,7 +4933,7 @@
         <v>5</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
@@ -4976,28 +4971,28 @@
         <v>8</v>
       </c>
       <c r="E208" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F208" t="s">
         <v>6</v>
       </c>
       <c r="G208" t="s">
+        <v>121</v>
+      </c>
+      <c r="H208" t="s">
+        <v>122</v>
+      </c>
+      <c r="I208" t="s">
         <v>123</v>
       </c>
-      <c r="H208" t="s">
+      <c r="J208" t="s">
         <v>124</v>
-      </c>
-      <c r="I208" t="s">
-        <v>125</v>
-      </c>
-      <c r="J208" t="s">
-        <v>126</v>
       </c>
       <c r="K208" t="s">
         <v>10</v>
       </c>
       <c r="L208" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M208" t="s">
         <v>5</v>
@@ -5005,7 +5000,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B209">
         <v>7.9299999999999995E-13</v>
@@ -5014,10 +5009,10 @@
         <v>9</v>
       </c>
       <c r="E209" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G209">
         <v>2</v>
@@ -5029,7 +5024,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K209" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L209">
         <v>0</v>
@@ -5037,7 +5032,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B210">
         <v>8.0000000000000003E-10</v>
@@ -5046,10 +5041,10 @@
         <v>9</v>
       </c>
       <c r="E210" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -5061,7 +5056,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K210" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L210">
         <v>0</v>
@@ -5069,7 +5064,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B211">
         <v>1.2100000000000001E-7</v>
@@ -5078,10 +5073,10 @@
         <v>9</v>
       </c>
       <c r="E211" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -5093,7 +5088,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K211" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L211">
         <v>0</v>
@@ -5101,7 +5096,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B212">
         <v>9.2600000000000001E-10</v>
@@ -5110,10 +5105,10 @@
         <v>9</v>
       </c>
       <c r="E212" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -5125,7 +5120,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K212" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L212">
         <v>0</v>
@@ -5133,7 +5128,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B213">
         <v>5.2899999999999997E-13</v>
@@ -5142,10 +5137,10 @@
         <v>9</v>
       </c>
       <c r="E213" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -5157,7 +5152,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K213" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L213">
         <v>0</v>
@@ -5165,7 +5160,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B214">
         <v>9.2600000000000001E-7</v>
@@ -5174,10 +5169,10 @@
         <v>9</v>
       </c>
       <c r="E214" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -5189,7 +5184,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K214" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L214">
         <v>0</v>
@@ -5197,7 +5192,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B215">
         <v>5.6000000000000001E-2</v>
@@ -5206,10 +5201,10 @@
         <v>9</v>
       </c>
       <c r="E215" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -5221,7 +5216,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K215" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L215">
         <v>0</v>
@@ -5229,7 +5224,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B216">
         <v>2.2000000000000001E-6</v>
@@ -5238,10 +5233,10 @@
         <v>9</v>
       </c>
       <c r="E216" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G216">
         <v>2</v>
@@ -5253,7 +5248,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K216" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L216">
         <v>0</v>
@@ -5261,7 +5256,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B217">
         <v>9.9999999999999995E-7</v>
@@ -5270,10 +5265,10 @@
         <v>9</v>
       </c>
       <c r="E217" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F217" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G217">
         <v>2</v>
@@ -5285,7 +5280,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K217" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L217">
         <v>0</v>
@@ -5293,7 +5288,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B218">
         <v>2.9000000000000003E-17</v>
@@ -5302,10 +5297,10 @@
         <v>9</v>
       </c>
       <c r="E218" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -5317,7 +5312,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K218" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L218">
         <v>0</v>
@@ -5325,7 +5320,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B219">
         <v>1.37E-6</v>
@@ -5334,10 +5329,10 @@
         <v>9</v>
       </c>
       <c r="E219" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -5349,7 +5344,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K219" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L219">
         <v>0</v>
@@ -5357,7 +5352,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B220">
         <v>3.3099999999999999E-8</v>
@@ -5366,10 +5361,10 @@
         <v>9</v>
       </c>
       <c r="E220" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -5381,7 +5376,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K220" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L220">
         <v>0</v>
@@ -5389,7 +5384,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B221">
         <v>0.52500000000000002</v>
@@ -5398,10 +5393,10 @@
         <v>18</v>
       </c>
       <c r="E221" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -5413,7 +5408,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K221" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L221">
         <v>0</v>
@@ -5421,7 +5416,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B222">
         <v>7.9299999999999997E-7</v>
@@ -5430,10 +5425,10 @@
         <v>9</v>
       </c>
       <c r="E222" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -5445,7 +5440,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K222" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L222">
         <v>0</v>
@@ -5453,7 +5448,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B223">
         <v>3E-11</v>
@@ -5462,10 +5457,10 @@
         <v>9</v>
       </c>
       <c r="E223" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -5477,7 +5472,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K223" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L223">
         <v>0</v>
@@ -5485,7 +5480,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B224">
         <v>9.9999999999999995E-7</v>
@@ -5494,10 +5489,10 @@
         <v>9</v>
       </c>
       <c r="E224" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G224">
         <v>2</v>
@@ -5509,7 +5504,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K224" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L224">
         <v>0</v>
@@ -5517,7 +5512,7 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B225">
         <v>2.72E-5</v>
@@ -5526,10 +5521,10 @@
         <v>9</v>
       </c>
       <c r="E225" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F225" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -5541,7 +5536,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K225" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L225">
         <v>0</v>
@@ -5549,7 +5544,7 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B226">
         <v>8.0000000000000005E-9</v>
@@ -5558,10 +5553,10 @@
         <v>9</v>
       </c>
       <c r="E226" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F226" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G226">
         <v>2</v>
@@ -5573,7 +5568,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K226" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L226">
         <v>0</v>
@@ -5581,7 +5576,7 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B227">
         <v>4.9999999999999998E-7</v>
@@ -5590,10 +5585,10 @@
         <v>9</v>
       </c>
       <c r="E227" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G227">
         <v>2</v>
@@ -5605,7 +5600,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K227" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L227">
         <v>0</v>
@@ -5613,7 +5608,7 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B228">
         <v>1.15E-6</v>
@@ -5622,10 +5617,10 @@
         <v>9</v>
       </c>
       <c r="E228" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -5637,7 +5632,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K228" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L228">
         <v>0</v>
@@ -5645,7 +5640,7 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B229">
         <v>7.0500000000000003E-7</v>
@@ -5654,10 +5649,10 @@
         <v>9</v>
       </c>
       <c r="E229" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G229">
         <v>2</v>
@@ -5669,7 +5664,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K229" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L229">
         <v>0</v>
@@ -5677,7 +5672,7 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B230">
         <v>1.6000000000000001E-8</v>
@@ -5686,10 +5681,10 @@
         <v>9</v>
       </c>
       <c r="E230" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G230">
         <v>2</v>
@@ -5701,7 +5696,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K230" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L230">
         <v>0</v>
@@ -5709,7 +5704,7 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B231">
         <v>4.9999999999999998E-7</v>
@@ -5718,10 +5713,10 @@
         <v>9</v>
       </c>
       <c r="E231" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F231" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G231">
         <v>2</v>
@@ -5733,7 +5728,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K231" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L231">
         <v>0</v>
@@ -5741,7 +5736,7 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B232">
         <v>1.5E-9</v>
@@ -5750,10 +5745,10 @@
         <v>9</v>
       </c>
       <c r="E232" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -5765,7 +5760,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K232" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L232">
         <v>0</v>
@@ -5773,7 +5768,7 @@
     </row>
     <row r="233" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -5785,7 +5780,7 @@
         <v>18</v>
       </c>
       <c r="E233" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F233" t="s">
         <v>16</v>
@@ -5794,24 +5789,24 @@
         <v>100</v>
       </c>
       <c r="K233" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B234">
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="C234" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D234" t="s">
         <v>8</v>
       </c>
       <c r="E234" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F234" t="s">
         <v>19</v>
@@ -5826,7 +5821,7 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K234" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L234">
         <v>0</v>
@@ -5834,7 +5829,7 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B235">
         <v>2.5000000000000002E-6</v>
@@ -5846,7 +5841,7 @@
         <v>9</v>
       </c>
       <c r="E235" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F235" t="s">
         <v>19</v>
@@ -5861,7 +5856,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K235" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L235">
         <v>0</v>
@@ -5869,19 +5864,19 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B236">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C236" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D236" t="s">
         <v>9</v>
       </c>
       <c r="E236" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F236" t="s">
         <v>19</v>
@@ -5896,7 +5891,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K236" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L236">
         <v>0</v>
@@ -5904,7 +5899,7 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B237">
         <v>0.5</v>
@@ -5916,7 +5911,7 @@
         <v>9</v>
       </c>
       <c r="E237" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F237" t="s">
         <v>19</v>
@@ -5931,18 +5926,18 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K237" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L237">
         <v>0</v>
       </c>
       <c r="M237" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B238">
         <v>2.564102564102564E-2</v>
@@ -5951,10 +5946,10 @@
         <v>17</v>
       </c>
       <c r="D238" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E238" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F238" t="s">
         <v>19</v>
@@ -5969,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="K238" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L238">
         <v>0</v>
@@ -5977,7 +5972,7 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B239">
         <v>-9.9999999999999995E-7</v>
@@ -5989,7 +5984,7 @@
         <v>9</v>
       </c>
       <c r="E239" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F239" t="s">
         <v>19</v>
@@ -6004,7 +5999,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K239" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L239">
         <v>0</v>
@@ -6015,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.2">
@@ -6031,7 +6026,7 @@
         <v>5</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
@@ -6077,28 +6072,28 @@
         <v>8</v>
       </c>
       <c r="E248" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F248" t="s">
         <v>6</v>
       </c>
       <c r="G248" t="s">
+        <v>121</v>
+      </c>
+      <c r="H248" t="s">
+        <v>122</v>
+      </c>
+      <c r="I248" t="s">
         <v>123</v>
       </c>
-      <c r="H248" t="s">
+      <c r="J248" t="s">
         <v>124</v>
-      </c>
-      <c r="I248" t="s">
-        <v>125</v>
-      </c>
-      <c r="J248" t="s">
-        <v>126</v>
       </c>
       <c r="K248" t="s">
         <v>10</v>
       </c>
       <c r="L248" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M248" t="s">
         <v>5</v>
@@ -6106,7 +6101,7 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B249">
         <v>7.9299999999999995E-13</v>
@@ -6115,10 +6110,10 @@
         <v>9</v>
       </c>
       <c r="E249" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F249" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -6130,7 +6125,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K249" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L249">
         <v>0</v>
@@ -6138,7 +6133,7 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B250">
         <v>8.0000000000000003E-10</v>
@@ -6147,10 +6142,10 @@
         <v>9</v>
       </c>
       <c r="E250" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F250" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -6162,7 +6157,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K250" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L250">
         <v>0</v>
@@ -6170,7 +6165,7 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B251">
         <v>1.2100000000000001E-7</v>
@@ -6179,10 +6174,10 @@
         <v>9</v>
       </c>
       <c r="E251" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F251" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -6194,7 +6189,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K251" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L251">
         <v>0</v>
@@ -6202,7 +6197,7 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B252">
         <v>9.2600000000000001E-10</v>
@@ -6211,10 +6206,10 @@
         <v>9</v>
       </c>
       <c r="E252" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F252" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G252">
         <v>2</v>
@@ -6226,7 +6221,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K252" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L252">
         <v>0</v>
@@ -6234,7 +6229,7 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B253">
         <v>5.2899999999999997E-13</v>
@@ -6243,10 +6238,10 @@
         <v>9</v>
       </c>
       <c r="E253" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F253" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -6258,7 +6253,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K253" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L253">
         <v>0</v>
@@ -6266,7 +6261,7 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B254">
         <v>9.2600000000000001E-7</v>
@@ -6275,10 +6270,10 @@
         <v>9</v>
       </c>
       <c r="E254" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F254" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G254">
         <v>2</v>
@@ -6290,7 +6285,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K254" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L254">
         <v>0</v>
@@ -6298,7 +6293,7 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B255">
         <v>5.5999999999999999E-3</v>
@@ -6307,10 +6302,10 @@
         <v>9</v>
       </c>
       <c r="E255" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F255" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G255">
         <v>2</v>
@@ -6322,7 +6317,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K255" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L255">
         <v>0</v>
@@ -6330,7 +6325,7 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B256">
         <v>2.2000000000000001E-6</v>
@@ -6339,10 +6334,10 @@
         <v>9</v>
       </c>
       <c r="E256" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F256" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G256">
         <v>2</v>
@@ -6354,7 +6349,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K256" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L256">
         <v>0</v>
@@ -6362,7 +6357,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B257">
         <v>9.9999999999999995E-7</v>
@@ -6371,10 +6366,10 @@
         <v>9</v>
       </c>
       <c r="E257" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F257" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G257">
         <v>2</v>
@@ -6386,7 +6381,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K257" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L257">
         <v>0</v>
@@ -6394,7 +6389,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B258">
         <v>2.9000000000000003E-17</v>
@@ -6403,10 +6398,10 @@
         <v>9</v>
       </c>
       <c r="E258" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F258" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G258">
         <v>2</v>
@@ -6418,7 +6413,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K258" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L258">
         <v>0</v>
@@ -6426,7 +6421,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B259">
         <v>1.37E-6</v>
@@ -6435,10 +6430,10 @@
         <v>9</v>
       </c>
       <c r="E259" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F259" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G259">
         <v>2</v>
@@ -6450,7 +6445,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K259" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L259">
         <v>0</v>
@@ -6458,7 +6453,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B260">
         <v>3.3099999999999999E-8</v>
@@ -6467,10 +6462,10 @@
         <v>9</v>
       </c>
       <c r="E260" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F260" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G260">
         <v>2</v>
@@ -6482,7 +6477,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K260" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L260">
         <v>0</v>
@@ -6490,7 +6485,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B261">
         <v>0.52500000000000002</v>
@@ -6499,10 +6494,10 @@
         <v>18</v>
       </c>
       <c r="E261" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F261" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G261">
         <v>2</v>
@@ -6514,7 +6509,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K261" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L261">
         <v>0</v>
@@ -6522,7 +6517,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B262">
         <v>7.9299999999999997E-7</v>
@@ -6531,10 +6526,10 @@
         <v>9</v>
       </c>
       <c r="E262" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F262" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G262">
         <v>2</v>
@@ -6546,7 +6541,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K262" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L262">
         <v>0</v>
@@ -6554,7 +6549,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B263">
         <v>3E-11</v>
@@ -6563,10 +6558,10 @@
         <v>9</v>
       </c>
       <c r="E263" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F263" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G263">
         <v>2</v>
@@ -6578,7 +6573,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K263" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L263">
         <v>0</v>
@@ -6586,7 +6581,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B264">
         <v>9.9999999999999995E-7</v>
@@ -6595,10 +6590,10 @@
         <v>9</v>
       </c>
       <c r="E264" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F264" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G264">
         <v>2</v>
@@ -6610,7 +6605,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K264" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L264">
         <v>0</v>
@@ -6618,7 +6613,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B265">
         <v>9.9699999999999994E-6</v>
@@ -6627,10 +6622,10 @@
         <v>9</v>
       </c>
       <c r="E265" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F265" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G265">
         <v>2</v>
@@ -6642,7 +6637,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K265" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L265">
         <v>0</v>
@@ -6650,7 +6645,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B266">
         <v>8.0000000000000005E-9</v>
@@ -6659,10 +6654,10 @@
         <v>9</v>
       </c>
       <c r="E266" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F266" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G266">
         <v>2</v>
@@ -6674,7 +6669,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K266" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L266">
         <v>0</v>
@@ -6682,7 +6677,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B267">
         <v>4.9999999999999998E-7</v>
@@ -6691,10 +6686,10 @@
         <v>9</v>
       </c>
       <c r="E267" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F267" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G267">
         <v>2</v>
@@ -6706,7 +6701,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K267" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L267">
         <v>0</v>
@@ -6714,7 +6709,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B268">
         <v>1.15E-6</v>
@@ -6723,10 +6718,10 @@
         <v>9</v>
       </c>
       <c r="E268" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F268" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G268">
         <v>2</v>
@@ -6738,7 +6733,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K268" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L268">
         <v>0</v>
@@ -6746,7 +6741,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B269">
         <v>7.0500000000000003E-7</v>
@@ -6755,10 +6750,10 @@
         <v>9</v>
       </c>
       <c r="E269" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F269" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G269">
         <v>2</v>
@@ -6770,7 +6765,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K269" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L269">
         <v>0</v>
@@ -6778,7 +6773,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B270">
         <v>1.6000000000000001E-8</v>
@@ -6787,10 +6782,10 @@
         <v>9</v>
       </c>
       <c r="E270" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F270" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G270">
         <v>2</v>
@@ -6802,7 +6797,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K270" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L270">
         <v>0</v>
@@ -6810,7 +6805,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B271">
         <v>4.9999999999999998E-7</v>
@@ -6819,10 +6814,10 @@
         <v>9</v>
       </c>
       <c r="E271" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F271" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G271">
         <v>2</v>
@@ -6834,7 +6829,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K271" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L271">
         <v>0</v>
@@ -6842,7 +6837,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B272">
         <v>1.5E-9</v>
@@ -6851,10 +6846,10 @@
         <v>9</v>
       </c>
       <c r="E272" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F272" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G272">
         <v>2</v>
@@ -6866,7 +6861,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K272" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L272">
         <v>0</v>
@@ -6874,7 +6869,7 @@
     </row>
     <row r="273" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -6886,7 +6881,7 @@
         <v>18</v>
       </c>
       <c r="E273" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F273" t="s">
         <v>16</v>
@@ -6895,12 +6890,12 @@
         <v>100</v>
       </c>
       <c r="K273" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B274">
         <v>5.04E-2</v>
@@ -6912,7 +6907,7 @@
         <v>9</v>
       </c>
       <c r="E274" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F274" t="s">
         <v>19</v>
@@ -6924,24 +6919,24 @@
         <v>5.04E-2</v>
       </c>
       <c r="K274" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B275">
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="C275" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D275" t="s">
         <v>9</v>
       </c>
       <c r="E275" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F275" t="s">
         <v>19</v>
@@ -6953,24 +6948,24 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K275" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B276">
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="C276" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D276" t="s">
         <v>8</v>
       </c>
       <c r="E276" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F276" t="s">
         <v>19</v>
@@ -6985,7 +6980,7 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K276" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L276">
         <v>0</v>
@@ -6993,7 +6988,7 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B277">
         <v>2.5000000000000002E-6</v>
@@ -7005,7 +7000,7 @@
         <v>9</v>
       </c>
       <c r="E277" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F277" t="s">
         <v>19</v>
@@ -7020,7 +7015,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K277" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L277">
         <v>0</v>
@@ -7028,19 +7023,19 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B278">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C278" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D278" t="s">
         <v>9</v>
       </c>
       <c r="E278" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F278" t="s">
         <v>19</v>
@@ -7055,7 +7050,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K278" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L278">
         <v>0</v>
@@ -7063,7 +7058,7 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B279">
         <v>0.5</v>
@@ -7075,7 +7070,7 @@
         <v>9</v>
       </c>
       <c r="E279" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F279" t="s">
         <v>19</v>
@@ -7090,18 +7085,18 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K279" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L279">
         <v>0</v>
       </c>
       <c r="M279" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B280">
         <v>2.564102564102564E-2</v>
@@ -7110,10 +7105,10 @@
         <v>17</v>
       </c>
       <c r="D280" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E280" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F280" t="s">
         <v>19</v>
@@ -7128,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="K280" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L280">
         <v>0</v>
@@ -7136,7 +7131,7 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B281">
         <v>-9.9999999999999995E-7</v>
@@ -7148,7 +7143,7 @@
         <v>9</v>
       </c>
       <c r="E281" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F281" t="s">
         <v>19</v>
@@ -7163,7 +7158,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K281" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L281">
         <v>0</v>
@@ -7174,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.2">
@@ -7190,7 +7185,7 @@
         <v>5</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.2">
@@ -7236,28 +7231,28 @@
         <v>8</v>
       </c>
       <c r="E290" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F290" t="s">
         <v>6</v>
       </c>
       <c r="G290" t="s">
+        <v>121</v>
+      </c>
+      <c r="H290" t="s">
+        <v>122</v>
+      </c>
+      <c r="I290" t="s">
         <v>123</v>
       </c>
-      <c r="H290" t="s">
+      <c r="J290" t="s">
         <v>124</v>
-      </c>
-      <c r="I290" t="s">
-        <v>125</v>
-      </c>
-      <c r="J290" t="s">
-        <v>126</v>
       </c>
       <c r="K290" t="s">
         <v>10</v>
       </c>
       <c r="L290" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M290" t="s">
         <v>5</v>
@@ -7265,7 +7260,7 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B291">
         <v>7.9299999999999995E-13</v>
@@ -7274,10 +7269,10 @@
         <v>9</v>
       </c>
       <c r="E291" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F291" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G291">
         <v>2</v>
@@ -7289,7 +7284,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K291" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L291">
         <v>0</v>
@@ -7297,7 +7292,7 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B292">
         <v>8.0000000000000003E-10</v>
@@ -7306,10 +7301,10 @@
         <v>9</v>
       </c>
       <c r="E292" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F292" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G292">
         <v>2</v>
@@ -7321,7 +7316,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K292" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L292">
         <v>0</v>
@@ -7329,7 +7324,7 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B293">
         <v>1.2100000000000001E-7</v>
@@ -7338,10 +7333,10 @@
         <v>9</v>
       </c>
       <c r="E293" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F293" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G293">
         <v>2</v>
@@ -7353,7 +7348,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K293" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L293">
         <v>0</v>
@@ -7361,7 +7356,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B294">
         <v>9.2600000000000001E-10</v>
@@ -7370,10 +7365,10 @@
         <v>9</v>
       </c>
       <c r="E294" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F294" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G294">
         <v>2</v>
@@ -7385,7 +7380,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K294" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L294">
         <v>0</v>
@@ -7393,7 +7388,7 @@
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B295">
         <v>5.2899999999999997E-13</v>
@@ -7402,10 +7397,10 @@
         <v>9</v>
       </c>
       <c r="E295" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F295" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G295">
         <v>2</v>
@@ -7417,7 +7412,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K295" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L295">
         <v>0</v>
@@ -7425,7 +7420,7 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B296">
         <v>9.2600000000000001E-7</v>
@@ -7434,10 +7429,10 @@
         <v>9</v>
       </c>
       <c r="E296" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F296" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G296">
         <v>2</v>
@@ -7449,7 +7444,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K296" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L296">
         <v>0</v>
@@ -7457,7 +7452,7 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B297">
         <v>5.5999999999999999E-3</v>
@@ -7466,10 +7461,10 @@
         <v>9</v>
       </c>
       <c r="E297" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F297" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G297">
         <v>2</v>
@@ -7481,7 +7476,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K297" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L297">
         <v>0</v>
@@ -7489,7 +7484,7 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B298">
         <v>2.2000000000000001E-6</v>
@@ -7498,10 +7493,10 @@
         <v>9</v>
       </c>
       <c r="E298" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F298" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G298">
         <v>2</v>
@@ -7513,7 +7508,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K298" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L298">
         <v>0</v>
@@ -7521,7 +7516,7 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B299">
         <v>9.9999999999999995E-7</v>
@@ -7530,10 +7525,10 @@
         <v>9</v>
       </c>
       <c r="E299" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F299" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G299">
         <v>2</v>
@@ -7545,7 +7540,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K299" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L299">
         <v>0</v>
@@ -7553,7 +7548,7 @@
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B300">
         <v>2.9000000000000003E-17</v>
@@ -7562,10 +7557,10 @@
         <v>9</v>
       </c>
       <c r="E300" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F300" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G300">
         <v>2</v>
@@ -7577,7 +7572,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K300" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L300">
         <v>0</v>
@@ -7585,7 +7580,7 @@
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B301">
         <v>1.37E-6</v>
@@ -7594,10 +7589,10 @@
         <v>9</v>
       </c>
       <c r="E301" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F301" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G301">
         <v>2</v>
@@ -7609,7 +7604,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K301" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L301">
         <v>0</v>
@@ -7617,7 +7612,7 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B302">
         <v>3.3099999999999999E-8</v>
@@ -7626,10 +7621,10 @@
         <v>9</v>
       </c>
       <c r="E302" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F302" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G302">
         <v>2</v>
@@ -7641,7 +7636,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K302" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L302">
         <v>0</v>
@@ -7649,7 +7644,7 @@
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B303">
         <v>0.52500000000000002</v>
@@ -7658,10 +7653,10 @@
         <v>18</v>
       </c>
       <c r="E303" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F303" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G303">
         <v>2</v>
@@ -7673,7 +7668,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K303" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L303">
         <v>0</v>
@@ -7681,7 +7676,7 @@
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B304">
         <v>7.9299999999999997E-7</v>
@@ -7690,10 +7685,10 @@
         <v>9</v>
       </c>
       <c r="E304" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F304" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G304">
         <v>2</v>
@@ -7705,7 +7700,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K304" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L304">
         <v>0</v>
@@ -7713,7 +7708,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B305">
         <v>3E-11</v>
@@ -7722,10 +7717,10 @@
         <v>9</v>
       </c>
       <c r="E305" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F305" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G305">
         <v>2</v>
@@ -7737,7 +7732,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K305" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L305">
         <v>0</v>
@@ -7745,7 +7740,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B306">
         <v>9.9999999999999995E-7</v>
@@ -7754,10 +7749,10 @@
         <v>9</v>
       </c>
       <c r="E306" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F306" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G306">
         <v>2</v>
@@ -7769,7 +7764,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K306" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L306">
         <v>0</v>
@@ -7777,7 +7772,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B307">
         <v>9.9699999999999994E-6</v>
@@ -7786,10 +7781,10 @@
         <v>9</v>
       </c>
       <c r="E307" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F307" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G307">
         <v>2</v>
@@ -7801,7 +7796,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K307" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L307">
         <v>0</v>
@@ -7809,7 +7804,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B308">
         <v>8.0000000000000005E-9</v>
@@ -7818,10 +7813,10 @@
         <v>9</v>
       </c>
       <c r="E308" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F308" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G308">
         <v>2</v>
@@ -7833,7 +7828,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K308" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L308">
         <v>0</v>
@@ -7841,7 +7836,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B309">
         <v>4.9999999999999998E-7</v>
@@ -7850,10 +7845,10 @@
         <v>9</v>
       </c>
       <c r="E309" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F309" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G309">
         <v>2</v>
@@ -7865,7 +7860,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K309" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L309">
         <v>0</v>
@@ -7873,7 +7868,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B310">
         <v>1.15E-6</v>
@@ -7882,10 +7877,10 @@
         <v>9</v>
       </c>
       <c r="E310" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F310" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G310">
         <v>2</v>
@@ -7897,7 +7892,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K310" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L310">
         <v>0</v>
@@ -7905,7 +7900,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B311">
         <v>7.0500000000000003E-7</v>
@@ -7914,10 +7909,10 @@
         <v>9</v>
       </c>
       <c r="E311" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F311" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G311">
         <v>2</v>
@@ -7929,7 +7924,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K311" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L311">
         <v>0</v>
@@ -7937,7 +7932,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B312">
         <v>1.6000000000000001E-8</v>
@@ -7946,10 +7941,10 @@
         <v>9</v>
       </c>
       <c r="E312" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F312" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G312">
         <v>2</v>
@@ -7961,7 +7956,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K312" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L312">
         <v>0</v>
@@ -7969,7 +7964,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B313">
         <v>4.9999999999999998E-7</v>
@@ -7978,10 +7973,10 @@
         <v>9</v>
       </c>
       <c r="E313" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F313" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G313">
         <v>2</v>
@@ -7993,7 +7988,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K313" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L313">
         <v>0</v>
@@ -8001,7 +7996,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B314">
         <v>1.5E-9</v>
@@ -8010,10 +8005,10 @@
         <v>9</v>
       </c>
       <c r="E314" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F314" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G314">
         <v>2</v>
@@ -8025,7 +8020,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K314" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L314">
         <v>0</v>
@@ -8033,7 +8028,7 @@
     </row>
     <row r="315" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -8045,7 +8040,7 @@
         <v>18</v>
       </c>
       <c r="E315" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F315" t="s">
         <v>16</v>
@@ -8054,12 +8049,12 @@
         <v>100</v>
       </c>
       <c r="K315" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B316">
         <v>5.04E-2</v>
@@ -8071,7 +8066,7 @@
         <v>9</v>
       </c>
       <c r="E316" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F316" t="s">
         <v>19</v>
@@ -8083,24 +8078,24 @@
         <v>5.04E-2</v>
       </c>
       <c r="K316" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B317">
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="C317" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D317" t="s">
         <v>9</v>
       </c>
       <c r="E317" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F317" t="s">
         <v>19</v>
@@ -8112,24 +8107,24 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K317" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B318">
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="C318" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D318" t="s">
         <v>8</v>
       </c>
       <c r="E318" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F318" t="s">
         <v>19</v>
@@ -8144,7 +8139,7 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K318" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L318">
         <v>0</v>
@@ -8152,7 +8147,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B319">
         <v>2.5000000000000002E-6</v>
@@ -8164,7 +8159,7 @@
         <v>9</v>
       </c>
       <c r="E319" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F319" t="s">
         <v>19</v>
@@ -8179,7 +8174,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K319" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L319">
         <v>0</v>
@@ -8187,19 +8182,19 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B320">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C320" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D320" t="s">
         <v>9</v>
       </c>
       <c r="E320" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F320" t="s">
         <v>19</v>
@@ -8214,7 +8209,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K320" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L320">
         <v>0</v>
@@ -8222,7 +8217,7 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B321">
         <v>0.5</v>
@@ -8234,7 +8229,7 @@
         <v>9</v>
       </c>
       <c r="E321" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F321" t="s">
         <v>19</v>
@@ -8249,18 +8244,18 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K321" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L321">
         <v>0</v>
       </c>
       <c r="M321" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B322">
         <v>2.564102564102564E-2</v>
@@ -8269,10 +8264,10 @@
         <v>17</v>
       </c>
       <c r="D322" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E322" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F322" t="s">
         <v>19</v>
@@ -8287,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="K322" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L322">
         <v>0</v>
@@ -8295,7 +8290,7 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B323">
         <v>-9.9999999999999995E-7</v>
@@ -8307,7 +8302,7 @@
         <v>9</v>
       </c>
       <c r="E323" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F323" t="s">
         <v>19</v>
@@ -8322,7 +8317,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K323" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L323">
         <v>0</v>
@@ -8333,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.2">
@@ -8349,7 +8344,7 @@
         <v>5</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.2">
@@ -8395,28 +8390,28 @@
         <v>8</v>
       </c>
       <c r="E332" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F332" t="s">
         <v>6</v>
       </c>
       <c r="G332" t="s">
+        <v>121</v>
+      </c>
+      <c r="H332" t="s">
+        <v>122</v>
+      </c>
+      <c r="I332" t="s">
         <v>123</v>
       </c>
-      <c r="H332" t="s">
+      <c r="J332" t="s">
         <v>124</v>
-      </c>
-      <c r="I332" t="s">
-        <v>125</v>
-      </c>
-      <c r="J332" t="s">
-        <v>126</v>
       </c>
       <c r="K332" t="s">
         <v>10</v>
       </c>
       <c r="L332" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M332" t="s">
         <v>5</v>
@@ -8424,7 +8419,7 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B333">
         <v>7.9299999999999995E-13</v>
@@ -8433,10 +8428,10 @@
         <v>9</v>
       </c>
       <c r="E333" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F333" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G333">
         <v>2</v>
@@ -8448,7 +8443,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K333" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L333">
         <v>0</v>
@@ -8456,7 +8451,7 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B334">
         <v>8.0000000000000003E-10</v>
@@ -8465,10 +8460,10 @@
         <v>9</v>
       </c>
       <c r="E334" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F334" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G334">
         <v>2</v>
@@ -8480,7 +8475,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K334" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L334">
         <v>0</v>
@@ -8488,7 +8483,7 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B335">
         <v>1.2100000000000001E-7</v>
@@ -8497,10 +8492,10 @@
         <v>9</v>
       </c>
       <c r="E335" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F335" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G335">
         <v>2</v>
@@ -8512,7 +8507,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K335" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L335">
         <v>0</v>
@@ -8520,7 +8515,7 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B336">
         <v>1.77E-6</v>
@@ -8529,10 +8524,10 @@
         <v>9</v>
       </c>
       <c r="E336" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F336" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G336">
         <v>0</v>
@@ -8541,12 +8536,12 @@
         <v>1.77E-6</v>
       </c>
       <c r="K336" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B337">
         <v>9.2600000000000001E-10</v>
@@ -8555,10 +8550,10 @@
         <v>9</v>
       </c>
       <c r="E337" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F337" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G337">
         <v>2</v>
@@ -8570,7 +8565,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K337" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L337">
         <v>0</v>
@@ -8578,7 +8573,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B338">
         <v>5.2899999999999997E-13</v>
@@ -8587,10 +8582,10 @@
         <v>9</v>
       </c>
       <c r="E338" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F338" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G338">
         <v>2</v>
@@ -8602,7 +8597,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K338" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L338">
         <v>0</v>
@@ -8610,7 +8605,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B339">
         <v>9.2600000000000001E-7</v>
@@ -8619,10 +8614,10 @@
         <v>9</v>
       </c>
       <c r="E339" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F339" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G339">
         <v>2</v>
@@ -8634,7 +8629,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K339" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L339">
         <v>0</v>
@@ -8642,7 +8637,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B340">
         <v>5.5999999999999999E-3</v>
@@ -8651,10 +8646,10 @@
         <v>9</v>
       </c>
       <c r="E340" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F340" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G340">
         <v>2</v>
@@ -8666,7 +8661,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K340" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L340">
         <v>0</v>
@@ -8674,7 +8669,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B341">
         <v>2.2000000000000001E-6</v>
@@ -8683,10 +8678,10 @@
         <v>9</v>
       </c>
       <c r="E341" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F341" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G341">
         <v>2</v>
@@ -8698,7 +8693,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K341" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L341">
         <v>0</v>
@@ -8706,7 +8701,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B342">
         <v>9.9999999999999995E-7</v>
@@ -8715,10 +8710,10 @@
         <v>9</v>
       </c>
       <c r="E342" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F342" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G342">
         <v>2</v>
@@ -8730,7 +8725,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K342" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L342">
         <v>0</v>
@@ -8738,7 +8733,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B343">
         <v>2.9000000000000003E-17</v>
@@ -8747,10 +8742,10 @@
         <v>9</v>
       </c>
       <c r="E343" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F343" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G343">
         <v>2</v>
@@ -8762,7 +8757,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K343" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L343">
         <v>0</v>
@@ -8770,7 +8765,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B344">
         <v>1.37E-6</v>
@@ -8779,10 +8774,10 @@
         <v>9</v>
       </c>
       <c r="E344" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F344" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G344">
         <v>2</v>
@@ -8794,7 +8789,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K344" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L344">
         <v>0</v>
@@ -8802,7 +8797,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B345">
         <v>3.3099999999999999E-8</v>
@@ -8811,10 +8806,10 @@
         <v>9</v>
       </c>
       <c r="E345" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F345" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G345">
         <v>2</v>
@@ -8826,7 +8821,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K345" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L345">
         <v>0</v>
@@ -8834,7 +8829,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B346">
         <v>0.52500000000000002</v>
@@ -8843,10 +8838,10 @@
         <v>18</v>
       </c>
       <c r="E346" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F346" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G346">
         <v>2</v>
@@ -8858,7 +8853,7 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K346" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L346">
         <v>0</v>
@@ -8866,7 +8861,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B347">
         <v>7.9299999999999997E-7</v>
@@ -8875,10 +8870,10 @@
         <v>9</v>
       </c>
       <c r="E347" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F347" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G347">
         <v>2</v>
@@ -8890,7 +8885,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K347" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L347">
         <v>0</v>
@@ -8898,7 +8893,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B348">
         <v>3E-11</v>
@@ -8907,10 +8902,10 @@
         <v>9</v>
       </c>
       <c r="E348" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F348" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G348">
         <v>2</v>
@@ -8922,7 +8917,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K348" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L348">
         <v>0</v>
@@ -8930,7 +8925,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B349">
         <v>9.9999999999999995E-7</v>
@@ -8939,10 +8934,10 @@
         <v>9</v>
       </c>
       <c r="E349" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F349" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G349">
         <v>2</v>
@@ -8954,7 +8949,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K349" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L349">
         <v>0</v>
@@ -8962,7 +8957,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B350">
         <v>2.0999999999999998E-6</v>
@@ -8971,10 +8966,10 @@
         <v>9</v>
       </c>
       <c r="E350" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F350" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G350">
         <v>0</v>
@@ -8983,12 +8978,12 @@
         <v>2.0999999999999998E-6</v>
       </c>
       <c r="K350" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B351">
         <v>9.9699999999999994E-6</v>
@@ -8997,10 +8992,10 @@
         <v>9</v>
       </c>
       <c r="E351" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F351" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G351">
         <v>2</v>
@@ -9012,7 +9007,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K351" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L351">
         <v>0</v>
@@ -9020,7 +9015,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B352">
         <v>8.0000000000000005E-9</v>
@@ -9029,10 +9024,10 @@
         <v>9</v>
       </c>
       <c r="E352" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F352" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G352">
         <v>2</v>
@@ -9044,7 +9039,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K352" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L352">
         <v>0</v>
@@ -9052,7 +9047,7 @@
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B353">
         <v>4.9999999999999998E-7</v>
@@ -9061,10 +9056,10 @@
         <v>9</v>
       </c>
       <c r="E353" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F353" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G353">
         <v>2</v>
@@ -9076,7 +9071,7 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K353" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L353">
         <v>0</v>
@@ -9084,7 +9079,7 @@
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B354">
         <v>1.15E-6</v>
@@ -9093,10 +9088,10 @@
         <v>9</v>
       </c>
       <c r="E354" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F354" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G354">
         <v>2</v>
@@ -9108,7 +9103,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K354" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L354">
         <v>0</v>
@@ -9116,7 +9111,7 @@
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B355">
         <v>7.0500000000000003E-7</v>
@@ -9125,10 +9120,10 @@
         <v>9</v>
       </c>
       <c r="E355" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F355" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G355">
         <v>2</v>
@@ -9140,7 +9135,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K355" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L355">
         <v>0</v>
@@ -9148,7 +9143,7 @@
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B356">
         <v>1.6000000000000001E-8</v>
@@ -9157,10 +9152,10 @@
         <v>9</v>
       </c>
       <c r="E356" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F356" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G356">
         <v>2</v>
@@ -9172,7 +9167,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K356" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L356">
         <v>0</v>
@@ -9180,7 +9175,7 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B357">
         <v>4.9999999999999998E-7</v>
@@ -9189,10 +9184,10 @@
         <v>9</v>
       </c>
       <c r="E357" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F357" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G357">
         <v>2</v>
@@ -9204,7 +9199,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K357" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L357">
         <v>0</v>
@@ -9212,7 +9207,7 @@
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B358">
         <v>1.5E-9</v>
@@ -9221,10 +9216,10 @@
         <v>9</v>
       </c>
       <c r="E358" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F358" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G358">
         <v>2</v>
@@ -9236,7 +9231,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K358" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L358">
         <v>0</v>
@@ -9244,7 +9239,7 @@
     </row>
     <row r="359" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -9256,7 +9251,7 @@
         <v>18</v>
       </c>
       <c r="E359" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F359" t="s">
         <v>16</v>
@@ -9265,12 +9260,12 @@
         <v>100</v>
       </c>
       <c r="K359" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B360">
         <v>5.04E-2</v>
@@ -9282,7 +9277,7 @@
         <v>9</v>
       </c>
       <c r="E360" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F360" t="s">
         <v>19</v>
@@ -9294,24 +9289,24 @@
         <v>5.04E-2</v>
       </c>
       <c r="K360" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B361">
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="C361" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D361" t="s">
         <v>9</v>
       </c>
       <c r="E361" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F361" t="s">
         <v>19</v>
@@ -9323,24 +9318,24 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K361" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B362">
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="C362" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D362" t="s">
         <v>8</v>
       </c>
       <c r="E362" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F362" t="s">
         <v>19</v>
@@ -9355,7 +9350,7 @@
         <v>0.3465735902799727</v>
       </c>
       <c r="K362" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L362">
         <v>0</v>
@@ -9363,7 +9358,7 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B363">
         <v>2.5000000000000002E-6</v>
@@ -9375,7 +9370,7 @@
         <v>9</v>
       </c>
       <c r="E363" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F363" t="s">
         <v>19</v>
@@ -9390,7 +9385,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K363" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L363">
         <v>0</v>
@@ -9398,19 +9393,19 @@
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B364">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C364" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D364" t="s">
         <v>9</v>
       </c>
       <c r="E364" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F364" t="s">
         <v>19</v>
@@ -9425,7 +9420,7 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K364" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L364">
         <v>0</v>
@@ -9433,7 +9428,7 @@
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B365">
         <v>0.5</v>
@@ -9445,7 +9440,7 @@
         <v>9</v>
       </c>
       <c r="E365" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F365" t="s">
         <v>19</v>
@@ -9460,18 +9455,18 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K365" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L365">
         <v>0</v>
       </c>
       <c r="M365" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B366">
         <v>2.564102564102564E-2</v>
@@ -9480,10 +9475,10 @@
         <v>17</v>
       </c>
       <c r="D366" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E366" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F366" t="s">
         <v>19</v>
@@ -9498,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="K366" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L366">
         <v>0</v>
@@ -9506,7 +9501,7 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B367">
         <v>-9.9999999999999995E-7</v>
@@ -9518,7 +9513,7 @@
         <v>9</v>
       </c>
       <c r="E367" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F367" t="s">
         <v>19</v>
@@ -9533,7 +9528,7 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K367" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L367">
         <v>0</v>
@@ -9544,7 +9539,7 @@
         <v>1</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.2">
@@ -9568,7 +9563,7 @@
         <v>5</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.2">
@@ -9584,7 +9579,7 @@
         <v>8</v>
       </c>
       <c r="B374" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="375" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9606,30 +9601,30 @@
         <v>8</v>
       </c>
       <c r="E376" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F376" t="s">
         <v>6</v>
       </c>
       <c r="G376" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H376" t="s">
+        <v>122</v>
+      </c>
+      <c r="I376" t="s">
         <v>124</v>
-      </c>
-      <c r="I376" t="s">
-        <v>126</v>
       </c>
       <c r="J376" t="s">
         <v>10</v>
       </c>
       <c r="K376" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="377" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -9638,10 +9633,10 @@
         <v>3</v>
       </c>
       <c r="D377" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E377" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F377" t="s">
         <v>16</v>
@@ -9650,15 +9645,15 @@
         <v>100</v>
       </c>
       <c r="J377" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K377" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B378">
         <v>5.81</v>
@@ -9670,7 +9665,7 @@
         <v>18</v>
       </c>
       <c r="E378" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F378" t="s">
         <v>19</v>
@@ -9682,10 +9677,10 @@
         <v>5.81</v>
       </c>
       <c r="J378" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K378" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="380" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9693,7 +9688,7 @@
         <v>1</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
@@ -9717,7 +9712,7 @@
         <v>5</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.2">
@@ -9733,7 +9728,7 @@
         <v>8</v>
       </c>
       <c r="B385" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9755,30 +9750,30 @@
         <v>8</v>
       </c>
       <c r="E387" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F387" t="s">
         <v>6</v>
       </c>
       <c r="G387" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H387" t="s">
+        <v>122</v>
+      </c>
+      <c r="I387" t="s">
         <v>124</v>
-      </c>
-      <c r="I387" t="s">
-        <v>126</v>
       </c>
       <c r="J387" t="s">
         <v>10</v>
       </c>
       <c r="K387" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="388" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -9787,10 +9782,10 @@
         <v>3</v>
       </c>
       <c r="D388" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E388" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F388" t="s">
         <v>16</v>
@@ -9799,15 +9794,15 @@
         <v>100</v>
       </c>
       <c r="J388" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K388" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B389">
         <v>5.81</v>
@@ -9819,7 +9814,7 @@
         <v>18</v>
       </c>
       <c r="E389" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F389" t="s">
         <v>19</v>
@@ -9831,7 +9826,7 @@
         <v>5.81</v>
       </c>
       <c r="J389" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="391" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9839,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
@@ -9863,7 +9858,7 @@
         <v>5</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.2">
@@ -9879,7 +9874,7 @@
         <v>8</v>
       </c>
       <c r="B396" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="397" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9901,30 +9896,30 @@
         <v>8</v>
       </c>
       <c r="E398" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F398" t="s">
         <v>6</v>
       </c>
       <c r="G398" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H398" t="s">
+        <v>122</v>
+      </c>
+      <c r="I398" t="s">
         <v>124</v>
-      </c>
-      <c r="I398" t="s">
-        <v>126</v>
       </c>
       <c r="J398" t="s">
         <v>10</v>
       </c>
       <c r="K398" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="399" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -9933,10 +9928,10 @@
         <v>3</v>
       </c>
       <c r="D399" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E399" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F399" t="s">
         <v>16</v>
@@ -9945,15 +9940,15 @@
         <v>100</v>
       </c>
       <c r="J399" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K399" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B400">
         <v>5.81</v>
@@ -9965,7 +9960,7 @@
         <v>18</v>
       </c>
       <c r="E400" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F400" t="s">
         <v>19</v>
@@ -9977,7 +9972,7 @@
         <v>5.81</v>
       </c>
       <c r="J400" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="402" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -9985,7 +9980,7 @@
         <v>1</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
@@ -10009,7 +10004,7 @@
         <v>5</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.2">
@@ -10025,7 +10020,7 @@
         <v>8</v>
       </c>
       <c r="B407" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="408" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -10047,30 +10042,30 @@
         <v>8</v>
       </c>
       <c r="E409" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F409" t="s">
         <v>6</v>
       </c>
       <c r="G409" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H409" t="s">
+        <v>122</v>
+      </c>
+      <c r="I409" t="s">
         <v>124</v>
-      </c>
-      <c r="I409" t="s">
-        <v>126</v>
       </c>
       <c r="J409" t="s">
         <v>10</v>
       </c>
       <c r="K409" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="410" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -10079,10 +10074,10 @@
         <v>3</v>
       </c>
       <c r="D410" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E410" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F410" t="s">
         <v>16</v>
@@ -10091,15 +10086,15 @@
         <v>100</v>
       </c>
       <c r="J410" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K410" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B411">
         <v>5.81</v>
@@ -10111,7 +10106,7 @@
         <v>18</v>
       </c>
       <c r="E411" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F411" t="s">
         <v>19</v>
@@ -10123,7 +10118,7 @@
         <v>5.81</v>
       </c>
       <c r="J411" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF4989C-F45F-C949-8047-012E82950B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7366366-4767-A94B-B38C-BB5BFF7E0725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="760" windowWidth="27040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33120" yWindow="-320" windowWidth="27040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$244</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$204</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="145">
   <si>
     <t>Database</t>
   </si>
@@ -307,12 +307,6 @@
     <t>loc</t>
   </si>
   <si>
-    <t>allocation</t>
-  </si>
-  <si>
-    <t>simapro name</t>
-  </si>
-  <si>
     <t>Acenaphthene</t>
   </si>
   <si>
@@ -358,15 +352,9 @@
     <t>range of values from different references</t>
   </si>
   <si>
-    <t>P. Jansohn: 15 ppm (industrial value)</t>
-  </si>
-  <si>
     <t>market for gas power plant, combined cycle, 400MW electrical</t>
   </si>
   <si>
-    <t>Materials/fuels</t>
-  </si>
-  <si>
     <t>n_plant = 1/(lifetime*annual fuel input)</t>
   </si>
   <si>
@@ -379,15 +367,9 @@
     <t>market for sodium hydroxide, without water, in 50% solution state</t>
   </si>
   <si>
-    <t>Biogas, from biowaste</t>
-  </si>
-  <si>
     <t>treatment of residue from cooling tower, sanitary landfill</t>
   </si>
   <si>
-    <t>Waste to treatment</t>
-  </si>
-  <si>
     <t>90% capture rate</t>
   </si>
   <si>
@@ -454,12 +436,6 @@
     <t>carbon dioxide, captured from natural gas, post, 200km pipeline, storage 1000m</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from natural gas, post, 200km pipeline, storage 1000m U</t>
-  </si>
-  <si>
-    <t>electricity production, at biomethane-fired power plant, NGCC</t>
-  </si>
-  <si>
     <t>electricity production, at biomethane-fired power plant, post, pipeline 200km, storage 1000m</t>
   </si>
   <si>
@@ -473,6 +449,27 @@
   </si>
   <si>
     <t>Biomethane: 0.699 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 47.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>gas power plant, combined cycle, 400MW electrical</t>
+  </si>
+  <si>
+    <t>hydrochloric acid, without water, in 30% solution state</t>
+  </si>
+  <si>
+    <t>sodium hydroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>residue from cooling tower</t>
+  </si>
+  <si>
+    <t>NOx retained, by selective catalytic reduction</t>
+  </si>
+  <si>
+    <t>reference prduct</t>
   </si>
 </sst>
 </file>
@@ -819,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M244"/>
+  <dimension ref="A1:K204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -846,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -878,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -891,10 +888,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -902,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -938,7 +935,7 @@
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -956,7 +953,7 @@
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1091,7 +1088,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B19">
         <v>2.5884448839268264</v>
@@ -1481,7 +1478,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B34">
         <v>6.1496909953258223</v>
@@ -1499,12 +1496,12 @@
         <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B35">
         <f>(B4/47.5)*120</f>
@@ -1523,7 +1520,7 @@
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1712,7 +1709,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B44">
         <v>2.0292014459767036E-4</v>
@@ -1730,7 +1727,7 @@
         <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -1899,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -1923,7 +1920,7 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1944,10 +1941,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -1955,7 +1952,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1991,7 +1988,7 @@
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2009,7 +2006,7 @@
         <v>16</v>
       </c>
       <c r="H64" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -2144,7 +2141,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B70">
         <v>8.9153165218958783</v>
@@ -2534,7 +2531,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B85">
         <f>(120*B55)/47.5</f>
@@ -2553,7 +2550,7 @@
         <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -2719,7 +2716,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B93">
         <v>2.0292014459767033E-4</v>
@@ -2737,7 +2734,7 @@
         <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -2906,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -2930,7 +2927,7 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -2943,10 +2940,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B107" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -2954,7 +2951,7 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3009,12 +3006,12 @@
         <v>16</v>
       </c>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B112">
         <v>6.84</v>
@@ -3247,7 +3244,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>2.0292014459767036E-4</v>
@@ -3265,7 +3262,7 @@
         <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -3431,7 +3428,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B130">
         <f>(120*B103)/47.5</f>
@@ -3450,7 +3447,7 @@
         <v>19</v>
       </c>
       <c r="H130" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3458,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -3482,7 +3479,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -3495,10 +3492,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B137" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -3506,7 +3503,7 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3561,12 +3558,12 @@
         <v>16</v>
       </c>
       <c r="H141" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B142">
         <v>0.58838389214647391</v>
@@ -3638,7 +3635,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B145">
         <v>8.318133856294887</v>
@@ -3656,7 +3653,7 @@
         <v>19</v>
       </c>
       <c r="H145" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -3845,7 +3842,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B154">
         <v>2.0292014459767036E-4</v>
@@ -3863,7 +3860,7 @@
         <v>19</v>
       </c>
       <c r="H154" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -4004,7 +4001,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>82</v>
       </c>
@@ -4027,9 +4024,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B162">
         <f>(120*B133)/47.5</f>
@@ -4048,18 +4045,18 @@
         <v>19</v>
       </c>
       <c r="H162" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -4067,7 +4064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -4075,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -4083,7 +4080,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -4091,7 +4088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -4099,12 +4096,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -4130,18 +4127,18 @@
         <v>89</v>
       </c>
       <c r="I171" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="J171" t="s">
+        <v>144</v>
+      </c>
+      <c r="K171" t="s">
         <v>10</v>
       </c>
-      <c r="K171" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -4153,24 +4150,21 @@
         <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F172" t="s">
         <v>16</v>
       </c>
-      <c r="I172">
-        <v>100</v>
-      </c>
       <c r="J172" t="s">
         <v>27</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B173">
         <v>4.6073299999999991E-12</v>
@@ -4179,7 +4173,7 @@
         <v>9</v>
       </c>
       <c r="E173" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F173" t="s">
         <v>29</v>
@@ -4191,16 +4185,24 @@
         <v>-27.862953173275841</v>
       </c>
       <c r="I173">
-        <v>0.80471895621705025</v>
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(1.5),2)
+)
+)))</f>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K173" t="s">
-        <v>94</v>
-      </c>
-      <c r="L173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>25</v>
       </c>
@@ -4211,7 +4213,7 @@
         <v>9</v>
       </c>
       <c r="E174" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F174" t="s">
         <v>29</v>
@@ -4223,16 +4225,24 @@
         <v>-20.946409388260619</v>
       </c>
       <c r="I174">
-        <v>1.0397207708399181</v>
+        <f t="shared" ref="I174:I204" si="0">LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(1.5),2)
+)
+)))</f>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K174" t="s">
-        <v>95</v>
-      </c>
-      <c r="L174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>30</v>
       </c>
@@ -4243,7 +4253,7 @@
         <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F175" t="s">
         <v>29</v>
@@ -4255,16 +4265,14 @@
         <v>-15.927475291349671</v>
       </c>
       <c r="I175">
-        <v>1.0397207708399181</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K175" t="s">
-        <v>95</v>
-      </c>
-      <c r="L175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -4275,7 +4283,7 @@
         <v>9</v>
       </c>
       <c r="E176" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F176" t="s">
         <v>29</v>
@@ -4287,16 +4295,14 @@
         <v>-20.80014688128237</v>
       </c>
       <c r="I176">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K176" t="s">
-        <v>94</v>
-      </c>
-      <c r="L176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -4307,7 +4313,7 @@
         <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F177" t="s">
         <v>29</v>
@@ -4319,16 +4325,14 @@
         <v>-28.267787963052381</v>
       </c>
       <c r="I177">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K177" t="s">
-        <v>94</v>
-      </c>
-      <c r="L177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>33</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>9</v>
       </c>
       <c r="E178" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F178" t="s">
         <v>29</v>
@@ -4351,22 +4355,20 @@
         <v>-13.892391602300229</v>
       </c>
       <c r="I178">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K178" t="s">
-        <v>94</v>
-      </c>
-      <c r="L178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B179">
-        <f>0.058*(B201*47.5)</f>
-        <v>0.28688662692307698</v>
+        <f>0.058*(B203*47.5)*0.1</f>
+        <v>3.6448650000000006E-2</v>
       </c>
       <c r="D179" t="s">
         <v>9</v>
@@ -4381,21 +4383,19 @@
         <v>2</v>
       </c>
       <c r="H179">
-        <v>-2.8824035882469881</v>
+        <v>-5.1849886812410331</v>
       </c>
       <c r="I179">
-        <v>2.439508208471609E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K179" t="s">
-        <v>96</v>
-      </c>
-      <c r="L179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B180">
         <v>1.2782000000000001E-5</v>
@@ -4404,7 +4404,7 @@
         <v>9</v>
       </c>
       <c r="E180" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F180" t="s">
         <v>29</v>
@@ -4416,16 +4416,14 @@
         <v>-13.027053197600001</v>
       </c>
       <c r="I180">
-        <v>0.20273255405408211</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K180" t="s">
-        <v>98</v>
-      </c>
-      <c r="L180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>35</v>
       </c>
@@ -4436,7 +4434,7 @@
         <v>9</v>
       </c>
       <c r="E181" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F181" t="s">
         <v>29</v>
@@ -4448,18 +4446,16 @@
         <v>-13.81551055796427</v>
       </c>
       <c r="I181">
-        <v>0.54930614433405478</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K181" t="s">
-        <v>99</v>
-      </c>
-      <c r="L181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B182">
         <v>1.6849E-16</v>
@@ -4468,7 +4464,7 @@
         <v>9</v>
       </c>
       <c r="E182" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F182" t="s">
         <v>29</v>
@@ -4480,18 +4476,16 @@
         <v>-38.079235843906353</v>
       </c>
       <c r="I182">
-        <v>1.0397207708399181</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K182" t="s">
-        <v>95</v>
-      </c>
-      <c r="L182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B183">
         <v>7.9596999999999994E-6</v>
@@ -4500,7 +4494,7 @@
         <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F183" t="s">
         <v>29</v>
@@ -4512,16 +4506,14 @@
         <v>-13.500699818124239</v>
       </c>
       <c r="I183">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K183" t="s">
-        <v>94</v>
-      </c>
-      <c r="L183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>36</v>
       </c>
@@ -4532,7 +4524,7 @@
         <v>9</v>
       </c>
       <c r="E184" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F184" t="s">
         <v>29</v>
@@ -4544,18 +4536,16 @@
         <v>-17.223732554563391</v>
       </c>
       <c r="I184">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K184" t="s">
-        <v>94</v>
-      </c>
-      <c r="L184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B185">
         <v>3.0502500000000001</v>
@@ -4564,7 +4554,7 @@
         <v>18</v>
       </c>
       <c r="E185" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F185" t="s">
         <v>29</v>
@@ -4576,18 +4566,16 @@
         <v>-0.64435701639051324</v>
       </c>
       <c r="I185">
-        <v>2.439508208471609E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K185" t="s">
-        <v>103</v>
-      </c>
-      <c r="L185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B186">
         <v>4.6073299999999995E-6</v>
@@ -4596,7 +4584,7 @@
         <v>9</v>
       </c>
       <c r="E186" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F186" t="s">
         <v>29</v>
@@ -4608,16 +4596,14 @@
         <v>-14.04744261531156</v>
       </c>
       <c r="I186">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K186" t="s">
-        <v>94</v>
-      </c>
-      <c r="L186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>37</v>
       </c>
@@ -4628,7 +4614,7 @@
         <v>9</v>
       </c>
       <c r="E187" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F187" t="s">
         <v>29</v>
@@ -4640,16 +4626,14 @@
         <v>-24.22982373426639</v>
       </c>
       <c r="I187">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K187" t="s">
-        <v>105</v>
-      </c>
-      <c r="L187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>85</v>
       </c>
@@ -4660,7 +4644,7 @@
         <v>9</v>
       </c>
       <c r="E188" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F188" t="s">
         <v>29</v>
@@ -4672,27 +4656,25 @@
         <v>-13.81551055796427</v>
       </c>
       <c r="I188">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K188" t="s">
-        <v>106</v>
-      </c>
-      <c r="L188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>39</v>
       </c>
       <c r="B189">
-        <v>1.5803199999999998E-4</v>
+        <v>5.7925699999999993E-5</v>
       </c>
       <c r="D189" t="s">
         <v>9</v>
       </c>
       <c r="E189" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F189" t="s">
         <v>29</v>
@@ -4701,19 +4683,17 @@
         <v>2</v>
       </c>
       <c r="H189">
-        <v>-10.51229358466232</v>
+        <v>-11.515929973990531</v>
       </c>
       <c r="I189">
-        <v>0.20273255405408211</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K189" t="s">
-        <v>107</v>
-      </c>
-      <c r="L189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>40</v>
       </c>
@@ -4724,7 +4704,7 @@
         <v>9</v>
       </c>
       <c r="E190" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F190" t="s">
         <v>29</v>
@@ -4736,16 +4716,14 @@
         <v>-18.64382429526658</v>
       </c>
       <c r="I190">
-        <v>1.0397207708399181</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K190" t="s">
-        <v>95</v>
-      </c>
-      <c r="L190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>41</v>
       </c>
@@ -4756,7 +4734,7 @@
         <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F191" t="s">
         <v>29</v>
@@ -4768,16 +4746,14 @@
         <v>-14.508657738524221</v>
       </c>
       <c r="I191">
-        <v>0.54930614433405478</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K191" t="s">
-        <v>99</v>
-      </c>
-      <c r="L191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>42</v>
       </c>
@@ -4788,7 +4764,7 @@
         <v>9</v>
       </c>
       <c r="E192" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F192" t="s">
         <v>29</v>
@@ -4800,16 +4776,14 @@
         <v>-13.67574861558912</v>
       </c>
       <c r="I192">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K192" t="s">
-        <v>94</v>
-      </c>
-      <c r="L192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>43</v>
       </c>
@@ -4820,7 +4794,7 @@
         <v>9</v>
       </c>
       <c r="E193" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F193" t="s">
         <v>29</v>
@@ -4832,16 +4806,14 @@
         <v>-14.165068034134141</v>
       </c>
       <c r="I193">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K193" t="s">
-        <v>94</v>
-      </c>
-      <c r="L193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>44</v>
       </c>
@@ -4852,7 +4824,7 @@
         <v>9</v>
       </c>
       <c r="E194" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F194" t="s">
         <v>29</v>
@@ -4864,16 +4836,14 @@
         <v>-17.950677114706629</v>
       </c>
       <c r="I194">
-        <v>1.0397207708399181</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K194" t="s">
-        <v>95</v>
-      </c>
-      <c r="L194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>45</v>
       </c>
@@ -4884,7 +4854,7 @@
         <v>9</v>
       </c>
       <c r="E195" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F195" t="s">
         <v>29</v>
@@ -4896,16 +4866,14 @@
         <v>-14.508657738524221</v>
       </c>
       <c r="I195">
-        <v>4.7655089902162509E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K195" t="s">
-        <v>96</v>
-      </c>
-      <c r="L195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>46</v>
       </c>
@@ -4916,7 +4884,7 @@
         <v>9</v>
       </c>
       <c r="E196" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F196" t="s">
         <v>29</v>
@@ -4928,100 +4896,89 @@
         <v>-20.31780072883825</v>
       </c>
       <c r="I196">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K196" t="s">
-        <v>94</v>
-      </c>
-      <c r="L196">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>132</v>
+      </c>
+      <c r="B197">
+        <f>0.054*(B203*47.5)*0.9</f>
+        <v>0.30541455000000001</v>
+      </c>
+      <c r="C197" t="s">
+        <v>3</v>
+      </c>
+      <c r="D197" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" t="s">
+        <v>19</v>
+      </c>
+      <c r="G197">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>108</v>
-      </c>
-      <c r="B197">
+      <c r="H197">
+        <v>5.04E-2</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="K197" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>113</v>
+      </c>
+      <c r="B198">
+        <v>4.4736999999999999E-4</v>
+      </c>
+      <c r="C198" t="s">
+        <v>21</v>
+      </c>
+      <c r="D198" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" t="s">
+        <v>19</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J198" t="s">
+        <v>143</v>
+      </c>
+      <c r="K198" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>105</v>
+      </c>
+      <c r="B199">
         <v>1.27239E-11</v>
-      </c>
-      <c r="C197" t="s">
-        <v>21</v>
-      </c>
-      <c r="D197" t="s">
-        <v>8</v>
-      </c>
-      <c r="E197" t="s">
-        <v>109</v>
-      </c>
-      <c r="F197" t="s">
-        <v>19</v>
-      </c>
-      <c r="G197">
-        <v>2</v>
-      </c>
-      <c r="H197">
-        <v>-26.847119572100141</v>
-      </c>
-      <c r="I197">
-        <v>0.3465735902799727</v>
-      </c>
-      <c r="K197" t="s">
-        <v>110</v>
-      </c>
-      <c r="L197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>111</v>
-      </c>
-      <c r="B198">
-        <v>1.4525000000000001E-5</v>
-      </c>
-      <c r="C198" t="s">
-        <v>3</v>
-      </c>
-      <c r="D198" t="s">
-        <v>9</v>
-      </c>
-      <c r="E198" t="s">
-        <v>109</v>
-      </c>
-      <c r="F198" t="s">
-        <v>19</v>
-      </c>
-      <c r="G198">
-        <v>2</v>
-      </c>
-      <c r="H198">
-        <v>-12.899219826090119</v>
-      </c>
-      <c r="I198">
-        <v>0.1075556898084728</v>
-      </c>
-      <c r="K198" t="s">
-        <v>112</v>
-      </c>
-      <c r="L198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>113</v>
-      </c>
-      <c r="B199">
-        <v>1.1619999999999999E-5</v>
       </c>
       <c r="C199" t="s">
         <v>21</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
-      </c>
-      <c r="E199" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="F199" t="s">
         <v>19</v>
@@ -5030,33 +4987,41 @@
         <v>2</v>
       </c>
       <c r="H199">
-        <v>-13.12236337740433</v>
+        <v>-26.847119572100141</v>
       </c>
       <c r="I199">
-        <v>0.1075556898084728</v>
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(3),2)
+)
+)))</f>
+        <v>0.57209088006881903</v>
+      </c>
+      <c r="J199" t="s">
+        <v>139</v>
       </c>
       <c r="K199" t="s">
-        <v>112</v>
-      </c>
-      <c r="L199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B200">
-        <v>2.9049999999999998</v>
+        <v>1.4525000000000001E-5</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D200" t="s">
         <v>9</v>
-      </c>
-      <c r="E200" t="s">
-        <v>109</v>
       </c>
       <c r="F200" t="s">
         <v>19</v>
@@ -5065,37 +5030,31 @@
         <v>2</v>
       </c>
       <c r="H200">
-        <v>-0.69314718055994529</v>
+        <v>-12.899219826090119</v>
       </c>
       <c r="I200">
-        <v>0.45814536593707761</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J200" t="s">
+        <v>140</v>
       </c>
       <c r="K200" t="s">
-        <v>106</v>
-      </c>
-      <c r="L200">
-        <v>0</v>
-      </c>
-      <c r="M200" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="B201">
-        <f>0.148974358974359*0.699</f>
-        <v>0.10413307692307694</v>
+        <v>1.1619999999999999E-5</v>
       </c>
       <c r="C201" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D201" t="s">
         <v>9</v>
-      </c>
-      <c r="E201" t="s">
-        <v>109</v>
       </c>
       <c r="F201" t="s">
         <v>19</v>
@@ -5104,24 +5063,25 @@
         <v>2</v>
       </c>
       <c r="H201">
-        <v>2.564102564102564E-2</v>
+        <v>-13.12236337740433</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J201" t="s">
+        <v>141</v>
       </c>
       <c r="K201" t="s">
-        <v>114</v>
-      </c>
-      <c r="L201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B202">
-        <v>-5.8099999999999994E-6</v>
+        <v>2.9049999999999998</v>
       </c>
       <c r="C202" t="s">
         <v>17</v>
@@ -5129,9 +5089,6 @@
       <c r="D202" t="s">
         <v>9</v>
       </c>
-      <c r="E202" t="s">
-        <v>116</v>
-      </c>
       <c r="F202" t="s">
         <v>19</v>
       </c>
@@ -5139,1182 +5096,88 @@
         <v>2</v>
       </c>
       <c r="H202">
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J202" t="s">
+        <v>118</v>
+      </c>
+      <c r="K202" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>134</v>
+      </c>
+      <c r="B203">
+        <f>0.18*0.735</f>
+        <v>0.1323</v>
+      </c>
+      <c r="C203" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" t="s">
+        <v>19</v>
+      </c>
+      <c r="G203">
+        <v>2</v>
+      </c>
+      <c r="H203">
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J203" t="s">
+        <v>135</v>
+      </c>
+      <c r="K203" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>110</v>
+      </c>
+      <c r="B204">
+        <v>-5.8099999999999994E-6</v>
+      </c>
+      <c r="C204" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" t="s">
+        <v>19</v>
+      </c>
+      <c r="G204">
+        <v>2</v>
+      </c>
+      <c r="H204">
         <v>-13.81551055796427</v>
       </c>
-      <c r="I202">
-        <v>1.0397207708399181</v>
-      </c>
-      <c r="K202" t="s">
-        <v>95</v>
-      </c>
-      <c r="L202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>2</v>
-      </c>
-      <c r="B205" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>4</v>
-      </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>8</v>
-      </c>
-      <c r="B209" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>12</v>
-      </c>
-      <c r="B211" t="s">
-        <v>13</v>
-      </c>
-      <c r="C211" t="s">
-        <v>2</v>
-      </c>
-      <c r="D211" t="s">
-        <v>8</v>
-      </c>
-      <c r="E211" t="s">
-        <v>24</v>
-      </c>
-      <c r="F211" t="s">
-        <v>6</v>
-      </c>
-      <c r="G211" t="s">
-        <v>88</v>
-      </c>
-      <c r="H211" t="s">
-        <v>89</v>
-      </c>
-      <c r="I211" t="s">
-        <v>90</v>
-      </c>
-      <c r="J211" t="s">
-        <v>10</v>
-      </c>
-      <c r="K211" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-      <c r="C212" t="s">
-        <v>3</v>
-      </c>
-      <c r="D212" t="s">
-        <v>20</v>
-      </c>
-      <c r="E212" t="s">
-        <v>122</v>
-      </c>
-      <c r="F212" t="s">
-        <v>16</v>
-      </c>
-      <c r="I212">
-        <v>100</v>
-      </c>
-      <c r="J212" t="s">
-        <v>27</v>
-      </c>
-      <c r="K212" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>92</v>
-      </c>
-      <c r="B213">
-        <v>4.6073299999999991E-12</v>
-      </c>
-      <c r="D213" t="s">
-        <v>9</v>
-      </c>
-      <c r="E213" t="s">
+      <c r="I204">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J204" t="s">
+        <v>142</v>
+      </c>
+      <c r="K204" t="s">
         <v>93</v>
       </c>
-      <c r="F213" t="s">
-        <v>29</v>
-      </c>
-      <c r="G213">
-        <v>2</v>
-      </c>
-      <c r="H213">
-        <v>-27.862953173275841</v>
-      </c>
-      <c r="I213">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K213" t="s">
-        <v>94</v>
-      </c>
-      <c r="L213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>25</v>
-      </c>
-      <c r="B214">
-        <v>4.6479999999999997E-9</v>
-      </c>
-      <c r="D214" t="s">
-        <v>9</v>
-      </c>
-      <c r="E214" t="s">
-        <v>93</v>
-      </c>
-      <c r="F214" t="s">
-        <v>29</v>
-      </c>
-      <c r="G214">
-        <v>2</v>
-      </c>
-      <c r="H214">
-        <v>-20.946409388260619</v>
-      </c>
-      <c r="I214">
-        <v>1.0397207708399181</v>
-      </c>
-      <c r="K214" t="s">
-        <v>95</v>
-      </c>
-      <c r="L214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>30</v>
-      </c>
-      <c r="B215">
-        <v>7.0301000000000005E-7</v>
-      </c>
-      <c r="D215" t="s">
-        <v>9</v>
-      </c>
-      <c r="E215" t="s">
-        <v>93</v>
-      </c>
-      <c r="F215" t="s">
-        <v>29</v>
-      </c>
-      <c r="G215">
-        <v>2</v>
-      </c>
-      <c r="H215">
-        <v>-15.927475291349671</v>
-      </c>
-      <c r="I215">
-        <v>1.0397207708399181</v>
-      </c>
-      <c r="K215" t="s">
-        <v>95</v>
-      </c>
-      <c r="L215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>31</v>
-      </c>
-      <c r="B216">
-        <v>5.3800599999999993E-9</v>
-      </c>
-      <c r="D216" t="s">
-        <v>9</v>
-      </c>
-      <c r="E216" t="s">
-        <v>93</v>
-      </c>
-      <c r="F216" t="s">
-        <v>29</v>
-      </c>
-      <c r="G216">
-        <v>2</v>
-      </c>
-      <c r="H216">
-        <v>-20.80014688128237</v>
-      </c>
-      <c r="I216">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K216" t="s">
-        <v>94</v>
-      </c>
-      <c r="L216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>32</v>
-      </c>
-      <c r="B217">
-        <v>3.0734899999999997E-12</v>
-      </c>
-      <c r="D217" t="s">
-        <v>9</v>
-      </c>
-      <c r="E217" t="s">
-        <v>93</v>
-      </c>
-      <c r="F217" t="s">
-        <v>29</v>
-      </c>
-      <c r="G217">
-        <v>2</v>
-      </c>
-      <c r="H217">
-        <v>-28.267787963052381</v>
-      </c>
-      <c r="I217">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K217" t="s">
-        <v>94</v>
-      </c>
-      <c r="L217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>33</v>
-      </c>
-      <c r="B218">
-        <v>5.3800599999999993E-6</v>
-      </c>
-      <c r="D218" t="s">
-        <v>9</v>
-      </c>
-      <c r="E218" t="s">
-        <v>93</v>
-      </c>
-      <c r="F218" t="s">
-        <v>29</v>
-      </c>
-      <c r="G218">
-        <v>2</v>
-      </c>
-      <c r="H218">
-        <v>-13.892391602300229</v>
-      </c>
-      <c r="I218">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K218" t="s">
-        <v>94</v>
-      </c>
-      <c r="L218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>133</v>
-      </c>
-      <c r="B219">
-        <f>0.058*(B243*47.5)*0.1</f>
-        <v>2.8688662692307701E-2</v>
-      </c>
-      <c r="D219" t="s">
-        <v>9</v>
-      </c>
-      <c r="E219" t="s">
-        <v>28</v>
-      </c>
-      <c r="F219" t="s">
-        <v>29</v>
-      </c>
-      <c r="G219">
-        <v>2</v>
-      </c>
-      <c r="H219">
-        <v>-5.1849886812410331</v>
-      </c>
-      <c r="I219">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="K219" t="s">
-        <v>117</v>
-      </c>
-      <c r="L219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>97</v>
-      </c>
-      <c r="B220">
-        <v>1.2782000000000001E-5</v>
-      </c>
-      <c r="D220" t="s">
-        <v>9</v>
-      </c>
-      <c r="E220" t="s">
-        <v>93</v>
-      </c>
-      <c r="F220" t="s">
-        <v>29</v>
-      </c>
-      <c r="G220">
-        <v>2</v>
-      </c>
-      <c r="H220">
-        <v>-13.027053197600001</v>
-      </c>
-      <c r="I220">
-        <v>0.20273255405408211</v>
-      </c>
-      <c r="K220" t="s">
-        <v>98</v>
-      </c>
-      <c r="L220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>35</v>
-      </c>
-      <c r="B221">
-        <v>5.8099999999999994E-6</v>
-      </c>
-      <c r="D221" t="s">
-        <v>9</v>
-      </c>
-      <c r="E221" t="s">
-        <v>93</v>
-      </c>
-      <c r="F221" t="s">
-        <v>29</v>
-      </c>
-      <c r="G221">
-        <v>2</v>
-      </c>
-      <c r="H221">
-        <v>-13.81551055796427</v>
-      </c>
-      <c r="I221">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K221" t="s">
-        <v>99</v>
-      </c>
-      <c r="L221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>100</v>
-      </c>
-      <c r="B222">
-        <v>1.6849E-16</v>
-      </c>
-      <c r="D222" t="s">
-        <v>9</v>
-      </c>
-      <c r="E222" t="s">
-        <v>93</v>
-      </c>
-      <c r="F222" t="s">
-        <v>29</v>
-      </c>
-      <c r="G222">
-        <v>2</v>
-      </c>
-      <c r="H222">
-        <v>-38.079235843906353</v>
-      </c>
-      <c r="I222">
-        <v>1.0397207708399181</v>
-      </c>
-      <c r="K222" t="s">
-        <v>95</v>
-      </c>
-      <c r="L222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>101</v>
-      </c>
-      <c r="B223">
-        <v>7.9596999999999994E-6</v>
-      </c>
-      <c r="D223" t="s">
-        <v>9</v>
-      </c>
-      <c r="E223" t="s">
-        <v>93</v>
-      </c>
-      <c r="F223" t="s">
-        <v>29</v>
-      </c>
-      <c r="G223">
-        <v>2</v>
-      </c>
-      <c r="H223">
-        <v>-13.500699818124239</v>
-      </c>
-      <c r="I223">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K223" t="s">
-        <v>94</v>
-      </c>
-      <c r="L223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>36</v>
-      </c>
-      <c r="B224">
-        <v>1.9231099999999998E-7</v>
-      </c>
-      <c r="D224" t="s">
-        <v>9</v>
-      </c>
-      <c r="E224" t="s">
-        <v>93</v>
-      </c>
-      <c r="F224" t="s">
-        <v>29</v>
-      </c>
-      <c r="G224">
-        <v>2</v>
-      </c>
-      <c r="H224">
-        <v>-17.223732554563391</v>
-      </c>
-      <c r="I224">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K224" t="s">
-        <v>94</v>
-      </c>
-      <c r="L224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>102</v>
-      </c>
-      <c r="B225">
-        <v>3.0502500000000001</v>
-      </c>
-      <c r="D225" t="s">
-        <v>18</v>
-      </c>
-      <c r="E225" t="s">
-        <v>93</v>
-      </c>
-      <c r="F225" t="s">
-        <v>29</v>
-      </c>
-      <c r="G225">
-        <v>2</v>
-      </c>
-      <c r="H225">
-        <v>-0.64435701639051324</v>
-      </c>
-      <c r="I225">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="K225" t="s">
-        <v>103</v>
-      </c>
-      <c r="L225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>104</v>
-      </c>
-      <c r="B226">
-        <v>4.6073299999999995E-6</v>
-      </c>
-      <c r="D226" t="s">
-        <v>9</v>
-      </c>
-      <c r="E226" t="s">
-        <v>93</v>
-      </c>
-      <c r="F226" t="s">
-        <v>29</v>
-      </c>
-      <c r="G226">
-        <v>2</v>
-      </c>
-      <c r="H226">
-        <v>-14.04744261531156</v>
-      </c>
-      <c r="I226">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K226" t="s">
-        <v>94</v>
-      </c>
-      <c r="L226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>37</v>
-      </c>
-      <c r="B227">
-        <v>1.7429999999999998E-10</v>
-      </c>
-      <c r="D227" t="s">
-        <v>9</v>
-      </c>
-      <c r="E227" t="s">
-        <v>93</v>
-      </c>
-      <c r="F227" t="s">
-        <v>29</v>
-      </c>
-      <c r="G227">
-        <v>2</v>
-      </c>
-      <c r="H227">
-        <v>-24.22982373426639</v>
-      </c>
-      <c r="I227">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K227" t="s">
-        <v>105</v>
-      </c>
-      <c r="L227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>85</v>
-      </c>
-      <c r="B228">
-        <v>5.8099999999999994E-6</v>
-      </c>
-      <c r="D228" t="s">
-        <v>9</v>
-      </c>
-      <c r="E228" t="s">
-        <v>93</v>
-      </c>
-      <c r="F228" t="s">
-        <v>29</v>
-      </c>
-      <c r="G228">
-        <v>2</v>
-      </c>
-      <c r="H228">
-        <v>-13.81551055796427</v>
-      </c>
-      <c r="I228">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K228" t="s">
-        <v>106</v>
-      </c>
-      <c r="L228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>39</v>
-      </c>
-      <c r="B229">
-        <v>5.7925699999999993E-5</v>
-      </c>
-      <c r="D229" t="s">
-        <v>9</v>
-      </c>
-      <c r="E229" t="s">
-        <v>93</v>
-      </c>
-      <c r="F229" t="s">
-        <v>29</v>
-      </c>
-      <c r="G229">
-        <v>2</v>
-      </c>
-      <c r="H229">
-        <v>-11.515929973990531</v>
-      </c>
-      <c r="I229">
-        <v>0.20273255405408211</v>
-      </c>
-      <c r="K229" t="s">
-        <v>118</v>
-      </c>
-      <c r="L229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>40</v>
-      </c>
-      <c r="B230">
-        <v>4.6479999999999997E-8</v>
-      </c>
-      <c r="D230" t="s">
-        <v>9</v>
-      </c>
-      <c r="E230" t="s">
-        <v>93</v>
-      </c>
-      <c r="F230" t="s">
-        <v>29</v>
-      </c>
-      <c r="G230">
-        <v>2</v>
-      </c>
-      <c r="H230">
-        <v>-18.64382429526658</v>
-      </c>
-      <c r="I230">
-        <v>1.0397207708399181</v>
-      </c>
-      <c r="K230" t="s">
-        <v>95</v>
-      </c>
-      <c r="L230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>41</v>
-      </c>
-      <c r="B231">
-        <v>2.9049999999999997E-6</v>
-      </c>
-      <c r="D231" t="s">
-        <v>9</v>
-      </c>
-      <c r="E231" t="s">
-        <v>93</v>
-      </c>
-      <c r="F231" t="s">
-        <v>29</v>
-      </c>
-      <c r="G231">
-        <v>2</v>
-      </c>
-      <c r="H231">
-        <v>-14.508657738524221</v>
-      </c>
-      <c r="I231">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K231" t="s">
-        <v>99</v>
-      </c>
-      <c r="L231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>42</v>
-      </c>
-      <c r="B232">
-        <v>6.6814999999999995E-6</v>
-      </c>
-      <c r="D232" t="s">
-        <v>9</v>
-      </c>
-      <c r="E232" t="s">
-        <v>93</v>
-      </c>
-      <c r="F232" t="s">
-        <v>29</v>
-      </c>
-      <c r="G232">
-        <v>2</v>
-      </c>
-      <c r="H232">
-        <v>-13.67574861558912</v>
-      </c>
-      <c r="I232">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K232" t="s">
-        <v>94</v>
-      </c>
-      <c r="L232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>43</v>
-      </c>
-      <c r="B233">
-        <v>4.0960499999999995E-6</v>
-      </c>
-      <c r="D233" t="s">
-        <v>9</v>
-      </c>
-      <c r="E233" t="s">
-        <v>93</v>
-      </c>
-      <c r="F233" t="s">
-        <v>29</v>
-      </c>
-      <c r="G233">
-        <v>2</v>
-      </c>
-      <c r="H233">
-        <v>-14.165068034134141</v>
-      </c>
-      <c r="I233">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K233" t="s">
-        <v>94</v>
-      </c>
-      <c r="L233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>44</v>
-      </c>
-      <c r="B234">
-        <v>9.2959999999999993E-8</v>
-      </c>
-      <c r="D234" t="s">
-        <v>9</v>
-      </c>
-      <c r="E234" t="s">
-        <v>93</v>
-      </c>
-      <c r="F234" t="s">
-        <v>29</v>
-      </c>
-      <c r="G234">
-        <v>2</v>
-      </c>
-      <c r="H234">
-        <v>-17.950677114706629</v>
-      </c>
-      <c r="I234">
-        <v>1.0397207708399181</v>
-      </c>
-      <c r="K234" t="s">
-        <v>95</v>
-      </c>
-      <c r="L234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>45</v>
-      </c>
-      <c r="B235">
-        <v>2.9049999999999997E-6</v>
-      </c>
-      <c r="D235" t="s">
-        <v>9</v>
-      </c>
-      <c r="E235" t="s">
-        <v>93</v>
-      </c>
-      <c r="F235" t="s">
-        <v>29</v>
-      </c>
-      <c r="G235">
-        <v>2</v>
-      </c>
-      <c r="H235">
-        <v>-14.508657738524221</v>
-      </c>
-      <c r="I235">
-        <v>4.7655089902162509E-2</v>
-      </c>
-      <c r="K235" t="s">
-        <v>96</v>
-      </c>
-      <c r="L235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>46</v>
-      </c>
-      <c r="B236">
-        <v>8.714999999999999E-9</v>
-      </c>
-      <c r="D236" t="s">
-        <v>9</v>
-      </c>
-      <c r="E236" t="s">
-        <v>93</v>
-      </c>
-      <c r="F236" t="s">
-        <v>29</v>
-      </c>
-      <c r="G236">
-        <v>2</v>
-      </c>
-      <c r="H236">
-        <v>-20.31780072883825</v>
-      </c>
-      <c r="I236">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K236" t="s">
-        <v>94</v>
-      </c>
-      <c r="L236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>138</v>
-      </c>
-      <c r="B237">
-        <f>0.058*(B243*47.5)*0.9</f>
-        <v>0.25819796423076929</v>
-      </c>
-      <c r="C237" t="s">
-        <v>3</v>
-      </c>
-      <c r="D237" t="s">
-        <v>9</v>
-      </c>
-      <c r="E237" t="s">
-        <v>109</v>
-      </c>
-      <c r="F237" t="s">
-        <v>19</v>
-      </c>
-      <c r="G237">
-        <v>0</v>
-      </c>
-      <c r="H237">
-        <v>5.04E-2</v>
-      </c>
-      <c r="K237" t="s">
-        <v>117</v>
-      </c>
-      <c r="M237" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>119</v>
-      </c>
-      <c r="B238">
-        <v>4.4736999999999999E-4</v>
-      </c>
-      <c r="C238" t="s">
-        <v>21</v>
-      </c>
-      <c r="D238" t="s">
-        <v>9</v>
-      </c>
-      <c r="E238" t="s">
-        <v>109</v>
-      </c>
-      <c r="F238" t="s">
-        <v>19</v>
-      </c>
-      <c r="G238">
-        <v>0</v>
-      </c>
-      <c r="H238">
-        <v>7.7000000000000001E-5</v>
-      </c>
-      <c r="K238" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>108</v>
-      </c>
-      <c r="B239">
-        <v>1.27239E-11</v>
-      </c>
-      <c r="C239" t="s">
-        <v>21</v>
-      </c>
-      <c r="D239" t="s">
-        <v>8</v>
-      </c>
-      <c r="E239" t="s">
-        <v>109</v>
-      </c>
-      <c r="F239" t="s">
-        <v>19</v>
-      </c>
-      <c r="G239">
-        <v>2</v>
-      </c>
-      <c r="H239">
-        <v>-26.847119572100141</v>
-      </c>
-      <c r="I239">
-        <v>0.3465735902799727</v>
-      </c>
-      <c r="K239" t="s">
-        <v>110</v>
-      </c>
-      <c r="L239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>111</v>
-      </c>
-      <c r="B240">
-        <v>1.4525000000000001E-5</v>
-      </c>
-      <c r="C240" t="s">
-        <v>3</v>
-      </c>
-      <c r="D240" t="s">
-        <v>9</v>
-      </c>
-      <c r="E240" t="s">
-        <v>109</v>
-      </c>
-      <c r="F240" t="s">
-        <v>19</v>
-      </c>
-      <c r="G240">
-        <v>2</v>
-      </c>
-      <c r="H240">
-        <v>-12.899219826090119</v>
-      </c>
-      <c r="I240">
-        <v>0.1075556898084728</v>
-      </c>
-      <c r="K240" t="s">
-        <v>112</v>
-      </c>
-      <c r="L240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>113</v>
-      </c>
-      <c r="B241">
-        <v>1.1619999999999999E-5</v>
-      </c>
-      <c r="C241" t="s">
-        <v>21</v>
-      </c>
-      <c r="D241" t="s">
-        <v>9</v>
-      </c>
-      <c r="E241" t="s">
-        <v>109</v>
-      </c>
-      <c r="F241" t="s">
-        <v>19</v>
-      </c>
-      <c r="G241">
-        <v>2</v>
-      </c>
-      <c r="H241">
-        <v>-13.12236337740433</v>
-      </c>
-      <c r="I241">
-        <v>0.1075556898084728</v>
-      </c>
-      <c r="K241" t="s">
-        <v>112</v>
-      </c>
-      <c r="L241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>123</v>
-      </c>
-      <c r="B242">
-        <v>2.9049999999999998</v>
-      </c>
-      <c r="C242" t="s">
-        <v>17</v>
-      </c>
-      <c r="D242" t="s">
-        <v>9</v>
-      </c>
-      <c r="E242" t="s">
-        <v>109</v>
-      </c>
-      <c r="F242" t="s">
-        <v>19</v>
-      </c>
-      <c r="G242">
-        <v>2</v>
-      </c>
-      <c r="H242">
-        <v>-0.69314718055994529</v>
-      </c>
-      <c r="I242">
-        <v>0.45814536593707761</v>
-      </c>
-      <c r="K242" t="s">
-        <v>106</v>
-      </c>
-      <c r="L242">
-        <v>0</v>
-      </c>
-      <c r="M242" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>142</v>
-      </c>
-      <c r="B243">
-        <f>0.148974358974359*0.699</f>
-        <v>0.10413307692307694</v>
-      </c>
-      <c r="C243" t="s">
-        <v>3</v>
-      </c>
-      <c r="D243" t="s">
-        <v>9</v>
-      </c>
-      <c r="E243" t="s">
-        <v>109</v>
-      </c>
-      <c r="F243" t="s">
-        <v>19</v>
-      </c>
-      <c r="G243">
-        <v>2</v>
-      </c>
-      <c r="H243">
-        <v>2.564102564102564E-2</v>
-      </c>
-      <c r="I243">
-        <v>0</v>
-      </c>
-      <c r="K243" t="s">
-        <v>121</v>
-      </c>
-      <c r="L243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>115</v>
-      </c>
-      <c r="B244">
-        <v>-5.8099999999999994E-6</v>
-      </c>
-      <c r="C244" t="s">
-        <v>17</v>
-      </c>
-      <c r="D244" t="s">
-        <v>9</v>
-      </c>
-      <c r="E244" t="s">
-        <v>116</v>
-      </c>
-      <c r="F244" t="s">
-        <v>19</v>
-      </c>
-      <c r="G244">
-        <v>2</v>
-      </c>
-      <c r="H244">
-        <v>-13.81551055796427</v>
-      </c>
-      <c r="I244">
-        <v>1.0397207708399181</v>
-      </c>
-      <c r="K244" t="s">
-        <v>95</v>
-      </c>
-      <c r="L244">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M244" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M204" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7366366-4767-A94B-B38C-BB5BFF7E0725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA56CB2-F652-7F4E-8C37-A9ABBA36AB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33120" yWindow="-320" windowWidth="27040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1873,7 +1873,7 @@
         <v>82</v>
       </c>
       <c r="B51">
-        <v>-0.58836764785345819</v>
+        <v>0</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA56CB2-F652-7F4E-8C37-A9ABBA36AB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B75DC56-2F77-0C42-951F-5ECC1BC8B74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33120" yWindow="-320" windowWidth="27040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$212</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="149">
   <si>
     <t>Database</t>
   </si>
@@ -470,12 +470,27 @@
   </si>
   <si>
     <t>reference prduct</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Assumed 2.4 gallons (9.1 liters) of evaporated water per kg H2, according to https://www.hydrogen.energy.gov/docs/hydrogenprogramlibraries/pdfs/review16/sa039_elgowainy_2016_o.pdf?Status=Master</t>
+  </si>
+  <si>
+    <t>Assumed 2.9 gallons (11 liters) of evaporated water per kg H2, according to https://www.hydrogen.energy.gov/docs/hydrogenprogramlibraries/pdfs/review16/sa039_elgowainy_2016_o.pdf?Status=Master</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -536,6 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K204"/>
+  <dimension ref="A1:K212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="A213" sqref="A213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -830,7 +846,7 @@
     <col min="15" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +854,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -846,7 +862,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -854,7 +870,7 @@
         <v>1.283708329984486</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -862,7 +878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -870,7 +886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -878,7 +894,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -886,7 +902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -894,7 +910,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -902,12 +918,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -932,8 +948,11 @@
       <c r="H12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>123</v>
       </c>
@@ -956,7 +975,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -982,7 +1001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1008,7 +1027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1450,7 +1469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1476,134 +1495,133 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="5">
+        <f>B33-B35</f>
+        <v>0.36939822064433181</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="5">
+        <f>(2.9/1000)*3.78541</f>
+        <v>1.0977689000000001E-2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>131</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>6.1496909953258223</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>50</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>3</v>
       </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>134</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <f>(B4/47.5)*120</f>
         <v>3.2430526231187016</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>50</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>3</v>
       </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>51</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>5.3483393537845907E-10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37">
-        <v>5.3272799999999989E-4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38">
-        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C38" t="s">
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" t="s">
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B39">
-        <v>3.6239999999999997E-4</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -1612,15 +1630,15 @@
         <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B40">
-        <v>2.0908949384107795E-4</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C40" t="s">
         <v>52</v>
@@ -1635,15 +1653,15 @@
         <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B41">
-        <v>2.54628E-9</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C41" t="s">
         <v>52</v>
@@ -1652,21 +1670,21 @@
         <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41" t="s">
         <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B42">
-        <v>2.796E-5</v>
+        <v>2.0908949384107795E-4</v>
       </c>
       <c r="C42" t="s">
         <v>52</v>
@@ -1681,15 +1699,15 @@
         <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B43">
-        <v>1.668E-5</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C43" t="s">
         <v>52</v>
@@ -1698,21 +1716,21 @@
         <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B44">
-        <v>2.0292014459767036E-4</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C44" t="s">
         <v>52</v>
@@ -1727,15 +1745,15 @@
         <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B45">
-        <v>3.1235999999999997E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -1750,21 +1768,21 @@
         <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="B46">
-        <v>4.8000000000000001E-5</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C46" t="s">
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -1773,15 +1791,15 @@
         <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B47">
-        <v>1.1591999999999998E-5</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C47" t="s">
         <v>52</v>
@@ -1796,21 +1814,21 @@
         <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B48">
-        <v>7.5384409542456998</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C48" t="s">
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
@@ -1819,15 +1837,15 @@
         <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B49">
-        <v>8.8290154606725723E-4</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
@@ -1842,21 +1860,21 @@
         <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B50">
-        <v>3.7140000000000003E-4</v>
+        <v>7.5384409542456998</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
@@ -1865,208 +1883,202 @@
         <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>8.8290154606725723E-4</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52">
+        <v>3.7140000000000003E-4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
         <v>3</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E53" t="s">
         <v>20</v>
       </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55">
-        <v>1.3097345915810461</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>1.3097345915810461</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>84</v>
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" t="s">
-        <v>120</v>
+        <v>10</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" t="s">
-        <v>129</v>
+      <c r="A64" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65">
-        <v>3.1712942535739586E-8</v>
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B66">
-        <v>4.7569413803609367E-6</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
       </c>
-      <c r="F66" t="s">
-        <v>28</v>
-      </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H66" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B67">
-        <v>1.268547829628838E-5</v>
+        <v>3.1712942535739586E-8</v>
       </c>
       <c r="C67" t="s">
         <v>26</v>
@@ -2089,10 +2101,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B68">
-        <v>3.1712942535739584E-10</v>
+        <v>4.7569413803609367E-6</v>
       </c>
       <c r="C68" t="s">
         <v>26</v>
@@ -2115,10 +2127,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B69">
-        <v>2.2199662339002805E-5</v>
+        <v>1.268547829628838E-5</v>
       </c>
       <c r="C69" t="s">
         <v>26</v>
@@ -2141,10 +2153,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B70">
-        <v>8.9153165218958783</v>
+        <v>3.1712942535739584E-10</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
@@ -2167,10 +2179,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B71">
-        <v>6.6598384453023306E-5</v>
+        <v>2.2199662339002805E-5</v>
       </c>
       <c r="C71" t="s">
         <v>26</v>
@@ -2193,10 +2205,11 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="B72">
-        <v>3.1712942535739587E-6</v>
+        <f>2.65*B89</f>
+        <v>8.7683284236373176</v>
       </c>
       <c r="C72" t="s">
         <v>26</v>
@@ -2219,10 +2232,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B73">
-        <v>3.1712942535739587E-6</v>
+        <v>6.6598384453023306E-5</v>
       </c>
       <c r="C73" t="s">
         <v>26</v>
@@ -2245,10 +2258,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B74">
-        <v>9.5141840427144231E-10</v>
+        <v>3.1712942535739587E-6</v>
       </c>
       <c r="C74" t="s">
         <v>26</v>
@@ -2271,10 +2284,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B75">
-        <v>6.3428897891404663E-5</v>
+        <v>3.1712942535739587E-6</v>
       </c>
       <c r="C75" t="s">
         <v>26</v>
@@ -2297,10 +2310,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B76">
-        <v>5.6767553036139577E-4</v>
+        <v>9.5141840427144231E-10</v>
       </c>
       <c r="C76" t="s">
         <v>26</v>
@@ -2323,10 +2336,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B77">
-        <v>3.1712942535739582E-7</v>
+        <v>6.3428897891404663E-5</v>
       </c>
       <c r="C77" t="s">
         <v>26</v>
@@ -2349,10 +2362,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B78">
-        <v>6.3428897891404652E-6</v>
+        <v>5.6767553036139577E-4</v>
       </c>
       <c r="C78" t="s">
         <v>26</v>
@@ -2375,10 +2388,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B79">
-        <v>3.8057941298827897E-5</v>
+        <v>3.1712942535739582E-7</v>
       </c>
       <c r="C79" t="s">
         <v>26</v>
@@ -2401,7 +2414,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B80">
         <v>6.3428897891404652E-6</v>
@@ -2425,12 +2438,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B81">
-        <v>6.3428897891404654E-7</v>
+        <v>3.8057941298827897E-5</v>
       </c>
       <c r="C81" t="s">
         <v>26</v>
@@ -2451,12 +2464,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B82">
-        <v>1.7442720958641864E-5</v>
+        <v>6.3428897891404652E-6</v>
       </c>
       <c r="C82" t="s">
         <v>26</v>
@@ -2477,12 +2490,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B83">
-        <v>6.3428897891404652E-6</v>
+        <v>6.3428897891404654E-7</v>
       </c>
       <c r="C83" t="s">
         <v>26</v>
@@ -2503,12 +2516,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B84">
-        <v>0.38037452713377895</v>
+        <v>1.7442720958641864E-5</v>
       </c>
       <c r="C84" t="s">
         <v>26</v>
@@ -2517,146 +2530,151 @@
         <v>27</v>
       </c>
       <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85">
+        <v>6.3428897891404652E-6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" t="s">
+        <v>29</v>
+      </c>
+      <c r="H85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86">
+        <v>0.38037452713377895</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" t="s">
         <v>48</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F86" t="s">
         <v>49</v>
       </c>
-      <c r="G84" t="s">
-        <v>29</v>
-      </c>
-      <c r="H84" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="G86" t="s">
+        <v>29</v>
+      </c>
+      <c r="H86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" s="5">
+        <f>B86-B88</f>
+        <v>0.37128954313377893</v>
+      </c>
+      <c r="C87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87" t="s">
+        <v>146</v>
+      </c>
+      <c r="G87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" s="5">
+        <f>(2.4/1000)*3.78541</f>
+        <v>9.0849839999999991E-3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>134</v>
       </c>
-      <c r="B85">
-        <f>(120*B55)/47.5</f>
+      <c r="B89">
+        <f>(120*B57)/47.5</f>
         <v>3.3088031787310634</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C89" t="s">
         <v>50</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D89" t="s">
         <v>3</v>
       </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>51</v>
       </c>
-      <c r="B86">
+      <c r="B90">
         <v>5.3483199147628007E-10</v>
-      </c>
-      <c r="C86" t="s">
-        <v>52</v>
-      </c>
-      <c r="D86" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
-      <c r="H86" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>54</v>
-      </c>
-      <c r="B87">
-        <v>5.3272799999999989E-4</v>
-      </c>
-      <c r="C87" t="s">
-        <v>52</v>
-      </c>
-      <c r="D87" t="s">
-        <v>55</v>
-      </c>
-      <c r="E87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
-      <c r="H87" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>57</v>
-      </c>
-      <c r="B88">
-        <v>3.6000000000000001E-5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>52</v>
-      </c>
-      <c r="D88" t="s">
-        <v>21</v>
-      </c>
-      <c r="E88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
-      <c r="H88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>59</v>
-      </c>
-      <c r="B89">
-        <v>3.6239999999999997E-4</v>
-      </c>
-      <c r="C89" t="s">
-        <v>52</v>
-      </c>
-      <c r="D89" t="s">
-        <v>21</v>
-      </c>
-      <c r="E89" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>63</v>
-      </c>
-      <c r="B90">
-        <v>2.54628E-9</v>
       </c>
       <c r="C90" t="s">
         <v>52</v>
       </c>
       <c r="D90" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
@@ -2665,21 +2683,21 @@
         <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B91">
-        <v>2.796E-5</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C91" t="s">
         <v>52</v>
       </c>
       <c r="D91" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
@@ -2688,15 +2706,15 @@
         <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B92">
-        <v>1.668E-5</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C92" t="s">
         <v>52</v>
@@ -2711,15 +2729,15 @@
         <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="B93">
-        <v>2.0292014459767033E-4</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C93" t="s">
         <v>52</v>
@@ -2734,15 +2752,15 @@
         <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B94">
-        <v>3.1235999999999997E-4</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C94" t="s">
         <v>52</v>
@@ -2751,27 +2769,27 @@
         <v>21</v>
       </c>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G94" t="s">
         <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B95">
-        <v>4.8000000000000001E-5</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C95" t="s">
         <v>52</v>
       </c>
       <c r="D95" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
@@ -2780,15 +2798,15 @@
         <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B96">
-        <v>1.1591999999999998E-5</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C96" t="s">
         <v>52</v>
@@ -2803,21 +2821,21 @@
         <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B97">
-        <v>7.5384135551020997</v>
+        <v>2.0292014459767033E-4</v>
       </c>
       <c r="C97" t="s">
         <v>52</v>
       </c>
       <c r="D97" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
@@ -2826,15 +2844,15 @@
         <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B98">
-        <v>8.8290154606725723E-4</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C98" t="s">
         <v>52</v>
@@ -2849,21 +2867,21 @@
         <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B99">
-        <v>3.7140000000000003E-4</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C99" t="s">
         <v>52</v>
       </c>
       <c r="D99" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
@@ -2872,388 +2890,388 @@
         <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1.1591999999999998E-5</v>
       </c>
       <c r="C100" t="s">
         <v>52</v>
       </c>
       <c r="D100" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G100" t="s">
         <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>125</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101">
+        <v>7.5384135551020997</v>
+      </c>
+      <c r="C101" t="s">
+        <v>52</v>
+      </c>
+      <c r="D101" t="s">
+        <v>76</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>78</v>
+      </c>
+      <c r="B102">
+        <v>8.8290154606725723E-4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>52</v>
+      </c>
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B103">
-        <v>1.3051904328123036</v>
+        <v>3.7140000000000003E-4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" t="s">
-        <v>9</v>
+        <v>82</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>119</v>
-      </c>
-      <c r="B107" t="s">
-        <v>120</v>
+        <v>22</v>
+      </c>
+      <c r="B107">
+        <v>1.3051904328123036</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" t="s">
-        <v>2</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>6</v>
-      </c>
-      <c r="H110" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" t="str">
-        <f>B102</f>
-        <v>hydrogen production, auto-thermal reforming, from biomethane, 25 bar</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" t="s">
-        <v>16</v>
-      </c>
-      <c r="H111" t="s">
-        <v>130</v>
+      <c r="A111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="str">
+        <f>B106</f>
+        <v>hydrogen production, auto-thermal reforming, from biomethane, 25 bar</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>127</v>
       </c>
-      <c r="B112">
-        <v>6.84</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B116">
+        <f>B136*2.65</f>
+        <v>8.7379064765118422</v>
+      </c>
+      <c r="C116" t="s">
         <v>26</v>
       </c>
-      <c r="D112" t="s">
-        <v>27</v>
-      </c>
-      <c r="E112" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="D116" t="s">
+        <v>27</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
         <v>28</v>
       </c>
-      <c r="G112" t="s">
-        <v>29</v>
-      </c>
-      <c r="H112" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="G116" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>39</v>
       </c>
-      <c r="B113">
+      <c r="B117">
         <v>2.9996721816189444E-3</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C117" t="s">
         <v>26</v>
       </c>
-      <c r="D113" t="s">
-        <v>27</v>
-      </c>
-      <c r="E113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="D117" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
         <v>28</v>
       </c>
-      <c r="G113" t="s">
-        <v>29</v>
-      </c>
-      <c r="H113" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="G117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H117" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>47</v>
       </c>
-      <c r="B114">
+      <c r="B118">
         <v>0.38041197561668283</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C118" t="s">
         <v>26</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E118" t="s">
         <v>48</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F118" t="s">
         <v>49</v>
       </c>
-      <c r="G114" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="G118" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119" s="5">
+        <f>B118-B120</f>
+        <v>0.37132699161668281</v>
+      </c>
+      <c r="C119" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" t="s">
+        <v>48</v>
+      </c>
+      <c r="F119" t="s">
+        <v>146</v>
+      </c>
+      <c r="G119" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="5">
+        <f>(2.4/1000)*3.78541</f>
+        <v>9.0849839999999991E-3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" t="s">
+        <v>48</v>
+      </c>
+      <c r="F120" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" t="s">
+        <v>29</v>
+      </c>
+      <c r="I120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>51</v>
       </c>
-      <c r="B115">
+      <c r="B121">
         <v>5.3487471618165237E-10</v>
-      </c>
-      <c r="C115" t="s">
-        <v>86</v>
-      </c>
-      <c r="D115" t="s">
-        <v>3</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-      <c r="G115" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>54</v>
-      </c>
-      <c r="B116">
-        <v>5.3272799999999989E-4</v>
-      </c>
-      <c r="C116" t="s">
-        <v>86</v>
-      </c>
-      <c r="D116" t="s">
-        <v>55</v>
-      </c>
-      <c r="E116" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116" t="s">
-        <v>19</v>
-      </c>
-      <c r="H116" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>57</v>
-      </c>
-      <c r="B117">
-        <v>3.6000000000000001E-5</v>
-      </c>
-      <c r="C117" t="s">
-        <v>86</v>
-      </c>
-      <c r="D117" t="s">
-        <v>21</v>
-      </c>
-      <c r="E117" t="s">
-        <v>9</v>
-      </c>
-      <c r="G117" t="s">
-        <v>19</v>
-      </c>
-      <c r="H117" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>59</v>
-      </c>
-      <c r="B118">
-        <v>3.6239999999999997E-4</v>
-      </c>
-      <c r="C118" t="s">
-        <v>86</v>
-      </c>
-      <c r="D118" t="s">
-        <v>21</v>
-      </c>
-      <c r="E118" t="s">
-        <v>9</v>
-      </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
-      <c r="H118" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>63</v>
-      </c>
-      <c r="B119">
-        <v>2.54628E-9</v>
-      </c>
-      <c r="C119" t="s">
-        <v>86</v>
-      </c>
-      <c r="D119" t="s">
-        <v>21</v>
-      </c>
-      <c r="E119" t="s">
-        <v>8</v>
-      </c>
-      <c r="G119" t="s">
-        <v>19</v>
-      </c>
-      <c r="H119" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>65</v>
-      </c>
-      <c r="B120">
-        <v>2.796E-5</v>
-      </c>
-      <c r="C120" t="s">
-        <v>86</v>
-      </c>
-      <c r="D120" t="s">
-        <v>21</v>
-      </c>
-      <c r="E120" t="s">
-        <v>9</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>67</v>
-      </c>
-      <c r="B121">
-        <v>1.668E-5</v>
       </c>
       <c r="C121" t="s">
         <v>86</v>
       </c>
       <c r="D121" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
       </c>
       <c r="H121" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="B122">
-        <v>2.0292014459767036E-4</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C122" t="s">
         <v>86</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
@@ -3262,15 +3280,15 @@
         <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B123">
-        <v>3.1235999999999997E-4</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C123" t="s">
         <v>86</v>
@@ -3285,21 +3303,21 @@
         <v>19</v>
       </c>
       <c r="H123" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B124">
-        <v>4.8000000000000001E-5</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C124" t="s">
         <v>86</v>
       </c>
       <c r="D124" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E124" t="s">
         <v>9</v>
@@ -3308,15 +3326,15 @@
         <v>19</v>
       </c>
       <c r="H124" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B125">
-        <v>1.1591999999999998E-5</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C125" t="s">
         <v>86</v>
@@ -3325,27 +3343,27 @@
         <v>21</v>
       </c>
       <c r="E125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
       </c>
       <c r="H125" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B126">
-        <v>7.5390157563601576</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C126" t="s">
         <v>86</v>
       </c>
       <c r="D126" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
@@ -3354,15 +3372,15 @@
         <v>19</v>
       </c>
       <c r="H126" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B127">
-        <v>8.8290154606725723E-4</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C127" t="s">
         <v>86</v>
@@ -3377,15 +3395,15 @@
         <v>19</v>
       </c>
       <c r="H127" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B128">
-        <v>3.7140000000000003E-4</v>
+        <v>2.0292014459767036E-4</v>
       </c>
       <c r="C128" t="s">
         <v>86</v>
@@ -3400,39 +3418,38 @@
         <v>19</v>
       </c>
       <c r="H128" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>3.1235999999999997E-4</v>
       </c>
       <c r="C129" t="s">
         <v>86</v>
       </c>
       <c r="D129" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E129" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B130">
-        <f>(120*B103)/47.5</f>
-        <v>3.2973231986837144</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="C130" t="s">
         <v>86</v>
@@ -3447,388 +3464,388 @@
         <v>19</v>
       </c>
       <c r="H130" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>126</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>73</v>
+      </c>
+      <c r="B131">
+        <v>1.1591999999999998E-5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>86</v>
+      </c>
+      <c r="D131" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" t="s">
+        <v>19</v>
+      </c>
+      <c r="H131" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>75</v>
+      </c>
+      <c r="B132">
+        <v>7.5390157563601576</v>
+      </c>
+      <c r="C132" t="s">
+        <v>86</v>
+      </c>
+      <c r="D132" t="s">
+        <v>76</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B133">
-        <v>1.3052025620169032</v>
+        <v>8.8290154606725723E-4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>86</v>
+      </c>
+      <c r="D133" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" t="s">
-        <v>17</v>
+        <v>80</v>
+      </c>
+      <c r="B134">
+        <v>3.7140000000000003E-4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>86</v>
+      </c>
+      <c r="D134" t="s">
+        <v>21</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" t="s">
+        <v>19</v>
+      </c>
+      <c r="H134" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B135" t="s">
-        <v>130</v>
+        <v>82</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>86</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" t="s">
+        <v>19</v>
+      </c>
+      <c r="H135" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>119</v>
-      </c>
-      <c r="B137" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>10</v>
-      </c>
-      <c r="B138" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>11</v>
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <f>(120*B107)/47.5</f>
+        <v>3.2973231986837144</v>
+      </c>
+      <c r="C136" t="s">
+        <v>86</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139">
+        <v>1.3052025620169032</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
-      </c>
-      <c r="C140" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" t="s">
-        <v>2</v>
-      </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" t="s">
-        <v>24</v>
-      </c>
-      <c r="G140" t="s">
-        <v>6</v>
-      </c>
-      <c r="H140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" t="str">
-        <f>B132</f>
-        <v>hydrogen production, auto-thermal reforming, from biomethane, with CCS (MDEA, 98% eff.), 25 bar</v>
-      </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-      <c r="C141" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141" t="s">
-        <v>9</v>
-      </c>
-      <c r="G141" t="s">
-        <v>16</v>
-      </c>
-      <c r="H141" t="s">
+      <c r="B141" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>127</v>
-      </c>
-      <c r="B142">
-        <v>0.58838389214647391</v>
-      </c>
-      <c r="C142" t="s">
-        <v>26</v>
-      </c>
-      <c r="D142" t="s">
-        <v>27</v>
-      </c>
-      <c r="E142" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" t="s">
-        <v>28</v>
-      </c>
-      <c r="G142" t="s">
-        <v>29</v>
-      </c>
-      <c r="H142" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>39</v>
-      </c>
-      <c r="B143">
-        <v>2.9996721816189444E-3</v>
-      </c>
-      <c r="C143" t="s">
-        <v>26</v>
-      </c>
-      <c r="D143" t="s">
-        <v>27</v>
-      </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" t="s">
-        <v>28</v>
-      </c>
-      <c r="G143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H143" t="s">
-        <v>27</v>
+        <v>119</v>
+      </c>
+      <c r="B143" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>47</v>
-      </c>
-      <c r="B144">
-        <v>0.38041305426253447</v>
-      </c>
-      <c r="C144" t="s">
-        <v>26</v>
-      </c>
-      <c r="E144" t="s">
-        <v>48</v>
-      </c>
-      <c r="F144" t="s">
-        <v>49</v>
-      </c>
-      <c r="G144" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>131</v>
-      </c>
-      <c r="B145">
-        <v>8.318133856294887</v>
-      </c>
-      <c r="C145" t="s">
-        <v>86</v>
-      </c>
-      <c r="D145" t="s">
-        <v>3</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="G145" t="s">
-        <v>19</v>
-      </c>
-      <c r="H145" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B144" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>51</v>
-      </c>
-      <c r="B146">
-        <v>5.3487623280160849E-10</v>
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
       </c>
+      <c r="F146" t="s">
+        <v>24</v>
+      </c>
       <c r="G146" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H146" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>54</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" t="str">
+        <f>B138</f>
+        <v>hydrogen production, auto-thermal reforming, from biomethane, with CCS (MDEA, 98% eff.), 25 bar</v>
       </c>
       <c r="B147">
-        <v>5.3272799999999989E-4</v>
+        <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E147" t="s">
         <v>9</v>
       </c>
       <c r="G147" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H147" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="B148">
-        <v>3.6000000000000001E-5</v>
+        <v>0.58838389214647391</v>
       </c>
       <c r="C148" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D148" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E148" t="s">
         <v>9</v>
       </c>
+      <c r="F148" t="s">
+        <v>28</v>
+      </c>
       <c r="G148" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H148" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B149">
-        <v>3.6239999999999997E-4</v>
+        <v>2.9996721816189444E-3</v>
       </c>
       <c r="C149" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D149" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E149" t="s">
         <v>9</v>
       </c>
+      <c r="F149" t="s">
+        <v>28</v>
+      </c>
       <c r="G149" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H149" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B150">
-        <v>2.8370495812424056E-4</v>
+        <v>0.38041305426253447</v>
       </c>
       <c r="C150" t="s">
-        <v>86</v>
-      </c>
-      <c r="D150" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E150" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="F150" t="s">
+        <v>49</v>
       </c>
       <c r="G150" t="s">
-        <v>19</v>
-      </c>
-      <c r="H150" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>63</v>
-      </c>
-      <c r="B151">
-        <v>2.54628E-9</v>
+        <v>145</v>
+      </c>
+      <c r="B151" s="5">
+        <f>B150-B152</f>
+        <v>0.36943536526253445</v>
       </c>
       <c r="C151" t="s">
-        <v>86</v>
-      </c>
-      <c r="D151" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E151" t="s">
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="F151" t="s">
+        <v>146</v>
       </c>
       <c r="G151" t="s">
-        <v>19</v>
-      </c>
-      <c r="H151" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>65</v>
-      </c>
-      <c r="B152">
-        <v>2.796E-5</v>
+        <v>145</v>
+      </c>
+      <c r="B152" s="5">
+        <f>(2.9/1000)*3.78541</f>
+        <v>1.0977689000000001E-2</v>
       </c>
       <c r="C152" t="s">
-        <v>86</v>
-      </c>
-      <c r="D152" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E152" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="F152" t="s">
+        <v>28</v>
       </c>
       <c r="G152" t="s">
-        <v>19</v>
-      </c>
-      <c r="H152" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="I152" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="B153">
-        <v>1.668E-5</v>
+        <v>8.318133856294887</v>
       </c>
       <c r="C153" t="s">
         <v>86</v>
       </c>
       <c r="D153" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E153" t="s">
         <v>9</v>
@@ -3837,44 +3854,44 @@
         <v>19</v>
       </c>
       <c r="H153" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="B154">
-        <v>2.0292014459767036E-4</v>
+        <v>5.3487623280160849E-10</v>
       </c>
       <c r="C154" t="s">
         <v>86</v>
       </c>
       <c r="D154" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G154" t="s">
         <v>19</v>
       </c>
       <c r="H154" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B155">
-        <v>3.1235999999999997E-4</v>
+        <v>5.3272799999999989E-4</v>
       </c>
       <c r="C155" t="s">
         <v>86</v>
       </c>
       <c r="D155" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E155" t="s">
         <v>9</v>
@@ -3883,21 +3900,21 @@
         <v>19</v>
       </c>
       <c r="H155" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B156">
-        <v>4.8000000000000001E-5</v>
+        <v>3.6000000000000001E-5</v>
       </c>
       <c r="C156" t="s">
         <v>86</v>
       </c>
       <c r="D156" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E156" t="s">
         <v>9</v>
@@ -3906,15 +3923,15 @@
         <v>19</v>
       </c>
       <c r="H156" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B157">
-        <v>1.1591999999999998E-5</v>
+        <v>3.6239999999999997E-4</v>
       </c>
       <c r="C157" t="s">
         <v>86</v>
@@ -3929,21 +3946,21 @@
         <v>19</v>
       </c>
       <c r="H157" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B158">
-        <v>7.5385278801642412</v>
+        <v>2.8370495812424056E-4</v>
       </c>
       <c r="C158" t="s">
         <v>86</v>
       </c>
       <c r="D158" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E158" t="s">
         <v>9</v>
@@ -3952,15 +3969,15 @@
         <v>19</v>
       </c>
       <c r="H158" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B159">
-        <v>8.8290154606725723E-4</v>
+        <v>2.54628E-9</v>
       </c>
       <c r="C159" t="s">
         <v>86</v>
@@ -3969,21 +3986,21 @@
         <v>21</v>
       </c>
       <c r="E159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G159" t="s">
         <v>19</v>
       </c>
       <c r="H159" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B160">
-        <v>3.7140000000000003E-4</v>
+        <v>2.796E-5</v>
       </c>
       <c r="C160" t="s">
         <v>86</v>
@@ -3998,193 +4015,377 @@
         <v>19</v>
       </c>
       <c r="H160" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1.668E-5</v>
       </c>
       <c r="C161" t="s">
         <v>86</v>
       </c>
       <c r="D161" t="s">
+        <v>21</v>
+      </c>
+      <c r="E161" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" t="s">
+        <v>19</v>
+      </c>
+      <c r="H161" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>121</v>
+      </c>
+      <c r="B162">
+        <v>2.0292014459767036E-4</v>
+      </c>
+      <c r="C162" t="s">
+        <v>86</v>
+      </c>
+      <c r="D162" t="s">
+        <v>21</v>
+      </c>
+      <c r="E162" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" t="s">
+        <v>19</v>
+      </c>
+      <c r="H162" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>69</v>
+      </c>
+      <c r="B163">
+        <v>3.1235999999999997E-4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>86</v>
+      </c>
+      <c r="D163" t="s">
+        <v>21</v>
+      </c>
+      <c r="E163" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" t="s">
+        <v>19</v>
+      </c>
+      <c r="H163" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>71</v>
+      </c>
+      <c r="B164">
+        <v>4.8000000000000001E-5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>86</v>
+      </c>
+      <c r="D164" t="s">
         <v>3</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E164" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" t="s">
+        <v>19</v>
+      </c>
+      <c r="H164" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>73</v>
+      </c>
+      <c r="B165">
+        <v>1.1591999999999998E-5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>86</v>
+      </c>
+      <c r="D165" t="s">
+        <v>21</v>
+      </c>
+      <c r="E165" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" t="s">
+        <v>19</v>
+      </c>
+      <c r="H165" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>75</v>
+      </c>
+      <c r="B166">
+        <v>7.5385278801642412</v>
+      </c>
+      <c r="C166" t="s">
+        <v>86</v>
+      </c>
+      <c r="D166" t="s">
+        <v>76</v>
+      </c>
+      <c r="E166" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" t="s">
+        <v>19</v>
+      </c>
+      <c r="H166" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>78</v>
+      </c>
+      <c r="B167">
+        <v>8.8290154606725723E-4</v>
+      </c>
+      <c r="C167" t="s">
+        <v>86</v>
+      </c>
+      <c r="D167" t="s">
+        <v>21</v>
+      </c>
+      <c r="E167" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" t="s">
+        <v>19</v>
+      </c>
+      <c r="H167" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>80</v>
+      </c>
+      <c r="B168">
+        <v>3.7140000000000003E-4</v>
+      </c>
+      <c r="C168" t="s">
+        <v>86</v>
+      </c>
+      <c r="D168" t="s">
+        <v>21</v>
+      </c>
+      <c r="E168" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" t="s">
+        <v>19</v>
+      </c>
+      <c r="H168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>82</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>86</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" t="s">
         <v>20</v>
       </c>
-      <c r="G161" t="s">
-        <v>19</v>
-      </c>
-      <c r="H161" t="s">
+      <c r="G169" t="s">
+        <v>19</v>
+      </c>
+      <c r="H169" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>134</v>
       </c>
-      <c r="B162">
-        <f>(120*B133)/47.5</f>
+      <c r="B170">
+        <f>(120*B139)/47.5</f>
         <v>3.2973538408848082</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C170" t="s">
         <v>50</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D170" t="s">
         <v>3</v>
       </c>
-      <c r="E162" t="s">
-        <v>9</v>
-      </c>
-      <c r="G162" t="s">
-        <v>19</v>
-      </c>
-      <c r="H162" t="s">
+      <c r="E170" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" t="s">
+        <v>19</v>
+      </c>
+      <c r="H170" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
+    <row r="172" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>2</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B173" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>4</v>
       </c>
-      <c r="B166">
+      <c r="B174">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+    <row r="175" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>5</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B175" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>6</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B176" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>8</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B177" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
+    <row r="178" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>12</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B179" t="s">
         <v>13</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C179" t="s">
         <v>2</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D179" t="s">
         <v>8</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E179" t="s">
         <v>24</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F179" t="s">
         <v>6</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G179" t="s">
         <v>88</v>
       </c>
-      <c r="H171" t="s">
+      <c r="H179" t="s">
         <v>89</v>
       </c>
-      <c r="I171" t="s">
+      <c r="I179" t="s">
         <v>138</v>
       </c>
-      <c r="J171" t="s">
+      <c r="J179" t="s">
         <v>144</v>
       </c>
-      <c r="K171" t="s">
+      <c r="K179" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
+    <row r="180" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B172">
+      <c r="B180">
         <v>1</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C180" t="s">
         <v>3</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D180" t="s">
         <v>20</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E180" t="s">
         <v>116</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F180" t="s">
         <v>16</v>
       </c>
-      <c r="J172" t="s">
-        <v>27</v>
-      </c>
-      <c r="K172" s="3" t="s">
+      <c r="J180" t="s">
+        <v>27</v>
+      </c>
+      <c r="K180" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>90</v>
       </c>
-      <c r="B173">
+      <c r="B181">
         <v>4.6073299999999991E-12</v>
       </c>
-      <c r="D173" t="s">
-        <v>9</v>
-      </c>
-      <c r="E173" t="s">
+      <c r="D181" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" t="s">
         <v>91</v>
       </c>
-      <c r="F173" t="s">
-        <v>29</v>
-      </c>
-      <c r="G173">
+      <c r="F181" t="s">
+        <v>29</v>
+      </c>
+      <c r="G181">
         <v>2</v>
       </c>
-      <c r="H173">
+      <c r="H181">
         <v>-27.862953173275841</v>
       </c>
-      <c r="I173">
+      <c r="I181">
         <f>LN(SQRT(EXP(
 SQRT(
 +POWER(LN(1.05),2)
@@ -4198,34 +4399,34 @@
 )))</f>
         <v>0.25816898211842121</v>
       </c>
-      <c r="K173" t="s">
+      <c r="K181" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>25</v>
       </c>
-      <c r="B174">
+      <c r="B182">
         <v>4.6479999999999997E-9</v>
       </c>
-      <c r="D174" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" t="s">
+      <c r="D182" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" t="s">
         <v>91</v>
       </c>
-      <c r="F174" t="s">
-        <v>29</v>
-      </c>
-      <c r="G174">
+      <c r="F182" t="s">
+        <v>29</v>
+      </c>
+      <c r="G182">
         <v>2</v>
       </c>
-      <c r="H174">
+      <c r="H182">
         <v>-20.946409388260619</v>
       </c>
-      <c r="I174">
-        <f t="shared" ref="I174:I204" si="0">LN(SQRT(EXP(
+      <c r="I182">
+        <f t="shared" ref="I182:I212" si="0">LN(SQRT(EXP(
 SQRT(
 +POWER(LN(1.05),2)
 +POWER(LN(1.2),2)
@@ -4238,257 +4439,16 @@
 )))</f>
         <v>0.25816898211842121</v>
       </c>
-      <c r="K174" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>30</v>
-      </c>
-      <c r="B175">
-        <v>7.0301000000000005E-7</v>
-      </c>
-      <c r="D175" t="s">
-        <v>9</v>
-      </c>
-      <c r="E175" t="s">
-        <v>91</v>
-      </c>
-      <c r="F175" t="s">
-        <v>29</v>
-      </c>
-      <c r="G175">
-        <v>2</v>
-      </c>
-      <c r="H175">
-        <v>-15.927475291349671</v>
-      </c>
-      <c r="I175">
-        <f t="shared" si="0"/>
-        <v>0.25816898211842121</v>
-      </c>
-      <c r="K175" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>31</v>
-      </c>
-      <c r="B176">
-        <v>5.3800599999999993E-9</v>
-      </c>
-      <c r="D176" t="s">
-        <v>9</v>
-      </c>
-      <c r="E176" t="s">
-        <v>91</v>
-      </c>
-      <c r="F176" t="s">
-        <v>29</v>
-      </c>
-      <c r="G176">
-        <v>2</v>
-      </c>
-      <c r="H176">
-        <v>-20.80014688128237</v>
-      </c>
-      <c r="I176">
-        <f t="shared" si="0"/>
-        <v>0.25816898211842121</v>
-      </c>
-      <c r="K176" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>32</v>
-      </c>
-      <c r="B177">
-        <v>3.0734899999999997E-12</v>
-      </c>
-      <c r="D177" t="s">
-        <v>9</v>
-      </c>
-      <c r="E177" t="s">
-        <v>91</v>
-      </c>
-      <c r="F177" t="s">
-        <v>29</v>
-      </c>
-      <c r="G177">
-        <v>2</v>
-      </c>
-      <c r="H177">
-        <v>-28.267787963052381</v>
-      </c>
-      <c r="I177">
-        <f t="shared" si="0"/>
-        <v>0.25816898211842121</v>
-      </c>
-      <c r="K177" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>33</v>
-      </c>
-      <c r="B178">
-        <v>5.3800599999999993E-6</v>
-      </c>
-      <c r="D178" t="s">
-        <v>9</v>
-      </c>
-      <c r="E178" t="s">
-        <v>91</v>
-      </c>
-      <c r="F178" t="s">
-        <v>29</v>
-      </c>
-      <c r="G178">
-        <v>2</v>
-      </c>
-      <c r="H178">
-        <v>-13.892391602300229</v>
-      </c>
-      <c r="I178">
-        <f t="shared" si="0"/>
-        <v>0.25816898211842121</v>
-      </c>
-      <c r="K178" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>127</v>
-      </c>
-      <c r="B179">
-        <f>0.058*(B203*47.5)*0.1</f>
-        <v>3.6448650000000006E-2</v>
-      </c>
-      <c r="D179" t="s">
-        <v>9</v>
-      </c>
-      <c r="E179" t="s">
-        <v>28</v>
-      </c>
-      <c r="F179" t="s">
-        <v>29</v>
-      </c>
-      <c r="G179">
-        <v>2</v>
-      </c>
-      <c r="H179">
-        <v>-5.1849886812410331</v>
-      </c>
-      <c r="I179">
-        <f t="shared" si="0"/>
-        <v>0.25816898211842121</v>
-      </c>
-      <c r="K179" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>95</v>
-      </c>
-      <c r="B180">
-        <v>1.2782000000000001E-5</v>
-      </c>
-      <c r="D180" t="s">
-        <v>9</v>
-      </c>
-      <c r="E180" t="s">
-        <v>91</v>
-      </c>
-      <c r="F180" t="s">
-        <v>29</v>
-      </c>
-      <c r="G180">
-        <v>2</v>
-      </c>
-      <c r="H180">
-        <v>-13.027053197600001</v>
-      </c>
-      <c r="I180">
-        <f t="shared" si="0"/>
-        <v>0.25816898211842121</v>
-      </c>
-      <c r="K180" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>35</v>
-      </c>
-      <c r="B181">
-        <v>5.8099999999999994E-6</v>
-      </c>
-      <c r="D181" t="s">
-        <v>9</v>
-      </c>
-      <c r="E181" t="s">
-        <v>91</v>
-      </c>
-      <c r="F181" t="s">
-        <v>29</v>
-      </c>
-      <c r="G181">
-        <v>2</v>
-      </c>
-      <c r="H181">
-        <v>-13.81551055796427</v>
-      </c>
-      <c r="I181">
-        <f t="shared" si="0"/>
-        <v>0.25816898211842121</v>
-      </c>
-      <c r="K181" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>98</v>
-      </c>
-      <c r="B182">
-        <v>1.6849E-16</v>
-      </c>
-      <c r="D182" t="s">
-        <v>9</v>
-      </c>
-      <c r="E182" t="s">
-        <v>91</v>
-      </c>
-      <c r="F182" t="s">
-        <v>29</v>
-      </c>
-      <c r="G182">
-        <v>2</v>
-      </c>
-      <c r="H182">
-        <v>-38.079235843906353</v>
-      </c>
-      <c r="I182">
-        <f t="shared" si="0"/>
-        <v>0.25816898211842121</v>
-      </c>
       <c r="K182" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="B183">
-        <v>7.9596999999999994E-6</v>
+        <v>7.0301000000000005E-7</v>
       </c>
       <c r="D183" t="s">
         <v>9</v>
@@ -4503,22 +4463,22 @@
         <v>2</v>
       </c>
       <c r="H183">
-        <v>-13.500699818124239</v>
+        <v>-15.927475291349671</v>
       </c>
       <c r="I183">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
       <c r="K183" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B184">
-        <v>1.9231099999999998E-7</v>
+        <v>5.3800599999999993E-9</v>
       </c>
       <c r="D184" t="s">
         <v>9</v>
@@ -4533,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="H184">
-        <v>-17.223732554563391</v>
+        <v>-20.80014688128237</v>
       </c>
       <c r="I184">
         <f t="shared" si="0"/>
@@ -4545,13 +4505,13 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="B185">
-        <v>3.0502500000000001</v>
+        <v>3.0734899999999997E-12</v>
       </c>
       <c r="D185" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E185" t="s">
         <v>91</v>
@@ -4563,22 +4523,22 @@
         <v>2</v>
       </c>
       <c r="H185">
-        <v>-0.64435701639051324</v>
+        <v>-28.267787963052381</v>
       </c>
       <c r="I185">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
       <c r="K185" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="B186">
-        <v>4.6073299999999995E-6</v>
+        <v>5.3800599999999993E-6</v>
       </c>
       <c r="D186" t="s">
         <v>9</v>
@@ -4593,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="H186">
-        <v>-14.04744261531156</v>
+        <v>-13.892391602300229</v>
       </c>
       <c r="I186">
         <f t="shared" si="0"/>
@@ -4605,16 +4565,17 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="B187">
-        <v>1.7429999999999998E-10</v>
+        <f>0.058*(B211*47.5)*0.1</f>
+        <v>3.6448650000000006E-2</v>
       </c>
       <c r="D187" t="s">
         <v>9</v>
       </c>
       <c r="E187" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="F187" t="s">
         <v>29</v>
@@ -4623,22 +4584,22 @@
         <v>2</v>
       </c>
       <c r="H187">
-        <v>-24.22982373426639</v>
+        <v>-5.1849886812410331</v>
       </c>
       <c r="I187">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
       <c r="K187" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B188">
-        <v>5.8099999999999994E-6</v>
+        <v>1.2782000000000001E-5</v>
       </c>
       <c r="D188" t="s">
         <v>9</v>
@@ -4653,22 +4614,22 @@
         <v>2</v>
       </c>
       <c r="H188">
-        <v>-13.81551055796427</v>
+        <v>-13.027053197600001</v>
       </c>
       <c r="I188">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
       <c r="K188" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B189">
-        <v>5.7925699999999993E-5</v>
+        <v>5.8099999999999994E-6</v>
       </c>
       <c r="D189" t="s">
         <v>9</v>
@@ -4683,22 +4644,22 @@
         <v>2</v>
       </c>
       <c r="H189">
-        <v>-11.515929973990531</v>
+        <v>-13.81551055796427</v>
       </c>
       <c r="I189">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
       <c r="K189" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B190">
-        <v>4.6479999999999997E-8</v>
+        <v>1.6849E-16</v>
       </c>
       <c r="D190" t="s">
         <v>9</v>
@@ -4713,7 +4674,7 @@
         <v>2</v>
       </c>
       <c r="H190">
-        <v>-18.64382429526658</v>
+        <v>-38.079235843906353</v>
       </c>
       <c r="I190">
         <f t="shared" si="0"/>
@@ -4725,10 +4686,10 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B191">
-        <v>2.9049999999999997E-6</v>
+        <v>7.9596999999999994E-6</v>
       </c>
       <c r="D191" t="s">
         <v>9</v>
@@ -4743,22 +4704,22 @@
         <v>2</v>
       </c>
       <c r="H191">
-        <v>-14.508657738524221</v>
+        <v>-13.500699818124239</v>
       </c>
       <c r="I191">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
       <c r="K191" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B192">
-        <v>6.6814999999999995E-6</v>
+        <v>1.9231099999999998E-7</v>
       </c>
       <c r="D192" t="s">
         <v>9</v>
@@ -4773,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="H192">
-        <v>-13.67574861558912</v>
+        <v>-17.223732554563391</v>
       </c>
       <c r="I192">
         <f t="shared" si="0"/>
@@ -4785,13 +4746,13 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B193">
-        <v>4.0960499999999995E-6</v>
+        <v>3.0502500000000001</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E193" t="s">
         <v>91</v>
@@ -4803,22 +4764,22 @@
         <v>2</v>
       </c>
       <c r="H193">
-        <v>-14.165068034134141</v>
+        <v>-0.64435701639051324</v>
       </c>
       <c r="I193">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
       <c r="K193" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="B194">
-        <v>9.2959999999999993E-8</v>
+        <v>4.6073299999999995E-6</v>
       </c>
       <c r="D194" t="s">
         <v>9</v>
@@ -4833,22 +4794,22 @@
         <v>2</v>
       </c>
       <c r="H194">
-        <v>-17.950677114706629</v>
+        <v>-14.04744261531156</v>
       </c>
       <c r="I194">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
       <c r="K194" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B195">
-        <v>2.9049999999999997E-6</v>
+        <v>1.7429999999999998E-10</v>
       </c>
       <c r="D195" t="s">
         <v>9</v>
@@ -4863,22 +4824,22 @@
         <v>2</v>
       </c>
       <c r="H195">
-        <v>-14.508657738524221</v>
+        <v>-24.22982373426639</v>
       </c>
       <c r="I195">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
       <c r="K195" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B196">
-        <v>8.714999999999999E-9</v>
+        <v>5.8099999999999994E-6</v>
       </c>
       <c r="D196" t="s">
         <v>9</v>
@@ -4893,103 +4854,343 @@
         <v>2</v>
       </c>
       <c r="H196">
-        <v>-20.31780072883825</v>
+        <v>-13.81551055796427</v>
       </c>
       <c r="I196">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
       <c r="K196" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="B197">
-        <f>0.054*(B203*47.5)*0.9</f>
-        <v>0.30541455000000001</v>
-      </c>
-      <c r="C197" t="s">
-        <v>3</v>
+        <v>5.7925699999999993E-5</v>
       </c>
       <c r="D197" t="s">
         <v>9</v>
       </c>
+      <c r="E197" t="s">
+        <v>91</v>
+      </c>
       <c r="F197" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H197">
-        <v>5.04E-2</v>
+        <v>-11.515929973990531</v>
       </c>
       <c r="I197">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
       <c r="K197" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="B198">
-        <v>4.4736999999999999E-4</v>
-      </c>
-      <c r="C198" t="s">
-        <v>21</v>
+        <v>4.6479999999999997E-8</v>
       </c>
       <c r="D198" t="s">
         <v>9</v>
       </c>
+      <c r="E198" t="s">
+        <v>91</v>
+      </c>
       <c r="F198" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H198">
-        <v>7.7000000000000001E-5</v>
+        <v>-18.64382429526658</v>
       </c>
       <c r="I198">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
-      <c r="J198" t="s">
-        <v>143</v>
-      </c>
       <c r="K198" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="B199">
-        <v>1.27239E-11</v>
-      </c>
-      <c r="C199" t="s">
-        <v>21</v>
+        <v>2.9049999999999997E-6</v>
       </c>
       <c r="D199" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E199" t="s">
+        <v>91</v>
       </c>
       <c r="F199" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G199">
         <v>2</v>
       </c>
       <c r="H199">
+        <v>-14.508657738524221</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="K199" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>42</v>
+      </c>
+      <c r="B200">
+        <v>6.6814999999999995E-6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" t="s">
+        <v>91</v>
+      </c>
+      <c r="F200" t="s">
+        <v>29</v>
+      </c>
+      <c r="G200">
+        <v>2</v>
+      </c>
+      <c r="H200">
+        <v>-13.67574861558912</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="K200" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>43</v>
+      </c>
+      <c r="B201">
+        <v>4.0960499999999995E-6</v>
+      </c>
+      <c r="D201" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201" t="s">
+        <v>91</v>
+      </c>
+      <c r="F201" t="s">
+        <v>29</v>
+      </c>
+      <c r="G201">
+        <v>2</v>
+      </c>
+      <c r="H201">
+        <v>-14.165068034134141</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="K201" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>44</v>
+      </c>
+      <c r="B202">
+        <v>9.2959999999999993E-8</v>
+      </c>
+      <c r="D202" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>91</v>
+      </c>
+      <c r="F202" t="s">
+        <v>29</v>
+      </c>
+      <c r="G202">
+        <v>2</v>
+      </c>
+      <c r="H202">
+        <v>-17.950677114706629</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="K202" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>45</v>
+      </c>
+      <c r="B203">
+        <v>2.9049999999999997E-6</v>
+      </c>
+      <c r="D203" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" t="s">
+        <v>91</v>
+      </c>
+      <c r="F203" t="s">
+        <v>29</v>
+      </c>
+      <c r="G203">
+        <v>2</v>
+      </c>
+      <c r="H203">
+        <v>-14.508657738524221</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="K203" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>46</v>
+      </c>
+      <c r="B204">
+        <v>8.714999999999999E-9</v>
+      </c>
+      <c r="D204" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" t="s">
+        <v>91</v>
+      </c>
+      <c r="F204" t="s">
+        <v>29</v>
+      </c>
+      <c r="G204">
+        <v>2</v>
+      </c>
+      <c r="H204">
+        <v>-20.31780072883825</v>
+      </c>
+      <c r="I204">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="K204" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>132</v>
+      </c>
+      <c r="B205">
+        <f>0.054*(B211*47.5)*0.9</f>
+        <v>0.30541455000000001</v>
+      </c>
+      <c r="C205" t="s">
+        <v>3</v>
+      </c>
+      <c r="D205" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" t="s">
+        <v>19</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>5.04E-2</v>
+      </c>
+      <c r="I205">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="K205" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>113</v>
+      </c>
+      <c r="B206">
+        <v>4.4736999999999999E-4</v>
+      </c>
+      <c r="C206" t="s">
+        <v>21</v>
+      </c>
+      <c r="D206" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" t="s">
+        <v>19</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J206" t="s">
+        <v>143</v>
+      </c>
+      <c r="K206" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>105</v>
+      </c>
+      <c r="B207">
+        <v>1.27239E-11</v>
+      </c>
+      <c r="C207" t="s">
+        <v>21</v>
+      </c>
+      <c r="D207" t="s">
+        <v>8</v>
+      </c>
+      <c r="F207" t="s">
+        <v>19</v>
+      </c>
+      <c r="G207">
+        <v>2</v>
+      </c>
+      <c r="H207">
         <v>-26.847119572100141</v>
       </c>
-      <c r="I199">
+      <c r="I207">
         <f>LN(SQRT(EXP(
 SQRT(
 +POWER(LN(1.05),2)
@@ -5003,181 +5204,181 @@
 )))</f>
         <v>0.57209088006881903</v>
       </c>
-      <c r="J199" t="s">
+      <c r="J207" t="s">
         <v>139</v>
       </c>
-      <c r="K199" t="s">
+      <c r="K207" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>107</v>
       </c>
-      <c r="B200">
+      <c r="B208">
         <v>1.4525000000000001E-5</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C208" t="s">
         <v>3</v>
       </c>
-      <c r="D200" t="s">
-        <v>9</v>
-      </c>
-      <c r="F200" t="s">
-        <v>19</v>
-      </c>
-      <c r="G200">
+      <c r="D208" t="s">
+        <v>9</v>
+      </c>
+      <c r="F208" t="s">
+        <v>19</v>
+      </c>
+      <c r="G208">
         <v>2</v>
       </c>
-      <c r="H200">
+      <c r="H208">
         <v>-12.899219826090119</v>
       </c>
-      <c r="I200">
+      <c r="I208">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
-      <c r="J200" t="s">
+      <c r="J208" t="s">
         <v>140</v>
       </c>
-      <c r="K200" t="s">
+      <c r="K208" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>109</v>
       </c>
-      <c r="B201">
+      <c r="B209">
         <v>1.1619999999999999E-5</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C209" t="s">
         <v>21</v>
       </c>
-      <c r="D201" t="s">
-        <v>9</v>
-      </c>
-      <c r="F201" t="s">
-        <v>19</v>
-      </c>
-      <c r="G201">
+      <c r="D209" t="s">
+        <v>9</v>
+      </c>
+      <c r="F209" t="s">
+        <v>19</v>
+      </c>
+      <c r="G209">
         <v>2</v>
       </c>
-      <c r="H201">
+      <c r="H209">
         <v>-13.12236337740433</v>
       </c>
-      <c r="I201">
+      <c r="I209">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
-      <c r="J201" t="s">
+      <c r="J209" t="s">
         <v>141</v>
       </c>
-      <c r="K201" t="s">
+      <c r="K209" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>117</v>
       </c>
-      <c r="B202">
+      <c r="B210">
         <v>2.9049999999999998</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C210" t="s">
         <v>17</v>
       </c>
-      <c r="D202" t="s">
-        <v>9</v>
-      </c>
-      <c r="F202" t="s">
-        <v>19</v>
-      </c>
-      <c r="G202">
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+      <c r="F210" t="s">
+        <v>19</v>
+      </c>
+      <c r="G210">
         <v>2</v>
       </c>
-      <c r="H202">
+      <c r="H210">
         <v>-0.69314718055994529</v>
       </c>
-      <c r="I202">
+      <c r="I210">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
-      <c r="J202" t="s">
+      <c r="J210" t="s">
         <v>118</v>
       </c>
-      <c r="K202" t="s">
+      <c r="K210" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
         <v>134</v>
       </c>
-      <c r="B203">
+      <c r="B211">
         <f>0.18*0.735</f>
         <v>0.1323</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C211" t="s">
         <v>3</v>
       </c>
-      <c r="D203" t="s">
-        <v>9</v>
-      </c>
-      <c r="F203" t="s">
-        <v>19</v>
-      </c>
-      <c r="G203">
+      <c r="D211" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" t="s">
+        <v>19</v>
+      </c>
+      <c r="G211">
         <v>2</v>
       </c>
-      <c r="H203">
+      <c r="H211">
         <v>2.564102564102564E-2</v>
       </c>
-      <c r="I203">
+      <c r="I211">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
-      <c r="J203" t="s">
+      <c r="J211" t="s">
         <v>135</v>
       </c>
-      <c r="K203" t="s">
+      <c r="K211" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>110</v>
       </c>
-      <c r="B204">
+      <c r="B212">
         <v>-5.8099999999999994E-6</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C212" t="s">
         <v>17</v>
       </c>
-      <c r="D204" t="s">
-        <v>9</v>
-      </c>
-      <c r="F204" t="s">
-        <v>19</v>
-      </c>
-      <c r="G204">
+      <c r="D212" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" t="s">
+        <v>19</v>
+      </c>
+      <c r="G212">
         <v>2</v>
       </c>
-      <c r="H204">
+      <c r="H212">
         <v>-13.81551055796427</v>
       </c>
-      <c r="I204">
+      <c r="I212">
         <f t="shared" si="0"/>
         <v>0.25816898211842121</v>
       </c>
-      <c r="J204" t="s">
+      <c r="J212" t="s">
         <v>142</v>
       </c>
-      <c r="K204" t="s">
+      <c r="K212" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M204" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M212" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B75DC56-2F77-0C42-951F-5ECC1BC8B74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D045E1C3-2773-CC48-9905-362407400A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33120" yWindow="-320" windowWidth="27040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="147">
   <si>
     <t>Database</t>
   </si>
@@ -406,30 +406,12 @@
     <t>nickel, class 1</t>
   </si>
   <si>
-    <t>hydrogen production, steam methane reforming, from biomethane, high and low temperature, with CCS (MDEA, 98% eff.), 26 bar</t>
-  </si>
-  <si>
-    <t>hydrogen production, steam methane reforming, from biomethane, high and low temperature, 26 bar</t>
-  </si>
-  <si>
-    <t>hydrogen production, auto-thermal reforming, from biomethane, 25 bar</t>
-  </si>
-  <si>
-    <t>hydrogen production, auto-thermal reforming, from biomethane, with CCS (MDEA, 98% eff.), 25 bar</t>
-  </si>
-  <si>
     <t>Carbon dioxide, non-fossil</t>
   </si>
   <si>
     <t>Biomethane: 0.722 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 45.4 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
   </si>
   <si>
-    <t>hydrogen, gaseous, 26 bar</t>
-  </si>
-  <si>
-    <t>hydrogen, gaseous, 25 bar</t>
-  </si>
-  <si>
     <t>carbon dioxide, captured at hydrogen production plant, pre, pipeline 200km, storage 1000m</t>
   </si>
   <si>
@@ -469,9 +451,6 @@
     <t>NOx retained, by selective catalytic reduction</t>
   </si>
   <si>
-    <t>reference prduct</t>
-  </si>
-  <si>
     <t>Water</t>
   </si>
   <si>
@@ -482,6 +461,21 @@
   </si>
   <si>
     <t>Assumed 2.9 gallons (11 liters) of evaporated water per kg H2, according to https://www.hydrogen.energy.gov/docs/hydrogenprogramlibraries/pdfs/review16/sa039_elgowainy_2016_o.pdf?Status=Master</t>
+  </si>
+  <si>
+    <t>hydrogen production, steam methane reforming, from biomethane</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, low pressure</t>
+  </si>
+  <si>
+    <t>hydrogen production, steam methane reforming, from biomethane, with CCS</t>
+  </si>
+  <si>
+    <t>hydrogen production, auto-thermal reforming, from biomethane</t>
+  </si>
+  <si>
+    <t>hydrogen production, auto-thermal reforming, from biomethane, with CCS</t>
   </si>
 </sst>
 </file>
@@ -834,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -859,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -875,7 +869,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -891,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -915,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -953,8 +947,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>123</v>
+      <c r="A13" s="3" t="str">
+        <f>B3</f>
+        <v>hydrogen production, steam methane reforming, from biomethane, with CCS</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -963,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -972,7 +967,7 @@
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1107,7 +1102,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B19">
         <v>2.5884448839268264</v>
@@ -1497,7 +1492,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B34" s="5">
         <f>B33-B35</f>
@@ -1510,7 +1505,7 @@
         <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
         <v>29</v>
@@ -1518,7 +1513,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B35" s="5">
         <f>(2.9/1000)*3.78541</f>
@@ -1537,12 +1532,12 @@
         <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B36">
         <v>6.1496909953258223</v>
@@ -1560,12 +1555,12 @@
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B37">
         <f>(B4/47.5)*120</f>
@@ -1584,7 +1579,7 @@
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1960,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -1976,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -1984,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2016,7 +2011,7 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2051,8 +2046,9 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>124</v>
+      <c r="A66" s="3" t="str">
+        <f>B56</f>
+        <v>hydrogen production, steam methane reforming, from biomethane</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -2060,8 +2056,9 @@
       <c r="C66" t="s">
         <v>15</v>
       </c>
-      <c r="D66" t="s">
-        <v>17</v>
+      <c r="D66" t="str">
+        <f>B58</f>
+        <v>RER</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
@@ -2069,8 +2066,9 @@
       <c r="G66" t="s">
         <v>16</v>
       </c>
-      <c r="H66" t="s">
-        <v>129</v>
+      <c r="H66" t="str">
+        <f>B59</f>
+        <v>hydrogen, gaseous, low pressure</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -2205,7 +2203,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B72">
         <f>2.65*B89</f>
@@ -2596,7 +2594,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B87" s="5">
         <f>B86-B88</f>
@@ -2609,7 +2607,7 @@
         <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G87" t="s">
         <v>29</v>
@@ -2617,7 +2615,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B88" s="5">
         <f>(2.4/1000)*3.78541</f>
@@ -2636,12 +2634,12 @@
         <v>29</v>
       </c>
       <c r="I88" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <f>(120*B57)/47.5</f>
@@ -2660,7 +2658,7 @@
         <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -3013,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -3029,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -3037,7 +3035,7 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -3061,7 +3059,7 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -3098,7 +3096,7 @@
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f>B106</f>
-        <v>hydrogen production, auto-thermal reforming, from biomethane, 25 bar</v>
+        <v>hydrogen production, auto-thermal reforming, from biomethane</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -3106,8 +3104,9 @@
       <c r="C115" t="s">
         <v>15</v>
       </c>
-      <c r="D115" t="s">
-        <v>17</v>
+      <c r="D115" t="str">
+        <f>B108</f>
+        <v>RER</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
@@ -3115,13 +3114,14 @@
       <c r="G115" t="s">
         <v>16</v>
       </c>
-      <c r="H115" t="s">
-        <v>130</v>
+      <c r="H115" t="str">
+        <f>B109</f>
+        <v>hydrogen, gaseous, low pressure</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B116">
         <f>B136*2.65</f>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B119" s="5">
         <f>B118-B120</f>
@@ -3207,7 +3207,7 @@
         <v>48</v>
       </c>
       <c r="F119" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G119" t="s">
         <v>29</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B120" s="5">
         <f>(2.4/1000)*3.78541</f>
@@ -3234,7 +3234,7 @@
         <v>29</v>
       </c>
       <c r="I120" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -3584,7 +3584,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B136">
         <f>(120*B107)/47.5</f>
@@ -3603,7 +3603,7 @@
         <v>19</v>
       </c>
       <c r="H136" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -3627,7 +3627,7 @@
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -3635,7 +3635,7 @@
         <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -3659,7 +3659,7 @@
         <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -3696,7 +3696,7 @@
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <f>B138</f>
-        <v>hydrogen production, auto-thermal reforming, from biomethane, with CCS (MDEA, 98% eff.), 25 bar</v>
+        <v>hydrogen production, auto-thermal reforming, from biomethane, with CCS</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -3704,8 +3704,9 @@
       <c r="C147" t="s">
         <v>15</v>
       </c>
-      <c r="D147" t="s">
-        <v>17</v>
+      <c r="D147" t="str">
+        <f>B140</f>
+        <v>RER</v>
       </c>
       <c r="E147" t="s">
         <v>9</v>
@@ -3713,13 +3714,14 @@
       <c r="G147" t="s">
         <v>16</v>
       </c>
-      <c r="H147" t="s">
-        <v>130</v>
+      <c r="H147" t="str">
+        <f>B141</f>
+        <v>hydrogen, gaseous, low pressure</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B148">
         <v>0.58838389214647391</v>
@@ -3791,7 +3793,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B151" s="5">
         <f>B150-B152</f>
@@ -3804,7 +3806,7 @@
         <v>48</v>
       </c>
       <c r="F151" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G151" t="s">
         <v>29</v>
@@ -3812,7 +3814,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B152" s="5">
         <f>(2.9/1000)*3.78541</f>
@@ -3831,12 +3833,12 @@
         <v>29</v>
       </c>
       <c r="I152" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B153">
         <v>8.318133856294887</v>
@@ -3854,7 +3856,7 @@
         <v>19</v>
       </c>
       <c r="H153" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -4227,7 +4229,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B170">
         <f>(120*B139)/47.5</f>
@@ -4246,7 +4248,7 @@
         <v>19</v>
       </c>
       <c r="H170" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4254,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -4328,10 +4330,10 @@
         <v>89</v>
       </c>
       <c r="I179" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J179" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="K179" t="s">
         <v>10</v>
@@ -4339,7 +4341,7 @@
     </row>
     <row r="180" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -4360,7 +4362,7 @@
         <v>27</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
@@ -4565,7 +4567,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B187">
         <f>0.058*(B211*47.5)*0.1</f>
@@ -5106,7 +5108,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B205">
         <f>0.054*(B211*47.5)*0.9</f>
@@ -5162,7 +5164,7 @@
         <v>0.25816898211842121</v>
       </c>
       <c r="J206" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K206" t="s">
         <v>114</v>
@@ -5205,7 +5207,7 @@
         <v>0.57209088006881903</v>
       </c>
       <c r="J207" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K207" t="s">
         <v>106</v>
@@ -5238,7 +5240,7 @@
         <v>0.25816898211842121</v>
       </c>
       <c r="J208" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K208" t="s">
         <v>108</v>
@@ -5271,7 +5273,7 @@
         <v>0.25816898211842121</v>
       </c>
       <c r="J209" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K209" t="s">
         <v>108</v>
@@ -5312,7 +5314,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B211">
         <f>0.18*0.735</f>
@@ -5338,7 +5340,7 @@
         <v>0.25816898211842121</v>
       </c>
       <c r="J211" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K211" t="s">
         <v>115</v>
@@ -5371,7 +5373,7 @@
         <v>0.25816898211842121</v>
       </c>
       <c r="J212" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K212" t="s">
         <v>93</v>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D045E1C3-2773-CC48-9905-362407400A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BA3336-1697-D54A-A6BF-77DC32C57925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="148">
   <si>
     <t>Database</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>hydrogen production, auto-thermal reforming, from biomethane, with CCS</t>
+  </si>
+  <si>
+    <t>negative</t>
   </si>
 </sst>
 </file>
@@ -826,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K212"/>
+  <dimension ref="A1:L212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="L213" sqref="L213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4291,7 +4294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -4299,47 +4302,50 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H179" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I179" t="s">
+      <c r="I179" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J179" t="s">
+      <c r="J179" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K179" t="s">
+      <c r="K179" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L179" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>127</v>
       </c>
@@ -4365,7 +4371,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>90</v>
       </c>
@@ -4405,7 +4411,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>25</v>
       </c>
@@ -4445,7 +4451,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>30</v>
       </c>
@@ -4475,7 +4481,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -4505,7 +4511,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>32</v>
       </c>
@@ -4535,7 +4541,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>33</v>
       </c>
@@ -4565,7 +4571,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>123</v>
       </c>
@@ -4596,7 +4602,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>95</v>
       </c>
@@ -4626,7 +4632,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>35</v>
       </c>
@@ -4656,7 +4662,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>98</v>
       </c>
@@ -4686,7 +4692,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>99</v>
       </c>
@@ -4716,7 +4722,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>36</v>
       </c>
@@ -5246,7 +5252,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>109</v>
       </c>
@@ -5279,7 +5285,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>117</v>
       </c>
@@ -5312,7 +5318,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>128</v>
       </c>
@@ -5346,7 +5352,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>110</v>
       </c>
@@ -5377,6 +5383,9 @@
       </c>
       <c r="K212" t="s">
         <v>93</v>
+      </c>
+      <c r="L212" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BA3336-1697-D54A-A6BF-77DC32C57925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C661C9C6-69C8-6A4B-9D76-C929B5BF9132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="7100" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="149">
   <si>
     <t>Database</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>negative</t>
+  </si>
+  <si>
+    <t>Original ecoinvent value.</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -549,6 +552,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="L213" sqref="L213"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1589,8 +1593,8 @@
       <c r="A38" t="s">
         <v>51</v>
       </c>
-      <c r="B38">
-        <v>5.3483393537845907E-10</v>
+      <c r="B38" s="6">
+        <v>2.6180197338995299E-11</v>
       </c>
       <c r="C38" t="s">
         <v>52</v>
@@ -1606,6 +1610,9 @@
       </c>
       <c r="H38" t="s">
         <v>53</v>
+      </c>
+      <c r="I38" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -2668,8 +2675,8 @@
       <c r="A90" t="s">
         <v>51</v>
       </c>
-      <c r="B90">
-        <v>5.3483199147628007E-10</v>
+      <c r="B90" s="6">
+        <v>2.6180197338995299E-11</v>
       </c>
       <c r="C90" t="s">
         <v>52</v>
@@ -2685,6 +2692,9 @@
       </c>
       <c r="H90" t="s">
         <v>53</v>
+      </c>
+      <c r="I90" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -3244,8 +3254,8 @@
       <c r="A121" t="s">
         <v>51</v>
       </c>
-      <c r="B121">
-        <v>5.3487471618165237E-10</v>
+      <c r="B121" s="6">
+        <v>2.6180197338995299E-11</v>
       </c>
       <c r="C121" t="s">
         <v>86</v>
@@ -3261,6 +3271,9 @@
       </c>
       <c r="H121" t="s">
         <v>53</v>
+      </c>
+      <c r="I121" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -3866,8 +3879,8 @@
       <c r="A154" t="s">
         <v>51</v>
       </c>
-      <c r="B154">
-        <v>5.3487623280160849E-10</v>
+      <c r="B154" s="6">
+        <v>2.6180197338995299E-11</v>
       </c>
       <c r="C154" t="s">
         <v>86</v>
@@ -3883,6 +3896,9 @@
       </c>
       <c r="H154" t="s">
         <v>53</v>
+      </c>
+      <c r="I154" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33AE566-7D16-47B5-8A92-62049B2149D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCC2375-D3A7-5E49-811A-602A5B87056F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$J$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$P$208</definedName>
     <definedName name="m3_per_gallon">[1]Inputs!$E$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="151">
   <si>
     <t>Database</t>
   </si>
@@ -433,6 +433,69 @@
   <si>
     <t>Source: Hydrogen production from natural gas and biomethane with carbon capture and storage – A techno-environmental analysis. 2020. Antonini et al. https://doi.org/10.1039/D0SE00222D. This inventory represents the case "ATR BM, HT+LT+MDEA, 98 average" from that publication with the following changes: (a) Compression of H2 from 26 bar to 200 bar is omitted, which changes the power balance for excess power to grid from -17.39 MWe to -6.2 MWe (see Figure 2 in the publication). External power requirement is calculated to be 0.69kWh/kgH2.  (b) The water balance is changed to account for actual water consumption in the process or evaporated water only. 
 Biomethane: 0.722 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 45.4 MJ/kg. LHV by volume at standard condition: 36.1 MJ/Nm3.</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>US EPA 1998, high uncertainty reported qulitatively therein</t>
+  </si>
+  <si>
+    <t>rough estimate, high uncertainty</t>
+  </si>
+  <si>
+    <t>90% capture rate</t>
+  </si>
+  <si>
+    <t>measurement, single CC power plant</t>
+  </si>
+  <si>
+    <t>estimate from range of values from different references</t>
+  </si>
+  <si>
+    <t>heating value and efficiency</t>
+  </si>
+  <si>
+    <t>basic uncertainty for heavy metal; trace element in natural gas</t>
+  </si>
+  <si>
+    <t>range of values from different references</t>
+  </si>
+  <si>
+    <t>P. Jansohn (50 ppm in the flue gas; SCR -85% minus 1-3ppm due to capture)</t>
+  </si>
+  <si>
+    <t>composition of natural gas</t>
+  </si>
+  <si>
+    <t>NOx retained, by selective catalytic reduction</t>
+  </si>
+  <si>
+    <t>P. Jansohn (50 ppm in the flue gas; SCR -85)</t>
+  </si>
+  <si>
+    <t>gas power plant, combined cycle, 400MW electrical</t>
+  </si>
+  <si>
+    <t>n_plant = 1/(lifetime*annual fuel input)</t>
+  </si>
+  <si>
+    <t>hydrochloric acid, without water, in 30% solution state</t>
+  </si>
+  <si>
+    <t>basic uncertainty:1.05;(4,na,3,1,1,na)</t>
+  </si>
+  <si>
+    <t>sodium hydroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>water, decarbonised</t>
+  </si>
+  <si>
+    <t>biogas from biowaste</t>
+  </si>
+  <si>
+    <t>residue from cooling tower</t>
   </si>
 </sst>
 </file>
@@ -440,12 +503,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0E+00"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -495,20 +565,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,19 +926,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P208"/>
+  <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="E185" sqref="E185"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +948,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -885,7 +956,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -893,7 +964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -901,7 +972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -909,7 +980,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -917,7 +988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -925,49 +996,49 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>120</v>
       </c>
@@ -989,14 +1060,8 @@
       <c r="H12" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1021,14 +1086,8 @@
       <c r="H13" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1053,14 +1112,8 @@
       <c r="H14" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1085,14 +1138,8 @@
       <c r="H15" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1117,14 +1164,8 @@
       <c r="H16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1149,14 +1190,8 @@
       <c r="H17" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -1181,14 +1216,8 @@
       <c r="H18" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1213,14 +1242,8 @@
       <c r="H19" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1245,14 +1268,8 @@
       <c r="H20" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1277,14 +1294,8 @@
       <c r="H21" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1309,14 +1320,8 @@
       <c r="H22" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1341,14 +1346,8 @@
       <c r="H23" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1373,14 +1372,8 @@
       <c r="H24" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1405,14 +1398,8 @@
       <c r="H25" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1437,14 +1424,8 @@
       <c r="H26" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1469,14 +1450,8 @@
       <c r="H27" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1501,14 +1476,8 @@
       <c r="H28" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1534,7 +1503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1560,7 +1529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1586,7 +1555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1612,7 +1581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -1632,7 +1601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -1655,7 +1624,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -1678,7 +1647,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -1701,7 +1670,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1727,7 +1696,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -1750,7 +1719,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1773,7 +1742,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -1796,7 +1765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1819,7 +1788,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -1842,7 +1811,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -1865,7 +1834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1888,7 +1857,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -1911,7 +1880,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -1934,7 +1903,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -1957,7 +1926,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -1980,7 +1949,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -2003,7 +1972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -2026,7 +1995,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -2049,11 +2018,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="8">
         <v>8.9637775580545271E-3</v>
       </c>
       <c r="C52" t="s">
@@ -2072,7 +2041,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
@@ -2080,7 +2049,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -2088,7 +2057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2096,7 +2065,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2073,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2112,7 +2081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -2120,46 +2089,46 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>118</v>
       </c>
@@ -2182,11 +2151,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="7">
         <v>3.1712942535739586E-8</v>
       </c>
       <c r="C65" t="s">
@@ -2208,11 +2177,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="7">
         <v>4.7569413803609367E-6</v>
       </c>
       <c r="C66" t="s">
@@ -2234,11 +2203,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="7">
         <v>1.268547829628838E-5</v>
       </c>
       <c r="C67" t="s">
@@ -2260,11 +2229,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="7">
         <v>3.1712942535739584E-10</v>
       </c>
       <c r="C68" t="s">
@@ -2286,11 +2255,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="7">
         <v>2.2199662339002805E-5</v>
       </c>
       <c r="C69" t="s">
@@ -2312,11 +2281,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>107</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="7">
         <v>8.9153165218958783</v>
       </c>
       <c r="C70" t="s">
@@ -2338,11 +2307,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="7">
         <v>6.6598384453023306E-5</v>
       </c>
       <c r="C71" t="s">
@@ -2364,11 +2333,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="7">
         <v>3.1712942535739587E-6</v>
       </c>
       <c r="C72" t="s">
@@ -2390,11 +2359,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="7">
         <v>3.1712942535739587E-6</v>
       </c>
       <c r="C73" t="s">
@@ -2416,11 +2385,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>36</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="7">
         <v>9.5141840427144231E-10</v>
       </c>
       <c r="C74" t="s">
@@ -2442,11 +2411,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>37</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="7">
         <v>6.3428897891404663E-5</v>
       </c>
       <c r="C75" t="s">
@@ -2468,11 +2437,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="7">
         <v>5.6767553036139577E-4</v>
       </c>
       <c r="C76" t="s">
@@ -2494,11 +2463,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="7">
         <v>3.1712942535739582E-7</v>
       </c>
       <c r="C77" t="s">
@@ -2520,11 +2489,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="7">
         <v>6.3428897891404652E-6</v>
       </c>
       <c r="C78" t="s">
@@ -2546,11 +2515,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="7">
         <v>3.805794129882789E-5</v>
       </c>
       <c r="C79" t="s">
@@ -2572,11 +2541,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>42</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="7">
         <v>6.3428897891404652E-6</v>
       </c>
       <c r="C80" t="s">
@@ -2598,11 +2567,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="7">
         <v>6.3428897891404654E-7</v>
       </c>
       <c r="C81" t="s">
@@ -2624,11 +2593,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>44</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="7">
         <v>1.7442720958641867E-5</v>
       </c>
       <c r="C82" t="s">
@@ -2650,11 +2619,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>45</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="7">
         <v>6.3428897891404652E-6</v>
       </c>
       <c r="C83" t="s">
@@ -2676,11 +2645,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>46</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="7">
         <v>0.38037452713377901</v>
       </c>
       <c r="C84" t="s">
@@ -2702,11 +2671,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>114</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="7">
         <v>0.37128651379599975</v>
       </c>
       <c r="C85" t="s">
@@ -2722,11 +2691,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>114</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="7">
         <v>9.0880133377792584E-3</v>
       </c>
       <c r="C86" t="s">
@@ -2745,11 +2714,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>111</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="7">
         <v>4.8020529894434176</v>
       </c>
       <c r="C87" t="s">
@@ -2768,11 +2737,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>50</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="7">
         <v>5.3483199147628007E-10</v>
       </c>
       <c r="C88" t="s">
@@ -2794,11 +2763,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>53</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="7">
         <v>5.3272799999999989E-4</v>
       </c>
       <c r="C89" t="s">
@@ -2817,11 +2786,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>56</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="7">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="C90" t="s">
@@ -2840,11 +2809,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>58</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="7">
         <v>3.6239999999999997E-4</v>
       </c>
       <c r="C91" t="s">
@@ -2863,11 +2832,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>62</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="7">
         <v>2.54628E-9</v>
       </c>
       <c r="C92" t="s">
@@ -2886,11 +2855,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>64</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="7">
         <v>2.796E-5</v>
       </c>
       <c r="C93" t="s">
@@ -2909,11 +2878,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>66</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94" s="7">
         <v>1.668E-5</v>
       </c>
       <c r="C94" t="s">
@@ -2932,11 +2901,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="7">
         <v>2.0292014459767036E-4</v>
       </c>
       <c r="C95" t="s">
@@ -2955,11 +2924,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>68</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" s="7">
         <v>3.1235999999999997E-4</v>
       </c>
       <c r="C96" t="s">
@@ -2978,11 +2947,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>70</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="7">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="C97" t="s">
@@ -3001,11 +2970,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>72</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" s="7">
         <v>1.1591999999999998E-5</v>
       </c>
       <c r="C98" t="s">
@@ -3024,11 +2993,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>74</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99" s="7">
         <v>4.430822860844585</v>
       </c>
       <c r="C99" t="s">
@@ -3047,11 +3016,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>77</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="7">
         <v>8.8290154606725723E-4</v>
       </c>
       <c r="C100" t="s">
@@ -3070,11 +3039,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>79</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="7">
         <v>3.7140000000000003E-4</v>
       </c>
       <c r="C101" t="s">
@@ -3093,7 +3062,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -3119,7 +3088,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>1</v>
       </c>
@@ -3127,7 +3096,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -3135,7 +3104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -3143,7 +3112,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3151,7 +3120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -3159,46 +3128,46 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>10</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -3221,7 +3190,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>107</v>
       </c>
@@ -3247,7 +3216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>38</v>
       </c>
@@ -3273,7 +3242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>46</v>
       </c>
@@ -3293,7 +3262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3313,7 +3282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -3336,7 +3305,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>50</v>
       </c>
@@ -3362,7 +3331,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>53</v>
       </c>
@@ -3385,7 +3354,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>56</v>
       </c>
@@ -3408,7 +3377,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>58</v>
       </c>
@@ -3431,7 +3400,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>62</v>
       </c>
@@ -3454,7 +3423,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>64</v>
       </c>
@@ -3477,7 +3446,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>66</v>
       </c>
@@ -3500,7 +3469,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>105</v>
       </c>
@@ -3523,7 +3492,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>68</v>
       </c>
@@ -3546,7 +3515,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>70</v>
       </c>
@@ -3569,7 +3538,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>72</v>
       </c>
@@ -3592,7 +3561,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>74</v>
       </c>
@@ -3615,7 +3584,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -3638,7 +3607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -3661,7 +3630,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>81</v>
       </c>
@@ -3687,7 +3656,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>111</v>
       </c>
@@ -3710,7 +3679,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
@@ -3718,7 +3687,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -3726,7 +3695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -3734,7 +3703,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -3742,7 +3711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>103</v>
       </c>
@@ -3750,46 +3719,46 @@
         <v>104</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>10</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>122</v>
       </c>
@@ -3812,7 +3781,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>107</v>
       </c>
@@ -3838,7 +3807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>38</v>
       </c>
@@ -3864,7 +3833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -3884,7 +3853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>114</v>
       </c>
@@ -3904,7 +3873,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>114</v>
       </c>
@@ -3927,7 +3896,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>108</v>
       </c>
@@ -3950,7 +3919,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>50</v>
       </c>
@@ -3976,7 +3945,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>53</v>
       </c>
@@ -3999,7 +3968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>56</v>
       </c>
@@ -4022,7 +3991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>58</v>
       </c>
@@ -4045,7 +4014,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>60</v>
       </c>
@@ -4068,7 +4037,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>62</v>
       </c>
@@ -4091,7 +4060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>64</v>
       </c>
@@ -4114,7 +4083,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>66</v>
       </c>
@@ -4137,7 +4106,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>105</v>
       </c>
@@ -4160,7 +4129,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>68</v>
       </c>
@@ -4183,7 +4152,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>70</v>
       </c>
@@ -4206,7 +4175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>72</v>
       </c>
@@ -4229,7 +4198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>74</v>
       </c>
@@ -4252,7 +4221,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>77</v>
       </c>
@@ -4275,7 +4244,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>79</v>
       </c>
@@ -4298,7 +4267,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>81</v>
       </c>
@@ -4321,7 +4290,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>111</v>
       </c>
@@ -4344,7 +4313,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>1</v>
       </c>
@@ -4352,7 +4321,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -4360,7 +4329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -4368,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -4376,7 +4345,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -4384,7 +4353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -4392,12 +4361,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>12</v>
       </c>
@@ -4425,9 +4394,17 @@
       <c r="I175" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J175" s="1"/>
-    </row>
-    <row r="176" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>110</v>
       </c>
@@ -4446,8 +4423,14 @@
       <c r="F176" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" t="s">
+        <v>26</v>
+      </c>
+      <c r="K176" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -4472,8 +4455,11 @@
       <c r="I177">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K177" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>24</v>
       </c>
@@ -4498,8 +4484,11 @@
       <c r="I178">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K178" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>29</v>
       </c>
@@ -4524,8 +4513,11 @@
       <c r="I179">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K179" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>30</v>
       </c>
@@ -4550,8 +4542,11 @@
       <c r="I180">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K180" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -4576,8 +4571,11 @@
       <c r="I181">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K181" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>32</v>
       </c>
@@ -4602,8 +4600,11 @@
       <c r="I182">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K182" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>107</v>
       </c>
@@ -4628,8 +4629,11 @@
       <c r="I183">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K183" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>91</v>
       </c>
@@ -4654,8 +4658,11 @@
       <c r="I184">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K184" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>34</v>
       </c>
@@ -4680,8 +4687,11 @@
       <c r="I185">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K185" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>92</v>
       </c>
@@ -4706,8 +4716,11 @@
       <c r="I186">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K186" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>93</v>
       </c>
@@ -4732,8 +4745,11 @@
       <c r="I187">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K187" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>35</v>
       </c>
@@ -4758,8 +4774,11 @@
       <c r="I188">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K188" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>94</v>
       </c>
@@ -4784,8 +4803,11 @@
       <c r="I189">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K189" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>95</v>
       </c>
@@ -4810,8 +4832,11 @@
       <c r="I190">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K190" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>36</v>
       </c>
@@ -4836,8 +4861,11 @@
       <c r="I191">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K191" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>84</v>
       </c>
@@ -4862,8 +4890,11 @@
       <c r="I192">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K192" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>38</v>
       </c>
@@ -4888,8 +4919,11 @@
       <c r="I193">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K193" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>39</v>
       </c>
@@ -4914,8 +4948,11 @@
       <c r="I194">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K194" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>40</v>
       </c>
@@ -4940,8 +4977,11 @@
       <c r="I195">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K195" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>41</v>
       </c>
@@ -4966,8 +5006,11 @@
       <c r="I196">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K196" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>42</v>
       </c>
@@ -4992,8 +5035,11 @@
       <c r="I197">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K197" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>43</v>
       </c>
@@ -5018,8 +5064,11 @@
       <c r="I198">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K198" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>44</v>
       </c>
@@ -5044,8 +5093,11 @@
       <c r="I199">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K199" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>45</v>
       </c>
@@ -5070,8 +5122,11 @@
       <c r="I200">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K200" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>109</v>
       </c>
@@ -5096,8 +5151,11 @@
       <c r="I201">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K201" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>100</v>
       </c>
@@ -5122,8 +5180,14 @@
       <c r="I202">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" t="s">
+        <v>141</v>
+      </c>
+      <c r="K202" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>96</v>
       </c>
@@ -5148,8 +5212,14 @@
       <c r="I203">
         <v>0.57209088006881903</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" t="s">
+        <v>143</v>
+      </c>
+      <c r="K203" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>97</v>
       </c>
@@ -5174,8 +5244,14 @@
       <c r="I204">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" t="s">
+        <v>145</v>
+      </c>
+      <c r="K204" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>98</v>
       </c>
@@ -5200,8 +5276,14 @@
       <c r="I205">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" t="s">
+        <v>147</v>
+      </c>
+      <c r="K205" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>102</v>
       </c>
@@ -5226,8 +5308,14 @@
       <c r="I206">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" t="s">
+        <v>148</v>
+      </c>
+      <c r="K206" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>111</v>
       </c>
@@ -5252,8 +5340,14 @@
       <c r="I207">
         <v>0.25816898211842121</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" t="s">
+        <v>112</v>
+      </c>
+      <c r="K207" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>99</v>
       </c>
@@ -5278,8 +5372,18 @@
       <c r="I208">
         <v>0.25816898211842121</v>
       </c>
+      <c r="J208" t="s">
+        <v>150</v>
+      </c>
+      <c r="K208" t="s">
+        <v>132</v>
+      </c>
+      <c r="L208" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P208" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCC2375-D3A7-5E49-811A-602A5B87056F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1A4FF0-C89B-AC46-8DB2-6B7FDE784D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35240" yWindow="0" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -926,10 +926,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="E185" sqref="E185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -948,7 +949,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -956,7 +958,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -964,7 +966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -972,7 +974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -980,7 +982,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -988,7 +990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -996,7 +998,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1004,12 +1006,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1038,7 +1040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>120</v>
       </c>
@@ -1061,7 +1063,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1087,7 +1089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1113,7 +1115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1139,7 +1141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1165,7 +1167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1191,7 +1193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -1217,7 +1219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1243,7 +1245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1269,7 +1271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1295,7 +1297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1321,7 +1323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1347,7 +1349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1373,7 +1375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1399,7 +1401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1425,7 +1427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1477,7 +1479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1503,7 +1505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1529,7 +1531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1555,7 +1557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1581,7 +1583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -1601,7 +1603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -1624,7 +1626,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -1647,7 +1649,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -1696,7 +1698,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -1719,7 +1721,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1742,7 +1744,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -1765,7 +1767,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1788,7 +1790,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -1811,7 +1813,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -1834,7 +1836,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -1880,7 +1882,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -1903,7 +1905,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -1926,7 +1928,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -1949,7 +1951,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -1972,7 +1974,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -1995,7 +1997,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -2018,7 +2020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -2041,7 +2043,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
@@ -2049,7 +2053,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -2057,7 +2061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2069,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2073,7 +2077,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2081,7 +2085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -2089,7 +2093,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2097,12 +2101,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>12</v>
       </c>
@@ -2128,7 +2132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>118</v>
       </c>
@@ -2151,7 +2155,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -2177,7 +2181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -2229,7 +2233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -2255,7 +2259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>32</v>
       </c>
@@ -2281,7 +2285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -2307,7 +2311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -2333,7 +2337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -2359,7 +2363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -2385,7 +2389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>37</v>
       </c>
@@ -2437,7 +2441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -2463,7 +2467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>39</v>
       </c>
@@ -2489,7 +2493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -2515,7 +2519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -2541,7 +2545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -2567,7 +2571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>43</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>44</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>45</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -2671,7 +2675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>114</v>
       </c>
@@ -2691,7 +2695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>114</v>
       </c>
@@ -2714,7 +2718,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>111</v>
       </c>
@@ -2763,7 +2767,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>53</v>
       </c>
@@ -2786,7 +2790,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>56</v>
       </c>
@@ -2809,7 +2813,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>58</v>
       </c>
@@ -2832,7 +2836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>62</v>
       </c>
@@ -2855,7 +2859,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>64</v>
       </c>
@@ -2878,7 +2882,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>66</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>68</v>
       </c>
@@ -2947,7 +2951,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>70</v>
       </c>
@@ -2970,7 +2974,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>72</v>
       </c>
@@ -2993,7 +2997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -3016,7 +3020,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>77</v>
       </c>
@@ -3039,7 +3043,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>79</v>
       </c>
@@ -3062,7 +3066,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -3088,7 +3092,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>1</v>
       </c>
@@ -3096,7 +3101,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -3104,7 +3109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -3112,7 +3117,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3120,7 +3125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -3128,7 +3133,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -3136,12 +3141,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
@@ -3167,7 +3172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -3190,7 +3195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>107</v>
       </c>
@@ -3216,7 +3221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>38</v>
       </c>
@@ -3242,7 +3247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>46</v>
       </c>
@@ -3262,7 +3267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3282,7 +3287,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -3310,7 +3315,7 @@
         <v>50</v>
       </c>
       <c r="B118">
-        <v>5.3272799999999989E-4</v>
+        <v>5.3484010255962853E-10</v>
       </c>
       <c r="C118" t="s">
         <v>85</v>
@@ -3331,7 +3336,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>53</v>
       </c>
@@ -3354,7 +3359,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>56</v>
       </c>
@@ -3377,7 +3382,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>58</v>
       </c>
@@ -3400,7 +3405,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>62</v>
       </c>
@@ -3423,7 +3428,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>64</v>
       </c>
@@ -3446,7 +3451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>66</v>
       </c>
@@ -3469,7 +3474,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>105</v>
       </c>
@@ -3492,7 +3497,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>68</v>
       </c>
@@ -3515,7 +3520,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>70</v>
       </c>
@@ -3538,7 +3543,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>72</v>
       </c>
@@ -3561,7 +3566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>74</v>
       </c>
@@ -3584,7 +3589,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -3607,7 +3612,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>79</v>
       </c>
@@ -3630,7 +3635,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>81</v>
       </c>
@@ -3656,7 +3661,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>111</v>
       </c>
@@ -3679,7 +3684,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -3695,7 +3701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -3711,7 +3717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>103</v>
       </c>
@@ -3719,7 +3725,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -3727,12 +3733,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>12</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>122</v>
       </c>
@@ -3781,7 +3787,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>107</v>
       </c>
@@ -3807,7 +3813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>38</v>
       </c>
@@ -3833,7 +3839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -3853,7 +3859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>114</v>
       </c>
@@ -3873,7 +3879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>114</v>
       </c>
@@ -3896,7 +3902,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>108</v>
       </c>
@@ -3945,7 +3951,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>53</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>56</v>
       </c>
@@ -3991,7 +3997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>58</v>
       </c>
@@ -4014,7 +4020,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>60</v>
       </c>
@@ -4037,7 +4043,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>62</v>
       </c>
@@ -4060,7 +4066,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>64</v>
       </c>
@@ -4083,7 +4089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>66</v>
       </c>
@@ -4106,7 +4112,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>105</v>
       </c>
@@ -4129,7 +4135,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>68</v>
       </c>
@@ -4152,7 +4158,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>70</v>
       </c>
@@ -4175,7 +4181,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>72</v>
       </c>
@@ -4198,7 +4204,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>74</v>
       </c>
@@ -4221,7 +4227,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>77</v>
       </c>
@@ -4244,7 +4250,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>79</v>
       </c>
@@ -4267,7 +4273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>81</v>
       </c>
@@ -4290,7 +4296,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>111</v>
       </c>
@@ -4313,7 +4319,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="168" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>1</v>
       </c>
@@ -4321,7 +4328,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -4329,7 +4336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -4337,7 +4344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -4345,7 +4352,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -4353,7 +4360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -4361,12 +4368,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>12</v>
       </c>
@@ -4404,7 +4411,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>110</v>
       </c>
@@ -4430,7 +4437,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -4459,7 +4466,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>24</v>
       </c>
@@ -4488,7 +4495,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>29</v>
       </c>
@@ -4517,7 +4524,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>30</v>
       </c>
@@ -4546,7 +4553,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -4575,7 +4582,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>32</v>
       </c>
@@ -4604,7 +4611,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>107</v>
       </c>
@@ -4633,7 +4640,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>91</v>
       </c>
@@ -4662,7 +4669,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>34</v>
       </c>
@@ -4691,7 +4698,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>92</v>
       </c>
@@ -4720,7 +4727,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>93</v>
       </c>
@@ -4749,7 +4756,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>35</v>
       </c>
@@ -4778,7 +4785,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>94</v>
       </c>
@@ -4807,7 +4814,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>95</v>
       </c>
@@ -4836,7 +4843,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>36</v>
       </c>
@@ -4865,7 +4872,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>84</v>
       </c>
@@ -4894,7 +4901,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>38</v>
       </c>
@@ -4923,7 +4930,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>39</v>
       </c>
@@ -4952,7 +4959,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>40</v>
       </c>
@@ -4981,7 +4988,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>41</v>
       </c>
@@ -5010,7 +5017,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>42</v>
       </c>
@@ -5039,7 +5046,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>43</v>
       </c>
@@ -5068,7 +5075,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>44</v>
       </c>
@@ -5097,7 +5104,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>45</v>
       </c>
@@ -5126,7 +5133,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>109</v>
       </c>
@@ -5155,7 +5162,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>100</v>
       </c>
@@ -5187,7 +5194,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>96</v>
       </c>
@@ -5219,7 +5226,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>97</v>
       </c>
@@ -5251,7 +5258,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>98</v>
       </c>
@@ -5283,7 +5290,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>102</v>
       </c>
@@ -5315,7 +5322,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>111</v>
       </c>
@@ -5347,7 +5354,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>99</v>
       </c>
@@ -5383,7 +5390,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P208" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P208" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="chemical factory construction, organics"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
